--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8525FA-1155-42B4-BEC1-C9CC241FB22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53581C2C-EFC3-45D9-9695-2F75B937AE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -173,6 +173,48 @@
   <si>
     <t>Übertrag aus 2023</t>
   </si>
+  <si>
+    <t>WGV Versicherung</t>
+  </si>
+  <si>
+    <t>Wasser</t>
+  </si>
+  <si>
+    <t>Strom</t>
+  </si>
+  <si>
+    <t>GEZ</t>
+  </si>
+  <si>
+    <t>tzgl 16.1.</t>
+  </si>
+  <si>
+    <t>Telekom Router Fehlbuchung</t>
+  </si>
+  <si>
+    <t>Zinsen Sparbuch</t>
+  </si>
+  <si>
+    <t>Spende Ritter</t>
+  </si>
+  <si>
+    <t>Ausgaben Wolfgang</t>
+  </si>
+  <si>
+    <t>Helferessen</t>
+  </si>
+  <si>
+    <t>Auflösung Sparbuch</t>
+  </si>
+  <si>
+    <t>Vermietung Fam.Deuschle</t>
+  </si>
+  <si>
+    <t>tzgl 30.1.</t>
+  </si>
+  <si>
+    <t>Spende Weihnachtsbaum</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +225,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$€-2];&quot;-&quot;#,##0.00&quot; &quot;[$€-2]"/>
     <numFmt numFmtId="166" formatCode="#,##0.00&quot; €&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -199,6 +241,11 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -708,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -823,6 +870,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4977,8 +5027,8 @@
   <dimension ref="A1:IK175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4998,17 +5048,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3" t="s">
         <v>0</v>
@@ -5075,16 +5125,24 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="15">
+        <v>45308</v>
+      </c>
       <c r="B4" s="52">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
+      <c r="F4" s="21">
+        <v>86.5</v>
+      </c>
       <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="H4" s="84"/>
       <c r="I4" s="19"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
@@ -5092,31 +5150,47 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="15">
+        <v>45314</v>
+      </c>
       <c r="B5" s="52">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="19"/>
+      <c r="C5" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" s="20"/>
       <c r="F5" s="21"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="19">
+        <v>0.01</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="15">
+        <v>45314</v>
+      </c>
       <c r="B6" s="52">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="19"/>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="21">
+        <v>720</v>
+      </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -5126,16 +5200,24 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="15">
+        <v>45315</v>
+      </c>
       <c r="B7" s="52">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="19"/>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="H7" s="18">
+        <v>949.25</v>
+      </c>
       <c r="I7" s="19"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
@@ -5143,14 +5225,22 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="15">
+        <v>45321</v>
+      </c>
       <c r="B8" s="52">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="21">
+        <v>100</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
@@ -5160,14 +5250,22 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="15">
+        <v>45322</v>
+      </c>
       <c r="B9" s="52">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="21">
+        <v>80</v>
+      </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="19"/>
@@ -5177,14 +5275,22 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="15">
+        <v>45324</v>
+      </c>
       <c r="B10" s="52">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="21">
+        <v>300</v>
+      </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
@@ -5198,7 +5304,6 @@
       <c r="B11" s="52">
         <v>8</v>
       </c>
-      <c r="C11" s="3"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
@@ -6704,7 +6809,7 @@
       </c>
       <c r="F110" s="28">
         <f>SUM(F3:F109)</f>
-        <v>5128.5200000000041</v>
+        <v>6415.0200000000041</v>
       </c>
       <c r="G110" s="28">
         <f>SUM(G3:G109)</f>
@@ -6712,11 +6817,11 @@
       </c>
       <c r="H110" s="28">
         <f>SUM(H3:H109)</f>
-        <v>274.78000000000003</v>
+        <v>1224.03</v>
       </c>
       <c r="I110" s="29">
         <f>SUM(I3:I109)</f>
-        <v>949.25</v>
+        <v>949.26</v>
       </c>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
@@ -6747,7 +6852,7 @@
       </c>
       <c r="F112" s="28">
         <f>F110+Ausgaben!G175</f>
-        <v>5128.5200000000041</v>
+        <v>5224.0700000000043</v>
       </c>
       <c r="G112" s="28">
         <f>G110+Ausgaben!H175</f>
@@ -6755,11 +6860,11 @@
       </c>
       <c r="H112" s="28">
         <f>H110+Ausgaben!I175</f>
-        <v>274.78000000000003</v>
+        <v>1056.5999999999999</v>
       </c>
       <c r="I112" s="29">
         <f>I110+Ausgaben!J175</f>
-        <v>949.25</v>
+        <v>9.9999999999909051E-3</v>
       </c>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
@@ -6785,7 +6890,7 @@
       <c r="C114" s="24"/>
       <c r="D114" s="29">
         <f>SUM(E112:I112)</f>
-        <v>8353.0500000000029</v>
+        <v>8281.1800000000039</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="18"/>
@@ -7585,128 +7690,128 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A93:A96 D4:D15 G4:G12 H4:I26">
-    <cfRule type="cellIs" dxfId="63" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A92:C92">
-    <cfRule type="cellIs" dxfId="62" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="61" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D99">
-    <cfRule type="cellIs" dxfId="60" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="59" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="58" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D86">
-    <cfRule type="cellIs" dxfId="57" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="56" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="55" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:G97">
-    <cfRule type="cellIs" dxfId="54" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:G109">
-    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="52" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="51" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="50" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="49" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F31">
-    <cfRule type="cellIs" dxfId="48" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="47" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="238" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="46" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="45" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G86">
-    <cfRule type="cellIs" dxfId="44" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G15 G17:G23 G25 H28:I109 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G98 E99:G99 D109:I109 E110:I174 D114">
-    <cfRule type="cellIs" dxfId="43" priority="302" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="302" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="42" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="41" priority="223" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="223" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="40" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="39" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G12 H4:I26 A93:A96 D4:D15">
+    <cfRule type="cellIs" dxfId="39" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7751,7 +7856,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:J170"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7773,17 +7878,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41"/>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
       <c r="K1" s="4"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
@@ -7827,14 +7932,24 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="15">
+        <v>45293</v>
+      </c>
+      <c r="C3" s="52">
+        <v>1</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="I3" s="21">
+        <v>-167.43</v>
+      </c>
       <c r="J3" s="22"/>
       <c r="K3" s="4"/>
       <c r="L3" s="2"/>
@@ -7844,12 +7959,22 @@
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="23"/>
+      <c r="B4" s="15">
+        <v>45293</v>
+      </c>
+      <c r="C4" s="52">
+        <v>2</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="G4" s="20">
+        <v>-12</v>
+      </c>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="22"/>
@@ -7861,12 +7986,22 @@
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="23"/>
+      <c r="B5" s="15">
+        <v>45293</v>
+      </c>
+      <c r="C5" s="52">
+        <v>3</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="G5" s="21">
+        <v>-25.61</v>
+      </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="22"/>
@@ -7878,12 +8013,22 @@
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="23"/>
+      <c r="B6" s="15">
+        <v>45294</v>
+      </c>
+      <c r="C6" s="52">
+        <v>4</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="G6" s="21">
+        <v>-134</v>
+      </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="22"/>
@@ -7895,12 +8040,22 @@
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="23"/>
+      <c r="B7" s="15">
+        <v>45294</v>
+      </c>
+      <c r="C7" s="52">
+        <v>5</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="21">
+        <v>-28</v>
+      </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
@@ -7912,12 +8067,22 @@
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="23"/>
+      <c r="B8" s="15">
+        <v>45306</v>
+      </c>
+      <c r="C8" s="52">
+        <v>6</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="21">
+        <v>-18.36</v>
+      </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="22"/>
@@ -7929,12 +8094,22 @@
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="15">
+        <v>45313</v>
+      </c>
+      <c r="C9" s="52">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="21">
+        <v>-5.95</v>
+      </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="22"/>
@@ -7946,12 +8121,22 @@
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="15">
+        <v>45315</v>
+      </c>
+      <c r="C10" s="52">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>15</v>
+      </c>
       <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="G10" s="21">
+        <v>-48.03</v>
+      </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="22"/>
@@ -7963,15 +8148,25 @@
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="15">
+        <v>45315</v>
+      </c>
+      <c r="C11" s="52">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
+      <c r="J11" s="22">
+        <v>-949.25</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="s">
@@ -7980,12 +8175,22 @@
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="23"/>
+      <c r="B12" s="15">
+        <v>45320</v>
+      </c>
+      <c r="C12" s="52">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21">
+        <v>-745</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="22"/>
@@ -7997,12 +8202,22 @@
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="23"/>
+      <c r="B13" s="15">
+        <v>45323</v>
+      </c>
+      <c r="C13" s="52">
+        <v>11</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="20">
+        <v>-12</v>
+      </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="22"/>
@@ -8014,12 +8229,22 @@
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="23"/>
+      <c r="B14" s="15">
+        <v>38019</v>
+      </c>
+      <c r="C14" s="52">
+        <v>12</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
+      <c r="G14" s="21">
+        <v>-134</v>
+      </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="22"/>
@@ -8031,12 +8256,22 @@
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="43"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="23"/>
+      <c r="B15" s="15">
+        <v>38019</v>
+      </c>
+      <c r="C15" s="52">
+        <v>13</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="G15" s="21">
+        <v>-28</v>
+      </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="22"/>
@@ -8049,7 +8284,9 @@
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="52"/>
+      <c r="C16" s="52">
+        <v>14</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="23"/>
       <c r="F16" s="20"/>
@@ -8066,7 +8303,9 @@
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="52"/>
+      <c r="C17" s="52">
+        <v>15</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="23"/>
       <c r="F17" s="20"/>
@@ -8083,7 +8322,9 @@
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="52"/>
+      <c r="C18" s="52">
+        <v>16</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="23"/>
       <c r="F18" s="20"/>
@@ -8100,7 +8341,9 @@
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="52"/>
+      <c r="C19" s="52">
+        <v>17</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="23"/>
       <c r="F19" s="20"/>
@@ -8117,7 +8360,9 @@
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="52"/>
+      <c r="C20" s="52">
+        <v>18</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="23"/>
       <c r="F20" s="20"/>
@@ -8132,7 +8377,9 @@
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="52"/>
+      <c r="C21" s="52">
+        <v>19</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="23"/>
       <c r="F21" s="20"/>
@@ -8147,7 +8394,9 @@
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="52"/>
+      <c r="C22" s="52">
+        <v>20</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="23"/>
       <c r="F22" s="20"/>
@@ -8162,7 +8411,9 @@
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="52"/>
+      <c r="C23" s="52">
+        <v>21</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="23"/>
       <c r="F23" s="20"/>
@@ -8177,7 +8428,9 @@
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
       <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
+      <c r="C24" s="52">
+        <v>22</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="23"/>
       <c r="F24" s="17"/>
@@ -8192,7 +8445,9 @@
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
+      <c r="C25" s="52">
+        <v>23</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="23"/>
       <c r="F25" s="20"/>
@@ -8207,7 +8462,9 @@
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="43"/>
       <c r="B26" s="15"/>
-      <c r="C26" s="52"/>
+      <c r="C26" s="52">
+        <v>24</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="23"/>
       <c r="F26" s="20"/>
@@ -8222,7 +8479,9 @@
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="52"/>
+      <c r="C27" s="52">
+        <v>25</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="23"/>
       <c r="F27" s="20"/>
@@ -8237,7 +8496,9 @@
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="52"/>
+      <c r="C28" s="52">
+        <v>26</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="23"/>
       <c r="F28" s="20"/>
@@ -8252,7 +8513,9 @@
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
       <c r="B29" s="15"/>
-      <c r="C29" s="52"/>
+      <c r="C29" s="52">
+        <v>27</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="23"/>
       <c r="F29" s="20"/>
@@ -8267,7 +8530,9 @@
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="15"/>
-      <c r="C30" s="52"/>
+      <c r="C30" s="52">
+        <v>28</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="23"/>
       <c r="F30" s="17"/>
@@ -8282,7 +8547,9 @@
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="52"/>
+      <c r="C31" s="52">
+        <v>29</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="23"/>
       <c r="F31" s="20"/>
@@ -8297,7 +8564,9 @@
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="15"/>
-      <c r="C32" s="52"/>
+      <c r="C32" s="52">
+        <v>30</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="23"/>
       <c r="F32" s="17"/>
@@ -8312,7 +8581,9 @@
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="52"/>
+      <c r="C33" s="52">
+        <v>31</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="23"/>
       <c r="F33" s="20"/>
@@ -8327,7 +8598,9 @@
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="43"/>
       <c r="B34" s="15"/>
-      <c r="C34" s="52"/>
+      <c r="C34" s="52">
+        <v>32</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="23"/>
       <c r="F34" s="20"/>
@@ -8342,7 +8615,9 @@
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="43"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="52"/>
+      <c r="C35" s="52">
+        <v>33</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="23"/>
       <c r="F35" s="20"/>
@@ -8357,7 +8632,9 @@
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
       <c r="B36" s="15"/>
-      <c r="C36" s="52"/>
+      <c r="C36" s="52">
+        <v>34</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="23"/>
       <c r="F36" s="20"/>
@@ -8372,7 +8649,9 @@
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
       <c r="B37" s="15"/>
-      <c r="C37" s="52"/>
+      <c r="C37" s="52">
+        <v>35</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="23"/>
       <c r="F37" s="20"/>
@@ -8387,7 +8666,9 @@
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
       <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
+      <c r="C38" s="52">
+        <v>36</v>
+      </c>
       <c r="D38" s="3"/>
       <c r="E38" s="23"/>
       <c r="F38" s="17"/>
@@ -8402,7 +8683,9 @@
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
       <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
+      <c r="C39" s="52">
+        <v>37</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="23"/>
       <c r="F39" s="20"/>
@@ -8417,7 +8700,9 @@
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="43"/>
       <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
+      <c r="C40" s="52">
+        <v>38</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="23"/>
       <c r="F40" s="20"/>
@@ -8432,7 +8717,9 @@
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
       <c r="B41" s="15"/>
-      <c r="C41" s="52"/>
+      <c r="C41" s="52">
+        <v>39</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="23"/>
       <c r="F41" s="20"/>
@@ -8447,7 +8734,9 @@
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="43"/>
       <c r="B42" s="15"/>
-      <c r="C42" s="52"/>
+      <c r="C42" s="52">
+        <v>40</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="23"/>
       <c r="F42" s="20"/>
@@ -8462,7 +8751,9 @@
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="43"/>
       <c r="B43" s="15"/>
-      <c r="C43" s="52"/>
+      <c r="C43" s="52">
+        <v>41</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="23"/>
       <c r="F43" s="20"/>
@@ -8477,7 +8768,9 @@
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
       <c r="B44" s="15"/>
-      <c r="C44" s="52"/>
+      <c r="C44" s="52">
+        <v>42</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="23"/>
       <c r="F44" s="17"/>
@@ -8492,7 +8785,9 @@
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="43"/>
       <c r="B45" s="15"/>
-      <c r="C45" s="52"/>
+      <c r="C45" s="52">
+        <v>43</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="23"/>
       <c r="F45" s="17"/>
@@ -8507,7 +8802,9 @@
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="43"/>
       <c r="B46" s="15"/>
-      <c r="C46" s="52"/>
+      <c r="C46" s="52">
+        <v>44</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="23"/>
       <c r="F46" s="20"/>
@@ -8522,7 +8819,9 @@
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="43"/>
       <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
+      <c r="C47" s="52">
+        <v>45</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="23"/>
       <c r="F47" s="20"/>
@@ -8537,7 +8836,9 @@
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="43"/>
       <c r="B48" s="15"/>
-      <c r="C48" s="52"/>
+      <c r="C48" s="52">
+        <v>46</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="23"/>
       <c r="F48" s="20"/>
@@ -8552,7 +8853,9 @@
     <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="43"/>
       <c r="B49" s="15"/>
-      <c r="C49" s="52"/>
+      <c r="C49" s="52">
+        <v>47</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="23"/>
       <c r="F49" s="20"/>
@@ -8567,7 +8870,9 @@
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="43"/>
       <c r="B50" s="15"/>
-      <c r="C50" s="52"/>
+      <c r="C50" s="52">
+        <v>48</v>
+      </c>
       <c r="D50" s="3"/>
       <c r="E50" s="23"/>
       <c r="F50" s="20"/>
@@ -8582,7 +8887,9 @@
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="43"/>
       <c r="B51" s="15"/>
-      <c r="C51" s="52"/>
+      <c r="C51" s="52">
+        <v>49</v>
+      </c>
       <c r="D51" s="3"/>
       <c r="E51" s="23"/>
       <c r="F51" s="20"/>
@@ -8597,7 +8904,9 @@
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="43"/>
       <c r="B52" s="15"/>
-      <c r="C52" s="52"/>
+      <c r="C52" s="52">
+        <v>50</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="E52" s="23"/>
       <c r="F52" s="20"/>
@@ -8612,7 +8921,9 @@
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="43"/>
       <c r="B53" s="15"/>
-      <c r="C53" s="52"/>
+      <c r="C53" s="52">
+        <v>51</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="23"/>
       <c r="F53" s="20"/>
@@ -8627,7 +8938,9 @@
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="43"/>
       <c r="B54" s="15"/>
-      <c r="C54" s="52"/>
+      <c r="C54" s="52">
+        <v>52</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="E54" s="23"/>
       <c r="F54" s="20"/>
@@ -8642,7 +8955,9 @@
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="43"/>
       <c r="B55" s="15"/>
-      <c r="C55" s="52"/>
+      <c r="C55" s="52">
+        <v>53</v>
+      </c>
       <c r="D55" s="3"/>
       <c r="E55" s="23"/>
       <c r="F55" s="20"/>
@@ -8657,7 +8972,9 @@
     <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="43"/>
       <c r="B56" s="15"/>
-      <c r="C56" s="52"/>
+      <c r="C56" s="52">
+        <v>54</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="E56" s="23"/>
       <c r="F56" s="20"/>
@@ -8672,7 +8989,9 @@
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="43"/>
       <c r="B57" s="15"/>
-      <c r="C57" s="52"/>
+      <c r="C57" s="52">
+        <v>55</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="23"/>
       <c r="F57" s="20"/>
@@ -8687,7 +9006,9 @@
     <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="43"/>
       <c r="B58" s="15"/>
-      <c r="C58" s="52"/>
+      <c r="C58" s="52">
+        <v>56</v>
+      </c>
       <c r="D58" s="3"/>
       <c r="E58" s="23"/>
       <c r="F58" s="20"/>
@@ -8702,7 +9023,9 @@
     <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="43"/>
       <c r="B59" s="15"/>
-      <c r="C59" s="52"/>
+      <c r="C59" s="52">
+        <v>57</v>
+      </c>
       <c r="D59" s="3"/>
       <c r="E59" s="23"/>
       <c r="F59" s="17"/>
@@ -8717,7 +9040,9 @@
     <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="43"/>
       <c r="B60" s="15"/>
-      <c r="C60" s="52"/>
+      <c r="C60" s="52">
+        <v>58</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="23"/>
       <c r="F60" s="20"/>
@@ -8732,7 +9057,9 @@
     <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="43"/>
       <c r="B61" s="15"/>
-      <c r="C61" s="52"/>
+      <c r="C61" s="52">
+        <v>59</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="23"/>
       <c r="F61" s="20"/>
@@ -8747,7 +9074,9 @@
     <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="43"/>
       <c r="B62" s="15"/>
-      <c r="C62" s="52"/>
+      <c r="C62" s="52">
+        <v>60</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="19"/>
       <c r="F62" s="17"/>
@@ -8762,7 +9091,9 @@
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="43"/>
       <c r="B63" s="15"/>
-      <c r="C63" s="52"/>
+      <c r="C63" s="52">
+        <v>61</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="23"/>
       <c r="F63" s="17"/>
@@ -8777,7 +9108,9 @@
     <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="43"/>
       <c r="B64" s="15"/>
-      <c r="C64" s="52"/>
+      <c r="C64" s="52">
+        <v>62</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="E64" s="23"/>
       <c r="F64" s="17"/>
@@ -8792,7 +9125,9 @@
     <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="43"/>
       <c r="B65" s="15"/>
-      <c r="C65" s="52"/>
+      <c r="C65" s="52">
+        <v>63</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="23"/>
       <c r="F65" s="20"/>
@@ -8807,7 +9142,9 @@
     <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="43"/>
       <c r="B66" s="15"/>
-      <c r="C66" s="52"/>
+      <c r="C66" s="52">
+        <v>64</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="E66" s="23"/>
       <c r="F66" s="20"/>
@@ -8822,7 +9159,9 @@
     <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="43"/>
       <c r="B67" s="15"/>
-      <c r="C67" s="52"/>
+      <c r="C67" s="52">
+        <v>65</v>
+      </c>
       <c r="D67" s="3"/>
       <c r="E67" s="23"/>
       <c r="F67" s="20"/>
@@ -8837,7 +9176,9 @@
     <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="43"/>
       <c r="B68" s="15"/>
-      <c r="C68" s="52"/>
+      <c r="C68" s="52">
+        <v>66</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="E68" s="23"/>
       <c r="F68" s="20"/>
@@ -8852,7 +9193,9 @@
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="43"/>
       <c r="B69" s="15"/>
-      <c r="C69" s="52"/>
+      <c r="C69" s="52">
+        <v>67</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="23"/>
       <c r="F69" s="20"/>
@@ -8867,7 +9210,9 @@
     <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="43"/>
       <c r="B70" s="15"/>
-      <c r="C70" s="52"/>
+      <c r="C70" s="52">
+        <v>68</v>
+      </c>
       <c r="D70" s="3"/>
       <c r="E70" s="23"/>
       <c r="F70" s="21"/>
@@ -8882,7 +9227,9 @@
     <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="43"/>
       <c r="B71" s="15"/>
-      <c r="C71" s="52"/>
+      <c r="C71" s="52">
+        <v>69</v>
+      </c>
       <c r="D71" s="3"/>
       <c r="E71" s="23"/>
       <c r="F71" s="20"/>
@@ -8897,7 +9244,9 @@
     <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="43"/>
       <c r="B72" s="15"/>
-      <c r="C72" s="52"/>
+      <c r="C72" s="52">
+        <v>70</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="23"/>
       <c r="F72" s="20"/>
@@ -8912,7 +9261,9 @@
     <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="43"/>
       <c r="B73" s="15"/>
-      <c r="C73" s="52"/>
+      <c r="C73" s="52">
+        <v>71</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="23"/>
       <c r="F73" s="20"/>
@@ -8927,7 +9278,9 @@
     <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="43"/>
       <c r="B74" s="15"/>
-      <c r="C74" s="52"/>
+      <c r="C74" s="52">
+        <v>72</v>
+      </c>
       <c r="D74" s="3"/>
       <c r="E74" s="19"/>
       <c r="F74" s="20"/>
@@ -8942,7 +9295,9 @@
     <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="43"/>
       <c r="B75" s="15"/>
-      <c r="C75" s="52"/>
+      <c r="C75" s="52">
+        <v>73</v>
+      </c>
       <c r="D75" s="39"/>
       <c r="E75" s="23"/>
       <c r="F75" s="20"/>
@@ -8957,7 +9312,9 @@
     <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="43"/>
       <c r="B76" s="15"/>
-      <c r="C76" s="52"/>
+      <c r="C76" s="52">
+        <v>74</v>
+      </c>
       <c r="D76" s="3"/>
       <c r="E76" s="23"/>
       <c r="F76" s="20"/>
@@ -8972,7 +9329,9 @@
     <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="43"/>
       <c r="B77" s="15"/>
-      <c r="C77" s="52"/>
+      <c r="C77" s="52">
+        <v>75</v>
+      </c>
       <c r="D77" s="3"/>
       <c r="E77" s="19"/>
       <c r="F77" s="20"/>
@@ -8987,7 +9346,9 @@
     <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="43"/>
       <c r="B78" s="15"/>
-      <c r="C78" s="52"/>
+      <c r="C78" s="52">
+        <v>76</v>
+      </c>
       <c r="D78" s="3"/>
       <c r="E78" s="23"/>
       <c r="F78" s="20"/>
@@ -9002,7 +9363,9 @@
     <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="43"/>
       <c r="B79" s="15"/>
-      <c r="C79" s="52"/>
+      <c r="C79" s="52">
+        <v>77</v>
+      </c>
       <c r="D79" s="3"/>
       <c r="E79" s="23"/>
       <c r="F79" s="20"/>
@@ -9017,7 +9380,9 @@
     <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="43"/>
       <c r="B80" s="15"/>
-      <c r="C80" s="52"/>
+      <c r="C80" s="52">
+        <v>78</v>
+      </c>
       <c r="D80" s="3"/>
       <c r="E80" s="23"/>
       <c r="F80" s="20"/>
@@ -9032,7 +9397,9 @@
     <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="43"/>
       <c r="B81" s="15"/>
-      <c r="C81" s="52"/>
+      <c r="C81" s="52">
+        <v>79</v>
+      </c>
       <c r="D81" s="3"/>
       <c r="E81" s="23"/>
       <c r="F81" s="20"/>
@@ -9047,7 +9414,9 @@
     <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="43"/>
       <c r="B82" s="15"/>
-      <c r="C82" s="52"/>
+      <c r="C82" s="52">
+        <v>80</v>
+      </c>
       <c r="D82" s="3"/>
       <c r="E82" s="23"/>
       <c r="F82" s="20"/>
@@ -9062,7 +9431,9 @@
     <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="43"/>
       <c r="B83" s="15"/>
-      <c r="C83" s="52"/>
+      <c r="C83" s="52">
+        <v>81</v>
+      </c>
       <c r="D83" s="3"/>
       <c r="E83" s="23"/>
       <c r="F83" s="20"/>
@@ -9077,7 +9448,9 @@
     <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="43"/>
       <c r="B84" s="15"/>
-      <c r="C84" s="52"/>
+      <c r="C84" s="52">
+        <v>82</v>
+      </c>
       <c r="D84" s="3"/>
       <c r="E84" s="23"/>
       <c r="F84" s="20"/>
@@ -9092,7 +9465,9 @@
     <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="43"/>
       <c r="B85" s="15"/>
-      <c r="C85" s="52"/>
+      <c r="C85" s="52">
+        <v>83</v>
+      </c>
       <c r="D85" s="3"/>
       <c r="E85" s="23"/>
       <c r="F85" s="20"/>
@@ -9107,7 +9482,9 @@
     <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="43"/>
       <c r="B86" s="15"/>
-      <c r="C86" s="52"/>
+      <c r="C86" s="52">
+        <v>84</v>
+      </c>
       <c r="D86" s="3"/>
       <c r="E86" s="23"/>
       <c r="F86" s="20"/>
@@ -9122,7 +9499,9 @@
     <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="43"/>
       <c r="B87" s="15"/>
-      <c r="C87" s="52"/>
+      <c r="C87" s="52">
+        <v>85</v>
+      </c>
       <c r="D87" s="3"/>
       <c r="E87" s="23"/>
       <c r="F87" s="17"/>
@@ -9137,7 +9516,9 @@
     <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="43"/>
       <c r="B88" s="15"/>
-      <c r="C88" s="16"/>
+      <c r="C88" s="52">
+        <v>86</v>
+      </c>
       <c r="D88" s="3"/>
       <c r="E88" s="19"/>
       <c r="F88" s="20"/>
@@ -9152,7 +9533,9 @@
     <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="43"/>
       <c r="B89" s="15"/>
-      <c r="C89" s="16"/>
+      <c r="C89" s="52">
+        <v>87</v>
+      </c>
       <c r="D89" s="3"/>
       <c r="E89" s="23"/>
       <c r="F89" s="20"/>
@@ -9167,7 +9550,9 @@
     <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="43"/>
       <c r="B90" s="15"/>
-      <c r="C90" s="16"/>
+      <c r="C90" s="52">
+        <v>88</v>
+      </c>
       <c r="D90" s="3"/>
       <c r="E90" s="19"/>
       <c r="F90" s="20"/>
@@ -9182,7 +9567,9 @@
     <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="43"/>
       <c r="B91" s="15"/>
-      <c r="C91" s="52"/>
+      <c r="C91" s="52">
+        <v>89</v>
+      </c>
       <c r="D91" s="3"/>
       <c r="E91" s="23"/>
       <c r="F91" s="20"/>
@@ -9197,7 +9584,9 @@
     <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="43"/>
       <c r="B92" s="15"/>
-      <c r="C92" s="52"/>
+      <c r="C92" s="52">
+        <v>90</v>
+      </c>
       <c r="D92" s="3"/>
       <c r="E92" s="23"/>
       <c r="F92" s="20"/>
@@ -9212,7 +9601,9 @@
     <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="43"/>
       <c r="B93" s="15"/>
-      <c r="C93" s="52"/>
+      <c r="C93" s="52">
+        <v>91</v>
+      </c>
       <c r="D93" s="3"/>
       <c r="E93" s="23"/>
       <c r="F93" s="20"/>
@@ -9227,7 +9618,9 @@
     <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="43"/>
       <c r="B94" s="15"/>
-      <c r="C94" s="52"/>
+      <c r="C94" s="52">
+        <v>92</v>
+      </c>
       <c r="D94" s="3"/>
       <c r="E94" s="19"/>
       <c r="F94" s="20"/>
@@ -9242,7 +9635,9 @@
     <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="43"/>
       <c r="B95" s="15"/>
-      <c r="C95" s="52"/>
+      <c r="C95" s="52">
+        <v>93</v>
+      </c>
       <c r="D95" s="3"/>
       <c r="E95" s="23"/>
       <c r="F95" s="20"/>
@@ -9257,7 +9652,9 @@
     <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="43"/>
       <c r="B96" s="15"/>
-      <c r="C96" s="52"/>
+      <c r="C96" s="52">
+        <v>94</v>
+      </c>
       <c r="D96" s="3"/>
       <c r="E96" s="23"/>
       <c r="F96" s="17"/>
@@ -9272,7 +9669,9 @@
     <row r="97" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="43"/>
       <c r="B97" s="15"/>
-      <c r="C97" s="52"/>
+      <c r="C97" s="52">
+        <v>95</v>
+      </c>
       <c r="D97" s="3"/>
       <c r="E97" s="19"/>
       <c r="F97" s="17"/>
@@ -9287,7 +9686,9 @@
     <row r="98" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="43"/>
       <c r="B98" s="15"/>
-      <c r="C98" s="52"/>
+      <c r="C98" s="52">
+        <v>96</v>
+      </c>
       <c r="D98" s="3"/>
       <c r="E98" s="19"/>
       <c r="F98" s="20"/>
@@ -9302,7 +9703,9 @@
     <row r="99" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="43"/>
       <c r="B99" s="15"/>
-      <c r="C99" s="52"/>
+      <c r="C99" s="52">
+        <v>97</v>
+      </c>
       <c r="D99" s="3"/>
       <c r="E99" s="19"/>
       <c r="F99" s="20"/>
@@ -9317,7 +9720,9 @@
     <row r="100" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="43"/>
       <c r="B100" s="15"/>
-      <c r="C100" s="52"/>
+      <c r="C100" s="52">
+        <v>98</v>
+      </c>
       <c r="D100" s="3"/>
       <c r="E100" s="23"/>
       <c r="F100" s="20"/>
@@ -9334,7 +9739,9 @@
     <row r="101" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="43"/>
       <c r="B101" s="15"/>
-      <c r="C101" s="52"/>
+      <c r="C101" s="52">
+        <v>99</v>
+      </c>
       <c r="D101" s="3"/>
       <c r="E101" s="23"/>
       <c r="F101" s="20"/>
@@ -9349,7 +9756,9 @@
     <row r="102" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="43"/>
       <c r="B102" s="15"/>
-      <c r="C102" s="52"/>
+      <c r="C102" s="52">
+        <v>100</v>
+      </c>
       <c r="D102" s="3"/>
       <c r="E102" s="23"/>
       <c r="F102" s="20"/>
@@ -9364,7 +9773,9 @@
     <row r="103" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="43"/>
       <c r="B103" s="15"/>
-      <c r="C103" s="52"/>
+      <c r="C103" s="52">
+        <v>101</v>
+      </c>
       <c r="D103" s="3"/>
       <c r="E103" s="19"/>
       <c r="F103" s="20"/>
@@ -9379,7 +9790,9 @@
     <row r="104" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="43"/>
       <c r="B104" s="15"/>
-      <c r="C104" s="52"/>
+      <c r="C104" s="52">
+        <v>102</v>
+      </c>
       <c r="D104" s="3"/>
       <c r="E104" s="23"/>
       <c r="F104" s="20"/>
@@ -9394,7 +9807,9 @@
     <row r="105" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="43"/>
       <c r="B105" s="15"/>
-      <c r="C105" s="52"/>
+      <c r="C105" s="52">
+        <v>103</v>
+      </c>
       <c r="D105" s="3"/>
       <c r="E105" s="19"/>
       <c r="F105" s="20"/>
@@ -9409,7 +9824,9 @@
     <row r="106" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="43"/>
       <c r="B106" s="15"/>
-      <c r="C106" s="52"/>
+      <c r="C106" s="52">
+        <v>104</v>
+      </c>
       <c r="D106" s="3"/>
       <c r="E106" s="23"/>
       <c r="F106" s="20"/>
@@ -9424,7 +9841,9 @@
     <row r="107" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="43"/>
       <c r="B107" s="15"/>
-      <c r="C107" s="52"/>
+      <c r="C107" s="52">
+        <v>105</v>
+      </c>
       <c r="D107" s="3"/>
       <c r="E107" s="23"/>
       <c r="F107" s="20"/>
@@ -9439,7 +9858,9 @@
     <row r="108" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="43"/>
       <c r="B108" s="15"/>
-      <c r="C108" s="52"/>
+      <c r="C108" s="52">
+        <v>106</v>
+      </c>
       <c r="D108" s="3"/>
       <c r="E108" s="19"/>
       <c r="F108" s="17"/>
@@ -9454,7 +9875,9 @@
     <row r="109" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="43"/>
       <c r="B109" s="15"/>
-      <c r="C109" s="52"/>
+      <c r="C109" s="52">
+        <v>107</v>
+      </c>
       <c r="D109" s="3"/>
       <c r="E109" s="23"/>
       <c r="F109" s="20"/>
@@ -9469,7 +9892,9 @@
     <row r="110" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="43"/>
       <c r="B110" s="15"/>
-      <c r="C110" s="52"/>
+      <c r="C110" s="52">
+        <v>108</v>
+      </c>
       <c r="D110" s="3"/>
       <c r="E110" s="23"/>
       <c r="F110" s="20"/>
@@ -9484,7 +9909,9 @@
     <row r="111" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="43"/>
       <c r="B111" s="15"/>
-      <c r="C111" s="52"/>
+      <c r="C111" s="52">
+        <v>109</v>
+      </c>
       <c r="D111" s="3"/>
       <c r="E111" s="19"/>
       <c r="F111" s="20"/>
@@ -9499,7 +9926,9 @@
     <row r="112" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="43"/>
       <c r="B112" s="15"/>
-      <c r="C112" s="52"/>
+      <c r="C112" s="52">
+        <v>110</v>
+      </c>
       <c r="D112" s="39"/>
       <c r="E112" s="19"/>
       <c r="F112" s="20"/>
@@ -9514,7 +9943,9 @@
     <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="43"/>
       <c r="B113" s="15"/>
-      <c r="C113" s="52"/>
+      <c r="C113" s="52">
+        <v>111</v>
+      </c>
       <c r="D113" s="3"/>
       <c r="E113" s="19"/>
       <c r="F113" s="20"/>
@@ -9529,7 +9960,9 @@
     <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="43"/>
       <c r="B114" s="15"/>
-      <c r="C114" s="16"/>
+      <c r="C114" s="52">
+        <v>112</v>
+      </c>
       <c r="D114" s="3"/>
       <c r="E114" s="23"/>
       <c r="F114" s="20"/>
@@ -9544,7 +9977,9 @@
     <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="43"/>
       <c r="B115" s="15"/>
-      <c r="C115" s="16"/>
+      <c r="C115" s="52">
+        <v>113</v>
+      </c>
       <c r="D115" s="3"/>
       <c r="E115" s="23"/>
       <c r="F115" s="20"/>
@@ -9559,7 +9994,9 @@
     <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="43"/>
       <c r="B116" s="15"/>
-      <c r="C116" s="16"/>
+      <c r="C116" s="52">
+        <v>114</v>
+      </c>
       <c r="D116" s="3"/>
       <c r="E116" s="23"/>
       <c r="F116" s="20"/>
@@ -9574,7 +10011,9 @@
     <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="43"/>
       <c r="B117" s="15"/>
-      <c r="C117" s="52"/>
+      <c r="C117" s="52">
+        <v>115</v>
+      </c>
       <c r="D117" s="3"/>
       <c r="E117" s="23"/>
       <c r="F117" s="20"/>
@@ -9589,7 +10028,9 @@
     <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="43"/>
       <c r="B118" s="15"/>
-      <c r="C118" s="52"/>
+      <c r="C118" s="52">
+        <v>116</v>
+      </c>
       <c r="D118" s="3"/>
       <c r="E118" s="19"/>
       <c r="F118" s="20"/>
@@ -9604,7 +10045,9 @@
     <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="43"/>
       <c r="B119" s="15"/>
-      <c r="C119" s="52"/>
+      <c r="C119" s="52">
+        <v>117</v>
+      </c>
       <c r="D119" s="3"/>
       <c r="E119" s="23"/>
       <c r="F119" s="20"/>
@@ -9619,7 +10062,9 @@
     <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="43"/>
       <c r="B120" s="15"/>
-      <c r="C120" s="52"/>
+      <c r="C120" s="52">
+        <v>118</v>
+      </c>
       <c r="D120" s="3"/>
       <c r="E120" s="23"/>
       <c r="F120" s="17"/>
@@ -9634,7 +10079,9 @@
     <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="43"/>
       <c r="B121" s="15"/>
-      <c r="C121" s="52"/>
+      <c r="C121" s="52">
+        <v>119</v>
+      </c>
       <c r="D121" s="3"/>
       <c r="E121" s="19"/>
       <c r="F121" s="17"/>
@@ -9649,7 +10096,9 @@
     <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="43"/>
       <c r="B122" s="15"/>
-      <c r="C122" s="52"/>
+      <c r="C122" s="52">
+        <v>120</v>
+      </c>
       <c r="D122" s="3"/>
       <c r="E122" s="19"/>
       <c r="F122" s="20"/>
@@ -9664,7 +10113,9 @@
     <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="43"/>
       <c r="B123" s="15"/>
-      <c r="C123" s="52"/>
+      <c r="C123" s="52">
+        <v>121</v>
+      </c>
       <c r="D123" s="3"/>
       <c r="E123" s="23"/>
       <c r="F123" s="20"/>
@@ -9679,7 +10130,9 @@
     <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="43"/>
       <c r="B124" s="15"/>
-      <c r="C124" s="52"/>
+      <c r="C124" s="52">
+        <v>122</v>
+      </c>
       <c r="D124" s="3"/>
       <c r="E124" s="23"/>
       <c r="F124" s="20"/>
@@ -9694,7 +10147,9 @@
     <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="43"/>
       <c r="B125" s="15"/>
-      <c r="C125" s="52"/>
+      <c r="C125" s="52">
+        <v>123</v>
+      </c>
       <c r="D125" s="3"/>
       <c r="E125" s="23"/>
       <c r="F125" s="20"/>
@@ -9709,7 +10164,9 @@
     <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="43"/>
       <c r="B126" s="15"/>
-      <c r="C126" s="52"/>
+      <c r="C126" s="52">
+        <v>124</v>
+      </c>
       <c r="D126" s="3"/>
       <c r="E126" s="19"/>
       <c r="F126" s="20"/>
@@ -9724,7 +10181,9 @@
     <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="43"/>
       <c r="B127" s="15"/>
-      <c r="C127" s="52"/>
+      <c r="C127" s="52">
+        <v>125</v>
+      </c>
       <c r="D127" s="3"/>
       <c r="E127" s="19"/>
       <c r="F127" s="20"/>
@@ -9739,7 +10198,9 @@
     <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="43"/>
       <c r="B128" s="15"/>
-      <c r="C128" s="52"/>
+      <c r="C128" s="52">
+        <v>126</v>
+      </c>
       <c r="D128" s="3"/>
       <c r="E128" s="23"/>
       <c r="F128" s="20"/>
@@ -9754,7 +10215,9 @@
     <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="43"/>
       <c r="B129" s="15"/>
-      <c r="C129" s="52"/>
+      <c r="C129" s="52">
+        <v>127</v>
+      </c>
       <c r="D129" s="3"/>
       <c r="E129" s="23"/>
       <c r="F129" s="20"/>
@@ -9769,7 +10232,9 @@
     <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="43"/>
       <c r="B130" s="15"/>
-      <c r="C130" s="52"/>
+      <c r="C130" s="52">
+        <v>128</v>
+      </c>
       <c r="D130" s="39"/>
       <c r="E130" s="19"/>
       <c r="F130" s="20"/>
@@ -9784,7 +10249,9 @@
     <row r="131" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="43"/>
       <c r="B131" s="15"/>
-      <c r="C131" s="52"/>
+      <c r="C131" s="52">
+        <v>129</v>
+      </c>
       <c r="D131" s="39"/>
       <c r="E131" s="19"/>
       <c r="F131" s="20"/>
@@ -9799,7 +10266,9 @@
     <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="43"/>
       <c r="B132" s="15"/>
-      <c r="C132" s="52"/>
+      <c r="C132" s="52">
+        <v>130</v>
+      </c>
       <c r="D132" s="3"/>
       <c r="E132" s="23"/>
       <c r="F132" s="20"/>
@@ -9814,7 +10283,9 @@
     <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="43"/>
       <c r="B133" s="15"/>
-      <c r="C133" s="52"/>
+      <c r="C133" s="52">
+        <v>131</v>
+      </c>
       <c r="D133" s="54"/>
       <c r="E133" s="23"/>
       <c r="F133" s="55"/>
@@ -9829,7 +10300,9 @@
     <row r="134" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="43"/>
       <c r="B134" s="15"/>
-      <c r="C134" s="52"/>
+      <c r="C134" s="52">
+        <v>132</v>
+      </c>
       <c r="D134" s="3"/>
       <c r="E134" s="23"/>
       <c r="F134" s="20"/>
@@ -9844,7 +10317,9 @@
     <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="43"/>
       <c r="B135" s="15"/>
-      <c r="C135" s="52"/>
+      <c r="C135" s="52">
+        <v>133</v>
+      </c>
       <c r="D135" s="3"/>
       <c r="E135" s="23"/>
       <c r="F135" s="17"/>
@@ -9859,7 +10334,9 @@
     <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="43"/>
       <c r="B136" s="15"/>
-      <c r="C136" s="52"/>
+      <c r="C136" s="52">
+        <v>134</v>
+      </c>
       <c r="D136" s="3"/>
       <c r="E136" s="23"/>
       <c r="F136" s="17"/>
@@ -9874,7 +10351,9 @@
     <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="43"/>
       <c r="B137" s="15"/>
-      <c r="C137" s="52"/>
+      <c r="C137" s="52">
+        <v>135</v>
+      </c>
       <c r="D137" s="3"/>
       <c r="E137" s="23"/>
       <c r="F137" s="20"/>
@@ -9889,7 +10368,9 @@
     <row r="138" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="43"/>
       <c r="B138" s="15"/>
-      <c r="C138" s="52"/>
+      <c r="C138" s="52">
+        <v>136</v>
+      </c>
       <c r="D138" s="3"/>
       <c r="E138" s="23"/>
       <c r="F138" s="20"/>
@@ -9904,7 +10385,9 @@
     <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="43"/>
       <c r="B139" s="15"/>
-      <c r="C139" s="52"/>
+      <c r="C139" s="52">
+        <v>137</v>
+      </c>
       <c r="D139" s="3"/>
       <c r="E139" s="23"/>
       <c r="F139" s="20"/>
@@ -9919,7 +10402,9 @@
     <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="43"/>
       <c r="B140" s="15"/>
-      <c r="C140" s="52"/>
+      <c r="C140" s="52">
+        <v>138</v>
+      </c>
       <c r="D140" s="3"/>
       <c r="E140" s="23"/>
       <c r="F140" s="20"/>
@@ -9934,7 +10419,9 @@
     <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="43"/>
       <c r="B141" s="15"/>
-      <c r="C141" s="16"/>
+      <c r="C141" s="52">
+        <v>139</v>
+      </c>
       <c r="D141" s="3"/>
       <c r="E141" s="19"/>
       <c r="F141" s="20"/>
@@ -9949,7 +10436,9 @@
     <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="43"/>
       <c r="B142" s="15"/>
-      <c r="C142" s="16"/>
+      <c r="C142" s="52">
+        <v>140</v>
+      </c>
       <c r="D142" s="3"/>
       <c r="E142" s="23"/>
       <c r="F142" s="20"/>
@@ -9964,7 +10453,9 @@
     <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="43"/>
       <c r="B143" s="15"/>
-      <c r="C143" s="16"/>
+      <c r="C143" s="52">
+        <v>141</v>
+      </c>
       <c r="D143" s="3"/>
       <c r="E143" s="19"/>
       <c r="F143" s="17"/>
@@ -9979,7 +10470,9 @@
     <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="43"/>
       <c r="B144" s="15"/>
-      <c r="C144" s="16"/>
+      <c r="C144" s="52">
+        <v>142</v>
+      </c>
       <c r="D144" s="3"/>
       <c r="E144" s="23"/>
       <c r="F144" s="17"/>
@@ -9994,7 +10487,9 @@
     <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="43"/>
       <c r="B145" s="15"/>
-      <c r="C145" s="16"/>
+      <c r="C145" s="52">
+        <v>143</v>
+      </c>
       <c r="D145" s="3"/>
       <c r="E145" s="19"/>
       <c r="F145" s="17"/>
@@ -10009,7 +10504,9 @@
     <row r="146" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="43"/>
       <c r="B146" s="15"/>
-      <c r="C146" s="52"/>
+      <c r="C146" s="52">
+        <v>144</v>
+      </c>
       <c r="D146" s="39"/>
       <c r="E146" s="23"/>
       <c r="F146" s="20"/>
@@ -10024,7 +10521,9 @@
     <row r="147" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="43"/>
       <c r="B147" s="15"/>
-      <c r="C147" s="52"/>
+      <c r="C147" s="52">
+        <v>145</v>
+      </c>
       <c r="D147" s="39"/>
       <c r="E147" s="23"/>
       <c r="F147" s="17"/>
@@ -10038,7 +10537,9 @@
     <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="43"/>
       <c r="B148" s="15"/>
-      <c r="C148" s="52"/>
+      <c r="C148" s="52">
+        <v>146</v>
+      </c>
       <c r="D148" s="3"/>
       <c r="E148" s="23"/>
       <c r="F148" s="17"/>
@@ -10053,7 +10554,9 @@
     <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="43"/>
       <c r="B149" s="15"/>
-      <c r="C149" s="52"/>
+      <c r="C149" s="52">
+        <v>147</v>
+      </c>
       <c r="D149" s="39"/>
       <c r="E149" s="19"/>
       <c r="F149" s="20"/>
@@ -10068,7 +10571,9 @@
     <row r="150" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="43"/>
       <c r="B150" s="15"/>
-      <c r="C150" s="52"/>
+      <c r="C150" s="52">
+        <v>148</v>
+      </c>
       <c r="D150" s="39"/>
       <c r="E150" s="23"/>
       <c r="F150" s="20"/>
@@ -10455,7 +10960,7 @@
       </c>
       <c r="G175" s="34">
         <f>SUM(G3:G174)</f>
-        <v>0</v>
+        <v>-1190.95</v>
       </c>
       <c r="H175" s="34">
         <f>SUM(H3:H174)</f>
@@ -10463,11 +10968,11 @@
       </c>
       <c r="I175" s="34">
         <f>SUM(I3:I174)</f>
-        <v>0</v>
+        <v>-167.43</v>
       </c>
       <c r="J175" s="47">
         <f>SUM(J3:J174)</f>
-        <v>0</v>
+        <v>-949.25</v>
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
@@ -11491,37 +11996,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C113">
-    <cfRule type="cellIs" dxfId="26" priority="489" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
-    <cfRule type="cellIs" dxfId="25" priority="606" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C133:C136">
-    <cfRule type="cellIs" dxfId="24" priority="458" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147:C148">
-    <cfRule type="cellIs" dxfId="23" priority="438" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112:D112 C125 C128:C129 B131:D131 C140 C146:D146 C164:C240 K176 J176:J239 I176:I241">
+  <conditionalFormatting sqref="D112 B131 D146 C164:C240 K176 J176:J239 I176:I241 D131">
     <cfRule type="cellIs" dxfId="22" priority="698" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C130:D130">
+  <conditionalFormatting sqref="D130">
     <cfRule type="cellIs" dxfId="21" priority="466" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C149:D151">
+  <conditionalFormatting sqref="C151:D151 D149:D150">
     <cfRule type="cellIs" dxfId="20" priority="437" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -11626,7 +12111,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E152 E109:E111 E132:E140 E32:E87 E89 E168:E174 E91:E93 E95:E96 E100:E102 E104 E106:E107 E114:E117 E119:E120 E123:E125 E128:E129 E142 E144 E146:E148 E150 E154:E155 E157 E159 E161:E165 E3:E30" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53581C2C-EFC3-45D9-9695-2F75B937AE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CECD086-F07D-4670-B9F8-DCAE3BF31E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="68">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -214,6 +214,30 @@
   </si>
   <si>
     <t>Spende Weihnachtsbaum</t>
+  </si>
+  <si>
+    <t>Berliner</t>
+  </si>
+  <si>
+    <t>Vereinsring Beitrag</t>
+  </si>
+  <si>
+    <t>Stadt Waldenbuch Föderung und Jubiläum</t>
+  </si>
+  <si>
+    <t>TzgL 13.2.</t>
+  </si>
+  <si>
+    <t>Anzeige Verabsch. H.Lutz</t>
+  </si>
+  <si>
+    <t>Freenet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lose </t>
+  </si>
+  <si>
+    <t>Telekom Router Fehlbuchung Rückzahlung</t>
   </si>
 </sst>
 </file>
@@ -885,27 +909,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="66">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3694,115 +3698,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="6"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="66">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="65">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="64">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -3890,17 +3785,126 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="69">
+    <format dxfId="62">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="6"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="65">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5026,9 +5030,9 @@
   </sheetPr>
   <dimension ref="A1:IK175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5300,13 +5304,22 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="15">
+        <v>45337</v>
+      </c>
       <c r="B11" s="52">
         <v>8</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="C11" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="21">
+        <v>1950</v>
+      </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="19"/>
@@ -5316,14 +5329,22 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="15">
+        <v>45337</v>
+      </c>
       <c r="B12" s="52">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="19"/>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
+      <c r="F12" s="21">
+        <v>100</v>
+      </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="19"/>
@@ -5333,14 +5354,22 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="15">
+        <v>45341</v>
+      </c>
       <c r="B13" s="52">
         <v>10</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+      <c r="F13" s="18">
+        <v>5.95</v>
+      </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
@@ -6809,7 +6838,7 @@
       </c>
       <c r="F110" s="28">
         <f>SUM(F3:F109)</f>
-        <v>6415.0200000000041</v>
+        <v>8470.9700000000048</v>
       </c>
       <c r="G110" s="28">
         <f>SUM(G3:G109)</f>
@@ -6852,7 +6881,7 @@
       </c>
       <c r="F112" s="28">
         <f>F110+Ausgaben!G175</f>
-        <v>5224.0700000000043</v>
+        <v>7158.4300000000048</v>
       </c>
       <c r="G112" s="28">
         <f>G110+Ausgaben!H175</f>
@@ -6890,7 +6919,7 @@
       <c r="C114" s="24"/>
       <c r="D114" s="29">
         <f>SUM(E112:I112)</f>
-        <v>8281.1800000000039</v>
+        <v>10215.540000000005</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="18"/>
@@ -7691,142 +7720,142 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:C92">
-    <cfRule type="cellIs" dxfId="63" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="62" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D99">
-    <cfRule type="cellIs" dxfId="61" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="60" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="59" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D86">
-    <cfRule type="cellIs" dxfId="58" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="57" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="56" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:G97">
-    <cfRule type="cellIs" dxfId="55" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:G109">
-    <cfRule type="cellIs" dxfId="54" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="53" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="52" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="51" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="50" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F31">
-    <cfRule type="cellIs" dxfId="49" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="48" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="238" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="47" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="46" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G86">
-    <cfRule type="cellIs" dxfId="45" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G15 G17:G23 G25 H28:I109 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G98 E99:G99 D109:I109 E110:I174 D114">
-    <cfRule type="cellIs" dxfId="44" priority="302" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="302" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="43" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="42" priority="223" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="223" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="41" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="40" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G12 H4:I26 A93:A96 D4:D15">
-    <cfRule type="cellIs" dxfId="39" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
-    <cfRule type="cellIs" dxfId="38" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="37" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="36" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7854,9 +7883,9 @@
   </sheetPr>
   <dimension ref="A1:IM241"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14:G15"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8283,14 +8312,22 @@
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
-      <c r="B16" s="15"/>
+      <c r="B16" s="15">
+        <v>45336</v>
+      </c>
       <c r="C16" s="52">
         <v>14</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="G16" s="21">
+        <v>-13</v>
+      </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="22"/>
@@ -8302,14 +8339,22 @@
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
-      <c r="B17" s="15"/>
+      <c r="B17" s="15">
+        <v>45337</v>
+      </c>
       <c r="C17" s="52">
         <v>15</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="23"/>
+      <c r="D17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="G17" s="21">
+        <v>-20</v>
+      </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="22"/>
@@ -8321,14 +8366,22 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
-      <c r="B18" s="15"/>
+      <c r="B18" s="15">
+        <v>45341</v>
+      </c>
       <c r="C18" s="52">
         <v>16</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="23"/>
+      <c r="D18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="21">
+        <v>-45.22</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="22"/>
@@ -8340,14 +8393,22 @@
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="15">
+        <v>45344</v>
+      </c>
       <c r="C19" s="52">
         <v>17</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="23"/>
+      <c r="D19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="21">
+        <v>-11.97</v>
+      </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="22"/>
@@ -8359,14 +8420,22 @@
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <v>45346</v>
+      </c>
       <c r="C20" s="52">
         <v>18</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="23"/>
+      <c r="D20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
+      <c r="G20" s="21">
+        <v>-31.4</v>
+      </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="22"/>
@@ -10960,7 +11029,7 @@
       </c>
       <c r="G175" s="34">
         <f>SUM(G3:G174)</f>
-        <v>-1190.95</v>
+        <v>-1312.5400000000002</v>
       </c>
       <c r="H175" s="34">
         <f>SUM(H3:H174)</f>
@@ -11951,73 +12020,73 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:A239 B126:B130">
-    <cfRule type="cellIs" dxfId="35" priority="468" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A3:A239">
+    <cfRule type="cellIs" dxfId="31" priority="468" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B132:B134">
-    <cfRule type="cellIs" dxfId="34" priority="462" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B126:B134">
+    <cfRule type="cellIs" dxfId="30" priority="462" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="33" priority="451" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="451" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B161">
-    <cfRule type="cellIs" dxfId="32" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:B241">
-    <cfRule type="cellIs" dxfId="31" priority="414" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:C155">
-    <cfRule type="cellIs" dxfId="30" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C163">
-    <cfRule type="cellIs" dxfId="29" priority="416" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="416" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D158">
-    <cfRule type="cellIs" dxfId="28" priority="428" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:E159">
-    <cfRule type="cellIs" dxfId="27" priority="425" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D112 B131 D146 C164:C240 K176 J176:J239 I176:I241 D131">
-    <cfRule type="cellIs" dxfId="22" priority="698" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D130">
-    <cfRule type="cellIs" dxfId="21" priority="466" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151:D151 D149:D150">
-    <cfRule type="cellIs" dxfId="20" priority="437" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160:E160">
-    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D147">
-    <cfRule type="cellIs" dxfId="18" priority="53" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D112 C164:C240 K176 J176:J239 I176:I241">
+    <cfRule type="cellIs" dxfId="21" priority="698" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D130:D131">
+    <cfRule type="cellIs" dxfId="20" priority="466" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D146:D147">
+    <cfRule type="cellIs" dxfId="19" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D149:D150 C151:D151">
+    <cfRule type="cellIs" dxfId="18" priority="437" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12111,7 +12180,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E152 E109:E111 E132:E140 E32:E87 E89 E168:E174 E91:E93 E95:E96 E100:E102 E104 E106:E107 E114:E117 E119:E120 E123:E125 E128:E129 E142 E144 E146:E148 E150 E154:E155 E157 E159 E161:E165 E3:E30" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CECD086-F07D-4670-B9F8-DCAE3BF31E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A284E6B0-660F-43A6-AFEF-598827EDE14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t>Telekom Router Fehlbuchung Rückzahlung</t>
+  </si>
+  <si>
+    <t>kaffee</t>
+  </si>
+  <si>
+    <t>Rückzahlung Strom</t>
+  </si>
+  <si>
+    <t>tzgl</t>
+  </si>
+  <si>
+    <t>TzgL 27.2.</t>
   </si>
 </sst>
 </file>
@@ -3698,24 +3710,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="14">
+      <items count="12">
         <item h="1" x="6"/>
+        <item x="7"/>
         <item x="5"/>
         <item x="4"/>
-        <item m="1" x="12"/>
-        <item x="2"/>
-        <item x="0"/>
         <item x="1"/>
         <item x="3"/>
         <item x="8"/>
-        <item m="1" x="11"/>
-        <item h="1" m="1" x="10"/>
-        <item x="7"/>
-        <item h="1" m="1" x="9"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3728,12 +3738,15 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="8">
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -3745,13 +3758,7 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="11"/>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -3812,22 +3819,24 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+      <items count="14">
         <item h="1" x="6"/>
-        <item x="7"/>
         <item x="5"/>
         <item x="4"/>
+        <item m="1" x="12"/>
+        <item x="2"/>
+        <item x="0"/>
         <item x="1"/>
         <item x="3"/>
         <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item h="1" m="1" x="10"/>
+        <item x="7"/>
+        <item h="1" m="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3840,15 +3849,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -3860,7 +3866,13 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -5030,9 +5042,9 @@
   </sheetPr>
   <dimension ref="A1:IK175"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5379,14 +5391,22 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="15">
+        <v>45350</v>
+      </c>
       <c r="B14" s="52">
         <v>11</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="19"/>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
+      <c r="F14" s="18">
+        <v>124.45</v>
+      </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="19"/>
@@ -5396,14 +5416,22 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="15">
+        <v>45355</v>
+      </c>
       <c r="B15" s="52">
         <v>12</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="19"/>
+      <c r="C15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="21">
+        <v>150</v>
+      </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
@@ -6838,7 +6866,7 @@
       </c>
       <c r="F110" s="28">
         <f>SUM(F3:F109)</f>
-        <v>8470.9700000000048</v>
+        <v>8745.4200000000055</v>
       </c>
       <c r="G110" s="28">
         <f>SUM(G3:G109)</f>
@@ -6881,7 +6909,7 @@
       </c>
       <c r="F112" s="28">
         <f>F110+Ausgaben!G175</f>
-        <v>7158.4300000000048</v>
+        <v>7222.1100000000051</v>
       </c>
       <c r="G112" s="28">
         <f>G110+Ausgaben!H175</f>
@@ -6919,7 +6947,7 @@
       <c r="C114" s="24"/>
       <c r="D114" s="29">
         <f>SUM(E112:I112)</f>
-        <v>10215.540000000005</v>
+        <v>10279.220000000005</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="18"/>
@@ -7883,9 +7911,9 @@
   </sheetPr>
   <dimension ref="A1:IM241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8445,14 +8473,22 @@
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="15">
+        <v>45349</v>
+      </c>
       <c r="C21" s="52">
         <v>19</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="23"/>
+      <c r="D21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="G21" s="21">
+        <v>-6.76</v>
+      </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="22"/>
@@ -8462,14 +8498,22 @@
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
-      <c r="B22" s="15"/>
+      <c r="B22" s="15">
+        <v>45350</v>
+      </c>
       <c r="C22" s="52">
         <v>20</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="23"/>
+      <c r="D22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
+      <c r="G22" s="21">
+        <v>-9.01</v>
+      </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
@@ -8479,14 +8523,22 @@
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
-      <c r="B23" s="15"/>
+      <c r="B23" s="15">
+        <v>45352</v>
+      </c>
       <c r="C23" s="52">
         <v>21</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="23"/>
+      <c r="D23" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
+      <c r="G23" s="20">
+        <v>-12</v>
+      </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="22"/>
@@ -8496,14 +8548,22 @@
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="15">
+        <v>45355</v>
+      </c>
       <c r="C24" s="52">
         <v>22</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="21"/>
+      <c r="D24" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21">
+        <v>-139</v>
+      </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="22"/>
@@ -8513,14 +8573,22 @@
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="15">
+        <v>45355</v>
+      </c>
       <c r="C25" s="52">
         <v>23</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="23"/>
+      <c r="D25" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="G25" s="21">
+        <v>-44</v>
+      </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="22"/>
@@ -11029,7 +11097,7 @@
       </c>
       <c r="G175" s="34">
         <f>SUM(G3:G174)</f>
-        <v>-1312.5400000000002</v>
+        <v>-1523.3100000000002</v>
       </c>
       <c r="H175" s="34">
         <f>SUM(H3:H174)</f>
@@ -12107,11 +12175,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="E169:E173 D174:E176">
     <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="13" priority="582" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A284E6B0-660F-43A6-AFEF-598827EDE14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1669236C-F78C-4248-9FF4-0A781830AF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="77">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -250,6 +250,21 @@
   </si>
   <si>
     <t>TzgL 27.2.</t>
+  </si>
+  <si>
+    <t>Zinsen AWO Kreis Kredit</t>
+  </si>
+  <si>
+    <t>Ausgaben Roland</t>
+  </si>
+  <si>
+    <t>Strom Nachzahlung</t>
+  </si>
+  <si>
+    <t>SPD JHV Miete</t>
+  </si>
+  <si>
+    <t>Bürgerbus</t>
   </si>
 </sst>
 </file>
@@ -3710,22 +3725,24 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+      <items count="14">
         <item h="1" x="6"/>
-        <item x="7"/>
         <item x="5"/>
         <item x="4"/>
+        <item m="1" x="12"/>
+        <item x="2"/>
+        <item x="0"/>
         <item x="1"/>
         <item x="3"/>
         <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item h="1" m="1" x="10"/>
+        <item x="7"/>
+        <item h="1" m="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3738,15 +3755,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -3758,7 +3772,13 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -3819,24 +3839,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="14">
+      <items count="12">
         <item h="1" x="6"/>
+        <item x="7"/>
         <item x="5"/>
         <item x="4"/>
-        <item m="1" x="12"/>
-        <item x="2"/>
-        <item x="0"/>
         <item x="1"/>
         <item x="3"/>
         <item x="8"/>
-        <item m="1" x="11"/>
-        <item h="1" m="1" x="10"/>
-        <item x="7"/>
-        <item h="1" m="1" x="9"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3849,12 +3867,15 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="8">
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -3866,13 +3887,7 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="11"/>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -5042,9 +5057,9 @@
   </sheetPr>
   <dimension ref="A1:IK175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5441,14 +5456,22 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="15">
+        <v>45357</v>
+      </c>
       <c r="B16" s="52">
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>25</v>
+      </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="F16" s="18">
+        <v>168.6</v>
+      </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
@@ -5458,14 +5481,22 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="15">
+        <v>45365</v>
+      </c>
       <c r="B17" s="52">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="50"/>
+      <c r="C17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E17" s="20"/>
-      <c r="F17" s="18"/>
+      <c r="F17" s="21">
+        <v>20</v>
+      </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="19"/>
@@ -6866,7 +6897,7 @@
       </c>
       <c r="F110" s="28">
         <f>SUM(F3:F109)</f>
-        <v>8745.4200000000055</v>
+        <v>8934.0200000000059</v>
       </c>
       <c r="G110" s="28">
         <f>SUM(G3:G109)</f>
@@ -6909,7 +6940,7 @@
       </c>
       <c r="F112" s="28">
         <f>F110+Ausgaben!G175</f>
-        <v>7222.1100000000051</v>
+        <v>7189.2900000000063</v>
       </c>
       <c r="G112" s="28">
         <f>G110+Ausgaben!H175</f>
@@ -6947,7 +6978,7 @@
       <c r="C114" s="24"/>
       <c r="D114" s="29">
         <f>SUM(E112:I112)</f>
-        <v>10279.220000000005</v>
+        <v>10246.400000000007</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="18"/>
@@ -7748,142 +7779,142 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:C92">
-    <cfRule type="cellIs" dxfId="59" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="58" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="151" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D99">
-    <cfRule type="cellIs" dxfId="57" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="56" priority="23" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D18:D67">
+    <cfRule type="cellIs" dxfId="56" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="55" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D86">
-    <cfRule type="cellIs" dxfId="54" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="53" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="52" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:G97">
-    <cfRule type="cellIs" dxfId="51" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:G109">
-    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="49" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="48" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="47" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="46" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F31">
-    <cfRule type="cellIs" dxfId="45" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="44" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="43" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="221" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="42" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="202" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G86">
-    <cfRule type="cellIs" dxfId="41" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G15 G17:G23 G25 H28:I109 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G98 E99:G99 D109:I109 E110:I174 D114">
-    <cfRule type="cellIs" dxfId="40" priority="302" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="39" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="303" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="38" priority="223" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="224" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="37" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="167" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="36" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G12 H4:I26 A93:A96 D4:D15">
-    <cfRule type="cellIs" dxfId="35" priority="8" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G4:G12 D4:D15 H4:I26 A93:A96">
+    <cfRule type="cellIs" dxfId="35" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
-    <cfRule type="cellIs" dxfId="34" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="33" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="32" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7911,9 +7942,9 @@
   </sheetPr>
   <dimension ref="A1:IM241"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8598,14 +8629,22 @@
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="43"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="15">
+        <v>45364</v>
+      </c>
       <c r="C26" s="52">
         <v>24</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="23"/>
+      <c r="D26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
+      <c r="G26" s="21">
+        <v>-46.36</v>
+      </c>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
@@ -8615,14 +8654,22 @@
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="15">
+        <v>45365</v>
+      </c>
       <c r="C27" s="52">
         <v>25</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="23"/>
+      <c r="D27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
+      <c r="G27" s="21">
+        <v>-111.94</v>
+      </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="22"/>
@@ -8632,14 +8679,22 @@
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="15">
+        <v>45366</v>
+      </c>
       <c r="C28" s="52">
         <v>26</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="23"/>
+      <c r="D28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
+      <c r="G28" s="21">
+        <v>-60</v>
+      </c>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="22"/>
@@ -8649,14 +8704,22 @@
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
-      <c r="B29" s="15"/>
+      <c r="B29" s="15">
+        <v>45366</v>
+      </c>
       <c r="C29" s="52">
         <v>27</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="23"/>
+      <c r="D29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
+      <c r="G29" s="21">
+        <v>-3.12</v>
+      </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="22"/>
@@ -11097,7 +11160,7 @@
       </c>
       <c r="G175" s="34">
         <f>SUM(G3:G174)</f>
-        <v>-1523.3100000000002</v>
+        <v>-1744.73</v>
       </c>
       <c r="H175" s="34">
         <f>SUM(H3:H174)</f>
@@ -12179,67 +12242,67 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="12" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="11" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="10" priority="566" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="566" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F45">
-    <cfRule type="cellIs" dxfId="9" priority="380" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="380" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="8" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F64">
-    <cfRule type="cellIs" dxfId="7" priority="359" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="359" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="6" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="5" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" dxfId="4" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:F121">
-    <cfRule type="cellIs" dxfId="3" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135:F136">
-    <cfRule type="cellIs" dxfId="2" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143:F145">
-    <cfRule type="cellIs" dxfId="1" priority="443" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="443" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147:F148">
-    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1669236C-F78C-4248-9FF4-0A781830AF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691A9FBD-4A52-4A73-9C11-3DAA774816B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="82">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Zinsen Sparbuch</t>
   </si>
   <si>
-    <t>Spende Ritter</t>
-  </si>
-  <si>
     <t>Ausgaben Wolfgang</t>
   </si>
   <si>
@@ -265,6 +262,24 @@
   </si>
   <si>
     <t>Bürgerbus</t>
+  </si>
+  <si>
+    <t>TzgL 12.3. Sammelmail 238€</t>
+  </si>
+  <si>
+    <t>SPD JHV Getränke Sammelmail 238€</t>
+  </si>
+  <si>
+    <t>Busreise Überschuss Sammelmail 238€</t>
+  </si>
+  <si>
+    <t>Spende privat H.Lutz Sammelmail 238€</t>
+  </si>
+  <si>
+    <t>Spende Unternehmen Ritter</t>
+  </si>
+  <si>
+    <t>Ausgaben Werbematerial</t>
   </si>
 </sst>
 </file>
@@ -3725,24 +3740,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="14">
+      <items count="12">
         <item h="1" x="6"/>
+        <item x="7"/>
         <item x="5"/>
         <item x="4"/>
-        <item m="1" x="12"/>
-        <item x="2"/>
-        <item x="0"/>
         <item x="1"/>
         <item x="3"/>
         <item x="8"/>
-        <item m="1" x="11"/>
-        <item h="1" m="1" x="10"/>
-        <item x="7"/>
-        <item h="1" m="1" x="9"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3755,12 +3768,15 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="8">
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -3772,13 +3788,7 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="11"/>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -3839,22 +3849,24 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+      <items count="14">
         <item h="1" x="6"/>
-        <item x="7"/>
         <item x="5"/>
         <item x="4"/>
+        <item m="1" x="12"/>
+        <item x="2"/>
+        <item x="0"/>
         <item x="1"/>
         <item x="3"/>
         <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item h="1" m="1" x="10"/>
+        <item x="7"/>
+        <item h="1" m="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3867,15 +3879,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -3887,7 +3896,13 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -5057,9 +5072,9 @@
   </sheetPr>
   <dimension ref="A1:IK175"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5213,7 +5228,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>13</v>
@@ -5238,7 +5253,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>28</v>
@@ -5263,7 +5278,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>0</v>
@@ -5288,7 +5303,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>0</v>
@@ -5313,7 +5328,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>13</v>
@@ -5338,7 +5353,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>13</v>
@@ -5363,7 +5378,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>0</v>
@@ -5388,7 +5403,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>22</v>
@@ -5413,7 +5428,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>22</v>
@@ -5438,7 +5453,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>0</v>
@@ -5463,7 +5478,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="50" t="s">
         <v>25</v>
@@ -5488,7 +5503,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>0</v>
@@ -5506,14 +5521,22 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="15">
+        <v>45366</v>
+      </c>
       <c r="B18" s="52">
         <v>15</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="19"/>
+      <c r="C18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="21">
+        <v>102</v>
+      </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
@@ -5523,14 +5546,22 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="15">
+        <v>45366</v>
+      </c>
       <c r="B19" s="52">
         <v>16</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
+      <c r="F19" s="21">
+        <v>35</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="19"/>
@@ -5540,14 +5571,22 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+      <c r="A20" s="15">
+        <v>45366</v>
+      </c>
       <c r="B20" s="52">
         <v>17</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18">
+        <v>31</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="19"/>
@@ -5555,14 +5594,22 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="15">
+        <v>45366</v>
+      </c>
       <c r="B21" s="52">
         <v>18</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="19"/>
+      <c r="C21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="21">
+        <v>70</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="19"/>
@@ -6897,7 +6944,7 @@
       </c>
       <c r="F110" s="28">
         <f>SUM(F3:F109)</f>
-        <v>8934.0200000000059</v>
+        <v>9172.0200000000059</v>
       </c>
       <c r="G110" s="28">
         <f>SUM(G3:G109)</f>
@@ -6940,7 +6987,7 @@
       </c>
       <c r="F112" s="28">
         <f>F110+Ausgaben!G175</f>
-        <v>7189.2900000000063</v>
+        <v>7379.0800000000054</v>
       </c>
       <c r="G112" s="28">
         <f>G110+Ausgaben!H175</f>
@@ -6978,7 +7025,7 @@
       <c r="C114" s="24"/>
       <c r="D114" s="29">
         <f>SUM(E112:I112)</f>
-        <v>10246.400000000007</v>
+        <v>10436.190000000006</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="18"/>
@@ -7779,141 +7826,146 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:C92">
-    <cfRule type="cellIs" dxfId="59" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="58" priority="151" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D99">
-    <cfRule type="cellIs" dxfId="57" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D67">
-    <cfRule type="cellIs" dxfId="56" priority="24" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D17 D19:D20 D22:D67">
+    <cfRule type="cellIs" dxfId="56" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="55" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D86">
-    <cfRule type="cellIs" dxfId="54" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="53" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="52" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:G97">
-    <cfRule type="cellIs" dxfId="51" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:G109">
-    <cfRule type="cellIs" dxfId="50" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="49" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="48" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="47" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="46" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F31">
-    <cfRule type="cellIs" dxfId="45" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="44" priority="239" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="241" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="43" priority="221" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="223" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="42" priority="202" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="204" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G86">
-    <cfRule type="cellIs" dxfId="41" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G15 G17:G23 G25 H28:I109 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G98 E99:G99 D109:I109 E110:I174 D114">
-    <cfRule type="cellIs" dxfId="40" priority="303" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="305" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="38" priority="224" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="226" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="37" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="169" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="36" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G12 D4:D15 H4:I26 A93:A96">
-    <cfRule type="cellIs" dxfId="35" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
-    <cfRule type="cellIs" dxfId="34" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="33" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="32" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7942,9 +7994,9 @@
   </sheetPr>
   <dimension ref="A1:IM241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8216,7 +8268,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>15</v>
@@ -8243,7 +8295,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>28</v>
@@ -8270,7 +8322,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>14</v>
@@ -8378,7 +8430,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>0</v>
@@ -8405,7 +8457,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>14</v>
@@ -8432,7 +8484,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>14</v>
@@ -8459,7 +8511,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="86" t="s">
         <v>22</v>
@@ -8486,7 +8538,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>19</v>
@@ -8511,7 +8563,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>0</v>
@@ -8536,7 +8588,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>0</v>
@@ -8636,7 +8688,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>0</v>
@@ -8661,7 +8713,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" s="86" t="s">
         <v>22</v>
@@ -8686,7 +8738,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>14</v>
@@ -8711,7 +8763,7 @@
         <v>27</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>0</v>
@@ -8729,14 +8781,22 @@
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
-      <c r="B30" s="15"/>
+      <c r="B30" s="15">
+        <v>45369</v>
+      </c>
       <c r="C30" s="52">
         <v>28</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="21"/>
+      <c r="D30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21">
+        <v>-35.22</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="22"/>
@@ -8746,14 +8806,22 @@
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
-      <c r="B31" s="15"/>
+      <c r="B31" s="15">
+        <v>45372</v>
+      </c>
       <c r="C31" s="52">
         <v>29</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="23"/>
+      <c r="D31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
+      <c r="G31" s="21">
+        <v>-12.99</v>
+      </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="22"/>
@@ -11160,7 +11228,7 @@
       </c>
       <c r="G175" s="34">
         <f>SUM(G3:G174)</f>
-        <v>-1744.73</v>
+        <v>-1792.94</v>
       </c>
       <c r="H175" s="34">
         <f>SUM(H3:H174)</f>
@@ -12152,166 +12220,158 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="31" priority="468" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="468" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:B134">
-    <cfRule type="cellIs" dxfId="30" priority="462" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="462" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="29" priority="451" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="451" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B161">
-    <cfRule type="cellIs" dxfId="28" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:B241">
-    <cfRule type="cellIs" dxfId="27" priority="414" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:C155">
-    <cfRule type="cellIs" dxfId="26" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C163">
-    <cfRule type="cellIs" dxfId="25" priority="416" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="416" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D158">
-    <cfRule type="cellIs" dxfId="24" priority="428" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:E159">
-    <cfRule type="cellIs" dxfId="23" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160:E160">
-    <cfRule type="cellIs" dxfId="22" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112 C164:C240 K176 J176:J239 I176:I241">
-    <cfRule type="cellIs" dxfId="21" priority="698" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="698" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130:D131">
-    <cfRule type="cellIs" dxfId="20" priority="466" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="466" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146:D147">
-    <cfRule type="cellIs" dxfId="19" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149:D150 C151:D151">
-    <cfRule type="cellIs" dxfId="18" priority="437" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="437" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E168">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="16" priority="650" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="650" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E158">
-    <cfRule type="cellIs" dxfId="15" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E169:E173 D174:E176">
-    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="13" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="12" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="11" priority="566" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="566" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F45">
-    <cfRule type="cellIs" dxfId="10" priority="380" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="380" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="9" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F64">
-    <cfRule type="cellIs" dxfId="8" priority="359" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="359" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="7" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="6" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" dxfId="5" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:F121">
-    <cfRule type="cellIs" dxfId="4" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135:F136">
-    <cfRule type="cellIs" dxfId="3" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143:F145">
-    <cfRule type="cellIs" dxfId="2" priority="443" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="443" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147:F148">
-    <cfRule type="cellIs" dxfId="1" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E152 E109:E111 E132:E140 E32:E87 E89 E168:E174 E91:E93 E95:E96 E100:E102 E104 E106:E107 E114:E117 E119:E120 E123:E125 E128:E129 E142 E144 E146:E148 E150 E154:E155 E157 E159 E161:E165 E3:E30" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E152 E109:E111 E132:E140 E89 E168:E174 E91:E93 E95:E96 E100:E102 E104 E106:E107 E114:E117 E119:E120 E123:E125 E128:E129 E142 E144 E146:E148 E150 E154:E155 E157 E159 E161:E165 E3:E87" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31" xr:uid="{00000000-0002-0000-0100-000004000000}">
-      <formula1>$M$1:$M$20</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103 E166:E167 E108 E112:E113 E118 E121:E122 E126:E127 E130:E131 E141 E143 E145 E149 E151 E153 E156 E158 E160 E105" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$19</formula1>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691A9FBD-4A52-4A73-9C11-3DAA774816B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCBBFE8-16BD-4BE1-B26B-4598111C590D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="87">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -280,6 +280,21 @@
   </si>
   <si>
     <t>Ausgaben Werbematerial</t>
+  </si>
+  <si>
+    <t>Bürobedarf</t>
+  </si>
+  <si>
+    <t>Wasser Abrechnung</t>
+  </si>
+  <si>
+    <t>Wasser Abschlag</t>
+  </si>
+  <si>
+    <t>Tzgl 26.3.24</t>
+  </si>
+  <si>
+    <t>Tzgl</t>
   </si>
 </sst>
 </file>
@@ -951,22 +966,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="63">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3740,6 +3740,120 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item h="1" x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item m="1" x="12"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="11"/>
+        <item h="1" m="1" x="10"/>
+        <item x="7"/>
+        <item h="1" m="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="59">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -3833,120 +3947,6 @@
       </pivotArea>
     </format>
     <format dxfId="60">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="14">
-        <item h="1" x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item m="1" x="12"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="11"/>
-        <item h="1" m="1" x="10"/>
-        <item x="7"/>
-        <item h="1" m="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="65">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="64">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5072,9 +5072,9 @@
   </sheetPr>
   <dimension ref="A1:IK175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5617,14 +5617,22 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="15">
+        <v>45384</v>
+      </c>
       <c r="B22" s="52">
         <v>19</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="19"/>
+      <c r="C22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
+      <c r="F22" s="21">
+        <v>110</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="19"/>
@@ -6944,7 +6952,7 @@
       </c>
       <c r="F110" s="28">
         <f>SUM(F3:F109)</f>
-        <v>9172.0200000000059</v>
+        <v>9282.0200000000059</v>
       </c>
       <c r="G110" s="28">
         <f>SUM(G3:G109)</f>
@@ -6987,7 +6995,7 @@
       </c>
       <c r="F112" s="28">
         <f>F110+Ausgaben!G175</f>
-        <v>7379.0800000000054</v>
+        <v>7147.5400000000063</v>
       </c>
       <c r="G112" s="28">
         <f>G110+Ausgaben!H175</f>
@@ -7025,7 +7033,7 @@
       <c r="C114" s="24"/>
       <c r="D114" s="29">
         <f>SUM(E112:I112)</f>
-        <v>10436.190000000006</v>
+        <v>10204.650000000007</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="18"/>
@@ -7826,147 +7834,137 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:C92">
-    <cfRule type="cellIs" dxfId="59" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="58" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D99">
-    <cfRule type="cellIs" dxfId="57" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17 D19:D20 D22:D67">
-    <cfRule type="cellIs" dxfId="56" priority="3" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D17:D67">
+    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="55" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D86">
-    <cfRule type="cellIs" dxfId="54" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="53" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="52" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:G97">
-    <cfRule type="cellIs" dxfId="51" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:G109">
-    <cfRule type="cellIs" dxfId="50" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="49" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="48" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="47" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="46" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F31">
-    <cfRule type="cellIs" dxfId="45" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="44" priority="241" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="241" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="43" priority="223" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="223" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="42" priority="204" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="204" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G86">
-    <cfRule type="cellIs" dxfId="41" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G15 G17:G23 G25 H28:I109 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G98 E99:G99 D109:I109 E110:I174 D114">
-    <cfRule type="cellIs" dxfId="40" priority="305" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="305" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="39" priority="226" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="226" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="38" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="169" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="37" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G12 D4:D15 H4:I26 A93:A96">
-    <cfRule type="cellIs" dxfId="36" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
-    <cfRule type="cellIs" dxfId="35" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="34" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="33" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7994,9 +7992,9 @@
   </sheetPr>
   <dimension ref="A1:IM241"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8831,14 +8829,22 @@
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
-      <c r="B32" s="15"/>
+      <c r="B32" s="15">
+        <v>45376</v>
+      </c>
       <c r="C32" s="52">
         <v>30</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="23"/>
+      <c r="D32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>15</v>
+      </c>
       <c r="F32" s="17"/>
-      <c r="G32" s="21"/>
+      <c r="G32" s="21">
+        <v>-72.59</v>
+      </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="22"/>
@@ -8848,14 +8854,22 @@
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="15">
+        <v>45377</v>
+      </c>
       <c r="C33" s="52">
         <v>31</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="23"/>
+      <c r="D33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
+      <c r="G33" s="21">
+        <v>-19.41</v>
+      </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="22"/>
@@ -8865,14 +8879,22 @@
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="43"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="15">
+        <v>45384</v>
+      </c>
       <c r="C34" s="52">
         <v>32</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="23"/>
+      <c r="D34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
+      <c r="G34" s="21">
+        <v>-30.42</v>
+      </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="22"/>
@@ -8882,14 +8904,22 @@
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="43"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="15">
+        <v>45384</v>
+      </c>
       <c r="C35" s="52">
         <v>33</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="23"/>
+      <c r="D35" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
+      <c r="G35" s="20">
+        <v>-12</v>
+      </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="22"/>
@@ -8899,14 +8929,22 @@
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
-      <c r="B36" s="15"/>
+      <c r="B36" s="15">
+        <v>45385</v>
+      </c>
       <c r="C36" s="52">
         <v>34</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="23"/>
+      <c r="D36" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
+      <c r="G36" s="21">
+        <v>-139</v>
+      </c>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="22"/>
@@ -8916,14 +8954,22 @@
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
-      <c r="B37" s="15"/>
+      <c r="B37" s="15">
+        <v>45385</v>
+      </c>
       <c r="C37" s="52">
         <v>35</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="23"/>
+      <c r="D37" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
+      <c r="G37" s="21">
+        <v>-44</v>
+      </c>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="22"/>
@@ -8933,14 +8979,22 @@
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
-      <c r="B38" s="15"/>
+      <c r="B38" s="15">
+        <v>45386</v>
+      </c>
       <c r="C38" s="52">
         <v>36</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="21"/>
+      <c r="D38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21">
+        <v>-24.12</v>
+      </c>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="22"/>
@@ -11228,7 +11282,7 @@
       </c>
       <c r="G175" s="34">
         <f>SUM(G3:G174)</f>
-        <v>-1792.94</v>
+        <v>-2134.48</v>
       </c>
       <c r="H175" s="34">
         <f>SUM(H3:H174)</f>
@@ -12220,152 +12274,147 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="32" priority="468" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="468" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:B134">
-    <cfRule type="cellIs" dxfId="31" priority="462" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="462" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="30" priority="451" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="451" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B161">
-    <cfRule type="cellIs" dxfId="29" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:B241">
-    <cfRule type="cellIs" dxfId="28" priority="414" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:C155">
-    <cfRule type="cellIs" dxfId="27" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C163">
-    <cfRule type="cellIs" dxfId="26" priority="416" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="416" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D158">
-    <cfRule type="cellIs" dxfId="25" priority="428" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:E159">
-    <cfRule type="cellIs" dxfId="24" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160:E160">
-    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112 C164:C240 K176 J176:J239 I176:I241">
-    <cfRule type="cellIs" dxfId="22" priority="698" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="698" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130:D131">
-    <cfRule type="cellIs" dxfId="21" priority="466" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="466" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146:D147">
-    <cfRule type="cellIs" dxfId="20" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149:D150 C151:D151">
-    <cfRule type="cellIs" dxfId="19" priority="437" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="437" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E168">
-    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="17" priority="650" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="650" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E158">
-    <cfRule type="cellIs" dxfId="16" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E169:E173 D174:E176">
-    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="13" priority="176" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="12" priority="566" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F45">
-    <cfRule type="cellIs" dxfId="11" priority="380" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="380" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="10" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F64">
-    <cfRule type="cellIs" dxfId="9" priority="359" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="359" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="8" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="7" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" dxfId="6" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:F121">
-    <cfRule type="cellIs" dxfId="5" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135:F136">
-    <cfRule type="cellIs" dxfId="4" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143:F145">
-    <cfRule type="cellIs" dxfId="3" priority="443" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="443" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147:F148">
-    <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCBBFE8-16BD-4BE1-B26B-4598111C590D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A37E3B8-4B57-4CBF-96C7-6F78CD304127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="91">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>Tzgl</t>
+  </si>
+  <si>
+    <t>Awo Bund Rückverteilung</t>
+  </si>
+  <si>
+    <t>Tzgl 9.4.24</t>
+  </si>
+  <si>
+    <t>Individualhilfe Speiger</t>
+  </si>
+  <si>
+    <t>Individualhilfe Jörgens</t>
   </si>
 </sst>
 </file>
@@ -966,12 +978,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="62">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3740,6 +3747,115 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="6"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="58">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="56">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -3827,126 +3943,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="59">
+    <format dxfId="61">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="6"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="62">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="61">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="60">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5072,9 +5079,9 @@
   </sheetPr>
   <dimension ref="A1:IK175"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5640,14 +5647,22 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="15">
+        <v>45392</v>
+      </c>
       <c r="B23" s="52">
         <v>20</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="19"/>
+      <c r="C23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="21"/>
+      <c r="F23" s="21">
+        <v>3.92</v>
+      </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="19"/>
@@ -5655,14 +5670,22 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="15">
+        <v>45392</v>
+      </c>
       <c r="B24" s="52">
         <v>21</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="19"/>
+      <c r="C24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E24" s="20"/>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18">
+        <v>105</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="19"/>
@@ -6952,7 +6975,7 @@
       </c>
       <c r="F110" s="28">
         <f>SUM(F3:F109)</f>
-        <v>9282.0200000000059</v>
+        <v>9390.940000000006</v>
       </c>
       <c r="G110" s="28">
         <f>SUM(G3:G109)</f>
@@ -6995,7 +7018,7 @@
       </c>
       <c r="F112" s="28">
         <f>F110+Ausgaben!G175</f>
-        <v>7147.5400000000063</v>
+        <v>6899.9700000000066</v>
       </c>
       <c r="G112" s="28">
         <f>G110+Ausgaben!H175</f>
@@ -7033,7 +7056,7 @@
       <c r="C114" s="24"/>
       <c r="D114" s="29">
         <f>SUM(E112:I112)</f>
-        <v>10204.650000000007</v>
+        <v>9957.0800000000072</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="18"/>
@@ -7834,137 +7857,137 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:C92">
-    <cfRule type="cellIs" dxfId="56" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="55" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D99">
-    <cfRule type="cellIs" dxfId="54" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="52" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D86">
-    <cfRule type="cellIs" dxfId="51" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="50" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="49" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:G97">
-    <cfRule type="cellIs" dxfId="48" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:G109">
-    <cfRule type="cellIs" dxfId="47" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="46" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="45" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="44" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="43" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F31">
-    <cfRule type="cellIs" dxfId="42" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="41" priority="241" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="241" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="40" priority="223" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="223" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="39" priority="204" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="204" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G86">
-    <cfRule type="cellIs" dxfId="38" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G15 G17:G23 G25 H28:I109 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G98 E99:G99 D109:I109 E110:I174 D114">
-    <cfRule type="cellIs" dxfId="37" priority="305" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="305" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="36" priority="226" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="226" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="35" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="169" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="34" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G12 D4:D15 H4:I26 A93:A96">
-    <cfRule type="cellIs" dxfId="33" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
-    <cfRule type="cellIs" dxfId="32" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="31" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="30" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7992,9 +8015,9 @@
   </sheetPr>
   <dimension ref="A1:IM241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9004,14 +9027,22 @@
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
-      <c r="B39" s="15"/>
+      <c r="B39" s="15">
+        <v>45392</v>
+      </c>
       <c r="C39" s="52">
         <v>37</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="23"/>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
+      <c r="G39" s="21">
+        <v>-11.66</v>
+      </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="22"/>
@@ -9021,14 +9052,22 @@
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="43"/>
-      <c r="B40" s="15"/>
+      <c r="B40" s="15">
+        <v>45397</v>
+      </c>
       <c r="C40" s="52">
         <v>38</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="23"/>
+      <c r="D40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
+      <c r="G40" s="21">
+        <v>-18.36</v>
+      </c>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="22"/>
@@ -9038,14 +9077,22 @@
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="15">
+        <v>45397</v>
+      </c>
       <c r="C41" s="52">
         <v>39</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="23"/>
+      <c r="D41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
+      <c r="G41" s="21">
+        <v>-90</v>
+      </c>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="22"/>
@@ -9055,14 +9102,22 @@
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="43"/>
-      <c r="B42" s="15"/>
+      <c r="B42" s="15">
+        <v>45397</v>
+      </c>
       <c r="C42" s="52">
         <v>40</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="23"/>
+      <c r="D42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="F42" s="20"/>
-      <c r="G42" s="21"/>
+      <c r="G42" s="21">
+        <v>-200</v>
+      </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="22"/>
@@ -9072,14 +9127,22 @@
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="43"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="15">
+        <v>45399</v>
+      </c>
       <c r="C43" s="52">
         <v>41</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="23"/>
+      <c r="D43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F43" s="20"/>
-      <c r="G43" s="21"/>
+      <c r="G43" s="21">
+        <v>-36.47</v>
+      </c>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="22"/>
@@ -11282,7 +11345,7 @@
       </c>
       <c r="G175" s="34">
         <f>SUM(G3:G174)</f>
-        <v>-2134.48</v>
+        <v>-2490.9699999999998</v>
       </c>
       <c r="H175" s="34">
         <f>SUM(H3:H174)</f>
@@ -12274,97 +12337,97 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="29" priority="468" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="468" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:B134">
-    <cfRule type="cellIs" dxfId="28" priority="462" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="462" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="27" priority="451" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="451" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B161">
-    <cfRule type="cellIs" dxfId="26" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:B241">
-    <cfRule type="cellIs" dxfId="25" priority="414" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:C155">
-    <cfRule type="cellIs" dxfId="24" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C163">
-    <cfRule type="cellIs" dxfId="23" priority="416" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="416" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D158">
-    <cfRule type="cellIs" dxfId="22" priority="428" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:E159">
-    <cfRule type="cellIs" dxfId="21" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160:E160">
-    <cfRule type="cellIs" dxfId="20" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112 C164:C240 K176 J176:J239 I176:I241">
-    <cfRule type="cellIs" dxfId="19" priority="698" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="698" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130:D131">
-    <cfRule type="cellIs" dxfId="18" priority="466" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="466" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146:D147">
-    <cfRule type="cellIs" dxfId="17" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149:D150 C151:D151">
-    <cfRule type="cellIs" dxfId="16" priority="437" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="437" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E168">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="14" priority="650" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="650" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E158">
-    <cfRule type="cellIs" dxfId="13" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E169:E173 D174:E176">
-    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="11" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A37E3B8-4B57-4CBF-96C7-6F78CD304127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48FA43A-4780-4B38-95B8-B409061F560C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="98">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -307,6 +307,27 @@
   </si>
   <si>
     <t>Individualhilfe Jörgens</t>
+  </si>
+  <si>
+    <t>Spende Anonym JHV</t>
+  </si>
+  <si>
+    <t>Miete SPD 11.4.</t>
+  </si>
+  <si>
+    <t>Trauerkarte Fr.Schafberger</t>
+  </si>
+  <si>
+    <t>Tzgl 23.4.24</t>
+  </si>
+  <si>
+    <t>Ehrung Karin&amp;Roland</t>
+  </si>
+  <si>
+    <t>SPD Einnahmen 24.4.</t>
+  </si>
+  <si>
+    <t>Miete SPD 24.4.</t>
   </si>
 </sst>
 </file>
@@ -978,7 +999,17 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="64">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3829,17 +3860,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="58">
+    <format dxfId="60">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3943,17 +3974,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="61">
+    <format dxfId="63">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5080,8 +5111,8 @@
   <dimension ref="A1:IK175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5693,14 +5724,22 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="15">
+        <v>45404</v>
+      </c>
       <c r="B25" s="52">
         <v>22</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="19"/>
+      <c r="C25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21">
+        <v>76</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="19"/>
@@ -5708,14 +5747,22 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+      <c r="A26" s="15">
+        <v>45406</v>
+      </c>
       <c r="B26" s="52">
         <v>23</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
+      <c r="C26" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21">
+        <v>20</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="19"/>
@@ -5723,14 +5770,22 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="15">
+        <v>45407</v>
+      </c>
       <c r="B27" s="16">
         <v>24</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="19"/>
+      <c r="C27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
+      <c r="F27" s="18">
+        <v>107</v>
+      </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="19"/>
@@ -5738,14 +5793,22 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="15">
+        <v>45407</v>
+      </c>
       <c r="B28" s="16">
         <v>25</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
+      <c r="C28" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21">
+        <v>20</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="19"/>
@@ -5753,14 +5816,22 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
+      <c r="A29" s="15">
+        <v>45408</v>
+      </c>
       <c r="B29" s="16">
         <v>26</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="19"/>
+      <c r="C29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
+      <c r="F29" s="21">
+        <v>39</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="19"/>
@@ -6975,7 +7046,7 @@
       </c>
       <c r="F110" s="28">
         <f>SUM(F3:F109)</f>
-        <v>9390.940000000006</v>
+        <v>9652.940000000006</v>
       </c>
       <c r="G110" s="28">
         <f>SUM(G3:G109)</f>
@@ -7018,7 +7089,7 @@
       </c>
       <c r="F112" s="28">
         <f>F110+Ausgaben!G175</f>
-        <v>6899.9700000000066</v>
+        <v>6967.6500000000069</v>
       </c>
       <c r="G112" s="28">
         <f>G110+Ausgaben!H175</f>
@@ -7056,7 +7127,7 @@
       <c r="C114" s="24"/>
       <c r="D114" s="29">
         <f>SUM(E112:I112)</f>
-        <v>9957.0800000000072</v>
+        <v>10024.760000000007</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="18"/>
@@ -7857,137 +7928,137 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:C92">
-    <cfRule type="cellIs" dxfId="55" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="54" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D99">
-    <cfRule type="cellIs" dxfId="53" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="52" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="51" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D86">
-    <cfRule type="cellIs" dxfId="50" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="49" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="48" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:G97">
-    <cfRule type="cellIs" dxfId="47" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:G109">
-    <cfRule type="cellIs" dxfId="46" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="45" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="44" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="43" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="42" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F31">
-    <cfRule type="cellIs" dxfId="41" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="40" priority="241" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="39" priority="223" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="242" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="38" priority="204" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="205" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G86">
-    <cfRule type="cellIs" dxfId="37" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I3 G15 G17:G23 G25 H28:I109 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G98 E99:G99 D109:I109 E110:I174 D114">
-    <cfRule type="cellIs" dxfId="36" priority="305" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:I3 G15 G17:G23 H28:I109 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G98 E99:G99 D109:I109 E110:I174 D114">
+    <cfRule type="cellIs" dxfId="39" priority="306" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="35" priority="226" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="227" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="34" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="33" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G12 D4:D15 H4:I26 A93:A96">
-    <cfRule type="cellIs" dxfId="32" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:G26">
+    <cfRule type="cellIs" dxfId="34" priority="224" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
-    <cfRule type="cellIs" dxfId="31" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="30" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="29" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8016,8 +8087,8 @@
   <dimension ref="A1:IM241"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9152,14 +9223,22 @@
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
-      <c r="B44" s="15"/>
+      <c r="B44" s="15">
+        <v>45404</v>
+      </c>
       <c r="C44" s="52">
         <v>42</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="21"/>
+      <c r="D44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21">
+        <v>-12.99</v>
+      </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="22"/>
@@ -9169,14 +9248,22 @@
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="43"/>
-      <c r="B45" s="15"/>
+      <c r="B45" s="15">
+        <v>45406</v>
+      </c>
       <c r="C45" s="52">
         <v>43</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="23"/>
+      <c r="D45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="F45" s="17"/>
-      <c r="G45" s="21"/>
+      <c r="G45" s="21">
+        <v>-25</v>
+      </c>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="22"/>
@@ -9186,14 +9273,22 @@
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="43"/>
-      <c r="B46" s="15"/>
+      <c r="B46" s="15">
+        <v>45406</v>
+      </c>
       <c r="C46" s="52">
         <v>44</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="23"/>
+      <c r="D46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
+      <c r="G46" s="21">
+        <v>-26.46</v>
+      </c>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="22"/>
@@ -9203,14 +9298,22 @@
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="43"/>
-      <c r="B47" s="15"/>
+      <c r="B47" s="15">
+        <v>45407</v>
+      </c>
       <c r="C47" s="52">
         <v>45</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="23"/>
+      <c r="D47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F47" s="20"/>
-      <c r="G47" s="21"/>
+      <c r="G47" s="21">
+        <v>-69.87</v>
+      </c>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="22"/>
@@ -9220,14 +9323,22 @@
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="43"/>
-      <c r="B48" s="15"/>
+      <c r="B48" s="15">
+        <v>45407</v>
+      </c>
       <c r="C48" s="52">
         <v>46</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
+      <c r="D48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="21">
+        <v>-60</v>
+      </c>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="22"/>
@@ -11345,7 +11456,7 @@
       </c>
       <c r="G175" s="34">
         <f>SUM(G3:G174)</f>
-        <v>-2490.9699999999998</v>
+        <v>-2685.2899999999995</v>
       </c>
       <c r="H175" s="34">
         <f>SUM(H3:H174)</f>
@@ -12337,147 +12448,152 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="28" priority="468" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="469" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:B134">
-    <cfRule type="cellIs" dxfId="27" priority="462" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="463" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="26" priority="451" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="452" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B161">
-    <cfRule type="cellIs" dxfId="25" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:B241">
-    <cfRule type="cellIs" dxfId="24" priority="414" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="415" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:C155">
-    <cfRule type="cellIs" dxfId="23" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C163">
-    <cfRule type="cellIs" dxfId="22" priority="416" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="417" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D158">
-    <cfRule type="cellIs" dxfId="21" priority="428" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="429" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:E159">
-    <cfRule type="cellIs" dxfId="20" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="426" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160:E160">
-    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112 C164:C240 K176 J176:J239 I176:I241">
-    <cfRule type="cellIs" dxfId="18" priority="698" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="699" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130:D131">
-    <cfRule type="cellIs" dxfId="17" priority="466" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="467" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146:D147">
-    <cfRule type="cellIs" dxfId="16" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149:D150 C151:D151">
-    <cfRule type="cellIs" dxfId="15" priority="437" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="438" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E168">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="13" priority="650" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="651" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E158">
-    <cfRule type="cellIs" dxfId="12" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E169:E173 D174:E176">
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="10" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F45">
-    <cfRule type="cellIs" dxfId="9" priority="380" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F45">
+    <cfRule type="cellIs" dxfId="11" priority="381" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="8" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F64">
-    <cfRule type="cellIs" dxfId="7" priority="359" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="360" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="6" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="5" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" dxfId="4" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:F121">
-    <cfRule type="cellIs" dxfId="3" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135:F136">
-    <cfRule type="cellIs" dxfId="2" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143:F145">
-    <cfRule type="cellIs" dxfId="1" priority="443" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="444" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147:F148">
-    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48FA43A-4780-4B38-95B8-B409061F560C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB93B7FC-DC95-4A6A-B5AD-DDB57DFD1242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="115">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -328,6 +328,57 @@
   </si>
   <si>
     <t>Miete SPD 24.4.</t>
+  </si>
+  <si>
+    <t>Miete SPD Gänslisel Kinderfest</t>
+  </si>
+  <si>
+    <t>Bonholz Open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tzgl </t>
+  </si>
+  <si>
+    <t>Radservice Klein</t>
+  </si>
+  <si>
+    <t>Radservice Münster</t>
+  </si>
+  <si>
+    <t>Miete JHV</t>
+  </si>
+  <si>
+    <t>Spende Radservice Frau Auch</t>
+  </si>
+  <si>
+    <t>Bonholz Open Helfer</t>
+  </si>
+  <si>
+    <t>Brezeln Radservice</t>
+  </si>
+  <si>
+    <t>Urkunden</t>
+  </si>
+  <si>
+    <t>Radservice Steinbrücker</t>
+  </si>
+  <si>
+    <t>Helfer Radservice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Radservice Spende Litzbarksi</t>
+  </si>
+  <si>
+    <t>Radservice Verpflegung</t>
+  </si>
+  <si>
+    <t>Indivhilfe H.Natvango</t>
+  </si>
+  <si>
+    <t>Pylonen für Kettcar</t>
+  </si>
+  <si>
+    <t>Sonnenschirme</t>
   </si>
 </sst>
 </file>
@@ -999,17 +1050,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="62">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3778,115 +3819,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="6"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="60">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="59">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="58">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -3974,17 +3906,126 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="63">
+    <format dxfId="58">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="56">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="6"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
     <format dxfId="61">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5111,8 +5152,8 @@
   <dimension ref="A1:IK175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5839,14 +5880,22 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
+      <c r="A30" s="15">
+        <v>45415</v>
+      </c>
       <c r="B30" s="16">
         <v>27</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="19"/>
+      <c r="C30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
+      <c r="F30" s="18">
+        <v>10</v>
+      </c>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
@@ -5854,14 +5903,22 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
+      <c r="A31" s="15">
+        <v>45418</v>
+      </c>
       <c r="B31" s="16">
         <v>28</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="19"/>
+      <c r="C31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
+      <c r="F31" s="18">
+        <v>5</v>
+      </c>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="19"/>
@@ -5869,14 +5926,22 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
+      <c r="A32" s="15">
+        <v>45419</v>
+      </c>
       <c r="B32" s="16">
         <v>29</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
+      <c r="F32" s="18">
+        <v>35</v>
+      </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="19"/>
@@ -5884,14 +5949,22 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
+      <c r="A33" s="15">
+        <v>45422</v>
+      </c>
       <c r="B33" s="16">
         <v>30</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="19"/>
+      <c r="C33" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
+      <c r="F33" s="18">
+        <v>120</v>
+      </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="19"/>
@@ -5899,14 +5972,22 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
+      <c r="A34" s="15">
+        <v>45057</v>
+      </c>
       <c r="B34" s="16">
         <v>31</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
+      <c r="C34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="19"/>
@@ -5914,14 +5995,22 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
+      <c r="A35" s="15">
+        <v>45057</v>
+      </c>
       <c r="B35" s="16">
         <v>32</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21"/>
+      <c r="C35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18">
+        <v>0</v>
+      </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="19"/>
@@ -5929,14 +6018,22 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+      <c r="A36" s="15">
+        <v>45057</v>
+      </c>
       <c r="B36" s="16">
         <v>33</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
+      <c r="C36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18">
+        <v>0</v>
+      </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="19"/>
@@ -5944,14 +6041,22 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
+      <c r="A37" s="15">
+        <v>45059</v>
+      </c>
       <c r="B37" s="16">
         <v>34</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
+      <c r="F37" s="18">
+        <v>50</v>
+      </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
       <c r="I37" s="19"/>
@@ -7046,7 +7151,7 @@
       </c>
       <c r="F110" s="28">
         <f>SUM(F3:F109)</f>
-        <v>9652.940000000006</v>
+        <v>9872.940000000006</v>
       </c>
       <c r="G110" s="28">
         <f>SUM(G3:G109)</f>
@@ -7089,7 +7194,7 @@
       </c>
       <c r="F112" s="28">
         <f>F110+Ausgaben!G175</f>
-        <v>6967.6500000000069</v>
+        <v>6112.320000000007</v>
       </c>
       <c r="G112" s="28">
         <f>G110+Ausgaben!H175</f>
@@ -7127,7 +7232,7 @@
       <c r="C114" s="24"/>
       <c r="D114" s="29">
         <f>SUM(E112:I112)</f>
-        <v>10024.760000000007</v>
+        <v>9169.4300000000076</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="18"/>
@@ -7928,137 +8033,132 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:C92">
-    <cfRule type="cellIs" dxfId="57" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="56" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D99">
-    <cfRule type="cellIs" dxfId="55" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="54" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="53" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D86">
-    <cfRule type="cellIs" dxfId="52" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="51" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="50" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:G97">
-    <cfRule type="cellIs" dxfId="49" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:G109">
-    <cfRule type="cellIs" dxfId="48" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="47" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="46" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="45" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:F31">
-    <cfRule type="cellIs" dxfId="43" priority="29" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E30:F36">
+    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="42" priority="242" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="247" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="41" priority="205" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G86">
-    <cfRule type="cellIs" dxfId="40" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G15 G17:G23 H28:I109 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G98 E99:G99 D109:I109 E110:I174 D114">
-    <cfRule type="cellIs" dxfId="39" priority="306" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="311" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="38" priority="227" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="232" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="37" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="175" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="36" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:I27">
+    <cfRule type="cellIs" dxfId="34" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G12 D4:D15 H4:I26 A93:A96">
-    <cfRule type="cellIs" dxfId="35" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G26">
-    <cfRule type="cellIs" dxfId="34" priority="224" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="229" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
-    <cfRule type="cellIs" dxfId="33" priority="81" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G28:G36">
+    <cfRule type="cellIs" dxfId="31" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="32" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="31" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8087,8 +8187,8 @@
   <dimension ref="A1:IM241"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9348,14 +9448,22 @@
     </row>
     <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="43"/>
-      <c r="B49" s="15"/>
+      <c r="B49" s="15">
+        <v>45414</v>
+      </c>
       <c r="C49" s="52">
         <v>47</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="23"/>
+      <c r="D49" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
+      <c r="G49" s="20">
+        <v>-12</v>
+      </c>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
       <c r="J49" s="22"/>
@@ -9365,14 +9473,22 @@
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="43"/>
-      <c r="B50" s="15"/>
+      <c r="B50" s="15">
+        <v>45414</v>
+      </c>
       <c r="C50" s="52">
         <v>48</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="23"/>
+      <c r="D50" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F50" s="20"/>
-      <c r="G50" s="21"/>
+      <c r="G50" s="21">
+        <v>-136.5</v>
+      </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="22"/>
@@ -9382,14 +9498,22 @@
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="43"/>
-      <c r="B51" s="15"/>
+      <c r="B51" s="15">
+        <v>45414</v>
+      </c>
       <c r="C51" s="52">
         <v>49</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="23"/>
+      <c r="D51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F51" s="20"/>
-      <c r="G51" s="21"/>
+      <c r="G51" s="21">
+        <v>-27.31</v>
+      </c>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="22"/>
@@ -9399,14 +9523,22 @@
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="43"/>
-      <c r="B52" s="15"/>
+      <c r="B52" s="15">
+        <v>45415</v>
+      </c>
       <c r="C52" s="52">
         <v>50</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="23"/>
+      <c r="D52" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F52" s="20"/>
-      <c r="G52" s="21"/>
+      <c r="G52" s="21">
+        <v>-139</v>
+      </c>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
       <c r="J52" s="22"/>
@@ -9416,14 +9548,22 @@
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="43"/>
-      <c r="B53" s="15"/>
+      <c r="B53" s="15">
+        <v>45415</v>
+      </c>
       <c r="C53" s="52">
         <v>51</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="23"/>
+      <c r="D53" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
+      <c r="G53" s="21">
+        <v>-44</v>
+      </c>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
       <c r="J53" s="22"/>
@@ -9433,14 +9573,22 @@
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="43"/>
-      <c r="B54" s="15"/>
+      <c r="B54" s="15">
+        <v>45418</v>
+      </c>
       <c r="C54" s="52">
         <v>52</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="23"/>
+      <c r="D54" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F54" s="20"/>
-      <c r="G54" s="21"/>
+      <c r="G54" s="21">
+        <v>-9.76</v>
+      </c>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="22"/>
@@ -9450,14 +9598,22 @@
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="43"/>
-      <c r="B55" s="15"/>
+      <c r="B55" s="15">
+        <v>45422</v>
+      </c>
       <c r="C55" s="52">
         <v>53</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="23"/>
+      <c r="D55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F55" s="20"/>
-      <c r="G55" s="21"/>
+      <c r="G55" s="21">
+        <v>-3.52</v>
+      </c>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
       <c r="J55" s="22"/>
@@ -9467,14 +9623,22 @@
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="43"/>
-      <c r="B56" s="15"/>
+      <c r="B56" s="15">
+        <v>45422</v>
+      </c>
       <c r="C56" s="52">
         <v>54</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="23"/>
+      <c r="D56" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
+      <c r="G56" s="21">
+        <v>-60</v>
+      </c>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
       <c r="J56" s="22"/>
@@ -9484,14 +9648,22 @@
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="43"/>
-      <c r="B57" s="15"/>
+      <c r="B57" s="15">
+        <v>45425</v>
+      </c>
       <c r="C57" s="52">
         <v>55</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="23"/>
+      <c r="D57" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F57" s="20"/>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21">
+        <v>-14.7</v>
+      </c>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
       <c r="J57" s="22"/>
@@ -9501,14 +9673,22 @@
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="43"/>
-      <c r="B58" s="15"/>
+      <c r="B58" s="15">
+        <v>45425</v>
+      </c>
       <c r="C58" s="52">
         <v>56</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="23"/>
+      <c r="D58" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F58" s="20"/>
-      <c r="G58" s="21"/>
+      <c r="G58" s="21">
+        <v>-34.700000000000003</v>
+      </c>
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
       <c r="J58" s="22"/>
@@ -9518,14 +9698,22 @@
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="43"/>
-      <c r="B59" s="15"/>
+      <c r="B59" s="15">
+        <v>45425</v>
+      </c>
       <c r="C59" s="52">
         <v>57</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="23"/>
+      <c r="D59" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="F59" s="17"/>
-      <c r="G59" s="21"/>
+      <c r="G59" s="21">
+        <v>-117</v>
+      </c>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="22"/>
@@ -9535,14 +9723,22 @@
     </row>
     <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="43"/>
-      <c r="B60" s="15"/>
+      <c r="B60" s="15">
+        <v>45425</v>
+      </c>
       <c r="C60" s="52">
         <v>58</v>
       </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="23"/>
+      <c r="D60" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F60" s="20"/>
-      <c r="G60" s="21"/>
+      <c r="G60" s="21">
+        <v>-30</v>
+      </c>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
       <c r="J60" s="22"/>
@@ -9552,14 +9748,22 @@
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="43"/>
-      <c r="B61" s="15"/>
+      <c r="B61" s="15">
+        <v>45426</v>
+      </c>
       <c r="C61" s="52">
         <v>59</v>
       </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="23"/>
+      <c r="D61" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F61" s="20"/>
-      <c r="G61" s="21"/>
+      <c r="G61" s="21">
+        <v>-43.81</v>
+      </c>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
       <c r="J61" s="22"/>
@@ -9569,14 +9773,22 @@
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="43"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="15">
+        <v>45433</v>
+      </c>
       <c r="C62" s="52">
         <v>60</v>
       </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="19"/>
+      <c r="D62" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="F62" s="17"/>
-      <c r="G62" s="21"/>
+      <c r="G62" s="21">
+        <v>-100</v>
+      </c>
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
       <c r="J62" s="22"/>
@@ -9586,14 +9798,22 @@
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="43"/>
-      <c r="B63" s="15"/>
+      <c r="B63" s="15">
+        <v>45433</v>
+      </c>
       <c r="C63" s="52">
         <v>61</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="23"/>
+      <c r="D63" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F63" s="17"/>
-      <c r="G63" s="21"/>
+      <c r="G63" s="21">
+        <v>-99.95</v>
+      </c>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
       <c r="J63" s="22"/>
@@ -9603,14 +9823,22 @@
     </row>
     <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="43"/>
-      <c r="B64" s="15"/>
+      <c r="B64" s="15">
+        <v>45436</v>
+      </c>
       <c r="C64" s="52">
         <v>62</v>
       </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="21"/>
+      <c r="D64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="20"/>
+      <c r="G64" s="21">
+        <v>-12.99</v>
+      </c>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
       <c r="J64" s="22"/>
@@ -9620,14 +9848,22 @@
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="43"/>
-      <c r="B65" s="15"/>
+      <c r="B65" s="15">
+        <v>45446</v>
+      </c>
       <c r="C65" s="52">
         <v>63</v>
       </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="23"/>
+      <c r="D65" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F65" s="20"/>
-      <c r="G65" s="21"/>
+      <c r="G65" s="21">
+        <v>-190.09</v>
+      </c>
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
       <c r="J65" s="22"/>
@@ -11456,7 +11692,7 @@
       </c>
       <c r="G175" s="34">
         <f>SUM(G3:G174)</f>
-        <v>-2685.2899999999995</v>
+        <v>-3760.619999999999</v>
       </c>
       <c r="H175" s="34">
         <f>SUM(H3:H174)</f>
@@ -12448,152 +12684,152 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="30" priority="469" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="470" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:B134">
-    <cfRule type="cellIs" dxfId="29" priority="463" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="464" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="28" priority="452" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="453" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B161">
-    <cfRule type="cellIs" dxfId="27" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:B241">
-    <cfRule type="cellIs" dxfId="26" priority="415" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="416" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:C155">
-    <cfRule type="cellIs" dxfId="25" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C163">
-    <cfRule type="cellIs" dxfId="24" priority="417" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="418" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D158">
-    <cfRule type="cellIs" dxfId="23" priority="429" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="430" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:E159">
-    <cfRule type="cellIs" dxfId="22" priority="426" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="427" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160:E160">
-    <cfRule type="cellIs" dxfId="21" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112 C164:C240 K176 J176:J239 I176:I241">
-    <cfRule type="cellIs" dxfId="20" priority="699" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="700" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130:D131">
-    <cfRule type="cellIs" dxfId="19" priority="467" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="468" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146:D147">
-    <cfRule type="cellIs" dxfId="18" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149:D150 C151:D151">
-    <cfRule type="cellIs" dxfId="17" priority="438" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="439" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E168">
-    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="15" priority="651" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="652" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E158">
-    <cfRule type="cellIs" dxfId="14" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E169:E173 D174:E176">
-    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="12" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="11" priority="381" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="382" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="10" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62:F64">
-    <cfRule type="cellIs" dxfId="9" priority="360" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F62:F63">
+    <cfRule type="cellIs" dxfId="7" priority="361" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="8" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="7" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" dxfId="6" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:F121">
-    <cfRule type="cellIs" dxfId="5" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135:F136">
-    <cfRule type="cellIs" dxfId="4" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143:F145">
-    <cfRule type="cellIs" dxfId="3" priority="444" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="445" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147:F148">
-    <cfRule type="cellIs" dxfId="2" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB93B7FC-DC95-4A6A-B5AD-DDB57DFD1242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2565A8-AF3F-4B5C-85C1-702536C3E3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="118">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -379,6 +379,15 @@
   </si>
   <si>
     <t>Sonnenschirme</t>
+  </si>
+  <si>
+    <t>Spende Ponderosa</t>
+  </si>
+  <si>
+    <t>Spende Awo Waldheim</t>
+  </si>
+  <si>
+    <t>Namensschilder Sommerfest</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1059,22 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="65">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3819,120 +3843,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="14">
-        <item h="1" x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item m="1" x="12"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="11"/>
-        <item h="1" m="1" x="10"/>
-        <item x="7"/>
-        <item h="1" m="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="58">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="57">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="56">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -4026,6 +3936,120 @@
       </pivotArea>
     </format>
     <format dxfId="59">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item h="1" x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item m="1" x="12"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="11"/>
+        <item h="1" m="1" x="10"/>
+        <item x="7"/>
+        <item h="1" m="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="64">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5151,9 +5175,9 @@
   </sheetPr>
   <dimension ref="A1:IK175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6064,14 +6088,22 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
+      <c r="A38" s="15">
+        <v>45446</v>
+      </c>
       <c r="B38" s="52">
         <v>35</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="19"/>
+      <c r="C38" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E38" s="17"/>
-      <c r="F38" s="18"/>
+      <c r="F38" s="18">
+        <v>112</v>
+      </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="19"/>
@@ -6079,14 +6111,22 @@
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
+      <c r="A39" s="15">
+        <v>45448</v>
+      </c>
       <c r="B39" s="16">
         <v>36</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="19"/>
+      <c r="C39" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
+      <c r="F39" s="18">
+        <v>108</v>
+      </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="19"/>
@@ -7151,7 +7191,7 @@
       </c>
       <c r="F110" s="28">
         <f>SUM(F3:F109)</f>
-        <v>9872.940000000006</v>
+        <v>10092.940000000006</v>
       </c>
       <c r="G110" s="28">
         <f>SUM(G3:G109)</f>
@@ -7194,7 +7234,7 @@
       </c>
       <c r="F112" s="28">
         <f>F110+Ausgaben!G175</f>
-        <v>6112.320000000007</v>
+        <v>5654.3000000000075</v>
       </c>
       <c r="G112" s="28">
         <f>G110+Ausgaben!H175</f>
@@ -7232,7 +7272,7 @@
       <c r="C114" s="24"/>
       <c r="D114" s="29">
         <f>SUM(E112:I112)</f>
-        <v>9169.4300000000076</v>
+        <v>8711.4100000000071</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="18"/>
@@ -8033,132 +8073,142 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:C92">
-    <cfRule type="cellIs" dxfId="55" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="54" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="161" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D99">
-    <cfRule type="cellIs" dxfId="53" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="52" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="51" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D86">
-    <cfRule type="cellIs" dxfId="50" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="49" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="48" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:G97">
-    <cfRule type="cellIs" dxfId="47" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:G109">
-    <cfRule type="cellIs" dxfId="46" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="45" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="44" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F36">
-    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="41" priority="247" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="249" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="40" priority="210" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E37:G37 E40:G40 G38:G39">
+    <cfRule type="cellIs" dxfId="43" priority="212" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G86">
-    <cfRule type="cellIs" dxfId="39" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G15 G17:G23 H28:I109 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G98 E99:G99 D109:I109 E110:I174 D114">
-    <cfRule type="cellIs" dxfId="38" priority="311" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="313" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="37" priority="232" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="234" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="36" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="35" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:I27">
-    <cfRule type="cellIs" dxfId="34" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G12 D4:D15 H4:I26 A93:A96">
-    <cfRule type="cellIs" dxfId="33" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G26">
-    <cfRule type="cellIs" dxfId="32" priority="229" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="231" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G36">
-    <cfRule type="cellIs" dxfId="31" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="30" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:F38">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:F39">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8186,9 +8236,9 @@
   </sheetPr>
   <dimension ref="A1:IM241"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9873,14 +9923,22 @@
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="43"/>
-      <c r="B66" s="15"/>
+      <c r="B66" s="15">
+        <v>45446</v>
+      </c>
       <c r="C66" s="52">
         <v>64</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="21"/>
+      <c r="D66" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="17"/>
+      <c r="G66" s="21">
+        <v>-300</v>
+      </c>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
       <c r="J66" s="22"/>
@@ -9890,14 +9948,22 @@
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="43"/>
-      <c r="B67" s="15"/>
+      <c r="B67" s="15">
+        <v>45446</v>
+      </c>
       <c r="C67" s="52">
         <v>65</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="21"/>
+      <c r="D67" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="17"/>
+      <c r="G67" s="21">
+        <v>-120</v>
+      </c>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
       <c r="J67" s="22"/>
@@ -9907,14 +9973,22 @@
     </row>
     <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="43"/>
-      <c r="B68" s="15"/>
+      <c r="B68" s="15">
+        <v>45446</v>
+      </c>
       <c r="C68" s="52">
         <v>66</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="23"/>
+      <c r="D68" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F68" s="20"/>
-      <c r="G68" s="21"/>
+      <c r="G68" s="20">
+        <v>-12</v>
+      </c>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
       <c r="J68" s="22"/>
@@ -9924,14 +9998,22 @@
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="43"/>
-      <c r="B69" s="15"/>
+      <c r="B69" s="15">
+        <v>45447</v>
+      </c>
       <c r="C69" s="52">
         <v>67</v>
       </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="23"/>
+      <c r="D69" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F69" s="20"/>
-      <c r="G69" s="21"/>
+      <c r="G69" s="21">
+        <v>-139</v>
+      </c>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
       <c r="J69" s="22"/>
@@ -9941,14 +10023,22 @@
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="43"/>
-      <c r="B70" s="15"/>
+      <c r="B70" s="15">
+        <v>45447</v>
+      </c>
       <c r="C70" s="52">
         <v>68</v>
       </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
+      <c r="D70" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="20"/>
+      <c r="G70" s="21">
+        <v>-44</v>
+      </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="22"/>
@@ -9958,14 +10048,22 @@
     </row>
     <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="43"/>
-      <c r="B71" s="15"/>
+      <c r="B71" s="15">
+        <v>45448</v>
+      </c>
       <c r="C71" s="52">
         <v>69</v>
       </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="23"/>
+      <c r="D71" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F71" s="20"/>
-      <c r="G71" s="21"/>
+      <c r="G71" s="21">
+        <v>-17.190000000000001</v>
+      </c>
       <c r="H71" s="20"/>
       <c r="I71" s="21"/>
       <c r="J71" s="22"/>
@@ -9975,14 +10073,22 @@
     </row>
     <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="43"/>
-      <c r="B72" s="15"/>
+      <c r="B72" s="15">
+        <v>45448</v>
+      </c>
       <c r="C72" s="52">
         <v>70</v>
       </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="23"/>
+      <c r="D72" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F72" s="20"/>
-      <c r="G72" s="21"/>
+      <c r="G72" s="21">
+        <v>-45.83</v>
+      </c>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
       <c r="J72" s="22"/>
@@ -11692,7 +11798,7 @@
       </c>
       <c r="G175" s="34">
         <f>SUM(G3:G174)</f>
-        <v>-3760.619999999999</v>
+        <v>-4438.6399999999985</v>
       </c>
       <c r="H175" s="34">
         <f>SUM(H3:H174)</f>
@@ -12684,152 +12790,157 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="29" priority="470" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="471" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:B134">
-    <cfRule type="cellIs" dxfId="28" priority="464" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="465" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="27" priority="453" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="454" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B161">
-    <cfRule type="cellIs" dxfId="26" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:B241">
-    <cfRule type="cellIs" dxfId="25" priority="416" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="417" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:C155">
-    <cfRule type="cellIs" dxfId="24" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C163">
-    <cfRule type="cellIs" dxfId="23" priority="418" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="419" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D158">
-    <cfRule type="cellIs" dxfId="22" priority="430" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="431" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:E159">
-    <cfRule type="cellIs" dxfId="21" priority="427" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160:E160">
-    <cfRule type="cellIs" dxfId="20" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112 C164:C240 K176 J176:J239 I176:I241">
-    <cfRule type="cellIs" dxfId="19" priority="700" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="701" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130:D131">
-    <cfRule type="cellIs" dxfId="18" priority="468" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="469" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146:D147">
-    <cfRule type="cellIs" dxfId="17" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149:D150 C151:D151">
-    <cfRule type="cellIs" dxfId="16" priority="439" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="440" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E168">
-    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="14" priority="652" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="653" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E158">
-    <cfRule type="cellIs" dxfId="13" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E169:E173 D174:E176">
-    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="11" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="179" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="10" priority="382" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="383" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="7" priority="361" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="362" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="6" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="5" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" dxfId="4" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:F121">
-    <cfRule type="cellIs" dxfId="3" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135:F136">
-    <cfRule type="cellIs" dxfId="2" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143:F145">
-    <cfRule type="cellIs" dxfId="1" priority="445" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="446" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147:F148">
-    <cfRule type="cellIs" dxfId="0" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66:F67">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2565A8-AF3F-4B5C-85C1-702536C3E3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9B9A8D-0497-464A-B1FE-2E49960FABFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="123">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -388,6 +388,21 @@
   </si>
   <si>
     <t>Namensschilder Sommerfest</t>
+  </si>
+  <si>
+    <t>Shirts</t>
+  </si>
+  <si>
+    <t>Webservice</t>
+  </si>
+  <si>
+    <t>Awo Blumen</t>
+  </si>
+  <si>
+    <t>Jubilarfeier</t>
+  </si>
+  <si>
+    <t>Spende H.Kreis</t>
   </si>
 </sst>
 </file>
@@ -1059,12 +1074,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="64">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3843,115 +3853,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="6"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="61">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="60">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="59">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -4039,17 +3940,126 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="64">
+    <format dxfId="60">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="6"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="63">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
     <format dxfId="62">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5175,9 +5185,9 @@
   </sheetPr>
   <dimension ref="A1:IK175"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6134,14 +6144,22 @@
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
+      <c r="A40" s="15">
+        <v>45462</v>
+      </c>
       <c r="B40" s="16">
         <v>37</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="19"/>
+      <c r="C40" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E40" s="17"/>
-      <c r="F40" s="18"/>
+      <c r="F40" s="18">
+        <v>118</v>
+      </c>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="19"/>
@@ -6149,14 +6167,22 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
+      <c r="A41" s="15">
+        <v>45467</v>
+      </c>
       <c r="B41" s="16">
         <v>38</v>
       </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
+      <c r="C41" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18">
+        <v>10</v>
+      </c>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
       <c r="I41" s="19"/>
@@ -7191,7 +7217,7 @@
       </c>
       <c r="F110" s="28">
         <f>SUM(F3:F109)</f>
-        <v>10092.940000000006</v>
+        <v>10220.940000000006</v>
       </c>
       <c r="G110" s="28">
         <f>SUM(G3:G109)</f>
@@ -7234,7 +7260,7 @@
       </c>
       <c r="F112" s="28">
         <f>F110+Ausgaben!G175</f>
-        <v>5654.3000000000075</v>
+        <v>5070.660000000008</v>
       </c>
       <c r="G112" s="28">
         <f>G110+Ausgaben!H175</f>
@@ -7272,7 +7298,7 @@
       <c r="C114" s="24"/>
       <c r="D114" s="29">
         <f>SUM(E112:I112)</f>
-        <v>8711.4100000000071</v>
+        <v>8127.7700000000077</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="18"/>
@@ -8073,141 +8099,136 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:C92">
-    <cfRule type="cellIs" dxfId="58" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="57" priority="161" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D99">
-    <cfRule type="cellIs" dxfId="56" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="55" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="54" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D86">
-    <cfRule type="cellIs" dxfId="53" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="52" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="51" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:G97">
-    <cfRule type="cellIs" dxfId="50" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:G109">
-    <cfRule type="cellIs" dxfId="49" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="48" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="47" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="193" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="46" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F36">
-    <cfRule type="cellIs" dxfId="45" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="44" priority="249" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="250" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:G37 E40:G40 G38:G39">
-    <cfRule type="cellIs" dxfId="43" priority="212" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E37:G40">
+    <cfRule type="cellIs" dxfId="42" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G86">
-    <cfRule type="cellIs" dxfId="42" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G15 G17:G23 H28:I109 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G98 E99:G99 D109:I109 E110:I174 D114">
-    <cfRule type="cellIs" dxfId="41" priority="313" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="314" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="40" priority="234" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="235" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="39" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="38" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:I27">
-    <cfRule type="cellIs" dxfId="37" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G12 D4:D15 H4:I26 A93:A96">
-    <cfRule type="cellIs" dxfId="36" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G26">
-    <cfRule type="cellIs" dxfId="35" priority="231" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="232" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G36">
-    <cfRule type="cellIs" dxfId="34" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="33" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38:F38">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:F39">
+  <conditionalFormatting sqref="E41:F41">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8236,9 +8257,9 @@
   </sheetPr>
   <dimension ref="A1:IM241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10098,14 +10119,22 @@
     </row>
     <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="43"/>
-      <c r="B73" s="15"/>
+      <c r="B73" s="15">
+        <v>45453</v>
+      </c>
       <c r="C73" s="52">
         <v>71</v>
       </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="23"/>
+      <c r="D73" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F73" s="20"/>
-      <c r="G73" s="21"/>
+      <c r="G73" s="21">
+        <v>-317.44</v>
+      </c>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
       <c r="J73" s="22"/>
@@ -10115,14 +10144,22 @@
     </row>
     <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="43"/>
-      <c r="B74" s="15"/>
+      <c r="B74" s="15">
+        <v>45453</v>
+      </c>
       <c r="C74" s="52">
         <v>72</v>
       </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="19"/>
+      <c r="D74" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F74" s="20"/>
-      <c r="G74" s="21"/>
+      <c r="G74" s="21">
+        <v>-150</v>
+      </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
       <c r="J74" s="22"/>
@@ -10132,14 +10169,22 @@
     </row>
     <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="43"/>
-      <c r="B75" s="15"/>
+      <c r="B75" s="15">
+        <v>45462</v>
+      </c>
       <c r="C75" s="52">
         <v>73</v>
       </c>
-      <c r="D75" s="39"/>
-      <c r="E75" s="23"/>
+      <c r="D75" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F75" s="20"/>
-      <c r="G75" s="21"/>
+      <c r="G75" s="21">
+        <v>-22.55</v>
+      </c>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="22"/>
@@ -10149,14 +10194,22 @@
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="43"/>
-      <c r="B76" s="15"/>
+      <c r="B76" s="15">
+        <v>45464</v>
+      </c>
       <c r="C76" s="52">
         <v>74</v>
       </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="23"/>
+      <c r="D76" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F76" s="20"/>
-      <c r="G76" s="21"/>
+      <c r="G76" s="21">
+        <v>-12.99</v>
+      </c>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="22"/>
@@ -10166,14 +10219,22 @@
     </row>
     <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="43"/>
-      <c r="B77" s="15"/>
+      <c r="B77" s="15">
+        <v>45467</v>
+      </c>
       <c r="C77" s="52">
         <v>75</v>
       </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="19"/>
+      <c r="D77" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="F77" s="20"/>
-      <c r="G77" s="21"/>
+      <c r="G77" s="21">
+        <v>-58.66</v>
+      </c>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
       <c r="J77" s="22"/>
@@ -10183,14 +10244,22 @@
     </row>
     <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="43"/>
-      <c r="B78" s="15"/>
+      <c r="B78" s="15">
+        <v>45467</v>
+      </c>
       <c r="C78" s="52">
         <v>76</v>
       </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="23"/>
+      <c r="D78" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="F78" s="20"/>
-      <c r="G78" s="21"/>
+      <c r="G78" s="21">
+        <v>-150</v>
+      </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="22"/>
@@ -11798,7 +11867,7 @@
       </c>
       <c r="G175" s="34">
         <f>SUM(G3:G174)</f>
-        <v>-4438.6399999999985</v>
+        <v>-5150.2799999999979</v>
       </c>
       <c r="H175" s="34">
         <f>SUM(H3:H174)</f>
@@ -12790,157 +12859,157 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="32" priority="471" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="471" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:B134">
-    <cfRule type="cellIs" dxfId="31" priority="465" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="465" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="30" priority="454" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="454" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B161">
-    <cfRule type="cellIs" dxfId="29" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:B241">
-    <cfRule type="cellIs" dxfId="28" priority="417" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="417" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:C155">
-    <cfRule type="cellIs" dxfId="27" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C163">
-    <cfRule type="cellIs" dxfId="26" priority="419" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="419" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D158">
-    <cfRule type="cellIs" dxfId="25" priority="431" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="431" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:E159">
-    <cfRule type="cellIs" dxfId="24" priority="428" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160:E160">
-    <cfRule type="cellIs" dxfId="23" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112 C164:C240 K176 J176:J239 I176:I241">
-    <cfRule type="cellIs" dxfId="22" priority="701" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="701" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130:D131">
-    <cfRule type="cellIs" dxfId="21" priority="469" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="469" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146:D147">
-    <cfRule type="cellIs" dxfId="20" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149:D150 C151:D151">
-    <cfRule type="cellIs" dxfId="19" priority="440" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="440" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E168">
-    <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="17" priority="653" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="653" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E158">
-    <cfRule type="cellIs" dxfId="16" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E169:E173 D174:E176">
-    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="14" priority="179" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="179" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="13" priority="383" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="383" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="10" priority="362" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="362" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66:F67">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="9" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="8" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" dxfId="7" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:F121">
-    <cfRule type="cellIs" dxfId="6" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135:F136">
-    <cfRule type="cellIs" dxfId="5" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143:F145">
-    <cfRule type="cellIs" dxfId="4" priority="446" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="446" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147:F148">
-    <cfRule type="cellIs" dxfId="3" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66:F67">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9B9A8D-0497-464A-B1FE-2E49960FABFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F6E921-C6FD-4CA4-AB72-0BBB3C91C41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="123">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -3853,24 +3853,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="14">
+      <items count="12">
         <item h="1" x="6"/>
+        <item x="7"/>
         <item x="5"/>
         <item x="4"/>
-        <item m="1" x="12"/>
-        <item x="2"/>
-        <item x="0"/>
         <item x="1"/>
         <item x="3"/>
         <item x="8"/>
-        <item m="1" x="11"/>
-        <item h="1" m="1" x="10"/>
-        <item x="7"/>
-        <item h="1" m="1" x="9"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3883,12 +3881,15 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="8">
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -3900,13 +3901,7 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="11"/>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -3967,22 +3962,24 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+      <items count="14">
         <item h="1" x="6"/>
-        <item x="7"/>
         <item x="5"/>
         <item x="4"/>
+        <item m="1" x="12"/>
+        <item x="2"/>
+        <item x="0"/>
         <item x="1"/>
         <item x="3"/>
         <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item h="1" m="1" x="10"/>
+        <item x="7"/>
+        <item h="1" m="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3995,15 +3992,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -4015,7 +4009,13 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -5186,8 +5186,8 @@
   <dimension ref="A1:IK175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <pane ySplit="2" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6190,14 +6190,22 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
+      <c r="A42" s="15">
+        <v>45468</v>
+      </c>
       <c r="B42" s="52">
         <v>39</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="19"/>
+      <c r="C42" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
+      <c r="F42" s="21">
+        <v>9.14</v>
+      </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
       <c r="I42" s="19"/>
@@ -7217,7 +7225,7 @@
       </c>
       <c r="F110" s="28">
         <f>SUM(F3:F109)</f>
-        <v>10220.940000000006</v>
+        <v>10230.080000000005</v>
       </c>
       <c r="G110" s="28">
         <f>SUM(G3:G109)</f>
@@ -7260,7 +7268,7 @@
       </c>
       <c r="F112" s="28">
         <f>F110+Ausgaben!G175</f>
-        <v>5070.660000000008</v>
+        <v>5079.8000000000075</v>
       </c>
       <c r="G112" s="28">
         <f>G110+Ausgaben!H175</f>
@@ -7298,7 +7306,7 @@
       <c r="C114" s="24"/>
       <c r="D114" s="29">
         <f>SUM(E112:I112)</f>
-        <v>8127.7700000000077</v>
+        <v>8136.9100000000071</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="18"/>
@@ -8168,68 +8176,68 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E41:F41">
+    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="43" priority="250" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="250" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="42" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G86">
-    <cfRule type="cellIs" dxfId="41" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G15 G17:G23 H28:I109 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G98 E99:G99 D109:I109 E110:I174 D114">
-    <cfRule type="cellIs" dxfId="40" priority="314" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="314" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="39" priority="235" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="235" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="38" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:I27">
-    <cfRule type="cellIs" dxfId="36" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G12 D4:D15 H4:I26 A93:A96">
-    <cfRule type="cellIs" dxfId="35" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G26">
-    <cfRule type="cellIs" dxfId="34" priority="232" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="232" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G36">
-    <cfRule type="cellIs" dxfId="33" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="32" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41:F41">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8259,7 +8267,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12859,157 +12867,157 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="31" priority="471" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="471" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:B134">
-    <cfRule type="cellIs" dxfId="30" priority="465" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="465" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="29" priority="454" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="454" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B161">
-    <cfRule type="cellIs" dxfId="28" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:B241">
-    <cfRule type="cellIs" dxfId="27" priority="417" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="417" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:C155">
-    <cfRule type="cellIs" dxfId="26" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C163">
-    <cfRule type="cellIs" dxfId="25" priority="419" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="419" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D158">
-    <cfRule type="cellIs" dxfId="24" priority="431" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="431" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:E159">
-    <cfRule type="cellIs" dxfId="23" priority="428" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160:E160">
-    <cfRule type="cellIs" dxfId="22" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112 C164:C240 K176 J176:J239 I176:I241">
-    <cfRule type="cellIs" dxfId="21" priority="701" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="701" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130:D131">
-    <cfRule type="cellIs" dxfId="20" priority="469" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="469" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146:D147">
-    <cfRule type="cellIs" dxfId="19" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149:D150 C151:D151">
-    <cfRule type="cellIs" dxfId="18" priority="440" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="440" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E168">
-    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="16" priority="653" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="653" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E158">
-    <cfRule type="cellIs" dxfId="15" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E169:E173 D174:E176">
-    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="13" priority="179" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="179" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="12" priority="383" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="383" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="9" priority="362" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="362" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:F67">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="7" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="6" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" dxfId="5" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:F121">
-    <cfRule type="cellIs" dxfId="4" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135:F136">
-    <cfRule type="cellIs" dxfId="3" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143:F145">
-    <cfRule type="cellIs" dxfId="2" priority="446" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="446" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147:F148">
-    <cfRule type="cellIs" dxfId="1" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F6E921-C6FD-4CA4-AB72-0BBB3C91C41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A777FA89-A2B4-42CE-9842-99837722E297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="129">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -403,6 +403,24 @@
   </si>
   <si>
     <t>Spende H.Kreis</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>Jubilarfeier HdB</t>
+  </si>
+  <si>
+    <t>rotes Bulls Rad verkauft</t>
+  </si>
+  <si>
+    <t>Raisch Jubilarfeier</t>
+  </si>
+  <si>
+    <t>Tablets</t>
+  </si>
+  <si>
+    <t>Tablets, Fehlüberweisung</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1092,17 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="66">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3853,115 +3881,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="6"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="60">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="59">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="58">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -4049,17 +3968,126 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="63">
+    <format dxfId="62">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="6"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="65">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5185,9 +5213,9 @@
   </sheetPr>
   <dimension ref="A1:IK175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6213,14 +6241,22 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
+      <c r="A43" s="15">
+        <v>45471</v>
+      </c>
       <c r="B43" s="16">
         <v>40</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="19"/>
+      <c r="C43" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
+      <c r="F43" s="21">
+        <v>20</v>
+      </c>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
       <c r="I43" s="19"/>
@@ -6228,14 +6264,22 @@
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
+      <c r="A44" s="15">
+        <v>45474</v>
+      </c>
       <c r="B44" s="16">
         <v>41</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="19"/>
+      <c r="C44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
+      <c r="F44" s="21">
+        <v>50</v>
+      </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
       <c r="I44" s="19"/>
@@ -7225,7 +7269,7 @@
       </c>
       <c r="F110" s="28">
         <f>SUM(F3:F109)</f>
-        <v>10230.080000000005</v>
+        <v>10300.080000000005</v>
       </c>
       <c r="G110" s="28">
         <f>SUM(G3:G109)</f>
@@ -7268,7 +7312,7 @@
       </c>
       <c r="F112" s="28">
         <f>F110+Ausgaben!G175</f>
-        <v>5079.8000000000075</v>
+        <v>4715.240000000008</v>
       </c>
       <c r="G112" s="28">
         <f>G110+Ausgaben!H175</f>
@@ -7306,7 +7350,7 @@
       <c r="C114" s="24"/>
       <c r="D114" s="29">
         <f>SUM(E112:I112)</f>
-        <v>8136.9100000000071</v>
+        <v>7772.3500000000076</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="18"/>
@@ -8107,137 +8151,137 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:C92">
-    <cfRule type="cellIs" dxfId="57" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="56" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D99">
-    <cfRule type="cellIs" dxfId="55" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="54" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="53" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D86">
-    <cfRule type="cellIs" dxfId="52" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="51" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="50" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:G97">
-    <cfRule type="cellIs" dxfId="49" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:G109">
-    <cfRule type="cellIs" dxfId="48" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="46" priority="193" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="193" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="45" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F36">
-    <cfRule type="cellIs" dxfId="44" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:F41">
-    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="42" priority="250" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="250" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="41" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G86">
-    <cfRule type="cellIs" dxfId="40" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G15 G17:G23 H28:I109 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G98 E99:G99 D109:I109 E110:I174 D114">
-    <cfRule type="cellIs" dxfId="39" priority="314" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="314" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="38" priority="235" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="235" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="37" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="36" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:I27">
-    <cfRule type="cellIs" dxfId="35" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G12 D4:D15 H4:I26 A93:A96">
-    <cfRule type="cellIs" dxfId="34" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G26">
-    <cfRule type="cellIs" dxfId="33" priority="232" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="232" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G36">
-    <cfRule type="cellIs" dxfId="32" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="31" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8265,9 +8309,9 @@
   </sheetPr>
   <dimension ref="A1:IM241"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10277,14 +10321,22 @@
     </row>
     <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="43"/>
-      <c r="B79" s="15"/>
+      <c r="B79" s="15">
+        <v>45474</v>
+      </c>
       <c r="C79" s="52">
         <v>77</v>
       </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="23"/>
+      <c r="D79" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="F79" s="20"/>
-      <c r="G79" s="21"/>
+      <c r="G79" s="21">
+        <v>-127.5</v>
+      </c>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="22"/>
@@ -10294,14 +10346,22 @@
     </row>
     <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="43"/>
-      <c r="B80" s="15"/>
+      <c r="B80" s="15">
+        <v>45474</v>
+      </c>
       <c r="C80" s="52">
         <v>78</v>
       </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="23"/>
+      <c r="D80" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E80" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F80" s="20"/>
-      <c r="G80" s="21"/>
+      <c r="G80" s="21">
+        <v>-30.42</v>
+      </c>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="22"/>
@@ -10311,14 +10371,22 @@
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="43"/>
-      <c r="B81" s="15"/>
+      <c r="B81" s="15">
+        <v>45474</v>
+      </c>
       <c r="C81" s="52">
         <v>79</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="23"/>
+      <c r="D81" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F81" s="20"/>
-      <c r="G81" s="21"/>
+      <c r="G81" s="21">
+        <v>-12</v>
+      </c>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
       <c r="J81" s="22"/>
@@ -10328,14 +10396,22 @@
     </row>
     <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="43"/>
-      <c r="B82" s="15"/>
+      <c r="B82" s="15">
+        <v>45474</v>
+      </c>
       <c r="C82" s="52">
         <v>80</v>
       </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="23"/>
+      <c r="D82" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="F82" s="20"/>
-      <c r="G82" s="21"/>
+      <c r="G82" s="21">
+        <v>-38.840000000000003</v>
+      </c>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
       <c r="J82" s="22"/>
@@ -10345,14 +10421,22 @@
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="43"/>
-      <c r="B83" s="15"/>
+      <c r="B83" s="15">
+        <v>45474</v>
+      </c>
       <c r="C83" s="52">
         <v>81</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="23"/>
+      <c r="D83" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F83" s="20"/>
-      <c r="G83" s="21"/>
+      <c r="G83" s="21">
+        <v>-17.95</v>
+      </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
       <c r="J83" s="22"/>
@@ -10362,14 +10446,22 @@
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="43"/>
-      <c r="B84" s="15"/>
+      <c r="B84" s="15">
+        <v>45474</v>
+      </c>
       <c r="C84" s="52">
         <v>82</v>
       </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="23"/>
+      <c r="D84" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F84" s="20"/>
-      <c r="G84" s="21"/>
+      <c r="G84" s="21">
+        <v>-17.95</v>
+      </c>
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
       <c r="J84" s="22"/>
@@ -10379,14 +10471,22 @@
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="43"/>
-      <c r="B85" s="15"/>
+      <c r="B85" s="15">
+        <v>45475</v>
+      </c>
       <c r="C85" s="52">
         <v>83</v>
       </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="23"/>
+      <c r="D85" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F85" s="20"/>
-      <c r="G85" s="21"/>
+      <c r="G85" s="21">
+        <v>-139</v>
+      </c>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
       <c r="J85" s="22"/>
@@ -10396,14 +10496,22 @@
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="43"/>
-      <c r="B86" s="15"/>
+      <c r="B86" s="15">
+        <v>45475</v>
+      </c>
       <c r="C86" s="52">
         <v>84</v>
       </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="23"/>
+      <c r="D86" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E86" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F86" s="20"/>
-      <c r="G86" s="21"/>
+      <c r="G86" s="21">
+        <v>-44</v>
+      </c>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
       <c r="J86" s="22"/>
@@ -10413,14 +10521,22 @@
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="43"/>
-      <c r="B87" s="15"/>
+      <c r="B87" s="15">
+        <v>45475</v>
+      </c>
       <c r="C87" s="52">
         <v>85</v>
       </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="21"/>
+      <c r="D87" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" s="20"/>
+      <c r="G87" s="21">
+        <v>-6.9</v>
+      </c>
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
       <c r="J87" s="22"/>
@@ -11875,7 +11991,7 @@
       </c>
       <c r="G175" s="34">
         <f>SUM(G3:G174)</f>
-        <v>-5150.2799999999979</v>
+        <v>-5584.8399999999974</v>
       </c>
       <c r="H175" s="34">
         <f>SUM(H3:H174)</f>
@@ -12867,165 +12983,170 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="30" priority="471" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="473" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:B134">
-    <cfRule type="cellIs" dxfId="29" priority="465" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="467" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="28" priority="454" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="456" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B161">
-    <cfRule type="cellIs" dxfId="27" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:B241">
-    <cfRule type="cellIs" dxfId="26" priority="417" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="419" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:C155">
-    <cfRule type="cellIs" dxfId="25" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C163">
-    <cfRule type="cellIs" dxfId="24" priority="419" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="421" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D158">
-    <cfRule type="cellIs" dxfId="23" priority="431" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="433" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:E159">
-    <cfRule type="cellIs" dxfId="22" priority="428" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="430" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160:E160">
-    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112 C164:C240 K176 J176:J239 I176:I241">
-    <cfRule type="cellIs" dxfId="20" priority="701" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="703" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130:D131">
-    <cfRule type="cellIs" dxfId="19" priority="469" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="471" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146:D147">
-    <cfRule type="cellIs" dxfId="18" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149:D150 C151:D151">
-    <cfRule type="cellIs" dxfId="17" priority="440" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="442" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E168">
-    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="15" priority="653" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="655" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E158">
-    <cfRule type="cellIs" dxfId="14" priority="48" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:E78 E80:E81 E83:E158">
+    <cfRule type="cellIs" dxfId="16" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E169:E173 D174:E176">
-    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="12" priority="179" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="11" priority="383" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="385" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="8" priority="362" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="364" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:F67">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="6" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="5" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" dxfId="4" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:F121">
-    <cfRule type="cellIs" dxfId="3" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135:F136">
-    <cfRule type="cellIs" dxfId="2" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143:F145">
-    <cfRule type="cellIs" dxfId="1" priority="446" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="448" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147:F148">
-    <cfRule type="cellIs" dxfId="0" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E152 E109:E111 E132:E140 E89 E168:E174 E91:E93 E95:E96 E100:E102 E104 E106:E107 E114:E117 E119:E120 E123:E125 E128:E129 E142 E144 E146:E148 E150 E154:E155 E157 E159 E161:E165 E3:E87" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E152 E109:E111 E132:E140 E89 E168:E174 E91:E93 E95:E96 E100:E102 E104 E106:E107 E114:E117 E119:E120 E123:E125 E128:E129 E142 E144 E146:E148 E150 E154:E155 E157 E159 E161:E165 E3:E78 E80:E81 E83:E87" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103 E166:E167 E108 E112:E113 E118 E121:E122 E126:E127 E130:E131 E141 E143 E145 E149 E151 E153 E156 E158 E160 E105" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103 E166:E167 E108 E112:E113 E118 E121:E122 E126:E127 E130:E131 E141 E143 E145 E149 E151 E153 E156 E158 E160 E105 E79 E82" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A777FA89-A2B4-42CE-9842-99837722E297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292541C3-4709-42FB-B8AE-EC6B858E6AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="129">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -1092,12 +1092,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="65">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3881,6 +3876,115 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="6"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="61">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="59">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -3968,126 +4072,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="62">
+    <format dxfId="64">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="6"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="65">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="64">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="63">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5213,9 +5208,9 @@
   </sheetPr>
   <dimension ref="A1:IK175"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6287,14 +6282,22 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
+      <c r="A45" s="15">
+        <v>45477</v>
+      </c>
       <c r="B45" s="16">
         <v>42</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
+      <c r="C45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="18">
+        <v>109</v>
+      </c>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
       <c r="I45" s="19"/>
@@ -6302,14 +6305,22 @@
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
+      <c r="A46" s="15">
+        <v>45477</v>
+      </c>
       <c r="B46" s="16">
         <v>43</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="19"/>
+      <c r="C46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="E46" s="20"/>
-      <c r="F46" s="21"/>
+      <c r="F46" s="21">
+        <v>-17.95</v>
+      </c>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
       <c r="I46" s="19"/>
@@ -7269,7 +7280,7 @@
       </c>
       <c r="F110" s="28">
         <f>SUM(F3:F109)</f>
-        <v>10300.080000000005</v>
+        <v>10391.130000000005</v>
       </c>
       <c r="G110" s="28">
         <f>SUM(G3:G109)</f>
@@ -7312,7 +7323,7 @@
       </c>
       <c r="F112" s="28">
         <f>F110+Ausgaben!G175</f>
-        <v>4715.240000000008</v>
+        <v>4806.2900000000072</v>
       </c>
       <c r="G112" s="28">
         <f>G110+Ausgaben!H175</f>
@@ -7350,7 +7361,7 @@
       <c r="C114" s="24"/>
       <c r="D114" s="29">
         <f>SUM(E112:I112)</f>
-        <v>7772.3500000000076</v>
+        <v>7863.4000000000069</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="18"/>
@@ -8151,137 +8162,142 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:C92">
-    <cfRule type="cellIs" dxfId="59" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="58" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D99">
-    <cfRule type="cellIs" dxfId="57" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="56" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="55" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D86">
-    <cfRule type="cellIs" dxfId="54" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="53" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="52" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:G97">
-    <cfRule type="cellIs" dxfId="51" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:G109">
-    <cfRule type="cellIs" dxfId="50" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="49" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="48" priority="193" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="195" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F36">
-    <cfRule type="cellIs" dxfId="46" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:F41">
-    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="44" priority="250" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="252" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G86">
-    <cfRule type="cellIs" dxfId="42" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="151" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G15 G17:G23 H28:I109 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G98 E99:G99 D109:I109 E110:I174 D114">
-    <cfRule type="cellIs" dxfId="41" priority="314" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="316" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="40" priority="235" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="237" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="39" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="180" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="38" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:I27">
-    <cfRule type="cellIs" dxfId="37" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G12 D4:D15 H4:I26 A93:A96">
-    <cfRule type="cellIs" dxfId="36" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G26">
-    <cfRule type="cellIs" dxfId="35" priority="232" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="234" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G36">
-    <cfRule type="cellIs" dxfId="34" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="33" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:F45">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8309,9 +8325,9 @@
   </sheetPr>
   <dimension ref="A1:IM241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10431,7 +10447,7 @@
         <v>128</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F83" s="20"/>
       <c r="G83" s="21">
@@ -12983,122 +12999,122 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="32" priority="473" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="473" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:B134">
-    <cfRule type="cellIs" dxfId="31" priority="467" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="467" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="30" priority="456" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="456" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B161">
-    <cfRule type="cellIs" dxfId="29" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:B241">
-    <cfRule type="cellIs" dxfId="28" priority="419" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="419" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:C155">
-    <cfRule type="cellIs" dxfId="27" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C163">
-    <cfRule type="cellIs" dxfId="26" priority="421" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="421" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D158">
-    <cfRule type="cellIs" dxfId="25" priority="433" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="433" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:E159">
-    <cfRule type="cellIs" dxfId="24" priority="430" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="430" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160:E160">
-    <cfRule type="cellIs" dxfId="23" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112 C164:C240 K176 J176:J239 I176:I241">
-    <cfRule type="cellIs" dxfId="22" priority="703" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="703" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130:D131">
-    <cfRule type="cellIs" dxfId="21" priority="471" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="471" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146:D147">
-    <cfRule type="cellIs" dxfId="20" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149:D150 C151:D151">
-    <cfRule type="cellIs" dxfId="19" priority="442" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="442" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E168">
-    <cfRule type="cellIs" dxfId="18" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="17" priority="655" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="655" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E78 E80:E81 E83:E158">
-    <cfRule type="cellIs" dxfId="16" priority="50" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:E158">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E169:E173 D174:E176">
-    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="14" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="13" priority="385" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="385" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="10" priority="364" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="364" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:F67">
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13129,16 +13145,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="F147:F148">
     <cfRule type="cellIs" dxfId="2" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292541C3-4709-42FB-B8AE-EC6B858E6AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4321030-75C0-4B5A-8C4B-8B1499F5C7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +18,10 @@
     <sheet name="Gesamt" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$170</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$106</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$174</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$107</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$175</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="141">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -421,6 +421,42 @@
   </si>
   <si>
     <t>Tablets, Fehlüberweisung</t>
+  </si>
+  <si>
+    <t>11a</t>
+  </si>
+  <si>
+    <t>Kontoführung KSK</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>SPD Miete</t>
+  </si>
+  <si>
+    <t>Bargeld</t>
+  </si>
+  <si>
+    <t>Sommerfest Selgros</t>
+  </si>
+  <si>
+    <t>Sommerfest Aufbau Catering</t>
+  </si>
+  <si>
+    <t>Einnahmen Sommerfest</t>
+  </si>
+  <si>
+    <t>Einzahlung Konto</t>
+  </si>
+  <si>
+    <t>Bargeld für Sommerfest</t>
+  </si>
+  <si>
+    <t>Awo Mitglbeiträge</t>
+  </si>
+  <si>
+    <t>Sommerfest Glasbrenner</t>
   </si>
 </sst>
 </file>
@@ -962,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1080,6 +1116,7 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1092,12 +1129,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="64">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1568,7 +1600,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="45318.474550578707" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="168" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="E2:J170" sheet="Ausgaben"/>
+    <worksheetSource ref="E2:J171" sheet="Ausgaben"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -1615,7 +1647,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="45318.474550925923" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="108" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D2:I109" sheet="Einnahmen"/>
+    <worksheetSource ref="D2:I110" sheet="Einnahmen"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -3958,17 +3990,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="61">
+    <format dxfId="60">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4072,17 +4104,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="64">
+    <format dxfId="63">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5206,11 +5238,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:IK175"/>
+  <dimension ref="A1:IK176"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <pane ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5230,17 +5262,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3" t="s">
         <v>0</v>
@@ -5483,202 +5515,200 @@
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
-        <v>45337</v>
-      </c>
-      <c r="B11" s="52">
-        <v>8</v>
+        <v>45335</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>131</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E11" s="20"/>
-      <c r="F11" s="21">
-        <v>1950</v>
-      </c>
+      <c r="F11" s="21"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="H11" s="18">
+        <v>25</v>
+      </c>
       <c r="I11" s="19"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>45337</v>
       </c>
       <c r="B12" s="52">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>61</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="21">
-        <v>100</v>
+        <v>1950</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="19"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
-        <v>45341</v>
+        <v>45337</v>
       </c>
       <c r="B13" s="52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18">
-        <v>5.95</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21">
+        <v>100</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
-        <v>45350</v>
+        <v>45341</v>
       </c>
       <c r="B14" s="52">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="18">
-        <v>124.45</v>
+        <v>5.95</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="19"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
-        <v>45355</v>
+        <v>45350</v>
       </c>
       <c r="B15" s="52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21">
-        <v>150</v>
+        <v>22</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18">
+        <v>124.45</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
-        <v>45357</v>
+        <v>45355</v>
       </c>
       <c r="B16" s="52">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18">
-        <v>168.6</v>
+        <v>70</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21">
+        <v>150</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
-        <v>45365</v>
+        <v>45357</v>
       </c>
       <c r="B17" s="52">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21">
-        <v>20</v>
+        <v>71</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18">
+        <v>168.6</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="19"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
-        <v>45366</v>
+        <v>45365</v>
       </c>
       <c r="B18" s="52">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="21">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5686,24 +5716,24 @@
         <v>45366</v>
       </c>
       <c r="B19" s="52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="21">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="19"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5711,40 +5741,42 @@
         <v>45366</v>
       </c>
       <c r="B20" s="52">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21">
+        <v>35</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="19"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>45366</v>
       </c>
       <c r="B21" s="52">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18">
+        <v>31</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
@@ -5754,20 +5786,20 @@
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
-        <v>45384</v>
+        <v>45366</v>
       </c>
       <c r="B22" s="52">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="21">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
@@ -5777,20 +5809,20 @@
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
-        <v>45392</v>
+        <v>45384</v>
       </c>
       <c r="B23" s="52">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="20"/>
       <c r="F23" s="21">
-        <v>3.92</v>
+        <v>110</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
@@ -5803,17 +5835,17 @@
         <v>45392</v>
       </c>
       <c r="B24" s="52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="18">
-        <v>105</v>
+        <v>14</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="21">
+        <v>3.92</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
@@ -5823,20 +5855,20 @@
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
-        <v>45404</v>
+        <v>45392</v>
       </c>
       <c r="B25" s="52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E25" s="20"/>
-      <c r="F25" s="21">
-        <v>76</v>
+      <c r="F25" s="18">
+        <v>105</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
@@ -5846,20 +5878,20 @@
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
-        <v>45406</v>
+        <v>45404</v>
       </c>
       <c r="B26" s="52">
-        <v>23</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>92</v>
+        <v>22</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="21">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
@@ -5869,20 +5901,20 @@
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
-        <v>45407</v>
-      </c>
-      <c r="B27" s="16">
-        <v>24</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>94</v>
+        <v>45406</v>
+      </c>
+      <c r="B27" s="52">
+        <v>23</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>92</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E27" s="20"/>
-      <c r="F27" s="18">
-        <v>107</v>
+      <c r="F27" s="21">
+        <v>20</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
@@ -5895,17 +5927,17 @@
         <v>45407</v>
       </c>
       <c r="B28" s="16">
-        <v>25</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>97</v>
+        <v>24</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="20"/>
-      <c r="F28" s="21">
-        <v>20</v>
+      <c r="F28" s="18">
+        <v>107</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
@@ -5915,20 +5947,20 @@
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
-        <v>45408</v>
+        <v>45407</v>
       </c>
       <c r="B29" s="16">
-        <v>26</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>96</v>
+        <v>25</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="21">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
@@ -5938,20 +5970,20 @@
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
-        <v>45415</v>
+        <v>45408</v>
       </c>
       <c r="B30" s="16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21">
+        <v>39</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
@@ -5961,20 +5993,20 @@
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
-        <v>45418</v>
+        <v>45415</v>
       </c>
       <c r="B31" s="16">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -5984,20 +6016,20 @@
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
-        <v>45419</v>
+        <v>45418</v>
       </c>
       <c r="B32" s="16">
-        <v>29</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>99</v>
+        <v>28</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="18">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -6007,20 +6039,20 @@
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
-        <v>45422</v>
+        <v>45419</v>
       </c>
       <c r="B33" s="16">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="18">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -6030,20 +6062,20 @@
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
-        <v>45057</v>
+        <v>45422</v>
       </c>
       <c r="B34" s="16">
-        <v>31</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>101</v>
+        <v>30</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="18">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -6056,10 +6088,10 @@
         <v>45057</v>
       </c>
       <c r="B35" s="16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>13</v>
@@ -6079,10 +6111,10 @@
         <v>45057</v>
       </c>
       <c r="B36" s="16">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>13</v>
@@ -6099,20 +6131,20 @@
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
-        <v>45059</v>
+        <v>45057</v>
       </c>
       <c r="B37" s="16">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
@@ -6122,20 +6154,20 @@
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
-        <v>45446</v>
-      </c>
-      <c r="B38" s="52">
-        <v>35</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>86</v>
+        <v>45059</v>
+      </c>
+      <c r="B38" s="16">
+        <v>34</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="18">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
@@ -6145,10 +6177,10 @@
     </row>
     <row r="39" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
-        <v>45448</v>
-      </c>
-      <c r="B39" s="16">
-        <v>36</v>
+        <v>45446</v>
+      </c>
+      <c r="B39" s="52">
+        <v>35</v>
       </c>
       <c r="C39" s="39" t="s">
         <v>86</v>
@@ -6158,7 +6190,7 @@
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="18">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
@@ -6168,10 +6200,10 @@
     </row>
     <row r="40" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
-        <v>45462</v>
+        <v>45448</v>
       </c>
       <c r="B40" s="16">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="39" t="s">
         <v>86</v>
@@ -6181,7 +6213,7 @@
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="18">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
@@ -6191,20 +6223,20 @@
     </row>
     <row r="41" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
-        <v>45467</v>
+        <v>45462</v>
       </c>
       <c r="B41" s="16">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="18">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
@@ -6214,20 +6246,20 @@
     </row>
     <row r="42" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
-        <v>45468</v>
-      </c>
-      <c r="B42" s="52">
-        <v>39</v>
+        <v>45467</v>
+      </c>
+      <c r="B42" s="16">
+        <v>38</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21">
-        <v>9.14</v>
+        <v>13</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18">
+        <v>10</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
@@ -6237,20 +6269,20 @@
     </row>
     <row r="43" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
-        <v>45471</v>
-      </c>
-      <c r="B43" s="16">
-        <v>40</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>123</v>
+        <v>45468</v>
+      </c>
+      <c r="B43" s="52">
+        <v>39</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="21">
-        <v>20</v>
+        <v>9.14</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -6260,20 +6292,20 @@
     </row>
     <row r="44" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
-        <v>45474</v>
+        <v>45471</v>
       </c>
       <c r="B44" s="16">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="21">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -6283,20 +6315,20 @@
     </row>
     <row r="45" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
-        <v>45477</v>
+        <v>45474</v>
       </c>
       <c r="B45" s="16">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="18">
-        <v>109</v>
+        <v>13</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21">
+        <v>50</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -6309,17 +6341,17 @@
         <v>45477</v>
       </c>
       <c r="B46" s="16">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21">
-        <v>-17.95</v>
+        <v>0</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="18">
+        <v>109</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
@@ -6328,14 +6360,22 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
+      <c r="A47" s="15">
+        <v>45477</v>
+      </c>
       <c r="B47" s="16">
-        <v>44</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="18"/>
+        <v>43</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="21">
+        <v>17.95</v>
+      </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
       <c r="I47" s="19"/>
@@ -6343,13 +6383,21 @@
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
+      <c r="A48" s="15">
+        <v>45483</v>
+      </c>
       <c r="B48" s="16">
-        <v>45</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="17"/>
+        <v>44</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="17">
+        <v>180</v>
+      </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -6358,14 +6406,22 @@
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
+      <c r="A49" s="15">
+        <v>45487</v>
+      </c>
       <c r="B49" s="16">
-        <v>46</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="17">
+        <v>1619.6</v>
+      </c>
+      <c r="F49" s="18"/>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
       <c r="I49" s="19"/>
@@ -6373,44 +6429,68 @@
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
+      <c r="A50" s="15">
+        <v>45488</v>
+      </c>
       <c r="B50" s="16">
-        <v>47</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21"/>
       <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
+      <c r="H50" s="18">
+        <v>1730</v>
+      </c>
       <c r="I50" s="19"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
+      <c r="A51" s="15">
+        <v>45488</v>
+      </c>
       <c r="B51" s="16">
-        <v>48</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
+        <v>47</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="17"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
+      <c r="H51" s="18">
+        <v>69.599999999999994</v>
+      </c>
       <c r="I51" s="19"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
+      <c r="A52" s="15">
+        <v>45492</v>
+      </c>
       <c r="B52" s="16">
-        <v>49</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="18">
+        <v>1262.52</v>
+      </c>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
       <c r="I52" s="19"/>
@@ -6420,7 +6500,7 @@
     <row r="53" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="B53" s="16">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="19"/>
@@ -6435,11 +6515,11 @@
     <row r="54" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="16">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
+      <c r="E54" s="17"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
@@ -6450,7 +6530,7 @@
     <row r="55" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="B55" s="16">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="19"/>
@@ -6465,9 +6545,9 @@
     <row r="56" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
       <c r="B56" s="16">
-        <v>53</v>
-      </c>
-      <c r="C56" s="39"/>
+        <v>52</v>
+      </c>
+      <c r="C56" s="3"/>
       <c r="D56" s="19"/>
       <c r="E56" s="20"/>
       <c r="F56" s="18"/>
@@ -6480,7 +6560,7 @@
     <row r="57" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="B57" s="16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" s="39"/>
       <c r="D57" s="19"/>
@@ -6495,9 +6575,9 @@
     <row r="58" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
       <c r="B58" s="16">
-        <v>55</v>
-      </c>
-      <c r="C58" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="C58" s="39"/>
       <c r="D58" s="19"/>
       <c r="E58" s="20"/>
       <c r="F58" s="18"/>
@@ -6510,11 +6590,11 @@
     <row r="59" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
       <c r="B59" s="16">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="19"/>
-      <c r="E59" s="17"/>
+      <c r="E59" s="20"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
@@ -6525,7 +6605,7 @@
     <row r="60" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="B60" s="16">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="19"/>
@@ -6539,12 +6619,13 @@
     </row>
     <row r="61" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
-      <c r="B61" s="52">
-        <v>58</v>
-      </c>
-      <c r="C61" s="39"/>
+      <c r="B61" s="16">
+        <v>57</v>
+      </c>
+      <c r="C61" s="3"/>
       <c r="D61" s="19"/>
-      <c r="F61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="18"/>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="19"/>
@@ -6554,12 +6635,11 @@
     <row r="62" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
       <c r="B62" s="52">
-        <v>59</v>
-      </c>
-      <c r="C62" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="C62" s="39"/>
       <c r="D62" s="19"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="21"/>
+      <c r="F62" s="17"/>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="19"/>
@@ -6569,12 +6649,12 @@
     <row r="63" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="B63" s="52">
-        <v>60</v>
-      </c>
-      <c r="C63" s="39"/>
+        <v>59</v>
+      </c>
+      <c r="C63" s="3"/>
       <c r="D63" s="19"/>
       <c r="E63" s="20"/>
-      <c r="F63" s="18"/>
+      <c r="F63" s="21"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
       <c r="I63" s="19"/>
@@ -6584,11 +6664,11 @@
     <row r="64" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
       <c r="B64" s="52">
-        <v>61</v>
-      </c>
-      <c r="C64" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="C64" s="39"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="17"/>
+      <c r="E64" s="20"/>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
@@ -6599,11 +6679,11 @@
     <row r="65" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="52">
-        <v>62</v>
-      </c>
-      <c r="C65" s="39"/>
+        <v>61</v>
+      </c>
+      <c r="C65" s="3"/>
       <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
+      <c r="E65" s="17"/>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
@@ -6613,12 +6693,12 @@
     </row>
     <row r="66" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
-      <c r="B66" s="16">
-        <v>63</v>
-      </c>
-      <c r="C66" s="16"/>
+      <c r="B66" s="52">
+        <v>62</v>
+      </c>
+      <c r="C66" s="39"/>
       <c r="D66" s="19"/>
-      <c r="E66" s="17"/>
+      <c r="E66" s="20"/>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
@@ -6628,12 +6708,12 @@
     </row>
     <row r="67" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15"/>
-      <c r="B67" s="52">
-        <v>64</v>
-      </c>
-      <c r="C67" s="39"/>
+      <c r="B67" s="16">
+        <v>63</v>
+      </c>
+      <c r="C67" s="16"/>
       <c r="D67" s="19"/>
-      <c r="E67" s="20"/>
+      <c r="E67" s="17"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
@@ -6643,12 +6723,12 @@
     </row>
     <row r="68" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15"/>
-      <c r="B68" s="16">
-        <v>65</v>
-      </c>
-      <c r="C68" s="16"/>
+      <c r="B68" s="52">
+        <v>64</v>
+      </c>
+      <c r="C68" s="39"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="17"/>
+      <c r="E68" s="20"/>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
@@ -6659,7 +6739,7 @@
     <row r="69" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15"/>
       <c r="B69" s="16">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="19"/>
@@ -6674,7 +6754,7 @@
     <row r="70" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="B70" s="16">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="19"/>
@@ -6689,11 +6769,11 @@
     <row r="71" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
       <c r="B71" s="16">
-        <v>68</v>
-      </c>
-      <c r="C71" s="39"/>
+        <v>67</v>
+      </c>
+      <c r="C71" s="16"/>
       <c r="D71" s="19"/>
-      <c r="E71" s="20"/>
+      <c r="E71" s="17"/>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
@@ -6704,11 +6784,11 @@
     <row r="72" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
       <c r="B72" s="16">
-        <v>69</v>
-      </c>
-      <c r="C72" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="C72" s="39"/>
       <c r="D72" s="19"/>
-      <c r="E72" s="17"/>
+      <c r="E72" s="20"/>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
@@ -6719,9 +6799,9 @@
     <row r="73" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
       <c r="B73" s="16">
-        <v>70</v>
-      </c>
-      <c r="C73" s="16"/>
+        <v>69</v>
+      </c>
+      <c r="C73" s="3"/>
       <c r="D73" s="19"/>
       <c r="E73" s="17"/>
       <c r="F73" s="18"/>
@@ -6734,7 +6814,7 @@
     <row r="74" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="16">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="19"/>
@@ -6749,7 +6829,7 @@
     <row r="75" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="16">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="19"/>
@@ -6764,7 +6844,7 @@
     <row r="76" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="16">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="19"/>
@@ -6779,7 +6859,7 @@
     <row r="77" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="16">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="19"/>
@@ -6794,7 +6874,7 @@
     <row r="78" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="16">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="19"/>
@@ -6809,9 +6889,9 @@
     <row r="79" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="16">
-        <v>76</v>
-      </c>
-      <c r="C79" s="39"/>
+        <v>75</v>
+      </c>
+      <c r="C79" s="16"/>
       <c r="D79" s="19"/>
       <c r="E79" s="17"/>
       <c r="F79" s="18"/>
@@ -6824,9 +6904,9 @@
     <row r="80" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
       <c r="B80" s="16">
-        <v>77</v>
-      </c>
-      <c r="C80" s="16"/>
+        <v>76</v>
+      </c>
+      <c r="C80" s="39"/>
       <c r="D80" s="19"/>
       <c r="E80" s="17"/>
       <c r="F80" s="18"/>
@@ -6839,7 +6919,7 @@
     <row r="81" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="16">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="19"/>
@@ -6853,13 +6933,13 @@
     </row>
     <row r="82" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
-      <c r="B82" s="52">
-        <v>79</v>
-      </c>
-      <c r="C82" s="54"/>
+      <c r="B82" s="16">
+        <v>78</v>
+      </c>
+      <c r="C82" s="16"/>
       <c r="D82" s="19"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="21"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
       <c r="I82" s="19"/>
@@ -6868,13 +6948,13 @@
     </row>
     <row r="83" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
-      <c r="B83" s="16">
-        <v>80</v>
-      </c>
-      <c r="C83" s="3"/>
+      <c r="B83" s="52">
+        <v>79</v>
+      </c>
+      <c r="C83" s="54"/>
       <c r="D83" s="19"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="18"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="21"/>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
       <c r="I83" s="19"/>
@@ -6884,7 +6964,7 @@
     <row r="84" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
       <c r="B84" s="16">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="19"/>
@@ -6899,7 +6979,7 @@
     <row r="85" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
       <c r="B85" s="16">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="19"/>
@@ -6914,7 +6994,7 @@
     <row r="86" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15"/>
       <c r="B86" s="16">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="19"/>
@@ -6929,9 +7009,9 @@
     <row r="87" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="16">
-        <v>84</v>
-      </c>
-      <c r="C87" s="16"/>
+        <v>83</v>
+      </c>
+      <c r="C87" s="3"/>
       <c r="D87" s="19"/>
       <c r="E87" s="17"/>
       <c r="F87" s="18"/>
@@ -6944,9 +7024,9 @@
     <row r="88" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="16">
-        <v>85</v>
-      </c>
-      <c r="C88" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C88" s="16"/>
       <c r="D88" s="19"/>
       <c r="E88" s="17"/>
       <c r="F88" s="18"/>
@@ -6959,7 +7039,7 @@
     <row r="89" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="16">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="19"/>
@@ -6974,7 +7054,7 @@
     <row r="90" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="16">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="19"/>
@@ -6989,7 +7069,7 @@
     <row r="91" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="16">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="19"/>
@@ -7003,10 +7083,10 @@
     </row>
     <row r="92" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
-      <c r="B92" s="52">
-        <v>89</v>
-      </c>
-      <c r="C92" s="39"/>
+      <c r="B92" s="16">
+        <v>88</v>
+      </c>
+      <c r="C92" s="3"/>
       <c r="D92" s="19"/>
       <c r="E92" s="17"/>
       <c r="F92" s="18"/>
@@ -7018,10 +7098,10 @@
     </row>
     <row r="93" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
-      <c r="B93" s="16">
-        <v>90</v>
-      </c>
-      <c r="C93" s="16"/>
+      <c r="B93" s="52">
+        <v>89</v>
+      </c>
+      <c r="C93" s="39"/>
       <c r="D93" s="19"/>
       <c r="E93" s="17"/>
       <c r="F93" s="18"/>
@@ -7034,7 +7114,7 @@
     <row r="94" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="16">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="19"/>
@@ -7049,7 +7129,7 @@
     <row r="95" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
       <c r="B95" s="16">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="16"/>
       <c r="D95" s="19"/>
@@ -7064,7 +7144,7 @@
     <row r="96" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="16">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" s="16"/>
       <c r="D96" s="19"/>
@@ -7079,7 +7159,7 @@
     <row r="97" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="16">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="19"/>
@@ -7094,12 +7174,12 @@
     <row r="98" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="16">
-        <v>95</v>
-      </c>
-      <c r="C98" s="39"/>
+        <v>94</v>
+      </c>
+      <c r="C98" s="16"/>
       <c r="D98" s="19"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="18"/>
       <c r="G98" s="18"/>
       <c r="H98" s="18"/>
       <c r="I98" s="19"/>
@@ -7109,12 +7189,12 @@
     <row r="99" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15"/>
       <c r="B99" s="16">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C99" s="39"/>
       <c r="D99" s="19"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="18"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
       <c r="G99" s="18"/>
       <c r="H99" s="18"/>
       <c r="I99" s="19"/>
@@ -7124,9 +7204,9 @@
     <row r="100" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15"/>
       <c r="B100" s="16">
-        <v>97</v>
-      </c>
-      <c r="C100" s="16"/>
+        <v>96</v>
+      </c>
+      <c r="C100" s="39"/>
       <c r="D100" s="19"/>
       <c r="E100" s="17"/>
       <c r="F100" s="18"/>
@@ -7139,7 +7219,7 @@
     <row r="101" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15"/>
       <c r="B101" s="16">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="19"/>
@@ -7154,7 +7234,7 @@
     <row r="102" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15"/>
       <c r="B102" s="16">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="19"/>
@@ -7169,7 +7249,7 @@
     <row r="103" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15"/>
       <c r="B103" s="16">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="19"/>
@@ -7184,7 +7264,7 @@
     <row r="104" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="15"/>
       <c r="B104" s="16">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C104" s="16"/>
       <c r="D104" s="19"/>
@@ -7199,7 +7279,7 @@
     <row r="105" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="15"/>
       <c r="B105" s="16">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C105" s="16"/>
       <c r="D105" s="19"/>
@@ -7214,7 +7294,7 @@
     <row r="106" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15"/>
       <c r="B106" s="16">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C106" s="16"/>
       <c r="D106" s="19"/>
@@ -7228,7 +7308,9 @@
     </row>
     <row r="107" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="15"/>
-      <c r="B107" s="16"/>
+      <c r="B107" s="16">
+        <v>103</v>
+      </c>
       <c r="C107" s="16"/>
       <c r="D107" s="19"/>
       <c r="E107" s="17"/>
@@ -7262,121 +7344,121 @@
       <c r="G109" s="18"/>
       <c r="H109" s="18"/>
       <c r="I109" s="19"/>
-      <c r="J109" s="2" t="s">
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+    </row>
+    <row r="110" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="15"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K109" s="2"/>
-    </row>
-    <row r="110" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="24" t="s">
+      <c r="K110" s="2"/>
+    </row>
+    <row r="111" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="27">
-        <f>SUM(E3:E109)</f>
-        <v>0</v>
-      </c>
-      <c r="F110" s="28">
-        <f>SUM(F3:F109)</f>
-        <v>10391.130000000005</v>
-      </c>
-      <c r="G110" s="28">
-        <f>SUM(G3:G109)</f>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="27">
+        <f>SUM(E3:E110)</f>
+        <v>1799.6</v>
+      </c>
+      <c r="F111" s="28">
+        <f>SUM(F3:F110)</f>
+        <v>11689.550000000007</v>
+      </c>
+      <c r="G111" s="28">
+        <f>SUM(G3:G110)</f>
         <v>2000.5</v>
       </c>
-      <c r="H110" s="28">
-        <f>SUM(H3:H109)</f>
-        <v>1224.03</v>
-      </c>
-      <c r="I110" s="29">
-        <f>SUM(I3:I109)</f>
+      <c r="H111" s="28">
+        <f>SUM(H3:H110)</f>
+        <v>3048.6299999999997</v>
+      </c>
+      <c r="I111" s="29">
+        <f>SUM(I3:I110)</f>
         <v>949.26</v>
       </c>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-    </row>
-    <row r="111" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="35"/>
-      <c r="B111" s="35"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
     <row r="112" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="28">
-        <f>E110+Ausgaben!F175</f>
-        <v>0</v>
-      </c>
-      <c r="F112" s="28">
-        <f>F110+Ausgaben!G175</f>
-        <v>4806.2900000000072</v>
-      </c>
-      <c r="G112" s="28">
-        <f>G110+Ausgaben!H175</f>
-        <v>2000.5</v>
-      </c>
-      <c r="H112" s="28">
-        <f>H110+Ausgaben!I175</f>
-        <v>1056.5999999999999</v>
-      </c>
-      <c r="I112" s="29">
-        <f>I110+Ausgaben!J175</f>
-        <v>9.9999999999909051E-3</v>
-      </c>
+      <c r="A112" s="35"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="36"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="37"/>
-      <c r="B113" s="37"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
+      <c r="A113" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" s="25"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="28">
+        <f>E111+Ausgaben!F176</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="28">
+        <f>F111+Ausgaben!G176</f>
+        <v>5279.54000000001</v>
+      </c>
+      <c r="G113" s="28">
+        <f>G111+Ausgaben!H176</f>
+        <v>2000.5</v>
+      </c>
+      <c r="H113" s="28">
+        <f>H111+Ausgaben!I176</f>
+        <v>2879.8499999999995</v>
+      </c>
+      <c r="I113" s="29">
+        <f>I111+Ausgaben!J176</f>
+        <v>9.9999999999909051E-3</v>
+      </c>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
     <row r="114" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B114" s="5"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="29">
-        <f>SUM(E112:I112)</f>
-        <v>7863.4000000000069</v>
-      </c>
-      <c r="E114" s="17"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
     <row r="115" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="38"/>
-      <c r="B115" s="38"/>
-      <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
-      <c r="E115" s="18"/>
+      <c r="A115" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="29">
+        <f>SUM(E113:I113)</f>
+        <v>10159.900000000011</v>
+      </c>
+      <c r="E115" s="17"/>
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
       <c r="H115" s="18"/>
@@ -7385,12 +7467,10 @@
       <c r="K115" s="2"/>
     </row>
     <row r="116" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A116" s="38"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
       <c r="E116" s="18"/>
       <c r="F116" s="18"/>
       <c r="G116" s="18"/>
@@ -7403,7 +7483,9 @@
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+      <c r="D117" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E117" s="18"/>
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
@@ -8153,157 +8235,170 @@
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
     </row>
-    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="18"/>
+      <c r="F175" s="18"/>
+      <c r="G175" s="18"/>
+      <c r="H175" s="18"/>
+      <c r="I175" s="18"/>
+      <c r="J175" s="2"/>
       <c r="K175" s="2"/>
     </row>
+    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K176" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:I106" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:I107" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A92:C92">
-    <cfRule type="cellIs" dxfId="58" priority="150" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A93:C93">
+    <cfRule type="cellIs" dxfId="57" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="57" priority="164" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B83">
+    <cfRule type="cellIs" dxfId="56" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C98:D99">
-    <cfRule type="cellIs" dxfId="56" priority="17" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C99:D100">
+    <cfRule type="cellIs" dxfId="55" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="55" priority="12" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D18:D68">
+    <cfRule type="cellIs" dxfId="54" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="54" priority="32" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D71:D73">
+    <cfRule type="cellIs" dxfId="53" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82:D86">
-    <cfRule type="cellIs" dxfId="53" priority="28" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D83:D87">
+    <cfRule type="cellIs" dxfId="52" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="52" priority="75" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D17:G17">
+    <cfRule type="cellIs" dxfId="51" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="51" priority="36" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D69:G70 E71:G71 E73:G73 D74:G82">
+    <cfRule type="cellIs" dxfId="50" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D87:G97">
-    <cfRule type="cellIs" dxfId="50" priority="18" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D88:G98">
+    <cfRule type="cellIs" dxfId="49" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D100:G109">
-    <cfRule type="cellIs" dxfId="49" priority="15" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D101:G110">
+    <cfRule type="cellIs" dxfId="48" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="48" priority="42" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="47" priority="195" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="46" priority="197" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="46" priority="45" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E21:F21">
+    <cfRule type="cellIs" dxfId="45" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:F36">
-    <cfRule type="cellIs" dxfId="45" priority="6" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E31:F37">
+    <cfRule type="cellIs" dxfId="44" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41:F41">
-    <cfRule type="cellIs" dxfId="44" priority="3" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E42:F42">
+    <cfRule type="cellIs" dxfId="43" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="43" priority="252" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37:G40">
+  <conditionalFormatting sqref="E46:F46">
     <cfRule type="cellIs" dxfId="42" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83:G86">
-    <cfRule type="cellIs" dxfId="41" priority="151" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E14:G15">
+    <cfRule type="cellIs" dxfId="41" priority="254" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I3 G15 G17:G23 H28:I109 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G98 E99:G99 D109:I109 E110:I174 D114">
-    <cfRule type="cellIs" dxfId="40" priority="316" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E38:G41">
+    <cfRule type="cellIs" dxfId="40" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="39" priority="237" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E84:G87">
+    <cfRule type="cellIs" dxfId="39" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="38" priority="180" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:I3 G16 G18:G24 H29:I110 E60:G61 F62 G62:G63 F64:G64 E65:G65 F66:G66 E67:G67 G83 G99 E100:G100 D110:I110 E111:I175 D115">
+    <cfRule type="cellIs" dxfId="38" priority="318" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F25:G25">
+    <cfRule type="cellIs" dxfId="37" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:I27">
-    <cfRule type="cellIs" dxfId="36" priority="11" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F68:G68">
+    <cfRule type="cellIs" dxfId="36" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G12 D4:D15 H4:I26 A93:A96">
-    <cfRule type="cellIs" dxfId="35" priority="22" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F72:G72">
+    <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:G26">
-    <cfRule type="cellIs" dxfId="34" priority="234" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F28:I28">
+    <cfRule type="cellIs" dxfId="34" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:G36">
-    <cfRule type="cellIs" dxfId="33" priority="91" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G4:G13 D4:D16 H4:I27 A94:A97">
+    <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="32" priority="62" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G26:G27">
+    <cfRule type="cellIs" dxfId="32" priority="236" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45:F45">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G29:G37">
+    <cfRule type="cellIs" dxfId="31" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42:G47 E48:G49 G50:G51 E51:F51 F52:G52 E53:G53 F54:G59">
+    <cfRule type="cellIs" dxfId="30" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D109" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$K$1:$K$19</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D110" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -8313,7 +8408,7 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="122" max="18" man="1"/>
+    <brk id="123" max="18" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -8323,11 +8418,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:IM241"/>
+  <dimension ref="A1:IM242"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
+      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8349,17 +8444,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41"/>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="4"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
@@ -8701,29 +8796,27 @@
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="15">
-        <v>38019</v>
-      </c>
-      <c r="C14" s="52">
-        <v>12</v>
+        <v>45323</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>129</v>
       </c>
       <c r="D14" s="85" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="E14" s="86" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="21">
-        <v>-134</v>
-      </c>
+      <c r="G14" s="87"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="I14" s="21">
+        <v>-1.35</v>
+      </c>
       <c r="J14" s="22"/>
       <c r="K14" s="4"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="43"/>
@@ -8731,7 +8824,7 @@
         <v>38019</v>
       </c>
       <c r="C15" s="52">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="85" t="s">
         <v>48</v>
@@ -8741,7 +8834,7 @@
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="21">
-        <v>-28</v>
+        <v>-134</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
@@ -8749,26 +8842,26 @@
       <c r="K15" s="4"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
       <c r="B16" s="15">
-        <v>45336</v>
+        <v>38019</v>
       </c>
       <c r="C16" s="52">
-        <v>14</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="D16" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="86" t="s">
+        <v>22</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="21">
-        <v>-13</v>
+        <v>-28</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
@@ -8776,26 +8869,26 @@
       <c r="K16" s="4"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
       <c r="B17" s="15">
-        <v>45337</v>
+        <v>45336</v>
       </c>
       <c r="C17" s="52">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="21">
-        <v>-20</v>
+        <v>-13</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -8803,26 +8896,26 @@
       <c r="K17" s="4"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="15">
-        <v>45341</v>
+        <v>45337</v>
       </c>
       <c r="C18" s="52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21">
-        <v>-45.22</v>
+        <v>-20</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -8830,26 +8923,26 @@
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="15">
-        <v>45344</v>
+        <v>45341</v>
       </c>
       <c r="C19" s="52">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="86" t="s">
-        <v>22</v>
+        <v>63</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="21">
-        <v>-11.97</v>
+        <v>-45.22</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
@@ -8857,51 +8950,53 @@
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="15">
-        <v>45346</v>
+        <v>45344</v>
       </c>
       <c r="C20" s="52">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>19</v>
+        <v>64</v>
+      </c>
+      <c r="E20" s="86" t="s">
+        <v>22</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="21">
-        <v>-31.4</v>
+        <v>-11.97</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="22"/>
       <c r="K20" s="4"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="15">
-        <v>45349</v>
+        <v>45346</v>
       </c>
       <c r="C21" s="52">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>19</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>0</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="21">
-        <v>-6.76</v>
+        <v>-31.4</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
@@ -8913,20 +9008,20 @@
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="15">
-        <v>45350</v>
+        <v>45349</v>
       </c>
       <c r="C22" s="52">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="21">
-        <v>-9.01</v>
+        <v>-6.76</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
@@ -8938,20 +9033,20 @@
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
       <c r="B23" s="15">
-        <v>45352</v>
+        <v>45350</v>
       </c>
       <c r="C23" s="52">
-        <v>21</v>
-      </c>
-      <c r="D23" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="86" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>0</v>
       </c>
       <c r="F23" s="20"/>
-      <c r="G23" s="20">
-        <v>-12</v>
+      <c r="G23" s="21">
+        <v>-9.01</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
@@ -8963,20 +9058,20 @@
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
       <c r="B24" s="15">
-        <v>45355</v>
+        <v>45352</v>
       </c>
       <c r="C24" s="52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="85" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E24" s="86" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="20"/>
-      <c r="G24" s="21">
-        <v>-139</v>
+      <c r="G24" s="20">
+        <v>-12</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
@@ -8991,7 +9086,7 @@
         <v>45355</v>
       </c>
       <c r="C25" s="52">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="85" t="s">
         <v>48</v>
@@ -9001,7 +9096,7 @@
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="21">
-        <v>-44</v>
+        <v>-139</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
@@ -9013,20 +9108,20 @@
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="43"/>
       <c r="B26" s="15">
-        <v>45364</v>
+        <v>45355</v>
       </c>
       <c r="C26" s="52">
-        <v>24</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="D26" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="86" t="s">
+        <v>22</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="21">
-        <v>-46.36</v>
+        <v>-44</v>
       </c>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
@@ -9038,20 +9133,20 @@
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
       <c r="B27" s="15">
-        <v>45365</v>
+        <v>45364</v>
       </c>
       <c r="C27" s="52">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="86" t="s">
-        <v>22</v>
+        <v>72</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>0</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="21">
-        <v>-111.94</v>
+        <v>-46.36</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -9063,20 +9158,20 @@
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
       <c r="B28" s="15">
-        <v>45366</v>
+        <v>45365</v>
       </c>
       <c r="C28" s="52">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="E28" s="86" t="s">
+        <v>22</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="21">
-        <v>-60</v>
+        <v>-111.94</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
@@ -9091,17 +9186,17 @@
         <v>45366</v>
       </c>
       <c r="C29" s="52">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="21">
-        <v>-3.12</v>
+        <v>-60</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
@@ -9113,20 +9208,20 @@
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="15">
-        <v>45369</v>
+        <v>45366</v>
       </c>
       <c r="C30" s="52">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="21">
-        <v>-35.22</v>
+        <v>-3.12</v>
       </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
@@ -9138,20 +9233,20 @@
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="15">
-        <v>45372</v>
+        <v>45369</v>
       </c>
       <c r="C31" s="52">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="86" t="s">
-        <v>22</v>
+        <v>81</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="21">
-        <v>-12.99</v>
+        <v>-35.22</v>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -9163,20 +9258,20 @@
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="15">
-        <v>45376</v>
+        <v>45372</v>
       </c>
       <c r="C32" s="52">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="17"/>
+        <v>64</v>
+      </c>
+      <c r="E32" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="20"/>
       <c r="G32" s="21">
-        <v>-72.59</v>
+        <v>-12.99</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
@@ -9188,20 +9283,20 @@
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="15">
-        <v>45377</v>
+        <v>45376</v>
       </c>
       <c r="C33" s="52">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="20"/>
+        <v>82</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="17"/>
       <c r="G33" s="21">
-        <v>-19.41</v>
+        <v>-72.59</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
@@ -9213,20 +9308,20 @@
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="43"/>
       <c r="B34" s="15">
-        <v>45384</v>
+        <v>45377</v>
       </c>
       <c r="C34" s="52">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" s="86" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="21">
-        <v>-30.42</v>
+        <v>-19.41</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
@@ -9241,17 +9336,17 @@
         <v>45384</v>
       </c>
       <c r="C35" s="52">
-        <v>33</v>
-      </c>
-      <c r="D35" s="85" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="E35" s="86" t="s">
         <v>22</v>
       </c>
       <c r="F35" s="20"/>
-      <c r="G35" s="20">
-        <v>-12</v>
+      <c r="G35" s="21">
+        <v>-30.42</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
@@ -9263,20 +9358,20 @@
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
       <c r="B36" s="15">
-        <v>45385</v>
+        <v>45384</v>
       </c>
       <c r="C36" s="52">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="85" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E36" s="86" t="s">
         <v>22</v>
       </c>
       <c r="F36" s="20"/>
-      <c r="G36" s="21">
-        <v>-139</v>
+      <c r="G36" s="20">
+        <v>-12</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
@@ -9291,7 +9386,7 @@
         <v>45385</v>
       </c>
       <c r="C37" s="52">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="85" t="s">
         <v>48</v>
@@ -9301,7 +9396,7 @@
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="21">
-        <v>-44</v>
+        <v>-139</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
@@ -9313,20 +9408,20 @@
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
       <c r="B38" s="15">
-        <v>45386</v>
+        <v>45385</v>
       </c>
       <c r="C38" s="52">
-        <v>36</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="D38" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="86" t="s">
+        <v>22</v>
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="21">
-        <v>-24.12</v>
+        <v>-44</v>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
@@ -9338,10 +9433,10 @@
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
       <c r="B39" s="15">
-        <v>45392</v>
+        <v>45386</v>
       </c>
       <c r="C39" s="52">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>86</v>
@@ -9351,7 +9446,7 @@
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="21">
-        <v>-11.66</v>
+        <v>-24.12</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
@@ -9363,20 +9458,20 @@
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="43"/>
       <c r="B40" s="15">
-        <v>45397</v>
+        <v>45392</v>
       </c>
       <c r="C40" s="52">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="86" t="s">
-        <v>22</v>
+        <v>86</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>0</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="21">
-        <v>-18.36</v>
+        <v>-11.66</v>
       </c>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
@@ -9391,17 +9486,17 @@
         <v>45397</v>
       </c>
       <c r="C41" s="52">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="E41" s="86" t="s">
+        <v>22</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="21">
-        <v>-90</v>
+        <v>-18.36</v>
       </c>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
@@ -9416,17 +9511,17 @@
         <v>45397</v>
       </c>
       <c r="C42" s="52">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="21">
-        <v>-200</v>
+        <v>-90</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -9438,20 +9533,20 @@
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="43"/>
       <c r="B43" s="15">
-        <v>45399</v>
+        <v>45397</v>
       </c>
       <c r="C43" s="52">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="21">
-        <v>-36.47</v>
+        <v>-200</v>
       </c>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
@@ -9463,20 +9558,20 @@
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
       <c r="B44" s="15">
-        <v>45404</v>
+        <v>45399</v>
       </c>
       <c r="C44" s="52">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="86" t="s">
-        <v>22</v>
+        <v>86</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>0</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="21">
-        <v>-12.99</v>
+        <v>-36.47</v>
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
@@ -9488,20 +9583,20 @@
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="43"/>
       <c r="B45" s="15">
-        <v>45406</v>
+        <v>45404</v>
       </c>
       <c r="C45" s="52">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="17"/>
+        <v>64</v>
+      </c>
+      <c r="E45" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="20"/>
       <c r="G45" s="21">
-        <v>-25</v>
+        <v>-12.99</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
@@ -9516,17 +9611,17 @@
         <v>45406</v>
       </c>
       <c r="C46" s="52">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F46" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="F46" s="17"/>
       <c r="G46" s="21">
-        <v>-26.46</v>
+        <v>-25</v>
       </c>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
@@ -9538,10 +9633,10 @@
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="43"/>
       <c r="B47" s="15">
-        <v>45407</v>
+        <v>45406</v>
       </c>
       <c r="C47" s="52">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>86</v>
@@ -9551,7 +9646,7 @@
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="21">
-        <v>-69.87</v>
+        <v>-26.46</v>
       </c>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
@@ -9566,17 +9661,17 @@
         <v>45407</v>
       </c>
       <c r="C48" s="52">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="20"/>
       <c r="G48" s="21">
-        <v>-60</v>
+        <v>-69.87</v>
       </c>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
@@ -9588,20 +9683,20 @@
     <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="43"/>
       <c r="B49" s="15">
-        <v>45414</v>
+        <v>45407</v>
       </c>
       <c r="C49" s="52">
-        <v>47</v>
-      </c>
-      <c r="D49" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20">
-        <v>-12</v>
+        <v>46</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="17"/>
+      <c r="G49" s="21">
+        <v>-60</v>
       </c>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
@@ -9616,17 +9711,17 @@
         <v>45414</v>
       </c>
       <c r="C50" s="52">
-        <v>48</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="D50" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="86" t="s">
+        <v>22</v>
       </c>
       <c r="F50" s="20"/>
-      <c r="G50" s="21">
-        <v>-136.5</v>
+      <c r="G50" s="20">
+        <v>-12</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
@@ -9641,17 +9736,17 @@
         <v>45414</v>
       </c>
       <c r="C51" s="52">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="21">
-        <v>-27.31</v>
+        <v>-136.5</v>
       </c>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
@@ -9663,20 +9758,20 @@
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="43"/>
       <c r="B52" s="15">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="C52" s="52">
-        <v>50</v>
-      </c>
-      <c r="D52" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" s="86" t="s">
-        <v>22</v>
+        <v>49</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="21">
-        <v>-139</v>
+        <v>-27.31</v>
       </c>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
@@ -9691,7 +9786,7 @@
         <v>45415</v>
       </c>
       <c r="C53" s="52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="85" t="s">
         <v>48</v>
@@ -9701,7 +9796,7 @@
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="21">
-        <v>-44</v>
+        <v>-139</v>
       </c>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
@@ -9713,20 +9808,20 @@
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="43"/>
       <c r="B54" s="15">
-        <v>45418</v>
+        <v>45415</v>
       </c>
       <c r="C54" s="52">
-        <v>52</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="D54" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="86" t="s">
+        <v>22</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="21">
-        <v>-9.76</v>
+        <v>-44</v>
       </c>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
@@ -9738,20 +9833,20 @@
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="43"/>
       <c r="B55" s="15">
-        <v>45422</v>
+        <v>45418</v>
       </c>
       <c r="C55" s="52">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="21">
-        <v>-3.52</v>
+        <v>-9.76</v>
       </c>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
@@ -9766,17 +9861,17 @@
         <v>45422</v>
       </c>
       <c r="C56" s="52">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="21">
-        <v>-60</v>
+        <v>-3.52</v>
       </c>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
@@ -9788,20 +9883,20 @@
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="43"/>
       <c r="B57" s="15">
-        <v>45425</v>
+        <v>45422</v>
       </c>
       <c r="C57" s="52">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="21">
-        <v>-14.7</v>
+        <v>-60</v>
       </c>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
@@ -9816,17 +9911,17 @@
         <v>45425</v>
       </c>
       <c r="C58" s="52">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="21">
-        <v>-34.700000000000003</v>
+        <v>-14.7</v>
       </c>
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
@@ -9841,17 +9936,17 @@
         <v>45425</v>
       </c>
       <c r="C59" s="52">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F59" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="20"/>
       <c r="G59" s="21">
-        <v>-117</v>
+        <v>-34.700000000000003</v>
       </c>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
@@ -9866,17 +9961,17 @@
         <v>45425</v>
       </c>
       <c r="C60" s="52">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="F60" s="17"/>
       <c r="G60" s="21">
-        <v>-30</v>
+        <v>-117</v>
       </c>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
@@ -9888,20 +9983,20 @@
     <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="43"/>
       <c r="B61" s="15">
-        <v>45426</v>
+        <v>45425</v>
       </c>
       <c r="C61" s="52">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="21">
-        <v>-43.81</v>
+        <v>-30</v>
       </c>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
@@ -9913,20 +10008,20 @@
     <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="43"/>
       <c r="B62" s="15">
-        <v>45433</v>
+        <v>45426</v>
       </c>
       <c r="C62" s="52">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="F62" s="20"/>
       <c r="G62" s="21">
-        <v>-100</v>
+        <v>-43.81</v>
       </c>
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
@@ -9941,17 +10036,17 @@
         <v>45433</v>
       </c>
       <c r="C63" s="52">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="21">
-        <v>-99.95</v>
+        <v>-100</v>
       </c>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
@@ -9963,20 +10058,20 @@
     <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="43"/>
       <c r="B64" s="15">
-        <v>45436</v>
+        <v>45433</v>
       </c>
       <c r="C64" s="52">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E64" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" s="20"/>
+        <v>113</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="17"/>
       <c r="G64" s="21">
-        <v>-12.99</v>
+        <v>-99.95</v>
       </c>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
@@ -9988,20 +10083,20 @@
     <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="43"/>
       <c r="B65" s="15">
-        <v>45446</v>
+        <v>45436</v>
       </c>
       <c r="C65" s="52">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>14</v>
+        <v>64</v>
+      </c>
+      <c r="E65" s="86" t="s">
+        <v>22</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="21">
-        <v>-190.09</v>
+        <v>-12.99</v>
       </c>
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
@@ -10016,17 +10111,17 @@
         <v>45446</v>
       </c>
       <c r="C66" s="52">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="F66" s="20"/>
       <c r="G66" s="21">
-        <v>-300</v>
+        <v>-190.09</v>
       </c>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
@@ -10041,17 +10136,17 @@
         <v>45446</v>
       </c>
       <c r="C67" s="52">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="17"/>
       <c r="G67" s="21">
-        <v>-120</v>
+        <v>-300</v>
       </c>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
@@ -10066,17 +10161,17 @@
         <v>45446</v>
       </c>
       <c r="C68" s="52">
-        <v>66</v>
-      </c>
-      <c r="D68" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20">
-        <v>-12</v>
+        <v>65</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="17"/>
+      <c r="G68" s="21">
+        <v>-120</v>
       </c>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
@@ -10088,20 +10183,20 @@
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="43"/>
       <c r="B69" s="15">
-        <v>45447</v>
+        <v>45446</v>
       </c>
       <c r="C69" s="52">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" s="85" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E69" s="86" t="s">
         <v>22</v>
       </c>
       <c r="F69" s="20"/>
-      <c r="G69" s="21">
-        <v>-139</v>
+      <c r="G69" s="20">
+        <v>-12</v>
       </c>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
@@ -10116,7 +10211,7 @@
         <v>45447</v>
       </c>
       <c r="C70" s="52">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="85" t="s">
         <v>48</v>
@@ -10126,7 +10221,7 @@
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="21">
-        <v>-44</v>
+        <v>-139</v>
       </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
@@ -10138,22 +10233,22 @@
     <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="43"/>
       <c r="B71" s="15">
-        <v>45448</v>
+        <v>45447</v>
       </c>
       <c r="C71" s="52">
-        <v>69</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>14</v>
+        <v>68</v>
+      </c>
+      <c r="D71" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E71" s="86" t="s">
+        <v>22</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="21">
-        <v>-17.190000000000001</v>
-      </c>
-      <c r="H71" s="20"/>
+        <v>-44</v>
+      </c>
+      <c r="H71" s="21"/>
       <c r="I71" s="21"/>
       <c r="J71" s="22"/>
       <c r="K71" s="4"/>
@@ -10166,19 +10261,19 @@
         <v>45448</v>
       </c>
       <c r="C72" s="52">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="21">
-        <v>-45.83</v>
-      </c>
-      <c r="H72" s="21"/>
+        <v>-17.190000000000001</v>
+      </c>
+      <c r="H72" s="20"/>
       <c r="I72" s="21"/>
       <c r="J72" s="22"/>
       <c r="K72" s="4"/>
@@ -10188,20 +10283,20 @@
     <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="43"/>
       <c r="B73" s="15">
-        <v>45453</v>
+        <v>45448</v>
       </c>
       <c r="C73" s="52">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="21">
-        <v>-317.44</v>
+        <v>-45.83</v>
       </c>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
@@ -10216,17 +10311,17 @@
         <v>45453</v>
       </c>
       <c r="C74" s="52">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E74" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="21">
-        <v>-150</v>
+        <v>-317.44</v>
       </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
@@ -10238,20 +10333,20 @@
     <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="43"/>
       <c r="B75" s="15">
-        <v>45462</v>
+        <v>45453</v>
       </c>
       <c r="C75" s="52">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="21">
-        <v>-22.55</v>
+        <v>-150</v>
       </c>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
@@ -10263,20 +10358,20 @@
     <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="43"/>
       <c r="B76" s="15">
-        <v>45464</v>
+        <v>45462</v>
       </c>
       <c r="C76" s="52">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E76" s="86" t="s">
-        <v>22</v>
+        <v>86</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>0</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="21">
-        <v>-12.99</v>
+        <v>-22.55</v>
       </c>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
@@ -10288,20 +10383,20 @@
     <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="43"/>
       <c r="B77" s="15">
-        <v>45467</v>
+        <v>45464</v>
       </c>
       <c r="C77" s="52">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>23</v>
+        <v>64</v>
+      </c>
+      <c r="E77" s="86" t="s">
+        <v>22</v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="21">
-        <v>-58.66</v>
+        <v>-12.99</v>
       </c>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
@@ -10316,17 +10411,17 @@
         <v>45467</v>
       </c>
       <c r="C78" s="52">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>23</v>
       </c>
       <c r="F78" s="20"/>
       <c r="G78" s="21">
-        <v>-150</v>
+        <v>-58.66</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
@@ -10338,20 +10433,20 @@
     <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="43"/>
       <c r="B79" s="15">
-        <v>45474</v>
+        <v>45467</v>
       </c>
       <c r="C79" s="52">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E79" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E79" s="23" t="s">
         <v>23</v>
       </c>
       <c r="F79" s="20"/>
       <c r="G79" s="21">
-        <v>-127.5</v>
+        <v>-150</v>
       </c>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
@@ -10366,17 +10461,17 @@
         <v>45474</v>
       </c>
       <c r="C80" s="52">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E80" s="86" t="s">
-        <v>22</v>
+        <v>124</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="F80" s="20"/>
       <c r="G80" s="21">
-        <v>-30.42</v>
+        <v>-127.5</v>
       </c>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
@@ -10391,17 +10486,17 @@
         <v>45474</v>
       </c>
       <c r="C81" s="52">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E81" s="86" t="s">
         <v>22</v>
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="21">
-        <v>-12</v>
+        <v>-30.42</v>
       </c>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
@@ -10416,17 +10511,17 @@
         <v>45474</v>
       </c>
       <c r="C82" s="52">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E82" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="E82" s="86" t="s">
+        <v>22</v>
       </c>
       <c r="F82" s="20"/>
       <c r="G82" s="21">
-        <v>-38.840000000000003</v>
+        <v>-12</v>
       </c>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
@@ -10441,17 +10536,17 @@
         <v>45474</v>
       </c>
       <c r="C83" s="52">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E83" s="23" t="s">
-        <v>14</v>
+        <v>126</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="F83" s="20"/>
       <c r="G83" s="21">
-        <v>-17.95</v>
+        <v>-38.840000000000003</v>
       </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
@@ -10466,13 +10561,13 @@
         <v>45474</v>
       </c>
       <c r="C84" s="52">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F84" s="20"/>
       <c r="G84" s="21">
@@ -10488,20 +10583,20 @@
     <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="43"/>
       <c r="B85" s="15">
-        <v>45475</v>
+        <v>45474</v>
       </c>
       <c r="C85" s="52">
-        <v>83</v>
-      </c>
-      <c r="D85" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="E85" s="86" t="s">
-        <v>22</v>
+        <v>82</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>0</v>
       </c>
       <c r="F85" s="20"/>
       <c r="G85" s="21">
-        <v>-139</v>
+        <v>-17.95</v>
       </c>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
@@ -10516,7 +10611,7 @@
         <v>45475</v>
       </c>
       <c r="C86" s="52">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D86" s="85" t="s">
         <v>48</v>
@@ -10526,7 +10621,7 @@
       </c>
       <c r="F86" s="20"/>
       <c r="G86" s="21">
-        <v>-44</v>
+        <v>-139</v>
       </c>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
@@ -10541,17 +10636,17 @@
         <v>45475</v>
       </c>
       <c r="C87" s="52">
-        <v>85</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E87" s="23" t="s">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="D87" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E87" s="86" t="s">
+        <v>22</v>
       </c>
       <c r="F87" s="20"/>
       <c r="G87" s="21">
-        <v>-6.9</v>
+        <v>-44</v>
       </c>
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
@@ -10562,14 +10657,22 @@
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="43"/>
-      <c r="B88" s="15"/>
+      <c r="B88" s="15">
+        <v>45475</v>
+      </c>
       <c r="C88" s="52">
-        <v>86</v>
-      </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="19"/>
+        <v>85</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F88" s="20"/>
-      <c r="G88" s="21"/>
+      <c r="G88" s="21">
+        <v>-6.9</v>
+      </c>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
       <c r="J88" s="22"/>
@@ -10579,14 +10682,22 @@
     </row>
     <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="43"/>
-      <c r="B89" s="15"/>
+      <c r="B89" s="15">
+        <v>45483</v>
+      </c>
       <c r="C89" s="52">
-        <v>87</v>
-      </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="23"/>
+        <v>86</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="F89" s="20"/>
-      <c r="G89" s="21"/>
+      <c r="G89" s="21">
+        <v>-180</v>
+      </c>
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
       <c r="J89" s="22"/>
@@ -10596,14 +10707,22 @@
     </row>
     <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="43"/>
-      <c r="B90" s="15"/>
+      <c r="B90" s="15">
+        <v>45484</v>
+      </c>
       <c r="C90" s="52">
-        <v>88</v>
-      </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="19"/>
+        <v>87</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F90" s="20"/>
-      <c r="G90" s="21"/>
+      <c r="G90" s="21">
+        <v>-165.08</v>
+      </c>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
       <c r="J90" s="22"/>
@@ -10613,14 +10732,22 @@
     </row>
     <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="43"/>
-      <c r="B91" s="15"/>
+      <c r="B91" s="15">
+        <v>45488</v>
+      </c>
       <c r="C91" s="52">
-        <v>89</v>
-      </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="23"/>
+        <v>88</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F91" s="20"/>
-      <c r="G91" s="21"/>
+      <c r="G91" s="21">
+        <v>-23.99</v>
+      </c>
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
       <c r="J91" s="22"/>
@@ -10630,14 +10757,22 @@
     </row>
     <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="43"/>
-      <c r="B92" s="15"/>
+      <c r="B92" s="15">
+        <v>45488</v>
+      </c>
       <c r="C92" s="52">
-        <v>90</v>
-      </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="23"/>
+        <v>89</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F92" s="20"/>
-      <c r="G92" s="21"/>
+      <c r="G92" s="21">
+        <v>-18.36</v>
+      </c>
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
       <c r="J92" s="22"/>
@@ -10647,13 +10782,21 @@
     </row>
     <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="43"/>
-      <c r="B93" s="15"/>
+      <c r="B93" s="15">
+        <v>45488</v>
+      </c>
       <c r="C93" s="52">
-        <v>91</v>
-      </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="20"/>
+        <v>90</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" s="20">
+        <v>-1730</v>
+      </c>
       <c r="G93" s="21"/>
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
@@ -10664,13 +10807,21 @@
     </row>
     <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="43"/>
-      <c r="B94" s="15"/>
+      <c r="B94" s="15">
+        <v>45488</v>
+      </c>
       <c r="C94" s="52">
-        <v>92</v>
-      </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="20"/>
+        <v>91</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" s="20">
+        <v>-69.599999999999994</v>
+      </c>
       <c r="G94" s="21"/>
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
@@ -10681,14 +10832,22 @@
     </row>
     <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="43"/>
-      <c r="B95" s="15"/>
+      <c r="B95" s="15">
+        <v>45496</v>
+      </c>
       <c r="C95" s="52">
-        <v>93</v>
-      </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="23"/>
+        <v>92</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F95" s="20"/>
-      <c r="G95" s="21"/>
+      <c r="G95" s="21">
+        <v>-12.99</v>
+      </c>
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
       <c r="J95" s="22"/>
@@ -10698,14 +10857,22 @@
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="43"/>
-      <c r="B96" s="15"/>
+      <c r="B96" s="15">
+        <v>45496</v>
+      </c>
       <c r="C96" s="52">
-        <v>94</v>
-      </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" s="20"/>
+      <c r="G96" s="21">
+        <v>-424.75</v>
+      </c>
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
       <c r="J96" s="22"/>
@@ -10717,10 +10884,10 @@
       <c r="A97" s="43"/>
       <c r="B97" s="15"/>
       <c r="C97" s="52">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D97" s="3"/>
-      <c r="E97" s="19"/>
+      <c r="E97" s="23"/>
       <c r="F97" s="17"/>
       <c r="G97" s="21"/>
       <c r="H97" s="21"/>
@@ -10734,11 +10901,11 @@
       <c r="A98" s="43"/>
       <c r="B98" s="15"/>
       <c r="C98" s="52">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="19"/>
-      <c r="F98" s="20"/>
+      <c r="F98" s="17"/>
       <c r="G98" s="21"/>
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
@@ -10751,7 +10918,7 @@
       <c r="A99" s="43"/>
       <c r="B99" s="15"/>
       <c r="C99" s="52">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="19"/>
@@ -10768,10 +10935,10 @@
       <c r="A100" s="43"/>
       <c r="B100" s="15"/>
       <c r="C100" s="52">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D100" s="3"/>
-      <c r="E100" s="23"/>
+      <c r="E100" s="19"/>
       <c r="F100" s="20"/>
       <c r="G100" s="21"/>
       <c r="H100" s="21"/>
@@ -10780,14 +10947,12 @@
       <c r="K100" s="4"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
-      <c r="IL100"/>
-      <c r="IM100"/>
     </row>
     <row r="101" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="43"/>
       <c r="B101" s="15"/>
       <c r="C101" s="52">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="23"/>
@@ -10799,12 +10964,14 @@
       <c r="K101" s="4"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
+      <c r="IL101"/>
+      <c r="IM101"/>
     </row>
     <row r="102" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="43"/>
       <c r="B102" s="15"/>
       <c r="C102" s="52">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="23"/>
@@ -10821,10 +10988,10 @@
       <c r="A103" s="43"/>
       <c r="B103" s="15"/>
       <c r="C103" s="52">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D103" s="3"/>
-      <c r="E103" s="19"/>
+      <c r="E103" s="23"/>
       <c r="F103" s="20"/>
       <c r="G103" s="21"/>
       <c r="H103" s="21"/>
@@ -10838,10 +11005,10 @@
       <c r="A104" s="43"/>
       <c r="B104" s="15"/>
       <c r="C104" s="52">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D104" s="3"/>
-      <c r="E104" s="23"/>
+      <c r="E104" s="19"/>
       <c r="F104" s="20"/>
       <c r="G104" s="21"/>
       <c r="H104" s="21"/>
@@ -10855,10 +11022,10 @@
       <c r="A105" s="43"/>
       <c r="B105" s="15"/>
       <c r="C105" s="52">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D105" s="3"/>
-      <c r="E105" s="19"/>
+      <c r="E105" s="23"/>
       <c r="F105" s="20"/>
       <c r="G105" s="21"/>
       <c r="H105" s="21"/>
@@ -10872,10 +11039,10 @@
       <c r="A106" s="43"/>
       <c r="B106" s="15"/>
       <c r="C106" s="52">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D106" s="3"/>
-      <c r="E106" s="23"/>
+      <c r="E106" s="19"/>
       <c r="F106" s="20"/>
       <c r="G106" s="21"/>
       <c r="H106" s="21"/>
@@ -10889,7 +11056,7 @@
       <c r="A107" s="43"/>
       <c r="B107" s="15"/>
       <c r="C107" s="52">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="23"/>
@@ -10906,11 +11073,11 @@
       <c r="A108" s="43"/>
       <c r="B108" s="15"/>
       <c r="C108" s="52">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D108" s="3"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="17"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="20"/>
       <c r="G108" s="21"/>
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
@@ -10923,11 +11090,11 @@
       <c r="A109" s="43"/>
       <c r="B109" s="15"/>
       <c r="C109" s="52">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D109" s="3"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="20"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="17"/>
       <c r="G109" s="21"/>
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
@@ -10940,7 +11107,7 @@
       <c r="A110" s="43"/>
       <c r="B110" s="15"/>
       <c r="C110" s="52">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="23"/>
@@ -10957,10 +11124,10 @@
       <c r="A111" s="43"/>
       <c r="B111" s="15"/>
       <c r="C111" s="52">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D111" s="3"/>
-      <c r="E111" s="19"/>
+      <c r="E111" s="23"/>
       <c r="F111" s="20"/>
       <c r="G111" s="21"/>
       <c r="H111" s="21"/>
@@ -10974,9 +11141,9 @@
       <c r="A112" s="43"/>
       <c r="B112" s="15"/>
       <c r="C112" s="52">
-        <v>110</v>
-      </c>
-      <c r="D112" s="39"/>
+        <v>109</v>
+      </c>
+      <c r="D112" s="3"/>
       <c r="E112" s="19"/>
       <c r="F112" s="20"/>
       <c r="G112" s="21"/>
@@ -10991,9 +11158,9 @@
       <c r="A113" s="43"/>
       <c r="B113" s="15"/>
       <c r="C113" s="52">
-        <v>111</v>
-      </c>
-      <c r="D113" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="D113" s="39"/>
       <c r="E113" s="19"/>
       <c r="F113" s="20"/>
       <c r="G113" s="21"/>
@@ -11008,10 +11175,10 @@
       <c r="A114" s="43"/>
       <c r="B114" s="15"/>
       <c r="C114" s="52">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D114" s="3"/>
-      <c r="E114" s="23"/>
+      <c r="E114" s="19"/>
       <c r="F114" s="20"/>
       <c r="G114" s="21"/>
       <c r="H114" s="21"/>
@@ -11025,7 +11192,7 @@
       <c r="A115" s="43"/>
       <c r="B115" s="15"/>
       <c r="C115" s="52">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="23"/>
@@ -11042,7 +11209,7 @@
       <c r="A116" s="43"/>
       <c r="B116" s="15"/>
       <c r="C116" s="52">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="23"/>
@@ -11059,7 +11226,7 @@
       <c r="A117" s="43"/>
       <c r="B117" s="15"/>
       <c r="C117" s="52">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="23"/>
@@ -11076,10 +11243,10 @@
       <c r="A118" s="43"/>
       <c r="B118" s="15"/>
       <c r="C118" s="52">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D118" s="3"/>
-      <c r="E118" s="19"/>
+      <c r="E118" s="23"/>
       <c r="F118" s="20"/>
       <c r="G118" s="21"/>
       <c r="H118" s="21"/>
@@ -11093,10 +11260,10 @@
       <c r="A119" s="43"/>
       <c r="B119" s="15"/>
       <c r="C119" s="52">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D119" s="3"/>
-      <c r="E119" s="23"/>
+      <c r="E119" s="19"/>
       <c r="F119" s="20"/>
       <c r="G119" s="21"/>
       <c r="H119" s="21"/>
@@ -11110,11 +11277,11 @@
       <c r="A120" s="43"/>
       <c r="B120" s="15"/>
       <c r="C120" s="52">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="23"/>
-      <c r="F120" s="17"/>
+      <c r="F120" s="20"/>
       <c r="G120" s="21"/>
       <c r="H120" s="21"/>
       <c r="I120" s="21"/>
@@ -11127,10 +11294,10 @@
       <c r="A121" s="43"/>
       <c r="B121" s="15"/>
       <c r="C121" s="52">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D121" s="3"/>
-      <c r="E121" s="19"/>
+      <c r="E121" s="23"/>
       <c r="F121" s="17"/>
       <c r="G121" s="21"/>
       <c r="H121" s="21"/>
@@ -11144,11 +11311,11 @@
       <c r="A122" s="43"/>
       <c r="B122" s="15"/>
       <c r="C122" s="52">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="19"/>
-      <c r="F122" s="20"/>
+      <c r="F122" s="17"/>
       <c r="G122" s="21"/>
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
@@ -11161,10 +11328,10 @@
       <c r="A123" s="43"/>
       <c r="B123" s="15"/>
       <c r="C123" s="52">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D123" s="3"/>
-      <c r="E123" s="23"/>
+      <c r="E123" s="19"/>
       <c r="F123" s="20"/>
       <c r="G123" s="21"/>
       <c r="H123" s="21"/>
@@ -11178,7 +11345,7 @@
       <c r="A124" s="43"/>
       <c r="B124" s="15"/>
       <c r="C124" s="52">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="23"/>
@@ -11195,7 +11362,7 @@
       <c r="A125" s="43"/>
       <c r="B125" s="15"/>
       <c r="C125" s="52">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="23"/>
@@ -11212,10 +11379,10 @@
       <c r="A126" s="43"/>
       <c r="B126" s="15"/>
       <c r="C126" s="52">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D126" s="3"/>
-      <c r="E126" s="19"/>
+      <c r="E126" s="23"/>
       <c r="F126" s="20"/>
       <c r="G126" s="21"/>
       <c r="H126" s="21"/>
@@ -11229,7 +11396,7 @@
       <c r="A127" s="43"/>
       <c r="B127" s="15"/>
       <c r="C127" s="52">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="19"/>
@@ -11246,10 +11413,10 @@
       <c r="A128" s="43"/>
       <c r="B128" s="15"/>
       <c r="C128" s="52">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D128" s="3"/>
-      <c r="E128" s="23"/>
+      <c r="E128" s="19"/>
       <c r="F128" s="20"/>
       <c r="G128" s="21"/>
       <c r="H128" s="21"/>
@@ -11263,7 +11430,7 @@
       <c r="A129" s="43"/>
       <c r="B129" s="15"/>
       <c r="C129" s="52">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="23"/>
@@ -11280,10 +11447,10 @@
       <c r="A130" s="43"/>
       <c r="B130" s="15"/>
       <c r="C130" s="52">
-        <v>128</v>
-      </c>
-      <c r="D130" s="39"/>
-      <c r="E130" s="19"/>
+        <v>127</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="23"/>
       <c r="F130" s="20"/>
       <c r="G130" s="21"/>
       <c r="H130" s="21"/>
@@ -11297,7 +11464,7 @@
       <c r="A131" s="43"/>
       <c r="B131" s="15"/>
       <c r="C131" s="52">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D131" s="39"/>
       <c r="E131" s="19"/>
@@ -11314,10 +11481,10 @@
       <c r="A132" s="43"/>
       <c r="B132" s="15"/>
       <c r="C132" s="52">
-        <v>130</v>
-      </c>
-      <c r="D132" s="3"/>
-      <c r="E132" s="23"/>
+        <v>129</v>
+      </c>
+      <c r="D132" s="39"/>
+      <c r="E132" s="19"/>
       <c r="F132" s="20"/>
       <c r="G132" s="21"/>
       <c r="H132" s="21"/>
@@ -11331,11 +11498,11 @@
       <c r="A133" s="43"/>
       <c r="B133" s="15"/>
       <c r="C133" s="52">
-        <v>131</v>
-      </c>
-      <c r="D133" s="54"/>
+        <v>130</v>
+      </c>
+      <c r="D133" s="3"/>
       <c r="E133" s="23"/>
-      <c r="F133" s="55"/>
+      <c r="F133" s="20"/>
       <c r="G133" s="21"/>
       <c r="H133" s="21"/>
       <c r="I133" s="21"/>
@@ -11348,11 +11515,11 @@
       <c r="A134" s="43"/>
       <c r="B134" s="15"/>
       <c r="C134" s="52">
-        <v>132</v>
-      </c>
-      <c r="D134" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="D134" s="54"/>
       <c r="E134" s="23"/>
-      <c r="F134" s="20"/>
+      <c r="F134" s="55"/>
       <c r="G134" s="21"/>
       <c r="H134" s="21"/>
       <c r="I134" s="21"/>
@@ -11365,11 +11532,11 @@
       <c r="A135" s="43"/>
       <c r="B135" s="15"/>
       <c r="C135" s="52">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="23"/>
-      <c r="F135" s="17"/>
+      <c r="F135" s="20"/>
       <c r="G135" s="21"/>
       <c r="H135" s="21"/>
       <c r="I135" s="21"/>
@@ -11382,7 +11549,7 @@
       <c r="A136" s="43"/>
       <c r="B136" s="15"/>
       <c r="C136" s="52">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="23"/>
@@ -11399,11 +11566,11 @@
       <c r="A137" s="43"/>
       <c r="B137" s="15"/>
       <c r="C137" s="52">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="23"/>
-      <c r="F137" s="20"/>
+      <c r="F137" s="17"/>
       <c r="G137" s="21"/>
       <c r="H137" s="21"/>
       <c r="I137" s="21"/>
@@ -11416,7 +11583,7 @@
       <c r="A138" s="43"/>
       <c r="B138" s="15"/>
       <c r="C138" s="52">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="23"/>
@@ -11433,7 +11600,7 @@
       <c r="A139" s="43"/>
       <c r="B139" s="15"/>
       <c r="C139" s="52">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="23"/>
@@ -11450,7 +11617,7 @@
       <c r="A140" s="43"/>
       <c r="B140" s="15"/>
       <c r="C140" s="52">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="23"/>
@@ -11467,10 +11634,10 @@
       <c r="A141" s="43"/>
       <c r="B141" s="15"/>
       <c r="C141" s="52">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D141" s="3"/>
-      <c r="E141" s="19"/>
+      <c r="E141" s="23"/>
       <c r="F141" s="20"/>
       <c r="G141" s="21"/>
       <c r="H141" s="21"/>
@@ -11484,10 +11651,10 @@
       <c r="A142" s="43"/>
       <c r="B142" s="15"/>
       <c r="C142" s="52">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D142" s="3"/>
-      <c r="E142" s="23"/>
+      <c r="E142" s="19"/>
       <c r="F142" s="20"/>
       <c r="G142" s="21"/>
       <c r="H142" s="21"/>
@@ -11501,11 +11668,11 @@
       <c r="A143" s="43"/>
       <c r="B143" s="15"/>
       <c r="C143" s="52">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D143" s="3"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="17"/>
+      <c r="E143" s="23"/>
+      <c r="F143" s="20"/>
       <c r="G143" s="21"/>
       <c r="H143" s="21"/>
       <c r="I143" s="21"/>
@@ -11518,10 +11685,10 @@
       <c r="A144" s="43"/>
       <c r="B144" s="15"/>
       <c r="C144" s="52">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D144" s="3"/>
-      <c r="E144" s="23"/>
+      <c r="E144" s="19"/>
       <c r="F144" s="17"/>
       <c r="G144" s="21"/>
       <c r="H144" s="21"/>
@@ -11535,10 +11702,10 @@
       <c r="A145" s="43"/>
       <c r="B145" s="15"/>
       <c r="C145" s="52">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D145" s="3"/>
-      <c r="E145" s="19"/>
+      <c r="E145" s="23"/>
       <c r="F145" s="17"/>
       <c r="G145" s="21"/>
       <c r="H145" s="21"/>
@@ -11552,11 +11719,11 @@
       <c r="A146" s="43"/>
       <c r="B146" s="15"/>
       <c r="C146" s="52">
-        <v>144</v>
-      </c>
-      <c r="D146" s="39"/>
-      <c r="E146" s="23"/>
-      <c r="F146" s="20"/>
+        <v>143</v>
+      </c>
+      <c r="D146" s="3"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="17"/>
       <c r="G146" s="21"/>
       <c r="H146" s="21"/>
       <c r="I146" s="21"/>
@@ -11569,25 +11736,26 @@
       <c r="A147" s="43"/>
       <c r="B147" s="15"/>
       <c r="C147" s="52">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D147" s="39"/>
       <c r="E147" s="23"/>
-      <c r="F147" s="17"/>
+      <c r="F147" s="20"/>
       <c r="G147" s="21"/>
       <c r="H147" s="21"/>
       <c r="I147" s="21"/>
       <c r="J147" s="22"/>
       <c r="K147" s="4"/>
       <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
     </row>
     <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="43"/>
       <c r="B148" s="15"/>
       <c r="C148" s="52">
-        <v>146</v>
-      </c>
-      <c r="D148" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="D148" s="39"/>
       <c r="E148" s="23"/>
       <c r="F148" s="17"/>
       <c r="G148" s="21"/>
@@ -11596,17 +11764,16 @@
       <c r="J148" s="22"/>
       <c r="K148" s="4"/>
       <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
     </row>
     <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="43"/>
       <c r="B149" s="15"/>
       <c r="C149" s="52">
-        <v>147</v>
-      </c>
-      <c r="D149" s="39"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="20"/>
+        <v>146</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="17"/>
       <c r="G149" s="21"/>
       <c r="H149" s="21"/>
       <c r="I149" s="21"/>
@@ -11619,10 +11786,10 @@
       <c r="A150" s="43"/>
       <c r="B150" s="15"/>
       <c r="C150" s="52">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D150" s="39"/>
-      <c r="E150" s="23"/>
+      <c r="E150" s="19"/>
       <c r="F150" s="20"/>
       <c r="G150" s="21"/>
       <c r="H150" s="21"/>
@@ -11635,9 +11802,11 @@
     <row r="151" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="43"/>
       <c r="B151" s="15"/>
-      <c r="C151" s="52"/>
+      <c r="C151" s="52">
+        <v>148</v>
+      </c>
       <c r="D151" s="39"/>
-      <c r="E151" s="19"/>
+      <c r="E151" s="23"/>
       <c r="F151" s="20"/>
       <c r="G151" s="21"/>
       <c r="H151" s="21"/>
@@ -11651,8 +11820,8 @@
       <c r="A152" s="43"/>
       <c r="B152" s="15"/>
       <c r="C152" s="52"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="23"/>
+      <c r="D152" s="39"/>
+      <c r="E152" s="19"/>
       <c r="F152" s="20"/>
       <c r="G152" s="21"/>
       <c r="H152" s="21"/>
@@ -11667,7 +11836,7 @@
       <c r="B153" s="15"/>
       <c r="C153" s="52"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="19"/>
+      <c r="E153" s="23"/>
       <c r="F153" s="20"/>
       <c r="G153" s="21"/>
       <c r="H153" s="21"/>
@@ -11682,7 +11851,7 @@
       <c r="B154" s="15"/>
       <c r="C154" s="52"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="23"/>
+      <c r="E154" s="19"/>
       <c r="F154" s="20"/>
       <c r="G154" s="21"/>
       <c r="H154" s="21"/>
@@ -11711,8 +11880,8 @@
       <c r="A156" s="43"/>
       <c r="B156" s="15"/>
       <c r="C156" s="52"/>
-      <c r="D156" s="39"/>
-      <c r="E156" s="19"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="23"/>
       <c r="F156" s="20"/>
       <c r="G156" s="21"/>
       <c r="H156" s="21"/>
@@ -11727,7 +11896,7 @@
       <c r="B157" s="15"/>
       <c r="C157" s="52"/>
       <c r="D157" s="39"/>
-      <c r="E157" s="23"/>
+      <c r="E157" s="19"/>
       <c r="F157" s="20"/>
       <c r="G157" s="21"/>
       <c r="H157" s="21"/>
@@ -11742,7 +11911,7 @@
       <c r="B158" s="15"/>
       <c r="C158" s="52"/>
       <c r="D158" s="39"/>
-      <c r="E158" s="19"/>
+      <c r="E158" s="23"/>
       <c r="F158" s="20"/>
       <c r="G158" s="21"/>
       <c r="H158" s="21"/>
@@ -11817,8 +11986,8 @@
       <c r="B163" s="15"/>
       <c r="C163" s="52"/>
       <c r="D163" s="39"/>
-      <c r="E163" s="23"/>
-      <c r="F163" s="21"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="20"/>
       <c r="G163" s="21"/>
       <c r="H163" s="21"/>
       <c r="I163" s="21"/>
@@ -11832,8 +12001,8 @@
       <c r="B164" s="15"/>
       <c r="C164" s="52"/>
       <c r="D164" s="39"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="20"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="21"/>
       <c r="G164" s="21"/>
       <c r="H164" s="21"/>
       <c r="I164" s="21"/>
@@ -11847,7 +12016,7 @@
       <c r="B165" s="15"/>
       <c r="C165" s="52"/>
       <c r="D165" s="39"/>
-      <c r="E165" s="23"/>
+      <c r="E165" s="19"/>
       <c r="F165" s="20"/>
       <c r="G165" s="21"/>
       <c r="H165" s="21"/>
@@ -11862,7 +12031,7 @@
       <c r="B166" s="15"/>
       <c r="C166" s="52"/>
       <c r="D166" s="39"/>
-      <c r="E166" s="19"/>
+      <c r="E166" s="23"/>
       <c r="F166" s="20"/>
       <c r="G166" s="21"/>
       <c r="H166" s="21"/>
@@ -11906,7 +12075,7 @@
       <c r="A169" s="43"/>
       <c r="B169" s="15"/>
       <c r="C169" s="52"/>
-      <c r="D169" s="16"/>
+      <c r="D169" s="39"/>
       <c r="E169" s="19"/>
       <c r="F169" s="20"/>
       <c r="G169" s="21"/>
@@ -11943,7 +12112,7 @@
       <c r="H171" s="21"/>
       <c r="I171" s="21"/>
       <c r="J171" s="22"/>
-      <c r="K171" s="46"/>
+      <c r="K171" s="4"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
     </row>
@@ -11981,7 +12150,7 @@
       <c r="A174" s="43"/>
       <c r="B174" s="15"/>
       <c r="C174" s="52"/>
-      <c r="D174" s="39"/>
+      <c r="D174" s="16"/>
       <c r="E174" s="19"/>
       <c r="F174" s="20"/>
       <c r="G174" s="21"/>
@@ -11991,51 +12160,51 @@
       <c r="K174" s="46"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
-      <c r="IM174"/>
     </row>
     <row r="175" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="44"/>
-      <c r="B175" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C175" s="53"/>
-      <c r="D175" s="31"/>
-      <c r="E175" s="32"/>
-      <c r="F175" s="33">
-        <f>SUM(F3:F174)</f>
-        <v>0</v>
-      </c>
-      <c r="G175" s="34">
-        <f>SUM(G3:G174)</f>
-        <v>-5584.8399999999974</v>
-      </c>
-      <c r="H175" s="34">
-        <f>SUM(H3:H174)</f>
-        <v>0</v>
-      </c>
-      <c r="I175" s="34">
-        <f>SUM(I3:I174)</f>
-        <v>-167.43</v>
-      </c>
-      <c r="J175" s="47">
-        <f>SUM(J3:J174)</f>
-        <v>-949.25</v>
-      </c>
-      <c r="K175" s="2"/>
+      <c r="A175" s="43"/>
+      <c r="B175" s="15"/>
+      <c r="C175" s="52"/>
+      <c r="D175" s="39"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="21"/>
+      <c r="H175" s="21"/>
+      <c r="I175" s="21"/>
+      <c r="J175" s="22"/>
+      <c r="K175" s="46"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
+      <c r="IM175"/>
     </row>
     <row r="176" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="44"/>
-      <c r="B176" s="18"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="18"/>
-      <c r="E176" s="18"/>
-      <c r="F176" s="18"/>
-      <c r="G176" s="18"/>
-      <c r="H176" s="18"/>
-      <c r="I176" s="18"/>
-      <c r="J176" s="18"/>
+      <c r="B176" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" s="53"/>
+      <c r="D176" s="31"/>
+      <c r="E176" s="32"/>
+      <c r="F176" s="33">
+        <f>SUM(F3:F175)</f>
+        <v>-1799.6</v>
+      </c>
+      <c r="G176" s="34">
+        <f>SUM(G3:G175)</f>
+        <v>-6410.0099999999966</v>
+      </c>
+      <c r="H176" s="34">
+        <f>SUM(H3:H175)</f>
+        <v>0</v>
+      </c>
+      <c r="I176" s="34">
+        <f>SUM(I3:I175)</f>
+        <v>-168.78</v>
+      </c>
+      <c r="J176" s="47">
+        <f>SUM(J3:J175)</f>
+        <v>-949.25</v>
+      </c>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
@@ -12982,178 +13151,193 @@
       <c r="I239" s="18"/>
       <c r="J239" s="18"/>
       <c r="K239" s="2"/>
+      <c r="L239" s="2"/>
       <c r="M239" s="2"/>
     </row>
     <row r="240" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="44"/>
       <c r="B240" s="18"/>
       <c r="C240" s="18"/>
+      <c r="D240" s="18"/>
+      <c r="E240" s="18"/>
+      <c r="F240" s="18"/>
+      <c r="G240" s="18"/>
+      <c r="H240" s="18"/>
       <c r="I240" s="18"/>
+      <c r="J240" s="18"/>
+      <c r="K240" s="2"/>
+      <c r="M240" s="2"/>
     </row>
     <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B241" s="18"/>
+      <c r="C241" s="18"/>
       <c r="I241" s="18"/>
     </row>
+    <row r="242" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="18"/>
+      <c r="I242" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:K170" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="B2:K171" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="31" priority="473" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A3:A240">
+    <cfRule type="cellIs" dxfId="29" priority="473" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B126:B134">
-    <cfRule type="cellIs" dxfId="30" priority="467" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B127:B135">
+    <cfRule type="cellIs" dxfId="28" priority="467" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="29" priority="456" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B137:B141">
+    <cfRule type="cellIs" dxfId="27" priority="456" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B160:B161">
-    <cfRule type="cellIs" dxfId="28" priority="13" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B161:B162">
+    <cfRule type="cellIs" dxfId="26" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B164:B241">
-    <cfRule type="cellIs" dxfId="27" priority="419" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B165:B242">
+    <cfRule type="cellIs" dxfId="25" priority="419" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B152:C155">
-    <cfRule type="cellIs" dxfId="26" priority="14" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B153:C156">
+    <cfRule type="cellIs" dxfId="24" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B162:C163">
-    <cfRule type="cellIs" dxfId="25" priority="421" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B163:C164">
+    <cfRule type="cellIs" dxfId="23" priority="421" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D158">
-    <cfRule type="cellIs" dxfId="24" priority="433" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B157:D159">
+    <cfRule type="cellIs" dxfId="22" priority="433" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B159:E159">
-    <cfRule type="cellIs" dxfId="23" priority="430" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B160:E160">
+    <cfRule type="cellIs" dxfId="21" priority="430" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C160:E160">
-    <cfRule type="cellIs" dxfId="22" priority="11" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C161:E161">
+    <cfRule type="cellIs" dxfId="20" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D112 C164:C240 K176 J176:J239 I176:I241">
-    <cfRule type="cellIs" dxfId="21" priority="703" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D113 C165:C241 K177 J177:J240 I177:I242">
+    <cfRule type="cellIs" dxfId="19" priority="703" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D130:D131">
-    <cfRule type="cellIs" dxfId="20" priority="471" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D131:D132">
+    <cfRule type="cellIs" dxfId="18" priority="471" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D146:D147">
-    <cfRule type="cellIs" dxfId="19" priority="58" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D147:D148">
+    <cfRule type="cellIs" dxfId="17" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D149:D150 C151:D151">
-    <cfRule type="cellIs" dxfId="18" priority="442" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D150:D151 C152:D152">
+    <cfRule type="cellIs" dxfId="16" priority="442" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D161:E168">
-    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D162:E169">
+    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="16" priority="655" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D177:H240">
+    <cfRule type="cellIs" dxfId="14" priority="655" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E158">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:E159">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E169:E173 D174:E176">
-    <cfRule type="cellIs" dxfId="14" priority="8" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E170:E174 D175:E177">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="13" priority="181" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="11" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="12" priority="385" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="10" priority="385" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="9" priority="364" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F63:F64">
+    <cfRule type="cellIs" dxfId="7" priority="364" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66:F67">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F67:F68">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="7" priority="116" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F97:F98">
+    <cfRule type="cellIs" dxfId="5" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" dxfId="6" priority="102" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F109">
+    <cfRule type="cellIs" dxfId="4" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F120:F121">
-    <cfRule type="cellIs" dxfId="5" priority="85" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F121:F122">
+    <cfRule type="cellIs" dxfId="3" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F135:F136">
-    <cfRule type="cellIs" dxfId="4" priority="68" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F136:F137">
+    <cfRule type="cellIs" dxfId="2" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F143:F145">
-    <cfRule type="cellIs" dxfId="3" priority="448" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F144:F146">
+    <cfRule type="cellIs" dxfId="1" priority="448" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F147:F148">
-    <cfRule type="cellIs" dxfId="2" priority="15" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F148:F149">
+    <cfRule type="cellIs" dxfId="0" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E152 E109:E111 E132:E140 E89 E168:E174 E91:E93 E95:E96 E100:E102 E104 E106:E107 E114:E117 E119:E120 E123:E125 E128:E129 E142 E144 E146:E148 E150 E154:E155 E157 E159 E161:E165 E3:E78 E80:E81 E83:E87" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>$M$1:$M$19</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E153 E81:E82 E110:E112 E162:E166 E160 E158 E155:E156 E151 E147:E149 E145 E143 E129:E130 E124:E126 E120:E121 E115:E118 E107:E108 E105 E101:E103 E169:E175 E3:E79 E133:E141 E84:E97" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103 E166:E167 E108 E112:E113 E118 E121:E122 E126:E127 E130:E131 E141 E143 E145 E149 E151 E153 E156 E158 E160 E105 E79 E82" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
-      <formula1>$K$1:$K$19</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E98:E100 E83 E80 E106 E161 E159 E157 E154 E152 E150 E146 E144 E142 E131:E132 E127:E128 E122:E123 E119 E113:E114 E109 E167:E168 E104" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+      <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4321030-75C0-4B5A-8C4B-8B1499F5C7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C526F77B-FAE8-4BC4-8732-B832E09E298F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="146">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -457,6 +457,21 @@
   </si>
   <si>
     <t>Sommerfest Glasbrenner</t>
+  </si>
+  <si>
+    <t>Individualhilfe Gülmez</t>
+  </si>
+  <si>
+    <t>Sackkarre</t>
+  </si>
+  <si>
+    <t>Geldkassette</t>
+  </si>
+  <si>
+    <t>90er Fr.Müller</t>
+  </si>
+  <si>
+    <t>Sommerfest Lidl</t>
   </si>
 </sst>
 </file>
@@ -3908,22 +3923,24 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+      <items count="14">
         <item h="1" x="6"/>
-        <item x="7"/>
         <item x="5"/>
         <item x="4"/>
+        <item m="1" x="12"/>
+        <item x="2"/>
+        <item x="0"/>
         <item x="1"/>
         <item x="3"/>
         <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item h="1" m="1" x="10"/>
+        <item x="7"/>
+        <item h="1" m="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3936,15 +3953,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -3956,7 +3970,13 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -4017,24 +4037,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="14">
+      <items count="12">
         <item h="1" x="6"/>
+        <item x="7"/>
         <item x="5"/>
         <item x="4"/>
-        <item m="1" x="12"/>
-        <item x="2"/>
-        <item x="0"/>
         <item x="1"/>
         <item x="3"/>
         <item x="8"/>
-        <item m="1" x="11"/>
-        <item h="1" m="1" x="10"/>
-        <item x="7"/>
-        <item h="1" m="1" x="9"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4047,12 +4065,15 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="8">
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -4064,13 +4085,7 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="11"/>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -5240,8 +5255,8 @@
   </sheetPr>
   <dimension ref="A1:IK176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -7418,7 +7433,7 @@
       </c>
       <c r="F113" s="28">
         <f>F111+Ausgaben!G176</f>
-        <v>5279.54000000001</v>
+        <v>5080.0400000000109</v>
       </c>
       <c r="G113" s="28">
         <f>G111+Ausgaben!H176</f>
@@ -7456,7 +7471,7 @@
       <c r="C115" s="24"/>
       <c r="D115" s="29">
         <f>SUM(E113:I113)</f>
-        <v>10159.900000000011</v>
+        <v>9960.4000000000106</v>
       </c>
       <c r="E115" s="17"/>
       <c r="F115" s="18"/>
@@ -8420,9 +8435,9 @@
   </sheetPr>
   <dimension ref="A1:IM242"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10882,14 +10897,22 @@
     </row>
     <row r="97" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="43"/>
-      <c r="B97" s="15"/>
+      <c r="B97" s="15">
+        <v>45501</v>
+      </c>
       <c r="C97" s="52">
         <v>94</v>
       </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="23"/>
+      <c r="D97" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="F97" s="17"/>
-      <c r="G97" s="21"/>
+      <c r="G97" s="21">
+        <v>-50</v>
+      </c>
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
       <c r="J97" s="22"/>
@@ -10899,14 +10922,22 @@
     </row>
     <row r="98" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="43"/>
-      <c r="B98" s="15"/>
+      <c r="B98" s="15">
+        <v>45501</v>
+      </c>
       <c r="C98" s="52">
         <v>95</v>
       </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="19"/>
+      <c r="D98" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F98" s="17"/>
-      <c r="G98" s="21"/>
+      <c r="G98" s="21">
+        <v>-89.99</v>
+      </c>
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
       <c r="J98" s="22"/>
@@ -10920,10 +10951,16 @@
       <c r="C99" s="52">
         <v>96</v>
       </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="19"/>
+      <c r="D99" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F99" s="20"/>
-      <c r="G99" s="21"/>
+      <c r="G99" s="21">
+        <v>-24.98</v>
+      </c>
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
       <c r="J99" s="22"/>
@@ -10937,10 +10974,16 @@
       <c r="C100" s="52">
         <v>97</v>
       </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="19"/>
+      <c r="D100" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="F100" s="20"/>
-      <c r="G100" s="21"/>
+      <c r="G100" s="21">
+        <v>-20</v>
+      </c>
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
       <c r="J100" s="22"/>
@@ -10954,10 +10997,16 @@
       <c r="C101" s="52">
         <v>98</v>
       </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="23"/>
+      <c r="D101" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F101" s="20"/>
-      <c r="G101" s="21"/>
+      <c r="G101" s="21">
+        <v>-14.53</v>
+      </c>
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
       <c r="J101" s="22"/>
@@ -12191,7 +12240,7 @@
       </c>
       <c r="G176" s="34">
         <f>SUM(G3:G175)</f>
-        <v>-6410.0099999999966</v>
+        <v>-6609.5099999999957</v>
       </c>
       <c r="H176" s="34">
         <f>SUM(H3:H175)</f>
@@ -13333,10 +13382,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E153 E81:E82 E110:E112 E162:E166 E160 E158 E155:E156 E151 E147:E149 E145 E143 E129:E130 E124:E126 E120:E121 E115:E118 E107:E108 E105 E101:E103 E169:E175 E3:E79 E133:E141 E84:E97" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E153 E81:E82 E110:E112 E162:E166 E160 E158 E155:E156 E151 E147:E149 E145 E143 E129:E130 E124:E126 E120:E121 E115:E118 E107:E108 E105 E84:E99 E169:E175 E3:E79 E133:E141 E101:E103" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E98:E100 E83 E80 E106 E161 E159 E157 E154 E152 E150 E146 E144 E142 E131:E132 E127:E128 E122:E123 E119 E113:E114 E109 E167:E168 E104" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E104 E83 E80 E106 E161 E159 E157 E154 E152 E150 E146 E144 E142 E131:E132 E127:E128 E122:E123 E119 E113:E114 E109 E167:E168 E100" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C526F77B-FAE8-4BC4-8732-B832E09E298F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AE678A-89BA-4719-A546-8BD6D6CF07CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$171</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$108</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$175</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$115</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="148">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -472,6 +472,12 @@
   </si>
   <si>
     <t>Sommerfest Lidl</t>
+  </si>
+  <si>
+    <t>45a</t>
+  </si>
+  <si>
+    <t>Spenden Sommerfest</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1668,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="45318.474550925923" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="108" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D2:I110" sheet="Einnahmen"/>
+    <worksheetSource ref="D2:I111" sheet="Einnahmen"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -5253,11 +5259,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:IK176"/>
+  <dimension ref="A1:IK177"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6434,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="17">
-        <v>1619.6</v>
+        <v>1578.3</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -6445,23 +6451,23 @@
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
-        <v>45488</v>
-      </c>
-      <c r="B50" s="16">
-        <v>46</v>
+        <v>45487</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="21"/>
+        <v>13</v>
+      </c>
+      <c r="E50" s="17">
+        <v>41.3</v>
+      </c>
+      <c r="F50" s="18"/>
       <c r="G50" s="18"/>
-      <c r="H50" s="18">
-        <v>1730</v>
-      </c>
+      <c r="H50" s="18"/>
       <c r="I50" s="19"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -6471,7 +6477,7 @@
         <v>45488</v>
       </c>
       <c r="B51" s="16">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>137</v>
@@ -6479,11 +6485,11 @@
       <c r="D51" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="18"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
       <c r="G51" s="18"/>
       <c r="H51" s="18">
-        <v>69.599999999999994</v>
+        <v>1730</v>
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="2"/>
@@ -6491,36 +6497,44 @@
     </row>
     <row r="52" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
-        <v>45492</v>
+        <v>45488</v>
       </c>
       <c r="B52" s="16">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="18">
-        <v>1262.52</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E52" s="17"/>
+      <c r="F52" s="18"/>
       <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
+      <c r="H52" s="18">
+        <v>69.599999999999994</v>
+      </c>
       <c r="I52" s="19"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
+      <c r="A53" s="15">
+        <v>45492</v>
+      </c>
       <c r="B53" s="16">
-        <v>49</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="F53" s="18">
+        <v>1262.52</v>
+      </c>
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
       <c r="I53" s="19"/>
@@ -6530,7 +6544,7 @@
     <row r="54" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="16">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="19"/>
@@ -6545,11 +6559,11 @@
     <row r="55" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="B55" s="16">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="19"/>
-      <c r="E55" s="20"/>
+      <c r="E55" s="17"/>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
@@ -6560,7 +6574,7 @@
     <row r="56" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
       <c r="B56" s="16">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="19"/>
@@ -6575,9 +6589,9 @@
     <row r="57" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="B57" s="16">
-        <v>53</v>
-      </c>
-      <c r="C57" s="39"/>
+        <v>52</v>
+      </c>
+      <c r="C57" s="3"/>
       <c r="D57" s="19"/>
       <c r="E57" s="20"/>
       <c r="F57" s="18"/>
@@ -6590,7 +6604,7 @@
     <row r="58" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
       <c r="B58" s="16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="39"/>
       <c r="D58" s="19"/>
@@ -6605,9 +6619,9 @@
     <row r="59" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
       <c r="B59" s="16">
-        <v>55</v>
-      </c>
-      <c r="C59" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="C59" s="39"/>
       <c r="D59" s="19"/>
       <c r="E59" s="20"/>
       <c r="F59" s="18"/>
@@ -6620,11 +6634,11 @@
     <row r="60" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="B60" s="16">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="17"/>
+      <c r="E60" s="20"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
@@ -6635,7 +6649,7 @@
     <row r="61" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
       <c r="B61" s="16">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="19"/>
@@ -6649,12 +6663,13 @@
     </row>
     <row r="62" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
-      <c r="B62" s="52">
-        <v>58</v>
-      </c>
-      <c r="C62" s="39"/>
+      <c r="B62" s="16">
+        <v>57</v>
+      </c>
+      <c r="C62" s="3"/>
       <c r="D62" s="19"/>
-      <c r="F62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="18"/>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="19"/>
@@ -6664,12 +6679,11 @@
     <row r="63" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="B63" s="52">
-        <v>59</v>
-      </c>
-      <c r="C63" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="C63" s="39"/>
       <c r="D63" s="19"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="21"/>
+      <c r="F63" s="17"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
       <c r="I63" s="19"/>
@@ -6679,12 +6693,12 @@
     <row r="64" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
       <c r="B64" s="52">
-        <v>60</v>
-      </c>
-      <c r="C64" s="39"/>
+        <v>59</v>
+      </c>
+      <c r="C64" s="3"/>
       <c r="D64" s="19"/>
       <c r="E64" s="20"/>
-      <c r="F64" s="18"/>
+      <c r="F64" s="21"/>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
       <c r="I64" s="19"/>
@@ -6694,11 +6708,11 @@
     <row r="65" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="52">
-        <v>61</v>
-      </c>
-      <c r="C65" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="C65" s="39"/>
       <c r="D65" s="19"/>
-      <c r="E65" s="17"/>
+      <c r="E65" s="20"/>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
@@ -6709,11 +6723,11 @@
     <row r="66" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="52">
-        <v>62</v>
-      </c>
-      <c r="C66" s="39"/>
+        <v>61</v>
+      </c>
+      <c r="C66" s="3"/>
       <c r="D66" s="19"/>
-      <c r="E66" s="20"/>
+      <c r="E66" s="17"/>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
@@ -6723,12 +6737,12 @@
     </row>
     <row r="67" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15"/>
-      <c r="B67" s="16">
-        <v>63</v>
-      </c>
-      <c r="C67" s="16"/>
+      <c r="B67" s="52">
+        <v>62</v>
+      </c>
+      <c r="C67" s="39"/>
       <c r="D67" s="19"/>
-      <c r="E67" s="17"/>
+      <c r="E67" s="20"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
@@ -6738,12 +6752,12 @@
     </row>
     <row r="68" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15"/>
-      <c r="B68" s="52">
-        <v>64</v>
-      </c>
-      <c r="C68" s="39"/>
+      <c r="B68" s="16">
+        <v>63</v>
+      </c>
+      <c r="C68" s="16"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="20"/>
+      <c r="E68" s="17"/>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
@@ -6753,12 +6767,12 @@
     </row>
     <row r="69" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15"/>
-      <c r="B69" s="16">
-        <v>65</v>
-      </c>
-      <c r="C69" s="16"/>
+      <c r="B69" s="52">
+        <v>64</v>
+      </c>
+      <c r="C69" s="39"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="17"/>
+      <c r="E69" s="20"/>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
@@ -6769,7 +6783,7 @@
     <row r="70" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="B70" s="16">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="19"/>
@@ -6784,7 +6798,7 @@
     <row r="71" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
       <c r="B71" s="16">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="19"/>
@@ -6799,11 +6813,11 @@
     <row r="72" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
       <c r="B72" s="16">
-        <v>68</v>
-      </c>
-      <c r="C72" s="39"/>
+        <v>67</v>
+      </c>
+      <c r="C72" s="16"/>
       <c r="D72" s="19"/>
-      <c r="E72" s="20"/>
+      <c r="E72" s="17"/>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
@@ -6814,11 +6828,11 @@
     <row r="73" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
       <c r="B73" s="16">
-        <v>69</v>
-      </c>
-      <c r="C73" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="C73" s="39"/>
       <c r="D73" s="19"/>
-      <c r="E73" s="17"/>
+      <c r="E73" s="20"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
@@ -6829,9 +6843,9 @@
     <row r="74" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="16">
-        <v>70</v>
-      </c>
-      <c r="C74" s="16"/>
+        <v>69</v>
+      </c>
+      <c r="C74" s="3"/>
       <c r="D74" s="19"/>
       <c r="E74" s="17"/>
       <c r="F74" s="18"/>
@@ -6844,7 +6858,7 @@
     <row r="75" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="16">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="19"/>
@@ -6859,7 +6873,7 @@
     <row r="76" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="16">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="19"/>
@@ -6874,7 +6888,7 @@
     <row r="77" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="16">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="19"/>
@@ -6889,7 +6903,7 @@
     <row r="78" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="16">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="19"/>
@@ -6904,7 +6918,7 @@
     <row r="79" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="16">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C79" s="16"/>
       <c r="D79" s="19"/>
@@ -6919,9 +6933,9 @@
     <row r="80" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
       <c r="B80" s="16">
-        <v>76</v>
-      </c>
-      <c r="C80" s="39"/>
+        <v>75</v>
+      </c>
+      <c r="C80" s="16"/>
       <c r="D80" s="19"/>
       <c r="E80" s="17"/>
       <c r="F80" s="18"/>
@@ -6934,9 +6948,9 @@
     <row r="81" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="16">
-        <v>77</v>
-      </c>
-      <c r="C81" s="16"/>
+        <v>76</v>
+      </c>
+      <c r="C81" s="39"/>
       <c r="D81" s="19"/>
       <c r="E81" s="17"/>
       <c r="F81" s="18"/>
@@ -6949,7 +6963,7 @@
     <row r="82" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
       <c r="B82" s="16">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="19"/>
@@ -6963,13 +6977,13 @@
     </row>
     <row r="83" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
-      <c r="B83" s="52">
-        <v>79</v>
-      </c>
-      <c r="C83" s="54"/>
+      <c r="B83" s="16">
+        <v>78</v>
+      </c>
+      <c r="C83" s="16"/>
       <c r="D83" s="19"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="21"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
       <c r="I83" s="19"/>
@@ -6978,13 +6992,13 @@
     </row>
     <row r="84" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
-      <c r="B84" s="16">
-        <v>80</v>
-      </c>
-      <c r="C84" s="3"/>
+      <c r="B84" s="52">
+        <v>79</v>
+      </c>
+      <c r="C84" s="54"/>
       <c r="D84" s="19"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="18"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="21"/>
       <c r="G84" s="18"/>
       <c r="H84" s="18"/>
       <c r="I84" s="19"/>
@@ -6994,7 +7008,7 @@
     <row r="85" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
       <c r="B85" s="16">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="19"/>
@@ -7009,7 +7023,7 @@
     <row r="86" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15"/>
       <c r="B86" s="16">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="19"/>
@@ -7024,7 +7038,7 @@
     <row r="87" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="16">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="19"/>
@@ -7039,9 +7053,9 @@
     <row r="88" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="16">
-        <v>84</v>
-      </c>
-      <c r="C88" s="16"/>
+        <v>83</v>
+      </c>
+      <c r="C88" s="3"/>
       <c r="D88" s="19"/>
       <c r="E88" s="17"/>
       <c r="F88" s="18"/>
@@ -7054,9 +7068,9 @@
     <row r="89" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="16">
-        <v>85</v>
-      </c>
-      <c r="C89" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C89" s="16"/>
       <c r="D89" s="19"/>
       <c r="E89" s="17"/>
       <c r="F89" s="18"/>
@@ -7069,7 +7083,7 @@
     <row r="90" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="16">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="19"/>
@@ -7084,7 +7098,7 @@
     <row r="91" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="16">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="19"/>
@@ -7099,7 +7113,7 @@
     <row r="92" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="16">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="19"/>
@@ -7113,10 +7127,10 @@
     </row>
     <row r="93" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
-      <c r="B93" s="52">
-        <v>89</v>
-      </c>
-      <c r="C93" s="39"/>
+      <c r="B93" s="16">
+        <v>88</v>
+      </c>
+      <c r="C93" s="3"/>
       <c r="D93" s="19"/>
       <c r="E93" s="17"/>
       <c r="F93" s="18"/>
@@ -7128,10 +7142,10 @@
     </row>
     <row r="94" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
-      <c r="B94" s="16">
-        <v>90</v>
-      </c>
-      <c r="C94" s="16"/>
+      <c r="B94" s="52">
+        <v>89</v>
+      </c>
+      <c r="C94" s="39"/>
       <c r="D94" s="19"/>
       <c r="E94" s="17"/>
       <c r="F94" s="18"/>
@@ -7144,7 +7158,7 @@
     <row r="95" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
       <c r="B95" s="16">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" s="16"/>
       <c r="D95" s="19"/>
@@ -7159,7 +7173,7 @@
     <row r="96" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="16">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="16"/>
       <c r="D96" s="19"/>
@@ -7174,7 +7188,7 @@
     <row r="97" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="16">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="19"/>
@@ -7189,7 +7203,7 @@
     <row r="98" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="16">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C98" s="16"/>
       <c r="D98" s="19"/>
@@ -7204,12 +7218,12 @@
     <row r="99" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15"/>
       <c r="B99" s="16">
-        <v>95</v>
-      </c>
-      <c r="C99" s="39"/>
+        <v>94</v>
+      </c>
+      <c r="C99" s="16"/>
       <c r="D99" s="19"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="21"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="18"/>
       <c r="G99" s="18"/>
       <c r="H99" s="18"/>
       <c r="I99" s="19"/>
@@ -7219,12 +7233,12 @@
     <row r="100" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15"/>
       <c r="B100" s="16">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C100" s="39"/>
       <c r="D100" s="19"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="18"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
       <c r="G100" s="18"/>
       <c r="H100" s="18"/>
       <c r="I100" s="19"/>
@@ -7234,9 +7248,9 @@
     <row r="101" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15"/>
       <c r="B101" s="16">
-        <v>97</v>
-      </c>
-      <c r="C101" s="16"/>
+        <v>96</v>
+      </c>
+      <c r="C101" s="39"/>
       <c r="D101" s="19"/>
       <c r="E101" s="17"/>
       <c r="F101" s="18"/>
@@ -7249,7 +7263,7 @@
     <row r="102" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15"/>
       <c r="B102" s="16">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="19"/>
@@ -7264,7 +7278,7 @@
     <row r="103" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15"/>
       <c r="B103" s="16">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="19"/>
@@ -7279,7 +7293,7 @@
     <row r="104" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="15"/>
       <c r="B104" s="16">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104" s="16"/>
       <c r="D104" s="19"/>
@@ -7294,7 +7308,7 @@
     <row r="105" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="15"/>
       <c r="B105" s="16">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C105" s="16"/>
       <c r="D105" s="19"/>
@@ -7309,7 +7323,7 @@
     <row r="106" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15"/>
       <c r="B106" s="16">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C106" s="16"/>
       <c r="D106" s="19"/>
@@ -7324,7 +7338,7 @@
     <row r="107" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="15"/>
       <c r="B107" s="16">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C107" s="16"/>
       <c r="D107" s="19"/>
@@ -7338,7 +7352,9 @@
     </row>
     <row r="108" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15"/>
-      <c r="B108" s="16"/>
+      <c r="B108" s="16">
+        <v>103</v>
+      </c>
       <c r="C108" s="16"/>
       <c r="D108" s="19"/>
       <c r="E108" s="17"/>
@@ -7372,121 +7388,121 @@
       <c r="G110" s="18"/>
       <c r="H110" s="18"/>
       <c r="I110" s="19"/>
-      <c r="J110" s="2" t="s">
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+    </row>
+    <row r="111" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="15"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K110" s="2"/>
-    </row>
-    <row r="111" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="24" t="s">
+      <c r="K111" s="2"/>
+    </row>
+    <row r="112" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="27">
-        <f>SUM(E3:E110)</f>
+      <c r="B112" s="25"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="27">
+        <f>SUM(E3:E111)</f>
         <v>1799.6</v>
       </c>
-      <c r="F111" s="28">
-        <f>SUM(F3:F110)</f>
+      <c r="F112" s="28">
+        <f>SUM(F3:F111)</f>
         <v>11689.550000000007</v>
       </c>
-      <c r="G111" s="28">
-        <f>SUM(G3:G110)</f>
+      <c r="G112" s="28">
+        <f>SUM(G3:G111)</f>
         <v>2000.5</v>
       </c>
-      <c r="H111" s="28">
-        <f>SUM(H3:H110)</f>
+      <c r="H112" s="28">
+        <f>SUM(H3:H111)</f>
         <v>3048.6299999999997</v>
       </c>
-      <c r="I111" s="29">
-        <f>SUM(I3:I110)</f>
+      <c r="I112" s="29">
+        <f>SUM(I3:I111)</f>
         <v>949.26</v>
       </c>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-    </row>
-    <row r="112" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="35"/>
-      <c r="B112" s="35"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="36"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B113" s="25"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="48"/>
-      <c r="E113" s="28">
-        <f>E111+Ausgaben!F176</f>
-        <v>0</v>
-      </c>
-      <c r="F113" s="28">
-        <f>F111+Ausgaben!G176</f>
-        <v>5080.0400000000109</v>
-      </c>
-      <c r="G113" s="28">
-        <f>G111+Ausgaben!H176</f>
-        <v>2000.5</v>
-      </c>
-      <c r="H113" s="28">
-        <f>H111+Ausgaben!I176</f>
-        <v>2879.8499999999995</v>
-      </c>
-      <c r="I113" s="29">
-        <f>I111+Ausgaben!J176</f>
-        <v>9.9999999999909051E-3</v>
-      </c>
+      <c r="A113" s="35"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
     <row r="114" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="37"/>
-      <c r="B114" s="37"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="37"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
+      <c r="A114" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="28">
+        <f>E112+Ausgaben!F176</f>
+        <v>0</v>
+      </c>
+      <c r="F114" s="28">
+        <f>F112+Ausgaben!G176</f>
+        <v>5080.0400000000109</v>
+      </c>
+      <c r="G114" s="28">
+        <f>G112+Ausgaben!H176</f>
+        <v>2000.5</v>
+      </c>
+      <c r="H114" s="28">
+        <f>H112+Ausgaben!I176</f>
+        <v>2879.8499999999995</v>
+      </c>
+      <c r="I114" s="29">
+        <f>I112+Ausgaben!J176</f>
+        <v>9.9999999999909051E-3</v>
+      </c>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
     <row r="115" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="29">
-        <f>SUM(E113:I113)</f>
-        <v>9960.4000000000106</v>
-      </c>
-      <c r="E115" s="17"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
     <row r="116" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="38"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="38"/>
-      <c r="D116" s="38"/>
-      <c r="E116" s="18"/>
+      <c r="A116" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" s="5"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="29">
+        <f>SUM(E114:I114)</f>
+        <v>9960.4000000000106</v>
+      </c>
+      <c r="E116" s="17"/>
       <c r="F116" s="18"/>
       <c r="G116" s="18"/>
       <c r="H116" s="18"/>
@@ -7495,12 +7511,10 @@
       <c r="K116" s="2"/>
     </row>
     <row r="117" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A117" s="38"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="38"/>
       <c r="E117" s="18"/>
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
@@ -7513,7 +7527,9 @@
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
+      <c r="D118" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E118" s="18"/>
       <c r="F118" s="18"/>
       <c r="G118" s="18"/>
@@ -8263,40 +8279,53 @@
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
     </row>
-    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="18"/>
+      <c r="F176" s="18"/>
+      <c r="G176" s="18"/>
+      <c r="H176" s="18"/>
+      <c r="I176" s="18"/>
+      <c r="J176" s="2"/>
       <c r="K176" s="2"/>
     </row>
+    <row r="177" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K177" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:I107" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:I108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A93:C93">
+  <conditionalFormatting sqref="A94:C94">
     <cfRule type="cellIs" dxfId="57" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
+  <conditionalFormatting sqref="B84">
     <cfRule type="cellIs" dxfId="56" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C99:D100">
+  <conditionalFormatting sqref="C100:D101">
     <cfRule type="cellIs" dxfId="55" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D68">
+  <conditionalFormatting sqref="D18:D69">
     <cfRule type="cellIs" dxfId="54" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71:D73">
+  <conditionalFormatting sqref="D72:D74">
     <cfRule type="cellIs" dxfId="53" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D83:D87">
+  <conditionalFormatting sqref="D84:D88">
     <cfRule type="cellIs" dxfId="52" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8306,17 +8335,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69:G70 E71:G71 E73:G73 D74:G82">
+  <conditionalFormatting sqref="D70:G71 E72:G72 E74:G74 D75:G83">
     <cfRule type="cellIs" dxfId="50" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D88:G98">
+  <conditionalFormatting sqref="D89:G99">
     <cfRule type="cellIs" dxfId="49" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D101:G110">
+  <conditionalFormatting sqref="D102:G111">
     <cfRule type="cellIs" dxfId="48" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8326,7 +8355,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
+  <conditionalFormatting sqref="E55">
     <cfRule type="cellIs" dxfId="46" priority="197" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8361,12 +8390,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84:G87">
+  <conditionalFormatting sqref="E85:G88">
     <cfRule type="cellIs" dxfId="39" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I3 G16 G18:G24 H29:I110 E60:G61 F62 G62:G63 F64:G64 E65:G65 F66:G66 E67:G67 G83 G99 E100:G100 D110:I110 E111:I175 D115">
+  <conditionalFormatting sqref="E3:I3 G16 G18:G24 H29:I111 E61:G62 F63 G63:G64 F65:G65 E66:G66 F67:G67 E68:G68 G84 G100 E101:G101 D111:I111 E112:I176 D116">
     <cfRule type="cellIs" dxfId="38" priority="318" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8376,12 +8405,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68:G68">
+  <conditionalFormatting sqref="F69:G69">
     <cfRule type="cellIs" dxfId="36" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72:G72">
+  <conditionalFormatting sqref="F73:G73">
     <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8391,7 +8420,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G13 D4:D16 H4:I27 A94:A97">
+  <conditionalFormatting sqref="G4:G13 D4:D16 H4:I27 A95:A98">
     <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8406,13 +8435,13 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:G47 E48:G49 G50:G51 E51:F51 F52:G52 E53:G53 F54:G59">
+  <conditionalFormatting sqref="G42:G47 E48:G50 G51:G52 E52:F52 F53:G53 E54:G54 F55:G60">
     <cfRule type="cellIs" dxfId="30" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D110" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D111" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>
@@ -8423,7 +8452,7 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="123" max="18" man="1"/>
+    <brk id="124" max="18" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -8435,9 +8464,9 @@
   </sheetPr>
   <dimension ref="A1:IM242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G104" sqref="G104"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B101" sqref="B101:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10947,7 +10976,9 @@
     </row>
     <row r="99" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="43"/>
-      <c r="B99" s="15"/>
+      <c r="B99" s="15">
+        <v>45501</v>
+      </c>
       <c r="C99" s="52">
         <v>96</v>
       </c>
@@ -10970,7 +11001,9 @@
     </row>
     <row r="100" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="43"/>
-      <c r="B100" s="15"/>
+      <c r="B100" s="15">
+        <v>45501</v>
+      </c>
       <c r="C100" s="52">
         <v>97</v>
       </c>
@@ -10993,7 +11026,9 @@
     </row>
     <row r="101" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="43"/>
-      <c r="B101" s="15"/>
+      <c r="B101" s="15">
+        <v>45501</v>
+      </c>
       <c r="C101" s="52">
         <v>98</v>
       </c>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AE678A-89BA-4719-A546-8BD6D6CF07CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0264AA68-934B-417A-8AD4-FC3CAE4B6BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="153">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -478,6 +478,21 @@
   </si>
   <si>
     <t>Spenden Sommerfest</t>
+  </si>
+  <si>
+    <t>Sommerfest Bäcker Raisch</t>
+  </si>
+  <si>
+    <t>Sommerfest Getränkt</t>
+  </si>
+  <si>
+    <t>Ausgaben Tzgl</t>
+  </si>
+  <si>
+    <t>Awo Busreise 21.8.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponde Event </t>
   </si>
 </sst>
 </file>
@@ -5262,8 +5277,8 @@
   <dimension ref="A1:IK177"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50:E50"/>
+      <pane ySplit="2" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6542,14 +6557,22 @@
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
+      <c r="A54" s="15">
+        <v>45527</v>
+      </c>
       <c r="B54" s="16">
         <v>49</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="18"/>
+      <c r="C54" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="20"/>
+      <c r="F54" s="21">
+        <v>160</v>
+      </c>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
       <c r="I54" s="19"/>
@@ -7419,7 +7442,7 @@
       </c>
       <c r="F112" s="28">
         <f>SUM(F3:F111)</f>
-        <v>11689.550000000007</v>
+        <v>11849.550000000007</v>
       </c>
       <c r="G112" s="28">
         <f>SUM(G3:G111)</f>
@@ -7462,7 +7485,7 @@
       </c>
       <c r="F114" s="28">
         <f>F112+Ausgaben!G176</f>
-        <v>5080.0400000000109</v>
+        <v>4529.7600000000111</v>
       </c>
       <c r="G114" s="28">
         <f>G112+Ausgaben!H176</f>
@@ -7500,7 +7523,7 @@
       <c r="C116" s="24"/>
       <c r="D116" s="29">
         <f>SUM(E114:I114)</f>
-        <v>9960.4000000000106</v>
+        <v>9410.1200000000117</v>
       </c>
       <c r="E116" s="17"/>
       <c r="F116" s="18"/>
@@ -8435,12 +8458,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:G47 E48:G50 G51:G52 E52:F52 F53:G53 E54:G54 F55:G60">
+  <conditionalFormatting sqref="G42:G47 E48:G50 G51:G52 E52:F52 F53:G53 G54 F55:G60">
     <cfRule type="cellIs" dxfId="30" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D111" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
@@ -8465,8 +8488,8 @@
   <dimension ref="A1:IM242"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B101" sqref="B101:G101"/>
+      <pane ySplit="2" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11053,14 +11076,22 @@
     </row>
     <row r="102" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="43"/>
-      <c r="B102" s="15"/>
+      <c r="B102" s="15">
+        <v>45505</v>
+      </c>
       <c r="C102" s="52">
         <v>99</v>
       </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="23"/>
+      <c r="D102" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F102" s="20"/>
-      <c r="G102" s="21"/>
+      <c r="G102" s="21">
+        <v>-12</v>
+      </c>
       <c r="H102" s="21"/>
       <c r="I102" s="21"/>
       <c r="J102" s="22"/>
@@ -11070,14 +11101,22 @@
     </row>
     <row r="103" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="43"/>
-      <c r="B103" s="15"/>
+      <c r="B103" s="15">
+        <v>45505</v>
+      </c>
       <c r="C103" s="52">
         <v>100</v>
       </c>
-      <c r="D103" s="3"/>
-      <c r="E103" s="23"/>
+      <c r="D103" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F103" s="20"/>
-      <c r="G103" s="21"/>
+      <c r="G103" s="21">
+        <v>-97.2</v>
+      </c>
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
       <c r="J103" s="22"/>
@@ -11087,14 +11126,22 @@
     </row>
     <row r="104" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="43"/>
-      <c r="B104" s="15"/>
+      <c r="B104" s="15">
+        <v>45506</v>
+      </c>
       <c r="C104" s="52">
         <v>101</v>
       </c>
-      <c r="D104" s="3"/>
-      <c r="E104" s="19"/>
+      <c r="D104" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E104" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F104" s="20"/>
-      <c r="G104" s="21"/>
+      <c r="G104" s="21">
+        <v>-44</v>
+      </c>
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
       <c r="J104" s="22"/>
@@ -11104,14 +11151,22 @@
     </row>
     <row r="105" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="43"/>
-      <c r="B105" s="15"/>
+      <c r="B105" s="15">
+        <v>45506</v>
+      </c>
       <c r="C105" s="52">
         <v>102</v>
       </c>
-      <c r="D105" s="3"/>
-      <c r="E105" s="23"/>
+      <c r="D105" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E105" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F105" s="20"/>
-      <c r="G105" s="21"/>
+      <c r="G105" s="21">
+        <v>-139</v>
+      </c>
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
       <c r="J105" s="22"/>
@@ -11121,14 +11176,22 @@
     </row>
     <row r="106" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="43"/>
-      <c r="B106" s="15"/>
+      <c r="B106" s="15">
+        <v>45510</v>
+      </c>
       <c r="C106" s="52">
         <v>103</v>
       </c>
-      <c r="D106" s="3"/>
-      <c r="E106" s="19"/>
+      <c r="D106" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F106" s="20"/>
-      <c r="G106" s="21"/>
+      <c r="G106" s="21">
+        <v>-380.34</v>
+      </c>
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="22"/>
@@ -11138,14 +11201,22 @@
     </row>
     <row r="107" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="43"/>
-      <c r="B107" s="15"/>
+      <c r="B107" s="15">
+        <v>45524</v>
+      </c>
       <c r="C107" s="52">
         <v>104</v>
       </c>
-      <c r="D107" s="3"/>
-      <c r="E107" s="23"/>
+      <c r="D107" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F107" s="20"/>
-      <c r="G107" s="21"/>
+      <c r="G107" s="21">
+        <v>-6.98</v>
+      </c>
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
       <c r="J107" s="22"/>
@@ -11155,14 +11226,22 @@
     </row>
     <row r="108" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="43"/>
-      <c r="B108" s="15"/>
+      <c r="B108" s="15">
+        <v>45526</v>
+      </c>
       <c r="C108" s="52">
         <v>105</v>
       </c>
-      <c r="D108" s="3"/>
-      <c r="E108" s="23"/>
+      <c r="D108" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F108" s="20"/>
-      <c r="G108" s="21"/>
+      <c r="G108" s="21">
+        <v>-12.99</v>
+      </c>
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
       <c r="J108" s="22"/>
@@ -11172,14 +11251,22 @@
     </row>
     <row r="109" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="43"/>
-      <c r="B109" s="15"/>
+      <c r="B109" s="15">
+        <v>45533</v>
+      </c>
       <c r="C109" s="52">
         <v>106</v>
       </c>
-      <c r="D109" s="3"/>
-      <c r="E109" s="19"/>
+      <c r="D109" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F109" s="17"/>
-      <c r="G109" s="21"/>
+      <c r="G109" s="21">
+        <v>-17.77</v>
+      </c>
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
       <c r="J109" s="22"/>
@@ -12275,7 +12362,7 @@
       </c>
       <c r="G176" s="34">
         <f>SUM(G3:G175)</f>
-        <v>-6609.5099999999957</v>
+        <v>-7319.7899999999954</v>
       </c>
       <c r="H176" s="34">
         <f>SUM(H3:H175)</f>
@@ -13417,10 +13504,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E153 E81:E82 E110:E112 E162:E166 E160 E158 E155:E156 E151 E147:E149 E145 E143 E129:E130 E124:E126 E120:E121 E115:E118 E107:E108 E105 E84:E99 E169:E175 E3:E79 E133:E141 E101:E103" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E153 E81:E82 E162:E166 E160 E158 E155:E156 E151 E147:E149 E145 E143 E129:E130 E124:E126 E120:E121 E115:E118 E84:E99 E169:E175 E3:E79 E133:E141 E101:E112" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E104 E83 E80 E106 E161 E159 E157 E154 E152 E150 E146 E144 E142 E131:E132 E127:E128 E122:E123 E119 E113:E114 E109 E167:E168 E100" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100 E83 E80 E167:E168 E161 E159 E157 E154 E152 E150 E146 E144 E142 E131:E132 E127:E128 E122:E123 E119 E113:E114" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0264AA68-934B-417A-8AD4-FC3CAE4B6BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EB9C56-CF0B-42A4-9D95-6395AB760C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="Gesamt" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$172</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$108</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$175</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$176</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="162">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -493,6 +493,33 @@
   </si>
   <si>
     <t xml:space="preserve">Ponde Event </t>
+  </si>
+  <si>
+    <t>99a</t>
+  </si>
+  <si>
+    <t>KSK Entgeldabrechnung (siehe Ktauszug)</t>
+  </si>
+  <si>
+    <t>sahnespender</t>
+  </si>
+  <si>
+    <t>Ponde Helfer Paula</t>
+  </si>
+  <si>
+    <t>Gutschein H.Brenner AwoBB Rente</t>
+  </si>
+  <si>
+    <t>DruckereiNitschDiversePlakateFlyer</t>
+  </si>
+  <si>
+    <t>Geb Karin</t>
+  </si>
+  <si>
+    <t>Ausgaben Jubilaeum</t>
+  </si>
+  <si>
+    <t>SPD Getränke</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1192,27 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1636,7 +1683,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="45318.474550578707" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="168" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="E2:J171" sheet="Ausgaben"/>
+    <worksheetSource ref="E2:J172" sheet="Ausgaben"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -4031,17 +4078,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="60">
+    <format dxfId="64">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4140,17 +4187,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="63">
+    <format dxfId="67">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5277,8 +5324,8 @@
   <dimension ref="A1:IK177"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F114" sqref="F114"/>
+      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6580,14 +6627,22 @@
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
+      <c r="A55" s="15">
+        <v>45539</v>
+      </c>
       <c r="B55" s="16">
         <v>50</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="19"/>
+      <c r="C55" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E55" s="17"/>
-      <c r="F55" s="18"/>
+      <c r="F55" s="18">
+        <v>75</v>
+      </c>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
       <c r="I55" s="19"/>
@@ -6595,14 +6650,22 @@
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
+      <c r="A56" s="15">
+        <v>45546</v>
+      </c>
       <c r="B56" s="16">
         <v>51</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="18"/>
+      <c r="C56" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="17"/>
+      <c r="F56" s="18">
+        <v>47.5</v>
+      </c>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
       <c r="I56" s="19"/>
@@ -6610,14 +6673,22 @@
       <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
+      <c r="A57" s="15">
+        <v>45548</v>
+      </c>
       <c r="B57" s="16">
         <v>52</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="18"/>
+      <c r="C57" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="18">
+        <v>20</v>
+      </c>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
       <c r="I57" s="19"/>
@@ -7442,7 +7513,7 @@
       </c>
       <c r="F112" s="28">
         <f>SUM(F3:F111)</f>
-        <v>11849.550000000007</v>
+        <v>11992.050000000007</v>
       </c>
       <c r="G112" s="28">
         <f>SUM(G3:G111)</f>
@@ -7480,23 +7551,23 @@
       <c r="C114" s="25"/>
       <c r="D114" s="48"/>
       <c r="E114" s="28">
-        <f>E112+Ausgaben!F176</f>
+        <f>E112+Ausgaben!F177</f>
         <v>0</v>
       </c>
       <c r="F114" s="28">
-        <f>F112+Ausgaben!G176</f>
-        <v>4529.7600000000111</v>
+        <f>F112+Ausgaben!G177</f>
+        <v>3779.6900000000114</v>
       </c>
       <c r="G114" s="28">
-        <f>G112+Ausgaben!H176</f>
+        <f>G112+Ausgaben!H177</f>
         <v>2000.5</v>
       </c>
       <c r="H114" s="28">
-        <f>H112+Ausgaben!I176</f>
-        <v>2879.8499999999995</v>
+        <f>H112+Ausgaben!I177</f>
+        <v>2877.9999999999995</v>
       </c>
       <c r="I114" s="29">
-        <f>I112+Ausgaben!J176</f>
+        <f>I112+Ausgaben!J177</f>
         <v>9.9999999999909051E-3</v>
       </c>
       <c r="J114" s="2"/>
@@ -7523,7 +7594,7 @@
       <c r="C116" s="24"/>
       <c r="D116" s="29">
         <f>SUM(E114:I114)</f>
-        <v>9410.1200000000117</v>
+        <v>8658.2000000000116</v>
       </c>
       <c r="E116" s="17"/>
       <c r="F116" s="18"/>
@@ -8324,146 +8395,156 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A94:C94">
-    <cfRule type="cellIs" dxfId="57" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="56" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="169" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100:D101">
-    <cfRule type="cellIs" dxfId="55" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D69">
-    <cfRule type="cellIs" dxfId="54" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:D74">
-    <cfRule type="cellIs" dxfId="53" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84:D88">
-    <cfRule type="cellIs" dxfId="52" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:G17">
-    <cfRule type="cellIs" dxfId="51" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:G71 E72:G72 E74:G74 D75:G83">
-    <cfRule type="cellIs" dxfId="50" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89:G99">
-    <cfRule type="cellIs" dxfId="49" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102:G111">
-    <cfRule type="cellIs" dxfId="48" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="46" priority="197" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:F21">
-    <cfRule type="cellIs" dxfId="45" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F37">
-    <cfRule type="cellIs" dxfId="44" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F42">
-    <cfRule type="cellIs" dxfId="43" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:F46">
-    <cfRule type="cellIs" dxfId="42" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G15">
-    <cfRule type="cellIs" dxfId="41" priority="254" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:G41">
-    <cfRule type="cellIs" dxfId="40" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85:G88">
-    <cfRule type="cellIs" dxfId="39" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G16 G18:G24 H29:I111 E61:G62 F63 G63:G64 F65:G65 E66:G66 F67:G67 E68:G68 G84 G100 E101:G101 D111:I111 E112:I176 D116">
-    <cfRule type="cellIs" dxfId="38" priority="318" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="321" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="37" priority="239" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="242" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:G69">
-    <cfRule type="cellIs" dxfId="36" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73:G73">
-    <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:I28">
-    <cfRule type="cellIs" dxfId="34" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G13 D4:D16 H4:I27 A95:A98">
-    <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="32" priority="236" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G37">
-    <cfRule type="cellIs" dxfId="31" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:G47 E48:G50 G51:G52 E52:F52 F53:G53 G54 F55:G60">
-    <cfRule type="cellIs" dxfId="30" priority="64" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G42:G47 E48:G50 G51:G52 E52:F52 F53:G53 F58:G60 G54:G57">
+    <cfRule type="cellIs" dxfId="34" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <conditionalFormatting sqref="E55:F55">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:F56">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:F57">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D111" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
@@ -8485,11 +8566,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:IM242"/>
+  <dimension ref="A1:IM243"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G110" sqref="G110"/>
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11104,21 +11185,21 @@
       <c r="B103" s="15">
         <v>45505</v>
       </c>
-      <c r="C103" s="52">
-        <v>100</v>
+      <c r="C103" s="52" t="s">
+        <v>153</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F103" s="20"/>
-      <c r="G103" s="21">
-        <v>-97.2</v>
-      </c>
+      <c r="G103" s="21"/>
       <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
+      <c r="I103" s="21">
+        <v>-1</v>
+      </c>
       <c r="J103" s="22"/>
       <c r="K103" s="4"/>
       <c r="L103" s="2"/>
@@ -11127,20 +11208,20 @@
     <row r="104" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="43"/>
       <c r="B104" s="15">
-        <v>45506</v>
+        <v>45505</v>
       </c>
       <c r="C104" s="52">
-        <v>101</v>
-      </c>
-      <c r="D104" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="E104" s="86" t="s">
-        <v>22</v>
+        <v>100</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>0</v>
       </c>
       <c r="F104" s="20"/>
       <c r="G104" s="21">
-        <v>-44</v>
+        <v>-97.2</v>
       </c>
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
@@ -11155,7 +11236,7 @@
         <v>45506</v>
       </c>
       <c r="C105" s="52">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D105" s="85" t="s">
         <v>48</v>
@@ -11165,7 +11246,7 @@
       </c>
       <c r="F105" s="20"/>
       <c r="G105" s="21">
-        <v>-139</v>
+        <v>-44</v>
       </c>
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
@@ -11177,20 +11258,20 @@
     <row r="106" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="43"/>
       <c r="B106" s="15">
-        <v>45510</v>
+        <v>45506</v>
       </c>
       <c r="C106" s="52">
-        <v>103</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E106" s="23" t="s">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="D106" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E106" s="86" t="s">
+        <v>22</v>
       </c>
       <c r="F106" s="20"/>
       <c r="G106" s="21">
-        <v>-380.34</v>
+        <v>-139</v>
       </c>
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
@@ -11202,20 +11283,20 @@
     <row r="107" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="43"/>
       <c r="B107" s="15">
-        <v>45524</v>
+        <v>45510</v>
       </c>
       <c r="C107" s="52">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E107" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F107" s="20"/>
       <c r="G107" s="21">
-        <v>-6.98</v>
+        <v>-380.34</v>
       </c>
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
@@ -11227,20 +11308,20 @@
     <row r="108" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="43"/>
       <c r="B108" s="15">
-        <v>45526</v>
+        <v>45524</v>
       </c>
       <c r="C108" s="52">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E108" s="86" t="s">
-        <v>22</v>
+        <v>150</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>0</v>
       </c>
       <c r="F108" s="20"/>
       <c r="G108" s="21">
-        <v>-12.99</v>
+        <v>-6.98</v>
       </c>
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
@@ -11252,20 +11333,20 @@
     <row r="109" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="43"/>
       <c r="B109" s="15">
-        <v>45533</v>
+        <v>45526</v>
       </c>
       <c r="C109" s="52">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E109" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="17"/>
+        <v>64</v>
+      </c>
+      <c r="E109" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" s="20"/>
       <c r="G109" s="21">
-        <v>-17.77</v>
+        <v>-12.99</v>
       </c>
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
@@ -11276,14 +11357,22 @@
     </row>
     <row r="110" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="43"/>
-      <c r="B110" s="15"/>
+      <c r="B110" s="15">
+        <v>45533</v>
+      </c>
       <c r="C110" s="52">
-        <v>107</v>
-      </c>
-      <c r="D110" s="3"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="17"/>
+      <c r="G110" s="21">
+        <v>-17.77</v>
+      </c>
       <c r="H110" s="21"/>
       <c r="I110" s="21"/>
       <c r="J110" s="22"/>
@@ -11293,16 +11382,24 @@
     </row>
     <row r="111" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="43"/>
-      <c r="B111" s="15"/>
+      <c r="B111" s="15">
+        <v>45537</v>
+      </c>
       <c r="C111" s="52">
-        <v>108</v>
-      </c>
-      <c r="D111" s="3"/>
-      <c r="E111" s="23"/>
+        <v>107</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F111" s="20"/>
       <c r="G111" s="21"/>
       <c r="H111" s="21"/>
-      <c r="I111" s="21"/>
+      <c r="I111" s="21">
+        <v>-0.85</v>
+      </c>
       <c r="J111" s="22"/>
       <c r="K111" s="4"/>
       <c r="L111" s="2"/>
@@ -11310,14 +11407,22 @@
     </row>
     <row r="112" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="43"/>
-      <c r="B112" s="15"/>
+      <c r="B112" s="15">
+        <v>45538</v>
+      </c>
       <c r="C112" s="52">
-        <v>109</v>
-      </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="19"/>
+        <v>108</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F112" s="20"/>
-      <c r="G112" s="21"/>
+      <c r="G112" s="21">
+        <v>-12</v>
+      </c>
       <c r="H112" s="21"/>
       <c r="I112" s="21"/>
       <c r="J112" s="22"/>
@@ -11327,14 +11432,22 @@
     </row>
     <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="43"/>
-      <c r="B113" s="15"/>
+      <c r="B113" s="15">
+        <v>45538</v>
+      </c>
       <c r="C113" s="52">
-        <v>110</v>
-      </c>
-      <c r="D113" s="39"/>
-      <c r="E113" s="19"/>
+        <v>109</v>
+      </c>
+      <c r="D113" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E113" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F113" s="20"/>
-      <c r="G113" s="21"/>
+      <c r="G113" s="21">
+        <v>-139</v>
+      </c>
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
       <c r="J113" s="22"/>
@@ -11344,14 +11457,22 @@
     </row>
     <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="43"/>
-      <c r="B114" s="15"/>
+      <c r="B114" s="15">
+        <v>45538</v>
+      </c>
       <c r="C114" s="52">
-        <v>111</v>
-      </c>
-      <c r="D114" s="3"/>
-      <c r="E114" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="D114" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E114" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F114" s="20"/>
-      <c r="G114" s="21"/>
+      <c r="G114" s="21">
+        <v>-44</v>
+      </c>
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
       <c r="J114" s="22"/>
@@ -11361,14 +11482,22 @@
     </row>
     <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="43"/>
-      <c r="B115" s="15"/>
+      <c r="B115" s="15">
+        <v>45538</v>
+      </c>
       <c r="C115" s="52">
-        <v>112</v>
-      </c>
-      <c r="D115" s="3"/>
-      <c r="E115" s="23"/>
+        <v>111</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F115" s="20"/>
-      <c r="G115" s="21"/>
+      <c r="G115" s="21">
+        <v>-113.69</v>
+      </c>
       <c r="H115" s="21"/>
       <c r="I115" s="21"/>
       <c r="J115" s="22"/>
@@ -11378,14 +11507,22 @@
     </row>
     <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="43"/>
-      <c r="B116" s="15"/>
+      <c r="B116" s="15">
+        <v>45544</v>
+      </c>
       <c r="C116" s="52">
-        <v>113</v>
-      </c>
-      <c r="D116" s="3"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="21"/>
+        <v>112</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E116" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="17"/>
+      <c r="G116" s="21">
+        <v>-10</v>
+      </c>
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
       <c r="J116" s="22"/>
@@ -11395,14 +11532,22 @@
     </row>
     <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="43"/>
-      <c r="B117" s="15"/>
+      <c r="B117" s="15">
+        <v>45545</v>
+      </c>
       <c r="C117" s="52">
-        <v>114</v>
-      </c>
-      <c r="D117" s="3"/>
-      <c r="E117" s="23"/>
+        <v>113</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F117" s="20"/>
-      <c r="G117" s="21"/>
+      <c r="G117" s="21">
+        <v>-53.95</v>
+      </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="22"/>
@@ -11412,14 +11557,22 @@
     </row>
     <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="43"/>
-      <c r="B118" s="15"/>
+      <c r="B118" s="15">
+        <v>45545</v>
+      </c>
       <c r="C118" s="52">
-        <v>115</v>
-      </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="23"/>
+        <v>114</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F118" s="20"/>
-      <c r="G118" s="21"/>
+      <c r="G118" s="21">
+        <v>-486.71</v>
+      </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="22"/>
@@ -11429,14 +11582,22 @@
     </row>
     <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="43"/>
-      <c r="B119" s="15"/>
+      <c r="B119" s="15">
+        <v>45548</v>
+      </c>
       <c r="C119" s="52">
-        <v>116</v>
-      </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="19"/>
+        <v>115</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="F119" s="20"/>
-      <c r="G119" s="21"/>
+      <c r="G119" s="21">
+        <v>-33.22</v>
+      </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="22"/>
@@ -11448,10 +11609,10 @@
       <c r="A120" s="43"/>
       <c r="B120" s="15"/>
       <c r="C120" s="52">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D120" s="3"/>
-      <c r="E120" s="23"/>
+      <c r="E120" s="19"/>
       <c r="F120" s="20"/>
       <c r="G120" s="21"/>
       <c r="H120" s="21"/>
@@ -11465,11 +11626,11 @@
       <c r="A121" s="43"/>
       <c r="B121" s="15"/>
       <c r="C121" s="52">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="23"/>
-      <c r="F121" s="17"/>
+      <c r="F121" s="20"/>
       <c r="G121" s="21"/>
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
@@ -11482,10 +11643,10 @@
       <c r="A122" s="43"/>
       <c r="B122" s="15"/>
       <c r="C122" s="52">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D122" s="3"/>
-      <c r="E122" s="19"/>
+      <c r="E122" s="23"/>
       <c r="F122" s="17"/>
       <c r="G122" s="21"/>
       <c r="H122" s="21"/>
@@ -11499,11 +11660,11 @@
       <c r="A123" s="43"/>
       <c r="B123" s="15"/>
       <c r="C123" s="52">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="19"/>
-      <c r="F123" s="20"/>
+      <c r="F123" s="17"/>
       <c r="G123" s="21"/>
       <c r="H123" s="21"/>
       <c r="I123" s="21"/>
@@ -11516,10 +11677,10 @@
       <c r="A124" s="43"/>
       <c r="B124" s="15"/>
       <c r="C124" s="52">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D124" s="3"/>
-      <c r="E124" s="23"/>
+      <c r="E124" s="19"/>
       <c r="F124" s="20"/>
       <c r="G124" s="21"/>
       <c r="H124" s="21"/>
@@ -11533,7 +11694,7 @@
       <c r="A125" s="43"/>
       <c r="B125" s="15"/>
       <c r="C125" s="52">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="23"/>
@@ -11550,7 +11711,7 @@
       <c r="A126" s="43"/>
       <c r="B126" s="15"/>
       <c r="C126" s="52">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="23"/>
@@ -11567,10 +11728,10 @@
       <c r="A127" s="43"/>
       <c r="B127" s="15"/>
       <c r="C127" s="52">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D127" s="3"/>
-      <c r="E127" s="19"/>
+      <c r="E127" s="23"/>
       <c r="F127" s="20"/>
       <c r="G127" s="21"/>
       <c r="H127" s="21"/>
@@ -11584,7 +11745,7 @@
       <c r="A128" s="43"/>
       <c r="B128" s="15"/>
       <c r="C128" s="52">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="19"/>
@@ -11601,10 +11762,10 @@
       <c r="A129" s="43"/>
       <c r="B129" s="15"/>
       <c r="C129" s="52">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D129" s="3"/>
-      <c r="E129" s="23"/>
+      <c r="E129" s="19"/>
       <c r="F129" s="20"/>
       <c r="G129" s="21"/>
       <c r="H129" s="21"/>
@@ -11618,7 +11779,7 @@
       <c r="A130" s="43"/>
       <c r="B130" s="15"/>
       <c r="C130" s="52">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="23"/>
@@ -11635,10 +11796,10 @@
       <c r="A131" s="43"/>
       <c r="B131" s="15"/>
       <c r="C131" s="52">
-        <v>128</v>
-      </c>
-      <c r="D131" s="39"/>
-      <c r="E131" s="19"/>
+        <v>127</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="23"/>
       <c r="F131" s="20"/>
       <c r="G131" s="21"/>
       <c r="H131" s="21"/>
@@ -11652,7 +11813,7 @@
       <c r="A132" s="43"/>
       <c r="B132" s="15"/>
       <c r="C132" s="52">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D132" s="39"/>
       <c r="E132" s="19"/>
@@ -11669,10 +11830,10 @@
       <c r="A133" s="43"/>
       <c r="B133" s="15"/>
       <c r="C133" s="52">
-        <v>130</v>
-      </c>
-      <c r="D133" s="3"/>
-      <c r="E133" s="23"/>
+        <v>129</v>
+      </c>
+      <c r="D133" s="39"/>
+      <c r="E133" s="19"/>
       <c r="F133" s="20"/>
       <c r="G133" s="21"/>
       <c r="H133" s="21"/>
@@ -11686,11 +11847,11 @@
       <c r="A134" s="43"/>
       <c r="B134" s="15"/>
       <c r="C134" s="52">
-        <v>131</v>
-      </c>
-      <c r="D134" s="54"/>
+        <v>130</v>
+      </c>
+      <c r="D134" s="3"/>
       <c r="E134" s="23"/>
-      <c r="F134" s="55"/>
+      <c r="F134" s="20"/>
       <c r="G134" s="21"/>
       <c r="H134" s="21"/>
       <c r="I134" s="21"/>
@@ -11703,11 +11864,11 @@
       <c r="A135" s="43"/>
       <c r="B135" s="15"/>
       <c r="C135" s="52">
-        <v>132</v>
-      </c>
-      <c r="D135" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="D135" s="54"/>
       <c r="E135" s="23"/>
-      <c r="F135" s="20"/>
+      <c r="F135" s="55"/>
       <c r="G135" s="21"/>
       <c r="H135" s="21"/>
       <c r="I135" s="21"/>
@@ -11720,11 +11881,11 @@
       <c r="A136" s="43"/>
       <c r="B136" s="15"/>
       <c r="C136" s="52">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="23"/>
-      <c r="F136" s="17"/>
+      <c r="F136" s="20"/>
       <c r="G136" s="21"/>
       <c r="H136" s="21"/>
       <c r="I136" s="21"/>
@@ -11737,7 +11898,7 @@
       <c r="A137" s="43"/>
       <c r="B137" s="15"/>
       <c r="C137" s="52">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="23"/>
@@ -11754,11 +11915,11 @@
       <c r="A138" s="43"/>
       <c r="B138" s="15"/>
       <c r="C138" s="52">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="23"/>
-      <c r="F138" s="20"/>
+      <c r="F138" s="17"/>
       <c r="G138" s="21"/>
       <c r="H138" s="21"/>
       <c r="I138" s="21"/>
@@ -11771,7 +11932,7 @@
       <c r="A139" s="43"/>
       <c r="B139" s="15"/>
       <c r="C139" s="52">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="23"/>
@@ -11788,7 +11949,7 @@
       <c r="A140" s="43"/>
       <c r="B140" s="15"/>
       <c r="C140" s="52">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="23"/>
@@ -11805,7 +11966,7 @@
       <c r="A141" s="43"/>
       <c r="B141" s="15"/>
       <c r="C141" s="52">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="23"/>
@@ -11822,10 +11983,10 @@
       <c r="A142" s="43"/>
       <c r="B142" s="15"/>
       <c r="C142" s="52">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D142" s="3"/>
-      <c r="E142" s="19"/>
+      <c r="E142" s="23"/>
       <c r="F142" s="20"/>
       <c r="G142" s="21"/>
       <c r="H142" s="21"/>
@@ -11839,10 +12000,10 @@
       <c r="A143" s="43"/>
       <c r="B143" s="15"/>
       <c r="C143" s="52">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D143" s="3"/>
-      <c r="E143" s="23"/>
+      <c r="E143" s="19"/>
       <c r="F143" s="20"/>
       <c r="G143" s="21"/>
       <c r="H143" s="21"/>
@@ -11856,11 +12017,11 @@
       <c r="A144" s="43"/>
       <c r="B144" s="15"/>
       <c r="C144" s="52">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D144" s="3"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="17"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="20"/>
       <c r="G144" s="21"/>
       <c r="H144" s="21"/>
       <c r="I144" s="21"/>
@@ -11873,10 +12034,10 @@
       <c r="A145" s="43"/>
       <c r="B145" s="15"/>
       <c r="C145" s="52">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D145" s="3"/>
-      <c r="E145" s="23"/>
+      <c r="E145" s="19"/>
       <c r="F145" s="17"/>
       <c r="G145" s="21"/>
       <c r="H145" s="21"/>
@@ -11890,10 +12051,10 @@
       <c r="A146" s="43"/>
       <c r="B146" s="15"/>
       <c r="C146" s="52">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D146" s="3"/>
-      <c r="E146" s="19"/>
+      <c r="E146" s="23"/>
       <c r="F146" s="17"/>
       <c r="G146" s="21"/>
       <c r="H146" s="21"/>
@@ -11907,11 +12068,11 @@
       <c r="A147" s="43"/>
       <c r="B147" s="15"/>
       <c r="C147" s="52">
-        <v>144</v>
-      </c>
-      <c r="D147" s="39"/>
-      <c r="E147" s="23"/>
-      <c r="F147" s="20"/>
+        <v>143</v>
+      </c>
+      <c r="D147" s="3"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="17"/>
       <c r="G147" s="21"/>
       <c r="H147" s="21"/>
       <c r="I147" s="21"/>
@@ -11924,25 +12085,26 @@
       <c r="A148" s="43"/>
       <c r="B148" s="15"/>
       <c r="C148" s="52">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D148" s="39"/>
       <c r="E148" s="23"/>
-      <c r="F148" s="17"/>
+      <c r="F148" s="20"/>
       <c r="G148" s="21"/>
       <c r="H148" s="21"/>
       <c r="I148" s="21"/>
       <c r="J148" s="22"/>
       <c r="K148" s="4"/>
       <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
     </row>
     <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="43"/>
       <c r="B149" s="15"/>
       <c r="C149" s="52">
-        <v>146</v>
-      </c>
-      <c r="D149" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="D149" s="39"/>
       <c r="E149" s="23"/>
       <c r="F149" s="17"/>
       <c r="G149" s="21"/>
@@ -11951,17 +12113,16 @@
       <c r="J149" s="22"/>
       <c r="K149" s="4"/>
       <c r="L149" s="2"/>
-      <c r="M149" s="2"/>
     </row>
     <row r="150" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="43"/>
       <c r="B150" s="15"/>
       <c r="C150" s="52">
-        <v>147</v>
-      </c>
-      <c r="D150" s="39"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="20"/>
+        <v>146</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="17"/>
       <c r="G150" s="21"/>
       <c r="H150" s="21"/>
       <c r="I150" s="21"/>
@@ -11974,10 +12135,10 @@
       <c r="A151" s="43"/>
       <c r="B151" s="15"/>
       <c r="C151" s="52">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D151" s="39"/>
-      <c r="E151" s="23"/>
+      <c r="E151" s="19"/>
       <c r="F151" s="20"/>
       <c r="G151" s="21"/>
       <c r="H151" s="21"/>
@@ -11990,9 +12151,11 @@
     <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="43"/>
       <c r="B152" s="15"/>
-      <c r="C152" s="52"/>
+      <c r="C152" s="52">
+        <v>148</v>
+      </c>
       <c r="D152" s="39"/>
-      <c r="E152" s="19"/>
+      <c r="E152" s="23"/>
       <c r="F152" s="20"/>
       <c r="G152" s="21"/>
       <c r="H152" s="21"/>
@@ -12006,8 +12169,8 @@
       <c r="A153" s="43"/>
       <c r="B153" s="15"/>
       <c r="C153" s="52"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="23"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="19"/>
       <c r="F153" s="20"/>
       <c r="G153" s="21"/>
       <c r="H153" s="21"/>
@@ -12022,7 +12185,7 @@
       <c r="B154" s="15"/>
       <c r="C154" s="52"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="19"/>
+      <c r="E154" s="23"/>
       <c r="F154" s="20"/>
       <c r="G154" s="21"/>
       <c r="H154" s="21"/>
@@ -12037,7 +12200,7 @@
       <c r="B155" s="15"/>
       <c r="C155" s="52"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="23"/>
+      <c r="E155" s="19"/>
       <c r="F155" s="20"/>
       <c r="G155" s="21"/>
       <c r="H155" s="21"/>
@@ -12066,8 +12229,8 @@
       <c r="A157" s="43"/>
       <c r="B157" s="15"/>
       <c r="C157" s="52"/>
-      <c r="D157" s="39"/>
-      <c r="E157" s="19"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="23"/>
       <c r="F157" s="20"/>
       <c r="G157" s="21"/>
       <c r="H157" s="21"/>
@@ -12082,7 +12245,7 @@
       <c r="B158" s="15"/>
       <c r="C158" s="52"/>
       <c r="D158" s="39"/>
-      <c r="E158" s="23"/>
+      <c r="E158" s="19"/>
       <c r="F158" s="20"/>
       <c r="G158" s="21"/>
       <c r="H158" s="21"/>
@@ -12097,7 +12260,7 @@
       <c r="B159" s="15"/>
       <c r="C159" s="52"/>
       <c r="D159" s="39"/>
-      <c r="E159" s="19"/>
+      <c r="E159" s="23"/>
       <c r="F159" s="20"/>
       <c r="G159" s="21"/>
       <c r="H159" s="21"/>
@@ -12172,8 +12335,8 @@
       <c r="B164" s="15"/>
       <c r="C164" s="52"/>
       <c r="D164" s="39"/>
-      <c r="E164" s="23"/>
-      <c r="F164" s="21"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="20"/>
       <c r="G164" s="21"/>
       <c r="H164" s="21"/>
       <c r="I164" s="21"/>
@@ -12187,8 +12350,8 @@
       <c r="B165" s="15"/>
       <c r="C165" s="52"/>
       <c r="D165" s="39"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="20"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="21"/>
       <c r="G165" s="21"/>
       <c r="H165" s="21"/>
       <c r="I165" s="21"/>
@@ -12202,7 +12365,7 @@
       <c r="B166" s="15"/>
       <c r="C166" s="52"/>
       <c r="D166" s="39"/>
-      <c r="E166" s="23"/>
+      <c r="E166" s="19"/>
       <c r="F166" s="20"/>
       <c r="G166" s="21"/>
       <c r="H166" s="21"/>
@@ -12217,7 +12380,7 @@
       <c r="B167" s="15"/>
       <c r="C167" s="52"/>
       <c r="D167" s="39"/>
-      <c r="E167" s="19"/>
+      <c r="E167" s="23"/>
       <c r="F167" s="20"/>
       <c r="G167" s="21"/>
       <c r="H167" s="21"/>
@@ -12261,7 +12424,7 @@
       <c r="A170" s="43"/>
       <c r="B170" s="15"/>
       <c r="C170" s="52"/>
-      <c r="D170" s="16"/>
+      <c r="D170" s="39"/>
       <c r="E170" s="19"/>
       <c r="F170" s="20"/>
       <c r="G170" s="21"/>
@@ -12298,7 +12461,7 @@
       <c r="H172" s="21"/>
       <c r="I172" s="21"/>
       <c r="J172" s="22"/>
-      <c r="K172" s="46"/>
+      <c r="K172" s="4"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
     </row>
@@ -12336,7 +12499,7 @@
       <c r="A175" s="43"/>
       <c r="B175" s="15"/>
       <c r="C175" s="52"/>
-      <c r="D175" s="39"/>
+      <c r="D175" s="16"/>
       <c r="E175" s="19"/>
       <c r="F175" s="20"/>
       <c r="G175" s="21"/>
@@ -12346,51 +12509,51 @@
       <c r="K175" s="46"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
-      <c r="IM175"/>
     </row>
     <row r="176" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="44"/>
-      <c r="B176" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C176" s="53"/>
-      <c r="D176" s="31"/>
-      <c r="E176" s="32"/>
-      <c r="F176" s="33">
-        <f>SUM(F3:F175)</f>
-        <v>-1799.6</v>
-      </c>
-      <c r="G176" s="34">
-        <f>SUM(G3:G175)</f>
-        <v>-7319.7899999999954</v>
-      </c>
-      <c r="H176" s="34">
-        <f>SUM(H3:H175)</f>
-        <v>0</v>
-      </c>
-      <c r="I176" s="34">
-        <f>SUM(I3:I175)</f>
-        <v>-168.78</v>
-      </c>
-      <c r="J176" s="47">
-        <f>SUM(J3:J175)</f>
-        <v>-949.25</v>
-      </c>
-      <c r="K176" s="2"/>
+      <c r="A176" s="43"/>
+      <c r="B176" s="15"/>
+      <c r="C176" s="52"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="21"/>
+      <c r="H176" s="21"/>
+      <c r="I176" s="21"/>
+      <c r="J176" s="22"/>
+      <c r="K176" s="46"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
+      <c r="IM176"/>
     </row>
     <row r="177" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="44"/>
-      <c r="B177" s="18"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18"/>
-      <c r="G177" s="18"/>
-      <c r="H177" s="18"/>
-      <c r="I177" s="18"/>
-      <c r="J177" s="18"/>
+      <c r="B177" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" s="53"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="32"/>
+      <c r="F177" s="33">
+        <f>SUM(F3:F176)</f>
+        <v>-1799.6</v>
+      </c>
+      <c r="G177" s="34">
+        <f>SUM(G3:G176)</f>
+        <v>-8212.3599999999951</v>
+      </c>
+      <c r="H177" s="34">
+        <f>SUM(H3:H176)</f>
+        <v>0</v>
+      </c>
+      <c r="I177" s="34">
+        <f>SUM(I3:I176)</f>
+        <v>-170.63</v>
+      </c>
+      <c r="J177" s="47">
+        <f>SUM(J3:J176)</f>
+        <v>-949.25</v>
+      </c>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
@@ -13337,177 +13500,197 @@
       <c r="I240" s="18"/>
       <c r="J240" s="18"/>
       <c r="K240" s="2"/>
+      <c r="L240" s="2"/>
       <c r="M240" s="2"/>
     </row>
-    <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="44"/>
       <c r="B241" s="18"/>
       <c r="C241" s="18"/>
+      <c r="D241" s="18"/>
+      <c r="E241" s="18"/>
+      <c r="F241" s="18"/>
+      <c r="G241" s="18"/>
+      <c r="H241" s="18"/>
       <c r="I241" s="18"/>
-    </row>
-    <row r="242" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J241" s="18"/>
+      <c r="K241" s="2"/>
+      <c r="M241" s="2"/>
+    </row>
+    <row r="242" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B242" s="18"/>
+      <c r="C242" s="18"/>
       <c r="I242" s="18"/>
     </row>
+    <row r="243" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="18"/>
+      <c r="I243" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:K171" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="B2:K172" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:A240">
-    <cfRule type="cellIs" dxfId="29" priority="473" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A3:A241">
+    <cfRule type="cellIs" dxfId="33" priority="474" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B127:B135">
-    <cfRule type="cellIs" dxfId="28" priority="467" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B128:B136">
+    <cfRule type="cellIs" dxfId="32" priority="468" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B137:B141">
-    <cfRule type="cellIs" dxfId="27" priority="456" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B138:B142">
+    <cfRule type="cellIs" dxfId="31" priority="457" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B161:B162">
-    <cfRule type="cellIs" dxfId="26" priority="13" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B162:B163">
+    <cfRule type="cellIs" dxfId="30" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B165:B242">
-    <cfRule type="cellIs" dxfId="25" priority="419" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B166:B243">
+    <cfRule type="cellIs" dxfId="29" priority="420" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B153:C156">
-    <cfRule type="cellIs" dxfId="24" priority="14" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B154:C157">
+    <cfRule type="cellIs" dxfId="28" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B163:C164">
-    <cfRule type="cellIs" dxfId="23" priority="421" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B164:C165">
+    <cfRule type="cellIs" dxfId="27" priority="422" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B157:D159">
-    <cfRule type="cellIs" dxfId="22" priority="433" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B158:D160">
+    <cfRule type="cellIs" dxfId="26" priority="434" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B160:E160">
-    <cfRule type="cellIs" dxfId="21" priority="430" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B161:E161">
+    <cfRule type="cellIs" dxfId="25" priority="431" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C161:E161">
-    <cfRule type="cellIs" dxfId="20" priority="11" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C162:E162">
+    <cfRule type="cellIs" dxfId="24" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D113 C165:C241 K177 J177:J240 I177:I242">
-    <cfRule type="cellIs" dxfId="19" priority="703" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C166:C242 K178 J178:J241 I178:I243">
+    <cfRule type="cellIs" dxfId="23" priority="704" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D131:D132">
-    <cfRule type="cellIs" dxfId="18" priority="471" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D132:D133">
+    <cfRule type="cellIs" dxfId="22" priority="472" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D147:D148">
-    <cfRule type="cellIs" dxfId="17" priority="58" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D148:D149">
+    <cfRule type="cellIs" dxfId="21" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D150:D151 C152:D152">
-    <cfRule type="cellIs" dxfId="16" priority="442" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D151:D152 C153:D153">
+    <cfRule type="cellIs" dxfId="20" priority="443" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D162:E169">
-    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D163:E170">
+    <cfRule type="cellIs" dxfId="19" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D177:H240">
-    <cfRule type="cellIs" dxfId="14" priority="655" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D178:H241">
+    <cfRule type="cellIs" dxfId="18" priority="656" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E159">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:E160">
+    <cfRule type="cellIs" dxfId="17" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E170:E174 D175:E177">
-    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E171:E175 D176:E178">
+    <cfRule type="cellIs" dxfId="16" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="11" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="10" priority="385" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="386" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:F64">
-    <cfRule type="cellIs" dxfId="7" priority="364" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="365" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:F68">
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97:F98">
-    <cfRule type="cellIs" dxfId="5" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F109">
-    <cfRule type="cellIs" dxfId="4" priority="102" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F110">
+    <cfRule type="cellIs" dxfId="8" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F121:F122">
-    <cfRule type="cellIs" dxfId="3" priority="85" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F122:F123">
+    <cfRule type="cellIs" dxfId="7" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F136:F137">
-    <cfRule type="cellIs" dxfId="2" priority="68" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F137:F138">
+    <cfRule type="cellIs" dxfId="6" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F144:F146">
-    <cfRule type="cellIs" dxfId="1" priority="448" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F145:F147">
+    <cfRule type="cellIs" dxfId="5" priority="449" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F148:F149">
-    <cfRule type="cellIs" dxfId="0" priority="15" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F149:F150">
+    <cfRule type="cellIs" dxfId="4" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F116">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E153 E81:E82 E162:E166 E160 E158 E155:E156 E151 E147:E149 E145 E143 E129:E130 E124:E126 E120:E121 E115:E118 E84:E99 E169:E175 E3:E79 E133:E141 E101:E112" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E154 E81:E82 E163:E167 E161 E159 E156:E157 E152 E148:E150 E146 E144 E130:E131 E125:E127 E121:E122 E84:E99 E170:E176 E3:E79 E134:E142 E101:E118" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100 E83 E80 E167:E168 E161 E159 E157 E154 E152 E150 E146 E144 E142 E131:E132 E127:E128 E122:E123 E119 E113:E114" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100 E83 E80 E168:E169 E162 E160 E158 E155 E153 E151 E147 E145 E143 E132:E133 E128:E129 E123:E124 E119:E120" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EB9C56-CF0B-42A4-9D95-6395AB760C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55ECC8B-9B6F-476A-A050-83A85C6E1085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="166">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -520,6 +520,18 @@
   </si>
   <si>
     <t>SPD Getränke</t>
+  </si>
+  <si>
+    <t>Sommerfest Helfer</t>
+  </si>
+  <si>
+    <t>Jubiläum Band</t>
+  </si>
+  <si>
+    <t>Jubiläum</t>
+  </si>
+  <si>
+    <t>Jubiläum anonyme Spenden</t>
   </si>
 </sst>
 </file>
@@ -1192,22 +1204,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="65">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4078,17 +4075,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="64">
+    <format dxfId="61">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4187,17 +4184,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="67">
+    <format dxfId="64">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5324,8 +5321,8 @@
   <dimension ref="A1:IK177"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
+      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6696,14 +6693,22 @@
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
+      <c r="A58" s="15">
+        <v>45555</v>
+      </c>
       <c r="B58" s="16">
         <v>53</v>
       </c>
-      <c r="C58" s="39"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="18"/>
+      <c r="C58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="17"/>
+      <c r="F58" s="18">
+        <v>80</v>
+      </c>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
       <c r="I58" s="19"/>
@@ -6711,14 +6716,22 @@
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
+      <c r="A59" s="15">
+        <v>45558</v>
+      </c>
       <c r="B59" s="16">
         <v>54</v>
       </c>
-      <c r="C59" s="39"/>
-      <c r="D59" s="19"/>
+      <c r="C59" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E59" s="20"/>
-      <c r="F59" s="18"/>
+      <c r="F59" s="18">
+        <v>182</v>
+      </c>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
       <c r="I59" s="19"/>
@@ -7513,7 +7526,7 @@
       </c>
       <c r="F112" s="28">
         <f>SUM(F3:F111)</f>
-        <v>11992.050000000007</v>
+        <v>12254.050000000007</v>
       </c>
       <c r="G112" s="28">
         <f>SUM(G3:G111)</f>
@@ -7556,7 +7569,7 @@
       </c>
       <c r="F114" s="28">
         <f>F112+Ausgaben!G177</f>
-        <v>3779.6900000000114</v>
+        <v>3556.2300000000123</v>
       </c>
       <c r="G114" s="28">
         <f>G112+Ausgaben!H177</f>
@@ -7594,7 +7607,7 @@
       <c r="C116" s="24"/>
       <c r="D116" s="29">
         <f>SUM(E114:I114)</f>
-        <v>8658.2000000000116</v>
+        <v>8434.7400000000125</v>
       </c>
       <c r="E116" s="17"/>
       <c r="F116" s="18"/>
@@ -8395,152 +8408,142 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A94:C94">
-    <cfRule type="cellIs" dxfId="61" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="60" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100:D101">
-    <cfRule type="cellIs" dxfId="59" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D69">
-    <cfRule type="cellIs" dxfId="58" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:D74">
-    <cfRule type="cellIs" dxfId="57" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84:D88">
-    <cfRule type="cellIs" dxfId="56" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:G17">
-    <cfRule type="cellIs" dxfId="55" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:G71 E72:G72 E74:G74 D75:G83">
-    <cfRule type="cellIs" dxfId="54" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89:G99">
-    <cfRule type="cellIs" dxfId="53" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102:G111">
-    <cfRule type="cellIs" dxfId="52" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="51" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:F21">
-    <cfRule type="cellIs" dxfId="49" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F37">
-    <cfRule type="cellIs" dxfId="48" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F42">
-    <cfRule type="cellIs" dxfId="47" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:F46">
-    <cfRule type="cellIs" dxfId="46" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55:F58">
+    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G15">
-    <cfRule type="cellIs" dxfId="45" priority="257" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="258" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:G41">
-    <cfRule type="cellIs" dxfId="44" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85:G88">
-    <cfRule type="cellIs" dxfId="43" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G16 G18:G24 H29:I111 E61:G62 F63 G63:G64 F65:G65 E66:G66 F67:G67 E68:G68 G84 G100 E101:G101 D111:I111 E112:I176 D116">
-    <cfRule type="cellIs" dxfId="42" priority="321" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="322" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="41" priority="242" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="243" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:G69">
-    <cfRule type="cellIs" dxfId="40" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73:G73">
-    <cfRule type="cellIs" dxfId="39" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:I28">
-    <cfRule type="cellIs" dxfId="38" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G13 D4:D16 H4:I27 A95:A98">
-    <cfRule type="cellIs" dxfId="37" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="36" priority="239" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="240" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G37">
-    <cfRule type="cellIs" dxfId="35" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:G47 E48:G50 G51:G52 E52:F52 F53:G53 F58:G60 G54:G57">
-    <cfRule type="cellIs" dxfId="34" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55:F55">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56:F56">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:F57">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G42:G47 E48:G50 G51:G52 E52:F52 F53:G53 G54:G58 F59:G60">
+    <cfRule type="cellIs" dxfId="31" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8569,8 +8572,8 @@
   <dimension ref="A1:IM243"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G120" sqref="G120"/>
+      <pane ySplit="2" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11607,14 +11610,22 @@
     </row>
     <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="43"/>
-      <c r="B120" s="15"/>
+      <c r="B120" s="15">
+        <v>45548</v>
+      </c>
       <c r="C120" s="52">
         <v>116</v>
       </c>
-      <c r="D120" s="3"/>
-      <c r="E120" s="19"/>
+      <c r="D120" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F120" s="20"/>
-      <c r="G120" s="21"/>
+      <c r="G120" s="21">
+        <v>-130</v>
+      </c>
       <c r="H120" s="21"/>
       <c r="I120" s="21"/>
       <c r="J120" s="22"/>
@@ -11624,14 +11635,22 @@
     </row>
     <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="43"/>
-      <c r="B121" s="15"/>
+      <c r="B121" s="15">
+        <v>45554</v>
+      </c>
       <c r="C121" s="52">
         <v>117</v>
       </c>
-      <c r="D121" s="3"/>
-      <c r="E121" s="23"/>
+      <c r="D121" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="F121" s="20"/>
-      <c r="G121" s="21"/>
+      <c r="G121" s="21">
+        <v>-150</v>
+      </c>
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="22"/>
@@ -11641,14 +11660,22 @@
     </row>
     <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="43"/>
-      <c r="B122" s="15"/>
+      <c r="B122" s="15">
+        <v>45555</v>
+      </c>
       <c r="C122" s="52">
         <v>118</v>
       </c>
-      <c r="D122" s="3"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="17"/>
-      <c r="G122" s="21"/>
+      <c r="D122" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F122" s="20"/>
+      <c r="G122" s="21">
+        <v>-12.99</v>
+      </c>
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="22"/>
@@ -11658,14 +11685,22 @@
     </row>
     <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="43"/>
-      <c r="B123" s="15"/>
+      <c r="B123" s="15">
+        <v>45558</v>
+      </c>
       <c r="C123" s="52">
         <v>119</v>
       </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="17"/>
-      <c r="G123" s="21"/>
+      <c r="D123" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123" s="20"/>
+      <c r="G123" s="21">
+        <v>-192.47</v>
+      </c>
       <c r="H123" s="21"/>
       <c r="I123" s="21"/>
       <c r="J123" s="22"/>
@@ -12540,7 +12575,7 @@
       </c>
       <c r="G177" s="34">
         <f>SUM(G3:G176)</f>
-        <v>-8212.3599999999951</v>
+        <v>-8697.8199999999943</v>
       </c>
       <c r="H177" s="34">
         <f>SUM(H3:H176)</f>
@@ -13532,165 +13567,160 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A241">
-    <cfRule type="cellIs" dxfId="33" priority="474" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="474" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:B136">
-    <cfRule type="cellIs" dxfId="32" priority="468" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="468" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138:B142">
-    <cfRule type="cellIs" dxfId="31" priority="457" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="457" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:B163">
-    <cfRule type="cellIs" dxfId="30" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B166:B243">
-    <cfRule type="cellIs" dxfId="29" priority="420" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="420" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B154:C157">
-    <cfRule type="cellIs" dxfId="28" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:C165">
-    <cfRule type="cellIs" dxfId="27" priority="422" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="422" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D160">
-    <cfRule type="cellIs" dxfId="26" priority="434" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="434" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:E161">
-    <cfRule type="cellIs" dxfId="25" priority="431" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="431" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C166:C242 K178 J178:J241 I178:I243">
+    <cfRule type="cellIs" dxfId="21" priority="704" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162:E162">
-    <cfRule type="cellIs" dxfId="24" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C166:C242 K178 J178:J241 I178:I243">
-    <cfRule type="cellIs" dxfId="23" priority="704" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D132:D133">
-    <cfRule type="cellIs" dxfId="22" priority="472" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="472" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D148:D149">
-    <cfRule type="cellIs" dxfId="21" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D151:D152 C153:D153">
-    <cfRule type="cellIs" dxfId="20" priority="443" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="443" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D163:E170">
-    <cfRule type="cellIs" dxfId="19" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D178:H241">
-    <cfRule type="cellIs" dxfId="18" priority="656" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="656" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E160">
-    <cfRule type="cellIs" dxfId="17" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171:E175 D176:E178">
-    <cfRule type="cellIs" dxfId="16" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="15" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="14" priority="386" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="386" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:F64">
-    <cfRule type="cellIs" dxfId="11" priority="365" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="365" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:F68">
-    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97:F98">
-    <cfRule type="cellIs" dxfId="9" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
-    <cfRule type="cellIs" dxfId="8" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F122:F123">
-    <cfRule type="cellIs" dxfId="7" priority="86" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F116">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137:F138">
-    <cfRule type="cellIs" dxfId="6" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F145:F147">
-    <cfRule type="cellIs" dxfId="5" priority="449" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="449" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F149:F150">
-    <cfRule type="cellIs" dxfId="4" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F116">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E154 E81:E82 E163:E167 E161 E159 E156:E157 E152 E148:E150 E146 E144 E130:E131 E125:E127 E121:E122 E84:E99 E170:E176 E3:E79 E134:E142 E101:E118" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E154 E81:E82 E163:E167 E161 E159 E156:E157 E152 E148:E150 E146 E144 E130:E131 E125:E127 E101:E118 E84:E99 E170:E176 E3:E79 E134:E142 E120 E122" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100 E83 E80 E168:E169 E162 E160 E158 E155 E153 E151 E147 E145 E143 E132:E133 E128:E129 E123:E124 E119:E120" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100 E83 E80 E168:E169 E162 E160 E158 E155 E153 E151 E147 E145 E143 E132:E133 E128:E129 E121 E119 E123:E124" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55ECC8B-9B6F-476A-A050-83A85C6E1085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EABC55D-7E8C-483B-AC09-A7D5E7BF3424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="169">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -532,6 +532,15 @@
   </si>
   <si>
     <t>Jubiläum anonyme Spenden</t>
+  </si>
+  <si>
+    <t>Hdb Jubiläum</t>
+  </si>
+  <si>
+    <t>Awo zeitung</t>
+  </si>
+  <si>
+    <t>Miete Lager Farrenstall 5€/Jahr</t>
   </si>
 </sst>
 </file>
@@ -1204,12 +1213,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="64">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4075,17 +4079,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="61">
+    <format dxfId="60">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4184,17 +4188,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="64">
+    <format dxfId="63">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5321,8 +5325,8 @@
   <dimension ref="A1:IK177"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6739,14 +6743,22 @@
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
+      <c r="A60" s="15">
+        <v>45562</v>
+      </c>
       <c r="B60" s="16">
         <v>55</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="19"/>
+      <c r="C60" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="E60" s="20"/>
-      <c r="F60" s="18"/>
+      <c r="F60" s="18">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="19"/>
@@ -7526,7 +7538,7 @@
       </c>
       <c r="F112" s="28">
         <f>SUM(F3:F111)</f>
-        <v>12254.050000000007</v>
+        <v>12262.750000000007</v>
       </c>
       <c r="G112" s="28">
         <f>SUM(G3:G111)</f>
@@ -7569,7 +7581,7 @@
       </c>
       <c r="F114" s="28">
         <f>F112+Ausgaben!G177</f>
-        <v>3556.2300000000123</v>
+        <v>3059.6300000000138</v>
       </c>
       <c r="G114" s="28">
         <f>G112+Ausgaben!H177</f>
@@ -7607,7 +7619,7 @@
       <c r="C116" s="24"/>
       <c r="D116" s="29">
         <f>SUM(E114:I114)</f>
-        <v>8434.7400000000125</v>
+        <v>7938.140000000014</v>
       </c>
       <c r="E116" s="17"/>
       <c r="F116" s="18"/>
@@ -8408,142 +8420,142 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A94:C94">
-    <cfRule type="cellIs" dxfId="58" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="57" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100:D101">
-    <cfRule type="cellIs" dxfId="56" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D69">
-    <cfRule type="cellIs" dxfId="55" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:D74">
-    <cfRule type="cellIs" dxfId="54" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84:D88">
-    <cfRule type="cellIs" dxfId="53" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:G17">
-    <cfRule type="cellIs" dxfId="52" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:G71 E72:G72 E74:G74 D75:G83">
-    <cfRule type="cellIs" dxfId="51" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89:G99">
-    <cfRule type="cellIs" dxfId="50" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102:G111">
-    <cfRule type="cellIs" dxfId="49" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="48" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:F21">
-    <cfRule type="cellIs" dxfId="47" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F37">
-    <cfRule type="cellIs" dxfId="46" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F42">
-    <cfRule type="cellIs" dxfId="45" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:F46">
-    <cfRule type="cellIs" dxfId="44" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:F58">
-    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G15">
-    <cfRule type="cellIs" dxfId="42" priority="258" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="258" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:G41">
-    <cfRule type="cellIs" dxfId="41" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85:G88">
-    <cfRule type="cellIs" dxfId="40" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G16 G18:G24 H29:I111 E61:G62 F63 G63:G64 F65:G65 E66:G66 F67:G67 E68:G68 G84 G100 E101:G101 D111:I111 E112:I176 D116">
-    <cfRule type="cellIs" dxfId="39" priority="322" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="322" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="38" priority="243" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="243" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:G69">
-    <cfRule type="cellIs" dxfId="37" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73:G73">
-    <cfRule type="cellIs" dxfId="36" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:I28">
-    <cfRule type="cellIs" dxfId="35" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G13 D4:D16 H4:I27 A95:A98">
-    <cfRule type="cellIs" dxfId="34" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="33" priority="240" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="240" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G37">
-    <cfRule type="cellIs" dxfId="32" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:G47 E48:G50 G51:G52 E52:F52 F53:G53 G54:G58 F59:G60">
-    <cfRule type="cellIs" dxfId="31" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8572,8 +8584,8 @@
   <dimension ref="A1:IM243"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G124" sqref="G124"/>
+      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11710,14 +11722,22 @@
     </row>
     <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="43"/>
-      <c r="B124" s="15"/>
+      <c r="B124" s="15">
+        <v>45565</v>
+      </c>
       <c r="C124" s="52">
         <v>120</v>
       </c>
-      <c r="D124" s="3"/>
-      <c r="E124" s="19"/>
+      <c r="D124" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="F124" s="20"/>
-      <c r="G124" s="21"/>
+      <c r="G124" s="21">
+        <v>-143</v>
+      </c>
       <c r="H124" s="21"/>
       <c r="I124" s="21"/>
       <c r="J124" s="22"/>
@@ -11727,14 +11747,22 @@
     </row>
     <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="43"/>
-      <c r="B125" s="15"/>
+      <c r="B125" s="15">
+        <v>45565</v>
+      </c>
       <c r="C125" s="52">
         <v>121</v>
       </c>
-      <c r="D125" s="3"/>
-      <c r="E125" s="23"/>
+      <c r="D125" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F125" s="20"/>
-      <c r="G125" s="21"/>
+      <c r="G125" s="21">
+        <v>-100</v>
+      </c>
       <c r="H125" s="21"/>
       <c r="I125" s="21"/>
       <c r="J125" s="22"/>
@@ -11744,14 +11772,22 @@
     </row>
     <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="43"/>
-      <c r="B126" s="15"/>
+      <c r="B126" s="15">
+        <v>45565</v>
+      </c>
       <c r="C126" s="52">
         <v>122</v>
       </c>
-      <c r="D126" s="3"/>
-      <c r="E126" s="23"/>
+      <c r="D126" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F126" s="20"/>
-      <c r="G126" s="21"/>
+      <c r="G126" s="21">
+        <v>-31.88</v>
+      </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="22"/>
@@ -11761,14 +11797,22 @@
     </row>
     <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="43"/>
-      <c r="B127" s="15"/>
+      <c r="B127" s="15">
+        <v>45565</v>
+      </c>
       <c r="C127" s="52">
         <v>123</v>
       </c>
-      <c r="D127" s="3"/>
-      <c r="E127" s="23"/>
+      <c r="D127" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E127" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F127" s="20"/>
-      <c r="G127" s="21"/>
+      <c r="G127" s="21">
+        <v>-30.42</v>
+      </c>
       <c r="H127" s="21"/>
       <c r="I127" s="21"/>
       <c r="J127" s="22"/>
@@ -11778,14 +11822,22 @@
     </row>
     <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="43"/>
-      <c r="B128" s="15"/>
+      <c r="B128" s="15">
+        <v>45565</v>
+      </c>
       <c r="C128" s="52">
         <v>124</v>
       </c>
-      <c r="D128" s="3"/>
-      <c r="E128" s="19"/>
+      <c r="D128" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F128" s="20"/>
-      <c r="G128" s="21"/>
+      <c r="G128" s="21">
+        <v>-5</v>
+      </c>
       <c r="H128" s="21"/>
       <c r="I128" s="21"/>
       <c r="J128" s="22"/>
@@ -11795,14 +11847,22 @@
     </row>
     <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="43"/>
-      <c r="B129" s="15"/>
+      <c r="B129" s="15">
+        <v>45566</v>
+      </c>
       <c r="C129" s="52">
         <v>125</v>
       </c>
-      <c r="D129" s="3"/>
-      <c r="E129" s="19"/>
+      <c r="D129" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F129" s="20"/>
-      <c r="G129" s="21"/>
+      <c r="G129" s="21">
+        <v>-12</v>
+      </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="22"/>
@@ -11812,14 +11872,22 @@
     </row>
     <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="43"/>
-      <c r="B130" s="15"/>
+      <c r="B130" s="15">
+        <v>45566</v>
+      </c>
       <c r="C130" s="52">
         <v>126</v>
       </c>
-      <c r="D130" s="3"/>
-      <c r="E130" s="23"/>
+      <c r="D130" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E130" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F130" s="20"/>
-      <c r="G130" s="21"/>
+      <c r="G130" s="21">
+        <v>-44</v>
+      </c>
       <c r="H130" s="21"/>
       <c r="I130" s="21"/>
       <c r="J130" s="22"/>
@@ -11829,14 +11897,22 @@
     </row>
     <row r="131" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="43"/>
-      <c r="B131" s="15"/>
+      <c r="B131" s="15">
+        <v>45566</v>
+      </c>
       <c r="C131" s="52">
         <v>127</v>
       </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="23"/>
+      <c r="D131" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E131" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F131" s="20"/>
-      <c r="G131" s="21"/>
+      <c r="G131" s="21">
+        <v>-139</v>
+      </c>
       <c r="H131" s="21"/>
       <c r="I131" s="21"/>
       <c r="J131" s="22"/>
@@ -12575,7 +12651,7 @@
       </c>
       <c r="G177" s="34">
         <f>SUM(G3:G176)</f>
-        <v>-8697.8199999999943</v>
+        <v>-9203.1199999999935</v>
       </c>
       <c r="H177" s="34">
         <f>SUM(H3:H176)</f>
@@ -13567,137 +13643,137 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A241">
-    <cfRule type="cellIs" dxfId="30" priority="474" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="474" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B136">
-    <cfRule type="cellIs" dxfId="29" priority="468" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B129:B136">
+    <cfRule type="cellIs" dxfId="28" priority="468" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138:B142">
-    <cfRule type="cellIs" dxfId="28" priority="457" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="457" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:B163">
-    <cfRule type="cellIs" dxfId="27" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B166:B243">
-    <cfRule type="cellIs" dxfId="26" priority="420" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="420" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B154:C157">
-    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:C165">
-    <cfRule type="cellIs" dxfId="24" priority="422" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="422" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D160">
-    <cfRule type="cellIs" dxfId="23" priority="434" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="434" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:E161">
-    <cfRule type="cellIs" dxfId="22" priority="431" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="431" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C166:C242 K178 J178:J241 I178:I243">
-    <cfRule type="cellIs" dxfId="21" priority="704" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="704" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162:E162">
-    <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D132:D133">
-    <cfRule type="cellIs" dxfId="19" priority="472" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="472" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D148:D149">
-    <cfRule type="cellIs" dxfId="18" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D151:D152 C153:D153">
-    <cfRule type="cellIs" dxfId="17" priority="443" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="443" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D163:E170">
-    <cfRule type="cellIs" dxfId="16" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D178:H241">
-    <cfRule type="cellIs" dxfId="15" priority="656" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="656" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E160">
-    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171:E175 D176:E178">
-    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="12" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="11" priority="386" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="386" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:F64">
-    <cfRule type="cellIs" dxfId="8" priority="365" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="365" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:F68">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97:F98">
-    <cfRule type="cellIs" dxfId="6" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
-    <cfRule type="cellIs" dxfId="5" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F116">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13717,10 +13793,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E154 E81:E82 E163:E167 E161 E159 E156:E157 E152 E148:E150 E146 E144 E130:E131 E125:E127 E101:E118 E84:E99 E170:E176 E3:E79 E134:E142 E120 E122" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E154 E81:E82 E163:E167 E161 E159 E156:E157 E152 E148:E150 E146 E144 E125:E131 E122 E101:E118 E84:E99 E170:E176 E3:E79 E134:E142 E120" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100 E83 E80 E168:E169 E162 E160 E158 E155 E153 E151 E147 E145 E143 E132:E133 E128:E129 E121 E119 E123:E124" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100 E83 E80 E168:E169 E162 E160 E158 E155 E153 E151 E147 E145 E143 E132:E133 E123:E124 E121 E119" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EABC55D-7E8C-483B-AC09-A7D5E7BF3424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF54058-73D8-4087-857D-81EFD019F97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$172</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$109</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$176</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$116</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="171">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -541,6 +541,12 @@
   </si>
   <si>
     <t>Miete Lager Farrenstall 5€/Jahr</t>
+  </si>
+  <si>
+    <t>33a</t>
+  </si>
+  <si>
+    <t>Radservice CycleStore</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1737,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="45318.474550925923" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="108" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D2:I111" sheet="Einnahmen"/>
+    <worksheetSource ref="D2:I112" sheet="Einnahmen"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -5322,11 +5328,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:IK177"/>
+  <dimension ref="A1:IK178"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6238,20 +6244,20 @@
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
-        <v>45059</v>
-      </c>
-      <c r="B38" s="16">
-        <v>34</v>
+        <v>45057</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
@@ -6261,20 +6267,20 @@
     </row>
     <row r="39" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
-        <v>45446</v>
-      </c>
-      <c r="B39" s="52">
-        <v>35</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>86</v>
+        <v>45059</v>
+      </c>
+      <c r="B39" s="16">
+        <v>34</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="18">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
@@ -6284,10 +6290,10 @@
     </row>
     <row r="40" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
-        <v>45448</v>
-      </c>
-      <c r="B40" s="16">
-        <v>36</v>
+        <v>45446</v>
+      </c>
+      <c r="B40" s="52">
+        <v>35</v>
       </c>
       <c r="C40" s="39" t="s">
         <v>86</v>
@@ -6297,7 +6303,7 @@
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="18">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
@@ -6307,10 +6313,10 @@
     </row>
     <row r="41" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
-        <v>45462</v>
+        <v>45448</v>
       </c>
       <c r="B41" s="16">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" s="39" t="s">
         <v>86</v>
@@ -6320,7 +6326,7 @@
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="18">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
@@ -6330,20 +6336,20 @@
     </row>
     <row r="42" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
-        <v>45467</v>
+        <v>45462</v>
       </c>
       <c r="B42" s="16">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="18">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
@@ -6353,20 +6359,20 @@
     </row>
     <row r="43" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
-        <v>45468</v>
-      </c>
-      <c r="B43" s="52">
-        <v>39</v>
+        <v>45467</v>
+      </c>
+      <c r="B43" s="16">
+        <v>38</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21">
-        <v>9.14</v>
+        <v>13</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="18">
+        <v>10</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -6376,20 +6382,20 @@
     </row>
     <row r="44" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
-        <v>45471</v>
-      </c>
-      <c r="B44" s="16">
-        <v>40</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>123</v>
+        <v>45468</v>
+      </c>
+      <c r="B44" s="52">
+        <v>39</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="21">
-        <v>20</v>
+        <v>9.14</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -6399,20 +6405,20 @@
     </row>
     <row r="45" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
-        <v>45474</v>
+        <v>45471</v>
       </c>
       <c r="B45" s="16">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="21">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -6422,20 +6428,20 @@
     </row>
     <row r="46" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
-        <v>45477</v>
+        <v>45474</v>
       </c>
       <c r="B46" s="16">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="18">
-        <v>109</v>
+        <v>13</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21">
+        <v>50</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
@@ -6448,17 +6454,17 @@
         <v>45477</v>
       </c>
       <c r="B47" s="16">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="21">
-        <v>17.95</v>
+        <v>0</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="18">
+        <v>109</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
@@ -6468,21 +6474,21 @@
     </row>
     <row r="48" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
-        <v>45483</v>
+        <v>45477</v>
       </c>
       <c r="B48" s="16">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="17">
-        <v>180</v>
-      </c>
-      <c r="F48" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21">
+        <v>17.95</v>
+      </c>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
       <c r="I48" s="19"/>
@@ -6491,19 +6497,19 @@
     </row>
     <row r="49" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
-        <v>45487</v>
+        <v>45483</v>
       </c>
       <c r="B49" s="16">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E49" s="17">
-        <v>1578.3</v>
+        <v>180</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -6516,17 +6522,17 @@
       <c r="A50" s="15">
         <v>45487</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>146</v>
+      <c r="B50" s="16">
+        <v>45</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E50" s="17">
-        <v>41.3</v>
+        <v>1578.3</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -6537,23 +6543,23 @@
     </row>
     <row r="51" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
-        <v>45488</v>
-      </c>
-      <c r="B51" s="16">
-        <v>46</v>
+        <v>45487</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="21"/>
+        <v>13</v>
+      </c>
+      <c r="E51" s="17">
+        <v>41.3</v>
+      </c>
+      <c r="F51" s="18"/>
       <c r="G51" s="18"/>
-      <c r="H51" s="18">
-        <v>1730</v>
-      </c>
+      <c r="H51" s="18"/>
       <c r="I51" s="19"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -6563,7 +6569,7 @@
         <v>45488</v>
       </c>
       <c r="B52" s="16">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>137</v>
@@ -6571,11 +6577,11 @@
       <c r="D52" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="18"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
       <c r="G52" s="18"/>
       <c r="H52" s="18">
-        <v>69.599999999999994</v>
+        <v>1730</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="2"/>
@@ -6583,43 +6589,43 @@
     </row>
     <row r="53" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
-        <v>45492</v>
+        <v>45488</v>
       </c>
       <c r="B53" s="16">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="18">
-        <v>1262.52</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E53" s="17"/>
+      <c r="F53" s="18"/>
       <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
+      <c r="H53" s="18">
+        <v>69.599999999999994</v>
+      </c>
       <c r="I53" s="19"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
-        <v>45527</v>
+        <v>45492</v>
       </c>
       <c r="B54" s="16">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E54" s="20"/>
-      <c r="F54" s="21">
-        <v>160</v>
+      <c r="F54" s="18">
+        <v>1262.52</v>
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
@@ -6629,20 +6635,20 @@
     </row>
     <row r="55" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
-        <v>45539</v>
+        <v>45527</v>
       </c>
       <c r="B55" s="16">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="18">
-        <v>75</v>
+        <v>14</v>
+      </c>
+      <c r="E55" s="20"/>
+      <c r="F55" s="21">
+        <v>160</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
@@ -6652,20 +6658,20 @@
     </row>
     <row r="56" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
-        <v>45546</v>
+        <v>45539</v>
       </c>
       <c r="B56" s="16">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="18">
-        <v>47.5</v>
+        <v>75</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
@@ -6675,20 +6681,20 @@
     </row>
     <row r="57" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
-        <v>45548</v>
+        <v>45546</v>
       </c>
       <c r="B57" s="16">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="18">
-        <v>20</v>
+        <v>47.5</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
@@ -6698,20 +6704,20 @@
     </row>
     <row r="58" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
-        <v>45555</v>
+        <v>45548</v>
       </c>
       <c r="B58" s="16">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E58" s="17"/>
       <c r="F58" s="18">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
@@ -6721,20 +6727,20 @@
     </row>
     <row r="59" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B59" s="16">
-        <v>54</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>165</v>
+        <v>53</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="17"/>
       <c r="F59" s="18">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
@@ -6744,20 +6750,20 @@
     </row>
     <row r="60" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
-        <v>45562</v>
+        <v>45558</v>
       </c>
       <c r="B60" s="16">
-        <v>55</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>87</v>
+        <v>54</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>165</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="18">
-        <v>8.6999999999999993</v>
+        <v>182</v>
       </c>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
@@ -6766,14 +6772,22 @@
       <c r="K60" s="2"/>
     </row>
     <row r="61" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="15"/>
+      <c r="A61" s="15">
+        <v>45562</v>
+      </c>
       <c r="B61" s="16">
-        <v>56</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="18"/>
+        <v>55</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="20"/>
+      <c r="F61" s="18">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="19"/>
@@ -6783,7 +6797,7 @@
     <row r="62" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
       <c r="B62" s="16">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="19"/>
@@ -6797,12 +6811,13 @@
     </row>
     <row r="63" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
-      <c r="B63" s="52">
-        <v>58</v>
-      </c>
-      <c r="C63" s="39"/>
+      <c r="B63" s="16">
+        <v>57</v>
+      </c>
+      <c r="C63" s="3"/>
       <c r="D63" s="19"/>
-      <c r="F63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="18"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
       <c r="I63" s="19"/>
@@ -6812,12 +6827,11 @@
     <row r="64" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
       <c r="B64" s="52">
-        <v>59</v>
-      </c>
-      <c r="C64" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="C64" s="39"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="21"/>
+      <c r="F64" s="17"/>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
       <c r="I64" s="19"/>
@@ -6827,12 +6841,12 @@
     <row r="65" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="52">
-        <v>60</v>
-      </c>
-      <c r="C65" s="39"/>
+        <v>59</v>
+      </c>
+      <c r="C65" s="3"/>
       <c r="D65" s="19"/>
       <c r="E65" s="20"/>
-      <c r="F65" s="18"/>
+      <c r="F65" s="21"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
       <c r="I65" s="19"/>
@@ -6842,11 +6856,11 @@
     <row r="66" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="52">
-        <v>61</v>
-      </c>
-      <c r="C66" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="C66" s="39"/>
       <c r="D66" s="19"/>
-      <c r="E66" s="17"/>
+      <c r="E66" s="20"/>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
@@ -6857,11 +6871,11 @@
     <row r="67" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15"/>
       <c r="B67" s="52">
-        <v>62</v>
-      </c>
-      <c r="C67" s="39"/>
+        <v>61</v>
+      </c>
+      <c r="C67" s="3"/>
       <c r="D67" s="19"/>
-      <c r="E67" s="20"/>
+      <c r="E67" s="17"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
@@ -6871,12 +6885,12 @@
     </row>
     <row r="68" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15"/>
-      <c r="B68" s="16">
-        <v>63</v>
-      </c>
-      <c r="C68" s="16"/>
+      <c r="B68" s="52">
+        <v>62</v>
+      </c>
+      <c r="C68" s="39"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="17"/>
+      <c r="E68" s="20"/>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
@@ -6886,12 +6900,12 @@
     </row>
     <row r="69" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15"/>
-      <c r="B69" s="52">
-        <v>64</v>
-      </c>
-      <c r="C69" s="39"/>
+      <c r="B69" s="16">
+        <v>63</v>
+      </c>
+      <c r="C69" s="16"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="20"/>
+      <c r="E69" s="17"/>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
@@ -6901,12 +6915,12 @@
     </row>
     <row r="70" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
-      <c r="B70" s="16">
-        <v>65</v>
-      </c>
-      <c r="C70" s="16"/>
+      <c r="B70" s="52">
+        <v>64</v>
+      </c>
+      <c r="C70" s="39"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="17"/>
+      <c r="E70" s="20"/>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
@@ -6917,7 +6931,7 @@
     <row r="71" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
       <c r="B71" s="16">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="19"/>
@@ -6932,7 +6946,7 @@
     <row r="72" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
       <c r="B72" s="16">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="19"/>
@@ -6947,11 +6961,11 @@
     <row r="73" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
       <c r="B73" s="16">
-        <v>68</v>
-      </c>
-      <c r="C73" s="39"/>
+        <v>67</v>
+      </c>
+      <c r="C73" s="16"/>
       <c r="D73" s="19"/>
-      <c r="E73" s="20"/>
+      <c r="E73" s="17"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
@@ -6962,11 +6976,11 @@
     <row r="74" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="16">
-        <v>69</v>
-      </c>
-      <c r="C74" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="C74" s="39"/>
       <c r="D74" s="19"/>
-      <c r="E74" s="17"/>
+      <c r="E74" s="20"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
@@ -6977,9 +6991,9 @@
     <row r="75" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="16">
-        <v>70</v>
-      </c>
-      <c r="C75" s="16"/>
+        <v>69</v>
+      </c>
+      <c r="C75" s="3"/>
       <c r="D75" s="19"/>
       <c r="E75" s="17"/>
       <c r="F75" s="18"/>
@@ -6992,7 +7006,7 @@
     <row r="76" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="16">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="19"/>
@@ -7007,7 +7021,7 @@
     <row r="77" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="16">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="19"/>
@@ -7022,7 +7036,7 @@
     <row r="78" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="16">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="19"/>
@@ -7037,7 +7051,7 @@
     <row r="79" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="16">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" s="16"/>
       <c r="D79" s="19"/>
@@ -7052,7 +7066,7 @@
     <row r="80" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
       <c r="B80" s="16">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="19"/>
@@ -7067,9 +7081,9 @@
     <row r="81" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="16">
-        <v>76</v>
-      </c>
-      <c r="C81" s="39"/>
+        <v>75</v>
+      </c>
+      <c r="C81" s="16"/>
       <c r="D81" s="19"/>
       <c r="E81" s="17"/>
       <c r="F81" s="18"/>
@@ -7082,9 +7096,9 @@
     <row r="82" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
       <c r="B82" s="16">
-        <v>77</v>
-      </c>
-      <c r="C82" s="16"/>
+        <v>76</v>
+      </c>
+      <c r="C82" s="39"/>
       <c r="D82" s="19"/>
       <c r="E82" s="17"/>
       <c r="F82" s="18"/>
@@ -7097,7 +7111,7 @@
     <row r="83" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
       <c r="B83" s="16">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" s="16"/>
       <c r="D83" s="19"/>
@@ -7111,13 +7125,13 @@
     </row>
     <row r="84" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
-      <c r="B84" s="52">
-        <v>79</v>
-      </c>
-      <c r="C84" s="54"/>
+      <c r="B84" s="16">
+        <v>78</v>
+      </c>
+      <c r="C84" s="16"/>
       <c r="D84" s="19"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="21"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="18"/>
       <c r="I84" s="19"/>
@@ -7126,13 +7140,13 @@
     </row>
     <row r="85" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
-      <c r="B85" s="16">
-        <v>80</v>
-      </c>
-      <c r="C85" s="3"/>
+      <c r="B85" s="52">
+        <v>79</v>
+      </c>
+      <c r="C85" s="54"/>
       <c r="D85" s="19"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="18"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="21"/>
       <c r="G85" s="18"/>
       <c r="H85" s="18"/>
       <c r="I85" s="19"/>
@@ -7142,7 +7156,7 @@
     <row r="86" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15"/>
       <c r="B86" s="16">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="19"/>
@@ -7157,7 +7171,7 @@
     <row r="87" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="16">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="19"/>
@@ -7172,7 +7186,7 @@
     <row r="88" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="16">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="19"/>
@@ -7187,9 +7201,9 @@
     <row r="89" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="16">
-        <v>84</v>
-      </c>
-      <c r="C89" s="16"/>
+        <v>83</v>
+      </c>
+      <c r="C89" s="3"/>
       <c r="D89" s="19"/>
       <c r="E89" s="17"/>
       <c r="F89" s="18"/>
@@ -7202,9 +7216,9 @@
     <row r="90" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="16">
-        <v>85</v>
-      </c>
-      <c r="C90" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C90" s="16"/>
       <c r="D90" s="19"/>
       <c r="E90" s="17"/>
       <c r="F90" s="18"/>
@@ -7217,7 +7231,7 @@
     <row r="91" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="16">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="19"/>
@@ -7232,7 +7246,7 @@
     <row r="92" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="16">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="19"/>
@@ -7247,7 +7261,7 @@
     <row r="93" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="16">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="19"/>
@@ -7261,10 +7275,10 @@
     </row>
     <row r="94" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
-      <c r="B94" s="52">
-        <v>89</v>
-      </c>
-      <c r="C94" s="39"/>
+      <c r="B94" s="16">
+        <v>88</v>
+      </c>
+      <c r="C94" s="3"/>
       <c r="D94" s="19"/>
       <c r="E94" s="17"/>
       <c r="F94" s="18"/>
@@ -7276,10 +7290,10 @@
     </row>
     <row r="95" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
-      <c r="B95" s="16">
-        <v>90</v>
-      </c>
-      <c r="C95" s="16"/>
+      <c r="B95" s="52">
+        <v>89</v>
+      </c>
+      <c r="C95" s="39"/>
       <c r="D95" s="19"/>
       <c r="E95" s="17"/>
       <c r="F95" s="18"/>
@@ -7292,7 +7306,7 @@
     <row r="96" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="16">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C96" s="16"/>
       <c r="D96" s="19"/>
@@ -7307,7 +7321,7 @@
     <row r="97" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="16">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="19"/>
@@ -7322,7 +7336,7 @@
     <row r="98" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="16">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C98" s="16"/>
       <c r="D98" s="19"/>
@@ -7337,7 +7351,7 @@
     <row r="99" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15"/>
       <c r="B99" s="16">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C99" s="16"/>
       <c r="D99" s="19"/>
@@ -7352,12 +7366,12 @@
     <row r="100" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15"/>
       <c r="B100" s="16">
-        <v>95</v>
-      </c>
-      <c r="C100" s="39"/>
+        <v>94</v>
+      </c>
+      <c r="C100" s="16"/>
       <c r="D100" s="19"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="21"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="18"/>
       <c r="G100" s="18"/>
       <c r="H100" s="18"/>
       <c r="I100" s="19"/>
@@ -7367,12 +7381,12 @@
     <row r="101" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15"/>
       <c r="B101" s="16">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C101" s="39"/>
       <c r="D101" s="19"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="18"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
       <c r="G101" s="18"/>
       <c r="H101" s="18"/>
       <c r="I101" s="19"/>
@@ -7382,9 +7396,9 @@
     <row r="102" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15"/>
       <c r="B102" s="16">
-        <v>97</v>
-      </c>
-      <c r="C102" s="16"/>
+        <v>96</v>
+      </c>
+      <c r="C102" s="39"/>
       <c r="D102" s="19"/>
       <c r="E102" s="17"/>
       <c r="F102" s="18"/>
@@ -7397,7 +7411,7 @@
     <row r="103" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15"/>
       <c r="B103" s="16">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="19"/>
@@ -7412,7 +7426,7 @@
     <row r="104" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="15"/>
       <c r="B104" s="16">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="16"/>
       <c r="D104" s="19"/>
@@ -7427,7 +7441,7 @@
     <row r="105" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="15"/>
       <c r="B105" s="16">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C105" s="16"/>
       <c r="D105" s="19"/>
@@ -7442,7 +7456,7 @@
     <row r="106" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15"/>
       <c r="B106" s="16">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C106" s="16"/>
       <c r="D106" s="19"/>
@@ -7457,7 +7471,7 @@
     <row r="107" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="15"/>
       <c r="B107" s="16">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C107" s="16"/>
       <c r="D107" s="19"/>
@@ -7472,7 +7486,7 @@
     <row r="108" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15"/>
       <c r="B108" s="16">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C108" s="16"/>
       <c r="D108" s="19"/>
@@ -7486,7 +7500,9 @@
     </row>
     <row r="109" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="15"/>
-      <c r="B109" s="16"/>
+      <c r="B109" s="16">
+        <v>103</v>
+      </c>
       <c r="C109" s="16"/>
       <c r="D109" s="19"/>
       <c r="E109" s="17"/>
@@ -7520,121 +7536,121 @@
       <c r="G111" s="18"/>
       <c r="H111" s="18"/>
       <c r="I111" s="19"/>
-      <c r="J111" s="2" t="s">
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+    </row>
+    <row r="112" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="15"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K111" s="2"/>
-    </row>
-    <row r="112" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="24" t="s">
+      <c r="K112" s="2"/>
+    </row>
+    <row r="113" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="27">
-        <f>SUM(E3:E111)</f>
+      <c r="B113" s="25"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="27">
+        <f>SUM(E3:E112)</f>
         <v>1799.6</v>
       </c>
-      <c r="F112" s="28">
-        <f>SUM(F3:F111)</f>
+      <c r="F113" s="28">
+        <f>SUM(F3:F112)</f>
         <v>12262.750000000007</v>
       </c>
-      <c r="G112" s="28">
-        <f>SUM(G3:G111)</f>
+      <c r="G113" s="28">
+        <f>SUM(G3:G112)</f>
         <v>2000.5</v>
       </c>
-      <c r="H112" s="28">
-        <f>SUM(H3:H111)</f>
+      <c r="H113" s="28">
+        <f>SUM(H3:H112)</f>
         <v>3048.6299999999997</v>
       </c>
-      <c r="I112" s="29">
-        <f>SUM(I3:I111)</f>
+      <c r="I113" s="29">
+        <f>SUM(I3:I112)</f>
         <v>949.26</v>
       </c>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-    </row>
-    <row r="113" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="35"/>
-      <c r="B113" s="35"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
     <row r="114" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B114" s="25"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="48"/>
-      <c r="E114" s="28">
-        <f>E112+Ausgaben!F177</f>
-        <v>0</v>
-      </c>
-      <c r="F114" s="28">
-        <f>F112+Ausgaben!G177</f>
-        <v>3059.6300000000138</v>
-      </c>
-      <c r="G114" s="28">
-        <f>G112+Ausgaben!H177</f>
-        <v>2000.5</v>
-      </c>
-      <c r="H114" s="28">
-        <f>H112+Ausgaben!I177</f>
-        <v>2877.9999999999995</v>
-      </c>
-      <c r="I114" s="29">
-        <f>I112+Ausgaben!J177</f>
-        <v>9.9999999999909051E-3</v>
-      </c>
+      <c r="A114" s="35"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="36"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="36"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
     <row r="115" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="37"/>
-      <c r="B115" s="37"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="37"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
+      <c r="A115" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" s="25"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="48"/>
+      <c r="E115" s="28">
+        <f>E113+Ausgaben!F177</f>
+        <v>0</v>
+      </c>
+      <c r="F115" s="28">
+        <f>F113+Ausgaben!G177</f>
+        <v>3059.6300000000138</v>
+      </c>
+      <c r="G115" s="28">
+        <f>G113+Ausgaben!H177</f>
+        <v>2000.5</v>
+      </c>
+      <c r="H115" s="28">
+        <f>H113+Ausgaben!I177</f>
+        <v>2877.9999999999995</v>
+      </c>
+      <c r="I115" s="29">
+        <f>I113+Ausgaben!J177</f>
+        <v>9.9999999999909051E-3</v>
+      </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
     <row r="116" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B116" s="5"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="29">
-        <f>SUM(E114:I114)</f>
-        <v>7938.140000000014</v>
-      </c>
-      <c r="E116" s="17"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
     <row r="117" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="38"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="38"/>
-      <c r="D117" s="38"/>
-      <c r="E117" s="18"/>
+      <c r="A117" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="29">
+        <f>SUM(E115:I115)</f>
+        <v>7938.140000000014</v>
+      </c>
+      <c r="E117" s="17"/>
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
       <c r="H117" s="18"/>
@@ -7643,12 +7659,10 @@
       <c r="K117" s="2"/>
     </row>
     <row r="118" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A118" s="38"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="38"/>
       <c r="E118" s="18"/>
       <c r="F118" s="18"/>
       <c r="G118" s="18"/>
@@ -7661,7 +7675,9 @@
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+      <c r="D119" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E119" s="18"/>
       <c r="F119" s="18"/>
       <c r="G119" s="18"/>
@@ -8411,40 +8427,53 @@
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
     </row>
-    <row r="177" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="18"/>
+      <c r="G177" s="18"/>
+      <c r="H177" s="18"/>
+      <c r="I177" s="18"/>
+      <c r="J177" s="2"/>
       <c r="K177" s="2"/>
     </row>
+    <row r="178" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K178" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:I108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:I109" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A94:C94">
+  <conditionalFormatting sqref="A95:C95">
     <cfRule type="cellIs" dxfId="57" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
+  <conditionalFormatting sqref="B85">
     <cfRule type="cellIs" dxfId="56" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C100:D101">
+  <conditionalFormatting sqref="C101:D102">
     <cfRule type="cellIs" dxfId="55" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D69">
+  <conditionalFormatting sqref="D18:D70">
     <cfRule type="cellIs" dxfId="54" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72:D74">
+  <conditionalFormatting sqref="D73:D75">
     <cfRule type="cellIs" dxfId="53" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D84:D88">
+  <conditionalFormatting sqref="D85:D89">
     <cfRule type="cellIs" dxfId="52" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8454,17 +8483,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70:G71 E72:G72 E74:G74 D75:G83">
+  <conditionalFormatting sqref="D71:G72 E73:G73 E75:G75 D76:G84">
     <cfRule type="cellIs" dxfId="50" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D89:G99">
+  <conditionalFormatting sqref="D90:G100">
     <cfRule type="cellIs" dxfId="49" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D102:G111">
+  <conditionalFormatting sqref="D103:G112">
     <cfRule type="cellIs" dxfId="48" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8479,22 +8508,22 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:F37">
+  <conditionalFormatting sqref="E31:F38">
     <cfRule type="cellIs" dxfId="45" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:F42">
+  <conditionalFormatting sqref="E43:F43">
     <cfRule type="cellIs" dxfId="44" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46:F46">
+  <conditionalFormatting sqref="E47:F47">
     <cfRule type="cellIs" dxfId="43" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55:F58">
+  <conditionalFormatting sqref="E56:F59">
     <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8504,17 +8533,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38:G41">
+  <conditionalFormatting sqref="E39:G42">
     <cfRule type="cellIs" dxfId="40" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85:G88">
+  <conditionalFormatting sqref="E86:G89">
     <cfRule type="cellIs" dxfId="39" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I3 G16 G18:G24 H29:I111 E61:G62 F63 G63:G64 F65:G65 E66:G66 F67:G67 E68:G68 G84 G100 E101:G101 D111:I111 E112:I176 D116">
+  <conditionalFormatting sqref="E3:I3 G16 G18:G24 H29:I112 E62:G63 F64 G64:G65 F66:G66 E67:G67 F68:G68 E69:G69 G85 G101 E102:G102 D112:I112 E113:I177 D117">
     <cfRule type="cellIs" dxfId="38" priority="322" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8524,12 +8553,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69:G69">
+  <conditionalFormatting sqref="F70:G70">
     <cfRule type="cellIs" dxfId="36" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73:G73">
+  <conditionalFormatting sqref="F74:G74">
     <cfRule type="cellIs" dxfId="35" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8539,7 +8568,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G13 D4:D16 H4:I27 A95:A98">
+  <conditionalFormatting sqref="G4:G13 D4:D16 H4:I27 A96:A99">
     <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8549,18 +8578,18 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G37">
+  <conditionalFormatting sqref="G29:G38">
     <cfRule type="cellIs" dxfId="31" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:G47 E48:G50 G51:G52 E52:F52 F53:G53 G54:G58 F59:G60">
+  <conditionalFormatting sqref="G43:G48 E49:G51 G52:G53 E53:F53 F54:G54 G55:G59 F60:G61">
     <cfRule type="cellIs" dxfId="30" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D111" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D112" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>
@@ -8571,7 +8600,7 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="124" max="18" man="1"/>
+    <brk id="125" max="18" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF54058-73D8-4087-857D-81EFD019F97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72527451-2DD0-4750-9E01-13FBBED69103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="174">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -547,6 +547,15 @@
   </si>
   <si>
     <t>Radservice CycleStore</t>
+  </si>
+  <si>
+    <t>tzgl 1.10.</t>
+  </si>
+  <si>
+    <t>tzgl Kürbisnacht</t>
+  </si>
+  <si>
+    <t>tzgl kürbisnacht</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1228,27 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4085,17 +4114,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="60">
+    <format dxfId="64">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4194,17 +4223,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="63">
+    <format dxfId="67">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5330,9 +5359,9 @@
   </sheetPr>
   <dimension ref="A1:IK178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5421,7 +5450,7 @@
         <v>274.78000000000003</v>
       </c>
       <c r="I3" s="14">
-        <v>949.25</v>
+        <v>949.24</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="3" t="s">
@@ -6795,14 +6824,22 @@
       <c r="K61" s="2"/>
     </row>
     <row r="62" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15"/>
+      <c r="A62" s="15">
+        <v>45575</v>
+      </c>
       <c r="B62" s="16">
         <v>56</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="19"/>
+      <c r="C62" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E62" s="17"/>
-      <c r="F62" s="18"/>
+      <c r="F62" s="18">
+        <v>110</v>
+      </c>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="19"/>
@@ -6810,14 +6847,22 @@
       <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="15"/>
+      <c r="A63" s="15">
+        <v>45579</v>
+      </c>
       <c r="B63" s="16">
         <v>57</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="19"/>
+      <c r="C63" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E63" s="17"/>
-      <c r="F63" s="18"/>
+      <c r="F63" s="18">
+        <v>159</v>
+      </c>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
       <c r="I63" s="19"/>
@@ -6825,13 +6870,22 @@
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
+      <c r="A64" s="15">
+        <v>45582</v>
+      </c>
       <c r="B64" s="52">
         <v>58</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="19"/>
-      <c r="F64" s="17"/>
+      <c r="C64" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="17"/>
+      <c r="F64" s="18">
+        <v>102</v>
+      </c>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
       <c r="I64" s="19"/>
@@ -6839,14 +6893,22 @@
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="15"/>
+      <c r="A65" s="15">
+        <v>45582</v>
+      </c>
       <c r="B65" s="52">
         <v>59</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="21"/>
+      <c r="C65" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="17"/>
+      <c r="F65" s="18">
+        <v>45</v>
+      </c>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
       <c r="I65" s="19"/>
@@ -7567,7 +7629,7 @@
       </c>
       <c r="F113" s="28">
         <f>SUM(F3:F112)</f>
-        <v>12262.750000000007</v>
+        <v>12678.750000000007</v>
       </c>
       <c r="G113" s="28">
         <f>SUM(G3:G112)</f>
@@ -7579,7 +7641,7 @@
       </c>
       <c r="I113" s="29">
         <f>SUM(I3:I112)</f>
-        <v>949.26</v>
+        <v>949.25</v>
       </c>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
@@ -7610,7 +7672,7 @@
       </c>
       <c r="F115" s="28">
         <f>F113+Ausgaben!G177</f>
-        <v>3059.6300000000138</v>
+        <v>3410.5800000000145</v>
       </c>
       <c r="G115" s="28">
         <f>G113+Ausgaben!H177</f>
@@ -7622,7 +7684,7 @@
       </c>
       <c r="I115" s="29">
         <f>I113+Ausgaben!J177</f>
-        <v>9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
@@ -7648,7 +7710,7 @@
       <c r="C117" s="24"/>
       <c r="D117" s="29">
         <f>SUM(E115:I115)</f>
-        <v>7938.140000000014</v>
+        <v>8289.0800000000145</v>
       </c>
       <c r="E117" s="17"/>
       <c r="F117" s="18"/>
@@ -8449,142 +8511,162 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A95:C95">
-    <cfRule type="cellIs" dxfId="57" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="160" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="56" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="174" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:D102">
-    <cfRule type="cellIs" dxfId="55" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D70">
-    <cfRule type="cellIs" dxfId="54" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73:D75">
-    <cfRule type="cellIs" dxfId="53" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85:D89">
-    <cfRule type="cellIs" dxfId="52" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:G17">
-    <cfRule type="cellIs" dxfId="51" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:G72 E73:G73 E75:G75 D76:G84">
-    <cfRule type="cellIs" dxfId="50" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:G100">
-    <cfRule type="cellIs" dxfId="49" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:G112">
-    <cfRule type="cellIs" dxfId="48" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="47" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:F21">
-    <cfRule type="cellIs" dxfId="46" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F38">
-    <cfRule type="cellIs" dxfId="45" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:F43">
-    <cfRule type="cellIs" dxfId="44" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:F47">
-    <cfRule type="cellIs" dxfId="43" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:F59">
-    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G15">
-    <cfRule type="cellIs" dxfId="41" priority="258" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="262" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:G42">
-    <cfRule type="cellIs" dxfId="40" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86:G89">
-    <cfRule type="cellIs" dxfId="39" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="161" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I3 G16 G18:G24 H29:I112 E62:G63 F64 G64:G65 F66:G66 E67:G67 F68:G68 E69:G69 G85 G101 E102:G102 D112:I112 E113:I177 D117">
-    <cfRule type="cellIs" dxfId="38" priority="322" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:I3 G16 G18:G24 H29:I112 F66:G66 E67:G67 F68:G68 E69:G69 G85 G101 E102:G102 D112:I112 E113:I177 D117 G62:G65">
+    <cfRule type="cellIs" dxfId="42" priority="326" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="37" priority="243" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="247" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70:G70">
-    <cfRule type="cellIs" dxfId="36" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:G74">
-    <cfRule type="cellIs" dxfId="35" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:I28">
-    <cfRule type="cellIs" dxfId="34" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G13 D4:D16 H4:I27 A96:A99">
-    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="32" priority="240" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="244" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G38">
-    <cfRule type="cellIs" dxfId="31" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:G48 E49:G51 G52:G53 E53:F53 F54:G54 G55:G59 F60:G61">
-    <cfRule type="cellIs" dxfId="30" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:F62">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63:F63">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:F64">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:F65">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8612,9 +8694,9 @@
   </sheetPr>
   <dimension ref="A1:IM243"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G131" sqref="G131"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11951,14 +12033,22 @@
     </row>
     <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="43"/>
-      <c r="B132" s="15"/>
+      <c r="B132" s="15">
+        <v>45579</v>
+      </c>
       <c r="C132" s="52">
         <v>128</v>
       </c>
-      <c r="D132" s="39"/>
-      <c r="E132" s="19"/>
+      <c r="D132" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F132" s="20"/>
-      <c r="G132" s="21"/>
+      <c r="G132" s="21">
+        <v>-34.729999999999997</v>
+      </c>
       <c r="H132" s="21"/>
       <c r="I132" s="21"/>
       <c r="J132" s="22"/>
@@ -11968,14 +12058,22 @@
     </row>
     <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="43"/>
-      <c r="B133" s="15"/>
+      <c r="B133" s="15">
+        <v>45580</v>
+      </c>
       <c r="C133" s="52">
         <v>129</v>
       </c>
-      <c r="D133" s="39"/>
-      <c r="E133" s="19"/>
+      <c r="D133" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E133" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F133" s="20"/>
-      <c r="G133" s="21"/>
+      <c r="G133" s="21">
+        <v>-18.36</v>
+      </c>
       <c r="H133" s="21"/>
       <c r="I133" s="21"/>
       <c r="J133" s="22"/>
@@ -11985,14 +12083,22 @@
     </row>
     <row r="134" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="43"/>
-      <c r="B134" s="15"/>
+      <c r="B134" s="15">
+        <v>45581</v>
+      </c>
       <c r="C134" s="52">
         <v>130</v>
       </c>
-      <c r="D134" s="3"/>
-      <c r="E134" s="23"/>
+      <c r="D134" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F134" s="20"/>
-      <c r="G134" s="21"/>
+      <c r="G134" s="21">
+        <v>-11.96</v>
+      </c>
       <c r="H134" s="21"/>
       <c r="I134" s="21"/>
       <c r="J134" s="22"/>
@@ -12680,7 +12786,7 @@
       </c>
       <c r="G177" s="34">
         <f>SUM(G3:G176)</f>
-        <v>-9203.1199999999935</v>
+        <v>-9268.1699999999928</v>
       </c>
       <c r="H177" s="34">
         <f>SUM(H3:H176)</f>
@@ -13672,160 +13778,160 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A241">
-    <cfRule type="cellIs" dxfId="29" priority="474" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="474" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129:B136">
-    <cfRule type="cellIs" dxfId="28" priority="468" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="468" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138:B142">
-    <cfRule type="cellIs" dxfId="27" priority="457" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="457" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:B163">
-    <cfRule type="cellIs" dxfId="26" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B166:B243">
-    <cfRule type="cellIs" dxfId="25" priority="420" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="420" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B154:C157">
-    <cfRule type="cellIs" dxfId="24" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:C165">
-    <cfRule type="cellIs" dxfId="23" priority="422" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="422" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D160">
-    <cfRule type="cellIs" dxfId="22" priority="434" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="434" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:E161">
-    <cfRule type="cellIs" dxfId="21" priority="431" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="431" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C166:C242 K178 J178:J241 I178:I243">
-    <cfRule type="cellIs" dxfId="20" priority="704" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="704" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162:E162">
-    <cfRule type="cellIs" dxfId="19" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D132:D133">
-    <cfRule type="cellIs" dxfId="18" priority="472" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D132">
+    <cfRule type="cellIs" dxfId="22" priority="472" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D148:D149">
-    <cfRule type="cellIs" dxfId="17" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D151:D152 C153:D153">
-    <cfRule type="cellIs" dxfId="16" priority="443" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="443" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D163:E170">
-    <cfRule type="cellIs" dxfId="15" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D178:H241">
-    <cfRule type="cellIs" dxfId="14" priority="656" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="656" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E160">
-    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171:E175 D176:E178">
-    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="11" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="10" priority="386" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="386" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:F64">
-    <cfRule type="cellIs" dxfId="7" priority="365" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="365" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:F68">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97:F98">
-    <cfRule type="cellIs" dxfId="5" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
-    <cfRule type="cellIs" dxfId="4" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F116">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137:F138">
-    <cfRule type="cellIs" dxfId="2" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F145:F147">
-    <cfRule type="cellIs" dxfId="1" priority="449" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="449" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F149:F150">
-    <cfRule type="cellIs" dxfId="0" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E154 E81:E82 E163:E167 E161 E159 E156:E157 E152 E148:E150 E146 E144 E125:E131 E122 E101:E118 E84:E99 E170:E176 E3:E79 E134:E142 E120" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E154 E81:E82 E163:E167 E161 E159 E156:E157 E152 E148:E150 E146 E144 E122 E101:E118 E84:E99 E170:E176 E3:E79 E120 E125:E142" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100 E83 E80 E168:E169 E162 E160 E158 E155 E153 E151 E147 E145 E143 E132:E133 E123:E124 E121 E119" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100 E83 E80 E168:E169 E162 E160 E158 E155 E153 E151 E147 E145 E143 E119 E123:E124 E121" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72527451-2DD0-4750-9E01-13FBBED69103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901E9E95-DCCE-434F-A0AE-BA1DD034FB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="181">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -556,6 +556,27 @@
   </si>
   <si>
     <t>tzgl kürbisnacht</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Spiesse, Wmarkt</t>
+  </si>
+  <si>
+    <t>Standgeld, Wmarkt</t>
+  </si>
+  <si>
+    <t>Wpäckle Taschen&amp;Co, W.Feier</t>
+  </si>
+  <si>
+    <t>SPD Miete oBeleg siehe aber E59</t>
+  </si>
+  <si>
+    <t>DNT Getränke</t>
+  </si>
+  <si>
+    <t>tombola, Wfeier</t>
   </si>
 </sst>
 </file>
@@ -1228,17 +1249,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="66">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4114,17 +4125,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="64">
+    <format dxfId="62">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4223,17 +4234,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="67">
+    <format dxfId="65">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5360,8 +5371,8 @@
   <dimension ref="A1:IK178"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6916,14 +6927,22 @@
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15"/>
+      <c r="A66" s="15">
+        <v>45596</v>
+      </c>
       <c r="B66" s="52">
         <v>60</v>
       </c>
-      <c r="C66" s="39"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="18"/>
+      <c r="C66" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="17"/>
+      <c r="F66" s="18">
+        <v>145</v>
+      </c>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
       <c r="I66" s="19"/>
@@ -6931,14 +6950,22 @@
       <c r="K66" s="2"/>
     </row>
     <row r="67" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
+      <c r="A67" s="15">
+        <v>45607</v>
+      </c>
       <c r="B67" s="52">
         <v>61</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="19"/>
+      <c r="C67" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E67" s="17"/>
-      <c r="F67" s="18"/>
+      <c r="F67" s="18">
+        <v>20</v>
+      </c>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
       <c r="I67" s="19"/>
@@ -6946,14 +6973,22 @@
       <c r="K67" s="2"/>
     </row>
     <row r="68" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15"/>
+      <c r="A68" s="15">
+        <v>45607</v>
+      </c>
       <c r="B68" s="52">
         <v>62</v>
       </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="18"/>
+      <c r="C68" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="17"/>
+      <c r="F68" s="18">
+        <v>68</v>
+      </c>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
       <c r="I68" s="19"/>
@@ -6961,14 +6996,22 @@
       <c r="K68" s="2"/>
     </row>
     <row r="69" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="15"/>
+      <c r="A69" s="15">
+        <v>45609</v>
+      </c>
       <c r="B69" s="16">
         <v>63</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="19"/>
+      <c r="C69" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E69" s="17"/>
-      <c r="F69" s="18"/>
+      <c r="F69" s="18">
+        <v>122</v>
+      </c>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
       <c r="I69" s="19"/>
@@ -7629,7 +7672,7 @@
       </c>
       <c r="F113" s="28">
         <f>SUM(F3:F112)</f>
-        <v>12678.750000000007</v>
+        <v>13033.750000000007</v>
       </c>
       <c r="G113" s="28">
         <f>SUM(G3:G112)</f>
@@ -7672,7 +7715,7 @@
       </c>
       <c r="F115" s="28">
         <f>F113+Ausgaben!G177</f>
-        <v>3410.5800000000145</v>
+        <v>3079.7500000000164</v>
       </c>
       <c r="G115" s="28">
         <f>G113+Ausgaben!H177</f>
@@ -7710,7 +7753,7 @@
       <c r="C117" s="24"/>
       <c r="D117" s="29">
         <f>SUM(E115:I115)</f>
-        <v>8289.0800000000145</v>
+        <v>7958.2500000000164</v>
       </c>
       <c r="E117" s="17"/>
       <c r="F117" s="18"/>
@@ -8511,161 +8554,156 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A95:C95">
-    <cfRule type="cellIs" dxfId="61" priority="160" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="60" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:D102">
-    <cfRule type="cellIs" dxfId="59" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D70">
-    <cfRule type="cellIs" dxfId="58" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73:D75">
-    <cfRule type="cellIs" dxfId="57" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85:D89">
-    <cfRule type="cellIs" dxfId="56" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:G17">
-    <cfRule type="cellIs" dxfId="55" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:G72 E73:G73 E75:G75 D76:G84">
-    <cfRule type="cellIs" dxfId="54" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:G100">
-    <cfRule type="cellIs" dxfId="53" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:G112">
-    <cfRule type="cellIs" dxfId="52" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="51" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:F21">
-    <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F38">
-    <cfRule type="cellIs" dxfId="49" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:F43">
-    <cfRule type="cellIs" dxfId="48" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:F47">
-    <cfRule type="cellIs" dxfId="47" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:F59">
-    <cfRule type="cellIs" dxfId="46" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G15">
-    <cfRule type="cellIs" dxfId="45" priority="262" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="265" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:G42">
-    <cfRule type="cellIs" dxfId="44" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:G67">
+    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86:G89">
-    <cfRule type="cellIs" dxfId="43" priority="161" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I3 G16 G18:G24 H29:I112 F66:G66 E67:G67 F68:G68 E69:G69 G85 G101 E102:G102 D112:I112 E113:I177 D117 G62:G65">
-    <cfRule type="cellIs" dxfId="42" priority="326" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:I3 G16 G18:G24 H29:I112 G68:G69 G85 G101 E102:G102 D112:I112 E113:I177 D117">
+    <cfRule type="cellIs" dxfId="39" priority="329" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="41" priority="247" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="250" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70:G70">
-    <cfRule type="cellIs" dxfId="40" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="193" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:G74">
-    <cfRule type="cellIs" dxfId="39" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:I28">
-    <cfRule type="cellIs" dxfId="38" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G13 D4:D16 H4:I27 A96:A99">
-    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="36" priority="244" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="247" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G38">
-    <cfRule type="cellIs" dxfId="35" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:G48 E49:G51 G52:G53 E53:F53 F54:G54 G55:G59 F60:G61">
-    <cfRule type="cellIs" dxfId="34" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62:F62">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63:F63">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:F64">
+  <conditionalFormatting sqref="E68:F68">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65:F65">
+  <conditionalFormatting sqref="E69:F69">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8695,8 +8733,8 @@
   <dimension ref="A1:IM243"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
+      <pane ySplit="2" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12108,14 +12146,22 @@
     </row>
     <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="43"/>
-      <c r="B135" s="15"/>
+      <c r="B135" s="15">
+        <v>45587</v>
+      </c>
       <c r="C135" s="52">
         <v>131</v>
       </c>
-      <c r="D135" s="54"/>
-      <c r="E135" s="23"/>
-      <c r="F135" s="55"/>
-      <c r="G135" s="21"/>
+      <c r="D135" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F135" s="20"/>
+      <c r="G135" s="21">
+        <v>-12.99</v>
+      </c>
       <c r="H135" s="21"/>
       <c r="I135" s="21"/>
       <c r="J135" s="22"/>
@@ -12125,14 +12171,22 @@
     </row>
     <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="43"/>
-      <c r="B136" s="15"/>
+      <c r="B136" s="15">
+        <v>45590</v>
+      </c>
       <c r="C136" s="52">
         <v>132</v>
       </c>
-      <c r="D136" s="3"/>
-      <c r="E136" s="23"/>
+      <c r="D136" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E136" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="F136" s="20"/>
-      <c r="G136" s="21"/>
+      <c r="G136" s="21">
+        <v>-10.15</v>
+      </c>
       <c r="H136" s="21"/>
       <c r="I136" s="21"/>
       <c r="J136" s="22"/>
@@ -12142,14 +12196,22 @@
     </row>
     <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="43"/>
-      <c r="B137" s="15"/>
+      <c r="B137" s="15">
+        <v>45593</v>
+      </c>
       <c r="C137" s="52">
         <v>133</v>
       </c>
-      <c r="D137" s="3"/>
-      <c r="E137" s="23"/>
-      <c r="F137" s="17"/>
-      <c r="G137" s="21"/>
+      <c r="D137" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E137" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F137" s="20"/>
+      <c r="G137" s="21">
+        <v>-21.01</v>
+      </c>
       <c r="H137" s="21"/>
       <c r="I137" s="21"/>
       <c r="J137" s="22"/>
@@ -12159,14 +12221,22 @@
     </row>
     <row r="138" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="43"/>
-      <c r="B138" s="15"/>
+      <c r="B138" s="15">
+        <v>45600</v>
+      </c>
       <c r="C138" s="52">
         <v>134</v>
       </c>
-      <c r="D138" s="3"/>
-      <c r="E138" s="23"/>
-      <c r="F138" s="17"/>
-      <c r="G138" s="21"/>
+      <c r="D138" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E138" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F138" s="20"/>
+      <c r="G138" s="21">
+        <v>-12</v>
+      </c>
       <c r="H138" s="21"/>
       <c r="I138" s="21"/>
       <c r="J138" s="22"/>
@@ -12176,14 +12246,22 @@
     </row>
     <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="43"/>
-      <c r="B139" s="15"/>
+      <c r="B139" s="15">
+        <v>45600</v>
+      </c>
       <c r="C139" s="52">
         <v>135</v>
       </c>
-      <c r="D139" s="3"/>
-      <c r="E139" s="23"/>
+      <c r="D139" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E139" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F139" s="20"/>
-      <c r="G139" s="21"/>
+      <c r="G139" s="21">
+        <v>-41.45</v>
+      </c>
       <c r="H139" s="21"/>
       <c r="I139" s="21"/>
       <c r="J139" s="22"/>
@@ -12193,14 +12271,22 @@
     </row>
     <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="43"/>
-      <c r="B140" s="15"/>
+      <c r="B140" s="15">
+        <v>45601</v>
+      </c>
       <c r="C140" s="52">
         <v>136</v>
       </c>
-      <c r="D140" s="3"/>
-      <c r="E140" s="23"/>
+      <c r="D140" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E140" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F140" s="20"/>
-      <c r="G140" s="21"/>
+      <c r="G140" s="21">
+        <v>-139</v>
+      </c>
       <c r="H140" s="21"/>
       <c r="I140" s="21"/>
       <c r="J140" s="22"/>
@@ -12210,14 +12296,22 @@
     </row>
     <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="43"/>
-      <c r="B141" s="15"/>
+      <c r="B141" s="15">
+        <v>45601</v>
+      </c>
       <c r="C141" s="52">
         <v>137</v>
       </c>
-      <c r="D141" s="3"/>
-      <c r="E141" s="23"/>
+      <c r="D141" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E141" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F141" s="20"/>
-      <c r="G141" s="21"/>
+      <c r="G141" s="21">
+        <v>-44</v>
+      </c>
       <c r="H141" s="21"/>
       <c r="I141" s="21"/>
       <c r="J141" s="22"/>
@@ -12227,14 +12321,22 @@
     </row>
     <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="43"/>
-      <c r="B142" s="15"/>
+      <c r="B142" s="15">
+        <v>45602</v>
+      </c>
       <c r="C142" s="52">
         <v>138</v>
       </c>
-      <c r="D142" s="3"/>
-      <c r="E142" s="23"/>
+      <c r="D142" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E142" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="F142" s="20"/>
-      <c r="G142" s="21"/>
+      <c r="G142" s="21">
+        <v>-11.99</v>
+      </c>
       <c r="H142" s="21"/>
       <c r="I142" s="21"/>
       <c r="J142" s="22"/>
@@ -12244,14 +12346,22 @@
     </row>
     <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="43"/>
-      <c r="B143" s="15"/>
+      <c r="B143" s="15">
+        <v>45607</v>
+      </c>
       <c r="C143" s="52">
         <v>139</v>
       </c>
-      <c r="D143" s="3"/>
-      <c r="E143" s="19"/>
+      <c r="D143" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E143" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="F143" s="20"/>
-      <c r="G143" s="21"/>
+      <c r="G143" s="21">
+        <v>-40</v>
+      </c>
       <c r="H143" s="21"/>
       <c r="I143" s="21"/>
       <c r="J143" s="22"/>
@@ -12261,14 +12371,22 @@
     </row>
     <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="43"/>
-      <c r="B144" s="15"/>
+      <c r="B144" s="15">
+        <v>45607</v>
+      </c>
       <c r="C144" s="52">
         <v>140</v>
       </c>
-      <c r="D144" s="3"/>
-      <c r="E144" s="23"/>
+      <c r="D144" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E144" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="F144" s="20"/>
-      <c r="G144" s="21"/>
+      <c r="G144" s="21">
+        <v>-315.8</v>
+      </c>
       <c r="H144" s="21"/>
       <c r="I144" s="21"/>
       <c r="J144" s="22"/>
@@ -12278,14 +12396,22 @@
     </row>
     <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="43"/>
-      <c r="B145" s="15"/>
+      <c r="B145" s="15">
+        <v>45610</v>
+      </c>
       <c r="C145" s="52">
         <v>141</v>
       </c>
-      <c r="D145" s="3"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="17"/>
-      <c r="G145" s="21"/>
+      <c r="D145" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F145" s="20"/>
+      <c r="G145" s="21">
+        <v>-15.96</v>
+      </c>
       <c r="H145" s="21"/>
       <c r="I145" s="21"/>
       <c r="J145" s="22"/>
@@ -12295,14 +12421,22 @@
     </row>
     <row r="146" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="43"/>
-      <c r="B146" s="15"/>
+      <c r="B146" s="15">
+        <v>45610</v>
+      </c>
       <c r="C146" s="52">
         <v>142</v>
       </c>
-      <c r="D146" s="3"/>
-      <c r="E146" s="23"/>
-      <c r="F146" s="17"/>
-      <c r="G146" s="21"/>
+      <c r="D146" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E146" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146" s="20"/>
+      <c r="G146" s="21">
+        <v>-21.48</v>
+      </c>
       <c r="H146" s="21"/>
       <c r="I146" s="21"/>
       <c r="J146" s="22"/>
@@ -12786,7 +12920,7 @@
       </c>
       <c r="G177" s="34">
         <f>SUM(G3:G176)</f>
-        <v>-9268.1699999999928</v>
+        <v>-9953.9999999999909</v>
       </c>
       <c r="H177" s="34">
         <f>SUM(H3:H176)</f>
@@ -13778,160 +13912,155 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A241">
-    <cfRule type="cellIs" dxfId="33" priority="474" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="474" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129:B136">
-    <cfRule type="cellIs" dxfId="32" priority="468" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="468" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138:B142">
-    <cfRule type="cellIs" dxfId="31" priority="457" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="457" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:B163">
-    <cfRule type="cellIs" dxfId="30" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B166:B243">
-    <cfRule type="cellIs" dxfId="29" priority="420" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="420" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B154:C157">
-    <cfRule type="cellIs" dxfId="28" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:C165">
-    <cfRule type="cellIs" dxfId="27" priority="422" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="422" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D160">
-    <cfRule type="cellIs" dxfId="26" priority="434" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="434" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:E161">
-    <cfRule type="cellIs" dxfId="25" priority="431" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="431" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C166:C242 K178 J178:J241 I178:I243">
-    <cfRule type="cellIs" dxfId="24" priority="704" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="704" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162:E162">
-    <cfRule type="cellIs" dxfId="23" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D132">
-    <cfRule type="cellIs" dxfId="22" priority="472" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="472" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D148:D149">
-    <cfRule type="cellIs" dxfId="21" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D151:D152 C153:D153">
-    <cfRule type="cellIs" dxfId="20" priority="443" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="443" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D163:E170">
-    <cfRule type="cellIs" dxfId="19" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D178:H241">
-    <cfRule type="cellIs" dxfId="18" priority="656" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="656" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E160">
-    <cfRule type="cellIs" dxfId="17" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171:E175 D176:E178">
-    <cfRule type="cellIs" dxfId="16" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="15" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="14" priority="386" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="386" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:F64">
-    <cfRule type="cellIs" dxfId="11" priority="365" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="365" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:F68">
-    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97:F98">
-    <cfRule type="cellIs" dxfId="9" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
-    <cfRule type="cellIs" dxfId="8" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F116">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F137:F138">
-    <cfRule type="cellIs" dxfId="6" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F145:F147">
-    <cfRule type="cellIs" dxfId="5" priority="449" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F147">
+    <cfRule type="cellIs" dxfId="3" priority="449" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F149:F150">
-    <cfRule type="cellIs" dxfId="4" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E154 E81:E82 E163:E167 E161 E159 E156:E157 E152 E148:E150 E146 E144 E122 E101:E118 E84:E99 E170:E176 E3:E79 E120 E125:E142" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E154 E81:E82 E163:E167 E161 E159 E156:E157 E152 E148:E150 E122 E101:E118 E84:E99 E170:E176 E3:E79 E120 E125:E146" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100 E83 E80 E168:E169 E162 E160 E158 E155 E153 E151 E147 E145 E143 E119 E123:E124 E121" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100 E83 E80 E168:E169 E162 E160 E158 E155 E153 E151 E147 E123:E124 E121 E119" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901E9E95-DCCE-434F-A0AE-BA1DD034FB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D5D149-35C9-4DF2-92C3-A90A189C73F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="183">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -577,6 +577,12 @@
   </si>
   <si>
     <t>tombola, Wfeier</t>
+  </si>
+  <si>
+    <t>Lampen</t>
+  </si>
+  <si>
+    <t>SPD Miete o Beleg</t>
   </si>
 </sst>
 </file>
@@ -1249,12 +1255,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="65">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4125,17 +4126,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="62">
+    <format dxfId="61">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4234,17 +4235,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="65">
+    <format dxfId="64">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5371,8 +5372,8 @@
   <dimension ref="A1:IK178"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <pane ySplit="2" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7019,14 +7020,22 @@
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="15"/>
+      <c r="A70" s="15">
+        <v>45614</v>
+      </c>
       <c r="B70" s="52">
         <v>64</v>
       </c>
-      <c r="C70" s="39"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="18"/>
+      <c r="C70" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="17"/>
+      <c r="F70" s="18">
+        <v>20</v>
+      </c>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
       <c r="I70" s="19"/>
@@ -7672,7 +7681,7 @@
       </c>
       <c r="F113" s="28">
         <f>SUM(F3:F112)</f>
-        <v>13033.750000000007</v>
+        <v>13053.750000000007</v>
       </c>
       <c r="G113" s="28">
         <f>SUM(G3:G112)</f>
@@ -7715,7 +7724,7 @@
       </c>
       <c r="F115" s="28">
         <f>F113+Ausgaben!G177</f>
-        <v>3079.7500000000164</v>
+        <v>2996.7500000000182</v>
       </c>
       <c r="G115" s="28">
         <f>G113+Ausgaben!H177</f>
@@ -7753,7 +7762,7 @@
       <c r="C117" s="24"/>
       <c r="D117" s="29">
         <f>SUM(E115:I115)</f>
-        <v>7958.2500000000164</v>
+        <v>7875.2500000000182</v>
       </c>
       <c r="E117" s="17"/>
       <c r="F117" s="18"/>
@@ -8554,156 +8563,151 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A95:C95">
-    <cfRule type="cellIs" dxfId="59" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="58" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:D102">
-    <cfRule type="cellIs" dxfId="57" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D70">
-    <cfRule type="cellIs" dxfId="56" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73:D75">
-    <cfRule type="cellIs" dxfId="55" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85:D89">
-    <cfRule type="cellIs" dxfId="54" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:G17">
-    <cfRule type="cellIs" dxfId="53" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:G72 E73:G73 E75:G75 D76:G84">
-    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:G100">
-    <cfRule type="cellIs" dxfId="51" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:G112">
-    <cfRule type="cellIs" dxfId="50" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="49" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:F21">
-    <cfRule type="cellIs" dxfId="48" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F38">
-    <cfRule type="cellIs" dxfId="47" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:F43">
-    <cfRule type="cellIs" dxfId="46" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:F47">
-    <cfRule type="cellIs" dxfId="45" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:F59">
-    <cfRule type="cellIs" dxfId="44" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G15">
-    <cfRule type="cellIs" dxfId="43" priority="265" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="266" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:G42">
-    <cfRule type="cellIs" dxfId="42" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62:G67">
-    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E62:G69">
+    <cfRule type="cellIs" dxfId="40" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86:G89">
-    <cfRule type="cellIs" dxfId="40" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I3 G16 G18:G24 H29:I112 G68:G69 G85 G101 E102:G102 D112:I112 E113:I177 D117">
-    <cfRule type="cellIs" dxfId="39" priority="329" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:I3 G16 G18:G24 H29:I112 G85 G101 E102:G102 D112:I112 E113:I177 D117">
+    <cfRule type="cellIs" dxfId="38" priority="330" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="38" priority="250" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="251" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70:G70">
-    <cfRule type="cellIs" dxfId="37" priority="193" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G70">
+    <cfRule type="cellIs" dxfId="36" priority="194" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:G74">
-    <cfRule type="cellIs" dxfId="36" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:I28">
-    <cfRule type="cellIs" dxfId="35" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G13 D4:D16 H4:I27 A96:A99">
-    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="33" priority="247" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="248" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G38">
-    <cfRule type="cellIs" dxfId="32" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:G48 E49:G51 G52:G53 E53:F53 F54:G54 G55:G59 F60:G61">
-    <cfRule type="cellIs" dxfId="31" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68:F68">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69:F69">
+  <conditionalFormatting sqref="E70:F70">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8734,7 +8738,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G147" sqref="G147"/>
+      <selection pane="bottomLeft" activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12446,14 +12450,22 @@
     </row>
     <row r="147" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="43"/>
-      <c r="B147" s="15"/>
+      <c r="B147" s="15">
+        <v>45611</v>
+      </c>
       <c r="C147" s="52">
         <v>143</v>
       </c>
-      <c r="D147" s="3"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="17"/>
-      <c r="G147" s="21"/>
+      <c r="D147" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E147" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F147" s="20"/>
+      <c r="G147" s="21">
+        <v>-58.55</v>
+      </c>
       <c r="H147" s="21"/>
       <c r="I147" s="21"/>
       <c r="J147" s="22"/>
@@ -12463,14 +12475,22 @@
     </row>
     <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="43"/>
-      <c r="B148" s="15"/>
+      <c r="B148" s="15">
+        <v>45616</v>
+      </c>
       <c r="C148" s="52">
         <v>144</v>
       </c>
-      <c r="D148" s="39"/>
-      <c r="E148" s="23"/>
+      <c r="D148" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F148" s="20"/>
-      <c r="G148" s="21"/>
+      <c r="G148" s="21">
+        <v>-31.46</v>
+      </c>
       <c r="H148" s="21"/>
       <c r="I148" s="21"/>
       <c r="J148" s="22"/>
@@ -12480,14 +12500,22 @@
     </row>
     <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="43"/>
-      <c r="B149" s="15"/>
+      <c r="B149" s="15">
+        <v>45617</v>
+      </c>
       <c r="C149" s="52">
         <v>145</v>
       </c>
-      <c r="D149" s="39"/>
-      <c r="E149" s="23"/>
-      <c r="F149" s="17"/>
-      <c r="G149" s="21"/>
+      <c r="D149" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F149" s="20"/>
+      <c r="G149" s="21">
+        <v>-12.99</v>
+      </c>
       <c r="H149" s="21"/>
       <c r="I149" s="21"/>
       <c r="J149" s="22"/>
@@ -12920,7 +12948,7 @@
       </c>
       <c r="G177" s="34">
         <f>SUM(G3:G176)</f>
-        <v>-9953.9999999999909</v>
+        <v>-10056.999999999989</v>
       </c>
       <c r="H177" s="34">
         <f>SUM(H3:H176)</f>
@@ -13912,155 +13940,150 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A241">
-    <cfRule type="cellIs" dxfId="30" priority="474" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="474" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129:B136">
-    <cfRule type="cellIs" dxfId="29" priority="468" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="468" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138:B142">
-    <cfRule type="cellIs" dxfId="28" priority="457" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="457" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:B163">
-    <cfRule type="cellIs" dxfId="27" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B166:B243">
-    <cfRule type="cellIs" dxfId="26" priority="420" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="420" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B154:C157">
-    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:C165">
-    <cfRule type="cellIs" dxfId="24" priority="422" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="422" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D160">
-    <cfRule type="cellIs" dxfId="23" priority="434" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="434" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:E161">
-    <cfRule type="cellIs" dxfId="22" priority="431" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="431" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C166:C242 K178 J178:J241 I178:I243">
-    <cfRule type="cellIs" dxfId="21" priority="704" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="704" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162:E162">
-    <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D132">
-    <cfRule type="cellIs" dxfId="19" priority="472" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="472" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D148:D149">
-    <cfRule type="cellIs" dxfId="18" priority="59" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D148">
+    <cfRule type="cellIs" dxfId="17" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D151:D152 C153:D153">
-    <cfRule type="cellIs" dxfId="17" priority="443" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="443" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D163:E170">
-    <cfRule type="cellIs" dxfId="16" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D178:H241">
-    <cfRule type="cellIs" dxfId="15" priority="656" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="656" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E160">
-    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171:E175 D176:E178">
-    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="12" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="11" priority="386" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="386" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:F64">
-    <cfRule type="cellIs" dxfId="8" priority="365" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="365" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:F68">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97:F98">
-    <cfRule type="cellIs" dxfId="6" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
-    <cfRule type="cellIs" dxfId="5" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F116">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="3" priority="449" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F149:F150">
-    <cfRule type="cellIs" dxfId="2" priority="16" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F150">
+    <cfRule type="cellIs" dxfId="1" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E154 E81:E82 E163:E167 E161 E159 E156:E157 E152 E148:E150 E122 E101:E118 E84:E99 E170:E176 E3:E79 E120 E125:E146" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E154 E81:E82 E163:E167 E161 E159 E156:E157 E152 E122 E101:E118 E84:E99 E170:E176 E3:E79 E120 E125:E150" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100 E83 E80 E168:E169 E162 E160 E158 E155 E153 E151 E147 E123:E124 E121 E119" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100 E83 E80 E168:E169 E162 E160 E158 E155 E153 E151 E119 E123:E124 E121" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D5D149-35C9-4DF2-92C3-A90A189C73F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809A4D93-016C-4C74-888A-D5DBCE74EC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$172</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$110</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$176</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$117</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="195">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -583,6 +583,42 @@
   </si>
   <si>
     <t>SPD Miete o Beleg</t>
+  </si>
+  <si>
+    <t>Tombola Apotheke</t>
+  </si>
+  <si>
+    <t>tzgl 26.11.</t>
+  </si>
+  <si>
+    <t>Elektro Raisch</t>
+  </si>
+  <si>
+    <t>Marshmallows</t>
+  </si>
+  <si>
+    <t>62b</t>
+  </si>
+  <si>
+    <t>DNT Miete</t>
+  </si>
+  <si>
+    <t>Einzahlung KSK</t>
+  </si>
+  <si>
+    <t>Spende Fam. Dautz</t>
+  </si>
+  <si>
+    <t>Porto Tzgl</t>
+  </si>
+  <si>
+    <t>W.Markt Glühwein</t>
+  </si>
+  <si>
+    <t>W.Markt</t>
+  </si>
+  <si>
+    <t>W.Päckle</t>
   </si>
 </sst>
 </file>
@@ -1255,12 +1291,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="64">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1778,7 +1809,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="45318.474550925923" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="108" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D2:I112" sheet="Einnahmen"/>
+    <worksheetSource ref="D2:I113" sheet="Einnahmen"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -4126,17 +4157,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="61">
+    <format dxfId="60">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4235,17 +4266,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="64">
+    <format dxfId="63">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5369,11 +5400,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:IK178"/>
+  <dimension ref="A1:IK179"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6998,43 +7029,43 @@
     </row>
     <row r="69" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
-        <v>45609</v>
-      </c>
-      <c r="B69" s="16">
-        <v>63</v>
-      </c>
-      <c r="C69" s="39" t="s">
-        <v>69</v>
+        <v>45608</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E69" s="17"/>
-      <c r="F69" s="18">
-        <v>122</v>
-      </c>
+      <c r="F69" s="18"/>
       <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
+      <c r="H69" s="18">
+        <v>30</v>
+      </c>
       <c r="I69" s="19"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
-        <v>45614</v>
-      </c>
-      <c r="B70" s="52">
-        <v>64</v>
+        <v>45609</v>
+      </c>
+      <c r="B70" s="16">
+        <v>63</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="D70" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E70" s="17"/>
       <c r="F70" s="18">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
@@ -7043,14 +7074,22 @@
       <c r="K70" s="2"/>
     </row>
     <row r="71" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16">
-        <v>65</v>
-      </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="19"/>
+      <c r="A71" s="15">
+        <v>45614</v>
+      </c>
+      <c r="B71" s="52">
+        <v>64</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E71" s="17"/>
-      <c r="F71" s="18"/>
+      <c r="F71" s="18">
+        <v>20</v>
+      </c>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
       <c r="I71" s="19"/>
@@ -7058,14 +7097,22 @@
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="15"/>
+      <c r="A72" s="15">
+        <v>45623</v>
+      </c>
       <c r="B72" s="16">
-        <v>66</v>
-      </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="19"/>
+        <v>65</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E72" s="17"/>
-      <c r="F72" s="18"/>
+      <c r="F72" s="18">
+        <v>56</v>
+      </c>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
       <c r="I72" s="19"/>
@@ -7073,14 +7120,22 @@
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="15"/>
+      <c r="A73" s="15">
+        <v>45625</v>
+      </c>
       <c r="B73" s="16">
-        <v>67</v>
-      </c>
-      <c r="C73" s="16"/>
-      <c r="D73" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E73" s="17"/>
-      <c r="F73" s="18"/>
+      <c r="F73" s="18">
+        <v>200</v>
+      </c>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
       <c r="I73" s="19"/>
@@ -7090,11 +7145,11 @@
     <row r="74" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="16">
-        <v>68</v>
-      </c>
-      <c r="C74" s="39"/>
+        <v>67</v>
+      </c>
+      <c r="C74" s="16"/>
       <c r="D74" s="19"/>
-      <c r="E74" s="20"/>
+      <c r="E74" s="17"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
@@ -7103,14 +7158,22 @@
       <c r="K74" s="2"/>
     </row>
     <row r="75" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15"/>
+      <c r="A75" s="15">
+        <v>45631</v>
+      </c>
       <c r="B75" s="16">
-        <v>69</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="20"/>
+      <c r="F75" s="18">
+        <v>0</v>
+      </c>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
       <c r="I75" s="19"/>
@@ -7118,14 +7181,22 @@
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="15"/>
+      <c r="A76" s="15">
+        <v>45637</v>
+      </c>
       <c r="B76" s="16">
-        <v>70</v>
-      </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="19"/>
+        <v>69</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E76" s="17"/>
-      <c r="F76" s="18"/>
+      <c r="F76" s="18">
+        <v>115</v>
+      </c>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
       <c r="I76" s="19"/>
@@ -7135,7 +7206,7 @@
     <row r="77" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="16">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="19"/>
@@ -7150,7 +7221,7 @@
     <row r="78" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="16">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="19"/>
@@ -7165,7 +7236,7 @@
     <row r="79" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="16">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C79" s="16"/>
       <c r="D79" s="19"/>
@@ -7180,7 +7251,7 @@
     <row r="80" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
       <c r="B80" s="16">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="19"/>
@@ -7195,7 +7266,7 @@
     <row r="81" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="16">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="19"/>
@@ -7210,9 +7281,9 @@
     <row r="82" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
       <c r="B82" s="16">
-        <v>76</v>
-      </c>
-      <c r="C82" s="39"/>
+        <v>75</v>
+      </c>
+      <c r="C82" s="16"/>
       <c r="D82" s="19"/>
       <c r="E82" s="17"/>
       <c r="F82" s="18"/>
@@ -7223,11 +7294,15 @@
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="15"/>
+      <c r="A83" s="15">
+        <v>45642</v>
+      </c>
       <c r="B83" s="16">
-        <v>77</v>
-      </c>
-      <c r="C83" s="16"/>
+        <v>76</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>189</v>
+      </c>
       <c r="D83" s="19"/>
       <c r="E83" s="17"/>
       <c r="F83" s="18"/>
@@ -7240,7 +7315,7 @@
     <row r="84" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
       <c r="B84" s="16">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="19"/>
@@ -7254,13 +7329,13 @@
     </row>
     <row r="85" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
-      <c r="B85" s="52">
-        <v>79</v>
-      </c>
-      <c r="C85" s="54"/>
+      <c r="B85" s="16">
+        <v>78</v>
+      </c>
+      <c r="C85" s="16"/>
       <c r="D85" s="19"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="21"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="18"/>
       <c r="G85" s="18"/>
       <c r="H85" s="18"/>
       <c r="I85" s="19"/>
@@ -7269,13 +7344,13 @@
     </row>
     <row r="86" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15"/>
-      <c r="B86" s="16">
-        <v>80</v>
-      </c>
-      <c r="C86" s="3"/>
+      <c r="B86" s="52">
+        <v>79</v>
+      </c>
+      <c r="C86" s="54"/>
       <c r="D86" s="19"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="18"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="21"/>
       <c r="G86" s="18"/>
       <c r="H86" s="18"/>
       <c r="I86" s="19"/>
@@ -7285,7 +7360,7 @@
     <row r="87" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="16">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="19"/>
@@ -7300,7 +7375,7 @@
     <row r="88" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="16">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="19"/>
@@ -7315,7 +7390,7 @@
     <row r="89" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="16">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="19"/>
@@ -7330,9 +7405,9 @@
     <row r="90" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="16">
-        <v>84</v>
-      </c>
-      <c r="C90" s="16"/>
+        <v>83</v>
+      </c>
+      <c r="C90" s="3"/>
       <c r="D90" s="19"/>
       <c r="E90" s="17"/>
       <c r="F90" s="18"/>
@@ -7345,9 +7420,9 @@
     <row r="91" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="16">
-        <v>85</v>
-      </c>
-      <c r="C91" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C91" s="16"/>
       <c r="D91" s="19"/>
       <c r="E91" s="17"/>
       <c r="F91" s="18"/>
@@ -7360,7 +7435,7 @@
     <row r="92" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="16">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="19"/>
@@ -7375,7 +7450,7 @@
     <row r="93" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="16">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="19"/>
@@ -7390,7 +7465,7 @@
     <row r="94" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="16">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="19"/>
@@ -7404,10 +7479,10 @@
     </row>
     <row r="95" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
-      <c r="B95" s="52">
-        <v>89</v>
-      </c>
-      <c r="C95" s="39"/>
+      <c r="B95" s="16">
+        <v>88</v>
+      </c>
+      <c r="C95" s="3"/>
       <c r="D95" s="19"/>
       <c r="E95" s="17"/>
       <c r="F95" s="18"/>
@@ -7419,10 +7494,10 @@
     </row>
     <row r="96" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
-      <c r="B96" s="16">
-        <v>90</v>
-      </c>
-      <c r="C96" s="16"/>
+      <c r="B96" s="52">
+        <v>89</v>
+      </c>
+      <c r="C96" s="39"/>
       <c r="D96" s="19"/>
       <c r="E96" s="17"/>
       <c r="F96" s="18"/>
@@ -7435,7 +7510,7 @@
     <row r="97" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="16">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="19"/>
@@ -7450,7 +7525,7 @@
     <row r="98" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="16">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="16"/>
       <c r="D98" s="19"/>
@@ -7465,7 +7540,7 @@
     <row r="99" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15"/>
       <c r="B99" s="16">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C99" s="16"/>
       <c r="D99" s="19"/>
@@ -7480,7 +7555,7 @@
     <row r="100" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15"/>
       <c r="B100" s="16">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C100" s="16"/>
       <c r="D100" s="19"/>
@@ -7495,12 +7570,12 @@
     <row r="101" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15"/>
       <c r="B101" s="16">
-        <v>95</v>
-      </c>
-      <c r="C101" s="39"/>
+        <v>94</v>
+      </c>
+      <c r="C101" s="16"/>
       <c r="D101" s="19"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="18"/>
       <c r="G101" s="18"/>
       <c r="H101" s="18"/>
       <c r="I101" s="19"/>
@@ -7510,12 +7585,12 @@
     <row r="102" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15"/>
       <c r="B102" s="16">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C102" s="39"/>
       <c r="D102" s="19"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="18"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
       <c r="G102" s="18"/>
       <c r="H102" s="18"/>
       <c r="I102" s="19"/>
@@ -7525,9 +7600,9 @@
     <row r="103" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15"/>
       <c r="B103" s="16">
-        <v>97</v>
-      </c>
-      <c r="C103" s="16"/>
+        <v>96</v>
+      </c>
+      <c r="C103" s="39"/>
       <c r="D103" s="19"/>
       <c r="E103" s="17"/>
       <c r="F103" s="18"/>
@@ -7540,7 +7615,7 @@
     <row r="104" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="15"/>
       <c r="B104" s="16">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C104" s="16"/>
       <c r="D104" s="19"/>
@@ -7555,7 +7630,7 @@
     <row r="105" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="15"/>
       <c r="B105" s="16">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105" s="16"/>
       <c r="D105" s="19"/>
@@ -7570,7 +7645,7 @@
     <row r="106" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15"/>
       <c r="B106" s="16">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C106" s="16"/>
       <c r="D106" s="19"/>
@@ -7585,7 +7660,7 @@
     <row r="107" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="15"/>
       <c r="B107" s="16">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C107" s="16"/>
       <c r="D107" s="19"/>
@@ -7600,7 +7675,7 @@
     <row r="108" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15"/>
       <c r="B108" s="16">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C108" s="16"/>
       <c r="D108" s="19"/>
@@ -7615,7 +7690,7 @@
     <row r="109" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="15"/>
       <c r="B109" s="16">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C109" s="16"/>
       <c r="D109" s="19"/>
@@ -7629,7 +7704,9 @@
     </row>
     <row r="110" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="15"/>
-      <c r="B110" s="16"/>
+      <c r="B110" s="16">
+        <v>103</v>
+      </c>
       <c r="C110" s="16"/>
       <c r="D110" s="19"/>
       <c r="E110" s="17"/>
@@ -7663,121 +7740,121 @@
       <c r="G112" s="18"/>
       <c r="H112" s="18"/>
       <c r="I112" s="19"/>
-      <c r="J112" s="2" t="s">
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+    </row>
+    <row r="113" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="15"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K112" s="2"/>
-    </row>
-    <row r="113" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="24" t="s">
+      <c r="K113" s="2"/>
+    </row>
+    <row r="114" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B113" s="25"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="27">
-        <f>SUM(E3:E112)</f>
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="27">
+        <f>SUM(E3:E113)</f>
         <v>1799.6</v>
       </c>
-      <c r="F113" s="28">
-        <f>SUM(F3:F112)</f>
-        <v>13053.750000000007</v>
-      </c>
-      <c r="G113" s="28">
-        <f>SUM(G3:G112)</f>
+      <c r="F114" s="28">
+        <f>SUM(F3:F113)</f>
+        <v>13424.750000000007</v>
+      </c>
+      <c r="G114" s="28">
+        <f>SUM(G3:G113)</f>
         <v>2000.5</v>
       </c>
-      <c r="H113" s="28">
-        <f>SUM(H3:H112)</f>
-        <v>3048.6299999999997</v>
-      </c>
-      <c r="I113" s="29">
-        <f>SUM(I3:I112)</f>
+      <c r="H114" s="28">
+        <f>SUM(H3:H113)</f>
+        <v>3078.6299999999997</v>
+      </c>
+      <c r="I114" s="29">
+        <f>SUM(I3:I113)</f>
         <v>949.25</v>
       </c>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-    </row>
-    <row r="114" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="35"/>
-      <c r="B114" s="35"/>
-      <c r="C114" s="35"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="36"/>
-      <c r="G114" s="36"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="36"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
     <row r="115" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="48"/>
-      <c r="E115" s="28">
-        <f>E113+Ausgaben!F177</f>
-        <v>0</v>
-      </c>
-      <c r="F115" s="28">
-        <f>F113+Ausgaben!G177</f>
-        <v>2996.7500000000182</v>
-      </c>
-      <c r="G115" s="28">
-        <f>G113+Ausgaben!H177</f>
-        <v>2000.5</v>
-      </c>
-      <c r="H115" s="28">
-        <f>H113+Ausgaben!I177</f>
-        <v>2877.9999999999995</v>
-      </c>
-      <c r="I115" s="29">
-        <f>I113+Ausgaben!J177</f>
-        <v>0</v>
-      </c>
+      <c r="A115" s="35"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="36"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
     <row r="116" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="37"/>
-      <c r="B116" s="37"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
+      <c r="A116" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="25"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="48"/>
+      <c r="E116" s="28">
+        <f>E114+Ausgaben!F177</f>
+        <v>0</v>
+      </c>
+      <c r="F116" s="28">
+        <f>F114+Ausgaben!G177</f>
+        <v>2246.0500000000211</v>
+      </c>
+      <c r="G116" s="28">
+        <f>G114+Ausgaben!H177</f>
+        <v>2000.5</v>
+      </c>
+      <c r="H116" s="28">
+        <f>H114+Ausgaben!I177</f>
+        <v>2907.9999999999995</v>
+      </c>
+      <c r="I116" s="29">
+        <f>I114+Ausgaben!J177</f>
+        <v>0</v>
+      </c>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
     <row r="117" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="29">
-        <f>SUM(E115:I115)</f>
-        <v>7875.2500000000182</v>
-      </c>
-      <c r="E117" s="17"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18"/>
-      <c r="I117" s="18"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="37"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
     <row r="118" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="38"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="38"/>
-      <c r="D118" s="38"/>
-      <c r="E118" s="18"/>
+      <c r="A118" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" s="5"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="29">
+        <f>SUM(E116:I116)</f>
+        <v>7154.5500000000211</v>
+      </c>
+      <c r="E118" s="17"/>
       <c r="F118" s="18"/>
       <c r="G118" s="18"/>
       <c r="H118" s="18"/>
@@ -7786,12 +7863,10 @@
       <c r="K118" s="2"/>
     </row>
     <row r="119" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A119" s="38"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="38"/>
       <c r="E119" s="18"/>
       <c r="F119" s="18"/>
       <c r="G119" s="18"/>
@@ -7804,7 +7879,9 @@
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
+      <c r="D120" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E120" s="18"/>
       <c r="F120" s="18"/>
       <c r="G120" s="18"/>
@@ -8554,166 +8631,174 @@
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
     </row>
-    <row r="178" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="18"/>
+      <c r="G178" s="18"/>
+      <c r="H178" s="18"/>
+      <c r="I178" s="18"/>
+      <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
+    <row r="179" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K179" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:I109" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:I110" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A95:C95">
-    <cfRule type="cellIs" dxfId="58" priority="164" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A96:C96">
+    <cfRule type="cellIs" dxfId="57" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="57" priority="178" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B86">
+    <cfRule type="cellIs" dxfId="56" priority="179" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C101:D102">
-    <cfRule type="cellIs" dxfId="56" priority="31" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C102:D103">
+    <cfRule type="cellIs" dxfId="55" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D70">
-    <cfRule type="cellIs" dxfId="55" priority="13" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D18:D72">
+    <cfRule type="cellIs" dxfId="54" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73:D75">
-    <cfRule type="cellIs" dxfId="54" priority="46" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D74:D75">
+    <cfRule type="cellIs" dxfId="53" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D85:D89">
-    <cfRule type="cellIs" dxfId="53" priority="42" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D86:D90">
+    <cfRule type="cellIs" dxfId="52" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:G17">
-    <cfRule type="cellIs" dxfId="52" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71:G72 E73:G73 E75:G75 D76:G84">
-    <cfRule type="cellIs" dxfId="51" priority="50" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D73:G73 E74:G74 E76:G76 D77:G85">
+    <cfRule type="cellIs" dxfId="50" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D90:G100">
-    <cfRule type="cellIs" dxfId="50" priority="32" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D91:G101">
+    <cfRule type="cellIs" dxfId="49" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D103:G112">
-    <cfRule type="cellIs" dxfId="49" priority="29" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D104:G113">
+    <cfRule type="cellIs" dxfId="48" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="48" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:F21">
-    <cfRule type="cellIs" dxfId="47" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F38">
-    <cfRule type="cellIs" dxfId="46" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:F43">
-    <cfRule type="cellIs" dxfId="45" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:F47">
-    <cfRule type="cellIs" dxfId="44" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:F59">
-    <cfRule type="cellIs" dxfId="43" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G15">
-    <cfRule type="cellIs" dxfId="42" priority="266" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="267" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:G42">
-    <cfRule type="cellIs" dxfId="41" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62:G69">
-    <cfRule type="cellIs" dxfId="40" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E62:G72">
+    <cfRule type="cellIs" dxfId="39" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86:G89">
-    <cfRule type="cellIs" dxfId="39" priority="165" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E87:G90">
+    <cfRule type="cellIs" dxfId="38" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I3 G16 G18:G24 H29:I112 G85 G101 E102:G102 D112:I112 E113:I177 D117">
-    <cfRule type="cellIs" dxfId="38" priority="330" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:I3 G16 G18:G24 H29:I113 G86 G102 E103:G103 D113:I113 E114:I178 D118">
+    <cfRule type="cellIs" dxfId="37" priority="331" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="37" priority="251" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="252" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="cellIs" dxfId="36" priority="194" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74:G74">
-    <cfRule type="cellIs" dxfId="35" priority="48" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F75:G75">
+    <cfRule type="cellIs" dxfId="35" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:I28">
-    <cfRule type="cellIs" dxfId="34" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G13 D4:D16 H4:I27 A96:A99">
-    <cfRule type="cellIs" dxfId="33" priority="36" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G4:G13 D4:D16 H4:I27 A97:A100">
+    <cfRule type="cellIs" dxfId="33" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="32" priority="248" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="249" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G38">
-    <cfRule type="cellIs" dxfId="31" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:G48 E49:G51 G52:G53 E53:F53 F54:G54 G55:G59 F60:G61">
-    <cfRule type="cellIs" dxfId="30" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:F70">
+  <conditionalFormatting sqref="D76">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D112" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D113" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>
@@ -8724,7 +8809,7 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="125" max="18" man="1"/>
+    <brk id="126" max="18" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -8736,9 +8821,9 @@
   </sheetPr>
   <dimension ref="A1:IM243"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B150" sqref="B150"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G161" sqref="G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12524,14 +12609,22 @@
     </row>
     <row r="150" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="43"/>
-      <c r="B150" s="15"/>
+      <c r="B150" s="15">
+        <v>45623</v>
+      </c>
       <c r="C150" s="52">
         <v>146</v>
       </c>
-      <c r="D150" s="3"/>
-      <c r="E150" s="23"/>
+      <c r="D150" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E150" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F150" s="17"/>
-      <c r="G150" s="21"/>
+      <c r="G150" s="21">
+        <v>-324.63</v>
+      </c>
       <c r="H150" s="21"/>
       <c r="I150" s="21"/>
       <c r="J150" s="22"/>
@@ -12541,14 +12634,22 @@
     </row>
     <row r="151" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="43"/>
-      <c r="B151" s="15"/>
+      <c r="B151" s="15">
+        <v>45624</v>
+      </c>
       <c r="C151" s="52">
         <v>147</v>
       </c>
-      <c r="D151" s="39"/>
-      <c r="E151" s="19"/>
+      <c r="D151" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E151" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="F151" s="20"/>
-      <c r="G151" s="21"/>
+      <c r="G151" s="21">
+        <v>-28.13</v>
+      </c>
       <c r="H151" s="21"/>
       <c r="I151" s="21"/>
       <c r="J151" s="22"/>
@@ -12558,14 +12659,22 @@
     </row>
     <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="43"/>
-      <c r="B152" s="15"/>
+      <c r="B152" s="15">
+        <v>45628</v>
+      </c>
       <c r="C152" s="52">
         <v>148</v>
       </c>
-      <c r="D152" s="39"/>
-      <c r="E152" s="23"/>
+      <c r="D152" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E152" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F152" s="20"/>
-      <c r="G152" s="21"/>
+      <c r="G152" s="21">
+        <v>-22.95</v>
+      </c>
       <c r="H152" s="21"/>
       <c r="I152" s="21"/>
       <c r="J152" s="22"/>
@@ -12575,12 +12684,22 @@
     </row>
     <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="43"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="52"/>
-      <c r="D153" s="39"/>
-      <c r="E153" s="19"/>
+      <c r="B153" s="15">
+        <v>45628</v>
+      </c>
+      <c r="C153" s="52">
+        <v>148</v>
+      </c>
+      <c r="D153" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E153" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="F153" s="20"/>
-      <c r="G153" s="21"/>
+      <c r="G153" s="21">
+        <v>-37.799999999999997</v>
+      </c>
       <c r="H153" s="21"/>
       <c r="I153" s="21"/>
       <c r="J153" s="22"/>
@@ -12590,12 +12709,22 @@
     </row>
     <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="43"/>
-      <c r="B154" s="15"/>
-      <c r="C154" s="52"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="23"/>
+      <c r="B154" s="15">
+        <v>45628</v>
+      </c>
+      <c r="C154" s="52">
+        <v>149</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E154" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F154" s="20"/>
-      <c r="G154" s="21"/>
+      <c r="G154" s="21">
+        <v>-12</v>
+      </c>
       <c r="H154" s="21"/>
       <c r="I154" s="21"/>
       <c r="J154" s="22"/>
@@ -12605,12 +12734,22 @@
     </row>
     <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="43"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="52"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="19"/>
+      <c r="B155" s="15">
+        <v>45629</v>
+      </c>
+      <c r="C155" s="52">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="D155" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E155" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F155" s="20"/>
-      <c r="G155" s="21"/>
+      <c r="G155" s="21">
+        <v>-139</v>
+      </c>
       <c r="H155" s="21"/>
       <c r="I155" s="21"/>
       <c r="J155" s="22"/>
@@ -12620,12 +12759,22 @@
     </row>
     <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="43"/>
-      <c r="B156" s="15"/>
-      <c r="C156" s="52"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="23"/>
+      <c r="B156" s="15">
+        <v>45629</v>
+      </c>
+      <c r="C156" s="52">
+        <v>151</v>
+      </c>
+      <c r="D156" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E156" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F156" s="20"/>
-      <c r="G156" s="21"/>
+      <c r="G156" s="21">
+        <v>-44</v>
+      </c>
       <c r="H156" s="21"/>
       <c r="I156" s="21"/>
       <c r="J156" s="22"/>
@@ -12635,12 +12784,22 @@
     </row>
     <row r="157" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="43"/>
-      <c r="B157" s="15"/>
-      <c r="C157" s="52"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="23"/>
+      <c r="B157" s="15">
+        <v>45632</v>
+      </c>
+      <c r="C157" s="52">
+        <v>152</v>
+      </c>
+      <c r="D157" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F157" s="20"/>
-      <c r="G157" s="21"/>
+      <c r="G157" s="21">
+        <v>-10</v>
+      </c>
       <c r="H157" s="21"/>
       <c r="I157" s="21"/>
       <c r="J157" s="22"/>
@@ -12650,12 +12809,22 @@
     </row>
     <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="43"/>
-      <c r="B158" s="15"/>
-      <c r="C158" s="52"/>
-      <c r="D158" s="39"/>
-      <c r="E158" s="19"/>
+      <c r="B158" s="15">
+        <v>45635</v>
+      </c>
+      <c r="C158" s="52">
+        <v>153</v>
+      </c>
+      <c r="D158" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E158" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="F158" s="20"/>
-      <c r="G158" s="21"/>
+      <c r="G158" s="21">
+        <v>-37.31</v>
+      </c>
       <c r="H158" s="21"/>
       <c r="I158" s="21"/>
       <c r="J158" s="22"/>
@@ -12665,12 +12834,22 @@
     </row>
     <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="43"/>
-      <c r="B159" s="15"/>
-      <c r="C159" s="52"/>
-      <c r="D159" s="39"/>
-      <c r="E159" s="23"/>
+      <c r="B159" s="15">
+        <v>45637</v>
+      </c>
+      <c r="C159" s="52">
+        <v>154.03</v>
+      </c>
+      <c r="D159" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="E159" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="F159" s="20"/>
-      <c r="G159" s="21"/>
+      <c r="G159" s="21">
+        <v>-166.98</v>
+      </c>
       <c r="H159" s="21"/>
       <c r="I159" s="21"/>
       <c r="J159" s="22"/>
@@ -12680,12 +12859,22 @@
     </row>
     <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="43"/>
-      <c r="B160" s="15"/>
-      <c r="C160" s="52"/>
-      <c r="D160" s="39"/>
-      <c r="E160" s="19"/>
+      <c r="B160" s="15">
+        <v>45639</v>
+      </c>
+      <c r="C160" s="52">
+        <v>155.06</v>
+      </c>
+      <c r="D160" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E160" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="F160" s="20"/>
-      <c r="G160" s="21"/>
+      <c r="G160" s="21">
+        <v>-298.89999999999998</v>
+      </c>
       <c r="H160" s="21"/>
       <c r="I160" s="21"/>
       <c r="J160" s="22"/>
@@ -12696,7 +12885,9 @@
     <row r="161" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="43"/>
       <c r="B161" s="15"/>
-      <c r="C161" s="52"/>
+      <c r="C161" s="52">
+        <v>156.09</v>
+      </c>
       <c r="D161" s="39"/>
       <c r="E161" s="19"/>
       <c r="F161" s="20"/>
@@ -12711,7 +12902,9 @@
     <row r="162" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="43"/>
       <c r="B162" s="15"/>
-      <c r="C162" s="52"/>
+      <c r="C162" s="52">
+        <v>157.12</v>
+      </c>
       <c r="D162" s="39"/>
       <c r="E162" s="19"/>
       <c r="F162" s="20"/>
@@ -12726,7 +12919,9 @@
     <row r="163" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="43"/>
       <c r="B163" s="15"/>
-      <c r="C163" s="52"/>
+      <c r="C163" s="52">
+        <v>158.15</v>
+      </c>
       <c r="D163" s="39"/>
       <c r="E163" s="19"/>
       <c r="F163" s="20"/>
@@ -12741,7 +12936,9 @@
     <row r="164" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="43"/>
       <c r="B164" s="15"/>
-      <c r="C164" s="52"/>
+      <c r="C164" s="52">
+        <v>159.18</v>
+      </c>
       <c r="D164" s="39"/>
       <c r="E164" s="19"/>
       <c r="F164" s="20"/>
@@ -12756,7 +12953,9 @@
     <row r="165" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="43"/>
       <c r="B165" s="15"/>
-      <c r="C165" s="52"/>
+      <c r="C165" s="52">
+        <v>160.21</v>
+      </c>
       <c r="D165" s="39"/>
       <c r="E165" s="23"/>
       <c r="F165" s="21"/>
@@ -12771,7 +12970,9 @@
     <row r="166" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="43"/>
       <c r="B166" s="15"/>
-      <c r="C166" s="52"/>
+      <c r="C166" s="52">
+        <v>161.24</v>
+      </c>
       <c r="D166" s="39"/>
       <c r="E166" s="19"/>
       <c r="F166" s="20"/>
@@ -12786,7 +12987,9 @@
     <row r="167" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="43"/>
       <c r="B167" s="15"/>
-      <c r="C167" s="52"/>
+      <c r="C167" s="52">
+        <v>162.27000000000001</v>
+      </c>
       <c r="D167" s="39"/>
       <c r="E167" s="23"/>
       <c r="F167" s="20"/>
@@ -12801,7 +13004,9 @@
     <row r="168" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="43"/>
       <c r="B168" s="15"/>
-      <c r="C168" s="52"/>
+      <c r="C168" s="52">
+        <v>163.30000000000001</v>
+      </c>
       <c r="D168" s="39"/>
       <c r="E168" s="19"/>
       <c r="F168" s="20"/>
@@ -12816,7 +13021,9 @@
     <row r="169" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="43"/>
       <c r="B169" s="15"/>
-      <c r="C169" s="52"/>
+      <c r="C169" s="52">
+        <v>164.33</v>
+      </c>
       <c r="D169" s="39"/>
       <c r="E169" s="19"/>
       <c r="F169" s="20"/>
@@ -12831,7 +13038,9 @@
     <row r="170" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="43"/>
       <c r="B170" s="15"/>
-      <c r="C170" s="52"/>
+      <c r="C170" s="52">
+        <v>165.36</v>
+      </c>
       <c r="D170" s="39"/>
       <c r="E170" s="19"/>
       <c r="F170" s="20"/>
@@ -12846,7 +13055,9 @@
     <row r="171" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="43"/>
       <c r="B171" s="15"/>
-      <c r="C171" s="52"/>
+      <c r="C171" s="52">
+        <v>166.39</v>
+      </c>
       <c r="D171" s="16"/>
       <c r="E171" s="19"/>
       <c r="F171" s="20"/>
@@ -12861,7 +13072,9 @@
     <row r="172" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="43"/>
       <c r="B172" s="15"/>
-      <c r="C172" s="52"/>
+      <c r="C172" s="52">
+        <v>167.42</v>
+      </c>
       <c r="D172" s="16"/>
       <c r="E172" s="19"/>
       <c r="F172" s="20"/>
@@ -12876,7 +13089,9 @@
     <row r="173" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="43"/>
       <c r="B173" s="15"/>
-      <c r="C173" s="52"/>
+      <c r="C173" s="52">
+        <v>168.45</v>
+      </c>
       <c r="D173" s="16"/>
       <c r="E173" s="19"/>
       <c r="F173" s="20"/>
@@ -12891,7 +13106,9 @@
     <row r="174" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="43"/>
       <c r="B174" s="15"/>
-      <c r="C174" s="52"/>
+      <c r="C174" s="52">
+        <v>169.48</v>
+      </c>
       <c r="D174" s="16"/>
       <c r="E174" s="19"/>
       <c r="F174" s="20"/>
@@ -12906,7 +13123,9 @@
     <row r="175" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="43"/>
       <c r="B175" s="15"/>
-      <c r="C175" s="52"/>
+      <c r="C175" s="52">
+        <v>170.51</v>
+      </c>
       <c r="D175" s="16"/>
       <c r="E175" s="19"/>
       <c r="F175" s="20"/>
@@ -12948,7 +13167,7 @@
       </c>
       <c r="G177" s="34">
         <f>SUM(G3:G176)</f>
-        <v>-10056.999999999989</v>
+        <v>-11178.699999999986</v>
       </c>
       <c r="H177" s="34">
         <f>SUM(H3:H176)</f>
@@ -13940,150 +14159,155 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A241">
-    <cfRule type="cellIs" dxfId="29" priority="474" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="475" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129:B136">
-    <cfRule type="cellIs" dxfId="28" priority="468" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="469" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138:B142">
-    <cfRule type="cellIs" dxfId="27" priority="457" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="458" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:B163">
-    <cfRule type="cellIs" dxfId="26" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B166:B243">
-    <cfRule type="cellIs" dxfId="25" priority="420" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="421" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B154:C157">
-    <cfRule type="cellIs" dxfId="24" priority="15" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C154 B155:B157 C156 C158 C162 C166 C160 C164 C168 C170 C172 C174">
+    <cfRule type="cellIs" dxfId="24" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B164:C165">
-    <cfRule type="cellIs" dxfId="23" priority="422" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B164:B165">
+    <cfRule type="cellIs" dxfId="23" priority="423" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B158:D160">
-    <cfRule type="cellIs" dxfId="22" priority="434" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B158:B160 D158:D160">
+    <cfRule type="cellIs" dxfId="22" priority="435" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B161:E161">
-    <cfRule type="cellIs" dxfId="21" priority="431" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B161 D161:E161">
+    <cfRule type="cellIs" dxfId="21" priority="432" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C166:C242 K178 J178:J241 I178:I243">
-    <cfRule type="cellIs" dxfId="20" priority="704" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C176:C242 K178 J178:J241 I178:I243">
+    <cfRule type="cellIs" dxfId="20" priority="705" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C162:E162">
-    <cfRule type="cellIs" dxfId="19" priority="12" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D162:E162">
+    <cfRule type="cellIs" dxfId="19" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D132">
-    <cfRule type="cellIs" dxfId="18" priority="472" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="473" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D148">
-    <cfRule type="cellIs" dxfId="17" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D151:D152 C153:D153">
-    <cfRule type="cellIs" dxfId="16" priority="443" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D152:D153">
+    <cfRule type="cellIs" dxfId="16" priority="444" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D163:E170">
-    <cfRule type="cellIs" dxfId="15" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D178:H241">
-    <cfRule type="cellIs" dxfId="14" priority="656" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="657" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E160">
-    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171:E175 D176:E178">
-    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="11" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="183" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="10" priority="386" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="387" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:F64">
-    <cfRule type="cellIs" dxfId="7" priority="365" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="366" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:F68">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97:F98">
-    <cfRule type="cellIs" dxfId="5" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
-    <cfRule type="cellIs" dxfId="4" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F116">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F150">
-    <cfRule type="cellIs" dxfId="1" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D157">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E154 E81:E82 E163:E167 E161 E159 E156:E157 E152 E122 E101:E118 E84:E99 E170:E176 E3:E79 E120 E125:E150" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E81:E82 E163:E167 E122 E101:E118 E84:E99 E170:E176 E3:E79 E120 E125:E161" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100 E83 E80 E168:E169 E162 E160 E158 E155 E153 E151 E119 E123:E124 E121" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100 E83 E80 E168:E169 E162 E123:E124 E121 E119" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809A4D93-016C-4C74-888A-D5DBCE74EC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EA8604-2F72-48DD-AB8E-D1153DBAADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="209">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -603,9 +603,6 @@
     <t>DNT Miete</t>
   </si>
   <si>
-    <t>Einzahlung KSK</t>
-  </si>
-  <si>
     <t>Spende Fam. Dautz</t>
   </si>
   <si>
@@ -619,6 +616,51 @@
   </si>
   <si>
     <t>W.Päckle</t>
+  </si>
+  <si>
+    <t>Bargeldeinzahlung W.Markt W.feier</t>
+  </si>
+  <si>
+    <t>SPD Miete 7.12.</t>
+  </si>
+  <si>
+    <t>Druckerei Nitsch</t>
+  </si>
+  <si>
+    <t>Überweisung</t>
+  </si>
+  <si>
+    <t>Indvidualhilfe</t>
+  </si>
+  <si>
+    <t>W.feier Musikerheim</t>
+  </si>
+  <si>
+    <t>W.Paeckle Eine Welt Laden</t>
+  </si>
+  <si>
+    <t>Feuerwehr</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>Spende Haka</t>
+  </si>
+  <si>
+    <t>Spende Schwarz</t>
+  </si>
+  <si>
+    <t>Spende Edeka</t>
+  </si>
+  <si>
+    <t>Spende Früchtelädle</t>
+  </si>
+  <si>
+    <t>Spende Fam Heimann in der Bareinzahlung KSK</t>
+  </si>
+  <si>
+    <t>Spende Steibing</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1333,22 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4157,17 +4214,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="60">
+    <format dxfId="63">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4266,17 +4323,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="63">
+    <format dxfId="66">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5403,8 +5460,8 @@
   <dimension ref="A1:IK179"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7127,7 +7184,7 @@
         <v>66</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D73" s="19" t="s">
         <v>13</v>
@@ -7147,7 +7204,9 @@
       <c r="B74" s="16">
         <v>67</v>
       </c>
-      <c r="C74" s="16"/>
+      <c r="C74" s="16" t="s">
+        <v>202</v>
+      </c>
       <c r="D74" s="19"/>
       <c r="E74" s="17"/>
       <c r="F74" s="18"/>
@@ -7204,108 +7263,160 @@
       <c r="K76" s="2"/>
     </row>
     <row r="77" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="15"/>
+      <c r="A77" s="15">
+        <v>45642</v>
+      </c>
       <c r="B77" s="16">
         <v>70</v>
       </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="19"/>
+      <c r="C77" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="E77" s="17"/>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
+      <c r="H77" s="18">
+        <v>517.5</v>
+      </c>
       <c r="I77" s="19"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
     <row r="78" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="15"/>
+      <c r="A78" s="15">
+        <v>45642</v>
+      </c>
       <c r="B78" s="16">
         <v>71</v>
       </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="19"/>
+      <c r="C78" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="E78" s="17"/>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
+      <c r="H78" s="18">
+        <v>57.5</v>
+      </c>
       <c r="I78" s="19"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
     <row r="79" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="15"/>
+      <c r="A79" s="15">
+        <v>45642</v>
+      </c>
       <c r="B79" s="16">
         <v>72</v>
       </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="19"/>
+      <c r="C79" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="E79" s="17"/>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
+      <c r="H79" s="18">
+        <v>213</v>
+      </c>
       <c r="I79" s="19"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
     <row r="80" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15"/>
+      <c r="A80" s="15">
+        <v>45642</v>
+      </c>
       <c r="B80" s="16">
         <v>73</v>
       </c>
-      <c r="C80" s="16"/>
-      <c r="D80" s="19"/>
+      <c r="C80" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="E80" s="17"/>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
+      <c r="H80" s="18">
+        <v>177</v>
+      </c>
       <c r="I80" s="19"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
     <row r="81" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="15"/>
+      <c r="A81" s="15">
+        <v>45642</v>
+      </c>
       <c r="B81" s="16">
         <v>74</v>
       </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="19"/>
+      <c r="C81" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="E81" s="17"/>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
+      <c r="H81" s="18">
+        <v>100</v>
+      </c>
       <c r="I81" s="19"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
     <row r="82" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="15"/>
+      <c r="A82" s="15">
+        <v>45642</v>
+      </c>
       <c r="B82" s="16">
         <v>75</v>
       </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="19"/>
+      <c r="C82" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
+      <c r="H82" s="18">
+        <v>320</v>
+      </c>
       <c r="I82" s="19"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15">
-        <v>45642</v>
+        <v>45644</v>
       </c>
       <c r="B83" s="16">
         <v>76</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="D83" s="19"/>
+        <v>87</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="E83" s="17"/>
-      <c r="F83" s="18"/>
+      <c r="F83" s="18">
+        <v>57.57</v>
+      </c>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
       <c r="I83" s="19"/>
@@ -7313,29 +7424,45 @@
       <c r="K83" s="2"/>
     </row>
     <row r="84" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="15"/>
+      <c r="A84" s="15">
+        <v>45644</v>
+      </c>
       <c r="B84" s="16">
         <v>77</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="19"/>
+      <c r="C84" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E84" s="17"/>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
+      <c r="H84" s="18">
+        <v>30</v>
+      </c>
       <c r="I84" s="19"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
     <row r="85" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="15"/>
+      <c r="A85" s="15">
+        <v>45645</v>
+      </c>
       <c r="B85" s="16">
         <v>78</v>
       </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="19"/>
+      <c r="C85" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E85" s="17"/>
-      <c r="F85" s="18"/>
+      <c r="F85" s="18">
+        <v>4000</v>
+      </c>
       <c r="G85" s="18"/>
       <c r="H85" s="18"/>
       <c r="I85" s="19"/>
@@ -7343,12 +7470,18 @@
       <c r="K85" s="2"/>
     </row>
     <row r="86" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="15"/>
+      <c r="A86" s="15">
+        <v>45649</v>
+      </c>
       <c r="B86" s="52">
         <v>79</v>
       </c>
-      <c r="C86" s="54"/>
-      <c r="D86" s="19"/>
+      <c r="C86" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E86" s="55"/>
       <c r="F86" s="21"/>
       <c r="G86" s="18"/>
@@ -7358,12 +7491,18 @@
       <c r="K86" s="2"/>
     </row>
     <row r="87" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="15"/>
+      <c r="A87" s="15">
+        <v>45649</v>
+      </c>
       <c r="B87" s="16">
         <v>80</v>
       </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="19"/>
+      <c r="C87" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E87" s="17"/>
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
@@ -7373,12 +7512,18 @@
       <c r="K87" s="2"/>
     </row>
     <row r="88" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="15"/>
+      <c r="A88" s="15">
+        <v>45649</v>
+      </c>
       <c r="B88" s="16">
         <v>81</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="19"/>
+      <c r="C88" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E88" s="17"/>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
@@ -7388,12 +7533,18 @@
       <c r="K88" s="2"/>
     </row>
     <row r="89" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="15"/>
+      <c r="A89" s="15">
+        <v>45649</v>
+      </c>
       <c r="B89" s="16">
         <v>82</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="19"/>
+      <c r="C89" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E89" s="17"/>
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
@@ -7403,12 +7554,18 @@
       <c r="K89" s="2"/>
     </row>
     <row r="90" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="15"/>
+      <c r="A90" s="15">
+        <v>45649</v>
+      </c>
       <c r="B90" s="16">
         <v>83</v>
       </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="19"/>
+      <c r="C90" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E90" s="17"/>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
@@ -7418,12 +7575,18 @@
       <c r="K90" s="2"/>
     </row>
     <row r="91" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="15"/>
+      <c r="A91" s="15">
+        <v>45649</v>
+      </c>
       <c r="B91" s="16">
         <v>84</v>
       </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="19"/>
+      <c r="C91" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E91" s="17"/>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
@@ -7771,7 +7934,7 @@
       </c>
       <c r="F114" s="28">
         <f>SUM(F3:F113)</f>
-        <v>13424.750000000007</v>
+        <v>17482.320000000007</v>
       </c>
       <c r="G114" s="28">
         <f>SUM(G3:G113)</f>
@@ -7779,7 +7942,7 @@
       </c>
       <c r="H114" s="28">
         <f>SUM(H3:H113)</f>
-        <v>3078.6299999999997</v>
+        <v>4493.6299999999992</v>
       </c>
       <c r="I114" s="29">
         <f>SUM(I3:I113)</f>
@@ -7814,7 +7977,7 @@
       </c>
       <c r="F116" s="28">
         <f>F114+Ausgaben!G177</f>
-        <v>2246.0500000000211</v>
+        <v>2960.3600000000206</v>
       </c>
       <c r="G116" s="28">
         <f>G114+Ausgaben!H177</f>
@@ -7822,7 +7985,7 @@
       </c>
       <c r="H116" s="28">
         <f>H114+Ausgaben!I177</f>
-        <v>2907.9999999999995</v>
+        <v>322.99999999999909</v>
       </c>
       <c r="I116" s="29">
         <f>I114+Ausgaben!J177</f>
@@ -7852,7 +8015,7 @@
       <c r="C118" s="24"/>
       <c r="D118" s="29">
         <f>SUM(E116:I116)</f>
-        <v>7154.5500000000211</v>
+        <v>5283.8600000000197</v>
       </c>
       <c r="E118" s="17"/>
       <c r="F118" s="18"/>
@@ -8653,146 +8816,156 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A96:C96">
-    <cfRule type="cellIs" dxfId="57" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="cellIs" dxfId="56" priority="179" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102:D103">
-    <cfRule type="cellIs" dxfId="55" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D72">
-    <cfRule type="cellIs" dxfId="54" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74:D75">
-    <cfRule type="cellIs" dxfId="53" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86:D90">
-    <cfRule type="cellIs" dxfId="52" priority="43" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D74:D76">
+    <cfRule type="cellIs" dxfId="56" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:G17">
-    <cfRule type="cellIs" dxfId="51" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73:G73 E74:G74 E76:G76 D77:G85">
-    <cfRule type="cellIs" dxfId="50" priority="51" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D73:G73 E74:G74 E76:G76 D77:G83 G85">
+    <cfRule type="cellIs" dxfId="53" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D91:G101">
-    <cfRule type="cellIs" dxfId="49" priority="33" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D92:G101 E91:G91">
+    <cfRule type="cellIs" dxfId="52" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104:G113">
-    <cfRule type="cellIs" dxfId="48" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="47" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:F21">
-    <cfRule type="cellIs" dxfId="46" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F38">
-    <cfRule type="cellIs" dxfId="45" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:F43">
-    <cfRule type="cellIs" dxfId="44" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:F47">
-    <cfRule type="cellIs" dxfId="43" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:F59">
-    <cfRule type="cellIs" dxfId="42" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G15">
-    <cfRule type="cellIs" dxfId="41" priority="267" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:G42">
-    <cfRule type="cellIs" dxfId="40" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62:G72">
-    <cfRule type="cellIs" dxfId="39" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87:G90">
-    <cfRule type="cellIs" dxfId="38" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="171" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I3 G16 G18:G24 H29:I113 G86 G102 E103:G103 D113:I113 E114:I178 D118">
-    <cfRule type="cellIs" dxfId="37" priority="331" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:I3 G16 G18:G24 G86 G102 E103:G103 D113:I113 E114:I178 D118 H29:I113">
+    <cfRule type="cellIs" dxfId="40" priority="336" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="36" priority="252" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75:G75">
-    <cfRule type="cellIs" dxfId="35" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:I28">
-    <cfRule type="cellIs" dxfId="34" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G13 D4:D16 H4:I27 A97:A100">
-    <cfRule type="cellIs" dxfId="33" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="32" priority="249" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="254" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G38">
-    <cfRule type="cellIs" dxfId="31" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:G48 E49:G51 G52:G53 E53:F53 F54:G54 G55:G59 F60:G61">
-    <cfRule type="cellIs" dxfId="30" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
+  <conditionalFormatting sqref="E84:G84">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85:F85">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86:D91">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8822,8 +8995,8 @@
   <dimension ref="A1:IM243"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G161" sqref="G161"/>
+      <pane ySplit="2" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12666,7 +12839,7 @@
         <v>148</v>
       </c>
       <c r="D152" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E152" s="23" t="s">
         <v>0</v>
@@ -12691,7 +12864,7 @@
         <v>148</v>
       </c>
       <c r="D153" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E153" s="23" t="s">
         <v>20</v>
@@ -12816,7 +12989,7 @@
         <v>153</v>
       </c>
       <c r="D158" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E158" s="23" t="s">
         <v>19</v>
@@ -12841,7 +13014,7 @@
         <v>154.03</v>
       </c>
       <c r="D159" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E159" s="23" t="s">
         <v>19</v>
@@ -12866,7 +13039,7 @@
         <v>155.06</v>
       </c>
       <c r="D160" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E160" s="23" t="s">
         <v>19</v>
@@ -12884,14 +13057,22 @@
     </row>
     <row r="161" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="43"/>
-      <c r="B161" s="15"/>
+      <c r="B161" s="15">
+        <v>45643</v>
+      </c>
       <c r="C161" s="52">
         <v>156.09</v>
       </c>
-      <c r="D161" s="39"/>
-      <c r="E161" s="19"/>
+      <c r="D161" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E161" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="F161" s="20"/>
-      <c r="G161" s="21"/>
+      <c r="G161" s="21">
+        <v>-40.950000000000003</v>
+      </c>
       <c r="H161" s="21"/>
       <c r="I161" s="21"/>
       <c r="J161" s="22"/>
@@ -12901,14 +13082,22 @@
     </row>
     <row r="162" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="43"/>
-      <c r="B162" s="15"/>
+      <c r="B162" s="15">
+        <v>45643</v>
+      </c>
       <c r="C162" s="52">
         <v>157.12</v>
       </c>
-      <c r="D162" s="39"/>
-      <c r="E162" s="19"/>
+      <c r="D162" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="E162" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="F162" s="20"/>
-      <c r="G162" s="21"/>
+      <c r="G162" s="21">
+        <v>-1592.22</v>
+      </c>
       <c r="H162" s="21"/>
       <c r="I162" s="21"/>
       <c r="J162" s="22"/>
@@ -12918,14 +13107,22 @@
     </row>
     <row r="163" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="43"/>
-      <c r="B163" s="15"/>
+      <c r="B163" s="15">
+        <v>45644</v>
+      </c>
       <c r="C163" s="52">
         <v>158.15</v>
       </c>
-      <c r="D163" s="39"/>
-      <c r="E163" s="19"/>
+      <c r="D163" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E163" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="F163" s="20"/>
-      <c r="G163" s="21"/>
+      <c r="G163" s="21">
+        <v>-250</v>
+      </c>
       <c r="H163" s="21"/>
       <c r="I163" s="21"/>
       <c r="J163" s="22"/>
@@ -12935,16 +13132,24 @@
     </row>
     <row r="164" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="43"/>
-      <c r="B164" s="15"/>
+      <c r="B164" s="15">
+        <v>45645</v>
+      </c>
       <c r="C164" s="52">
         <v>159.18</v>
       </c>
-      <c r="D164" s="39"/>
-      <c r="E164" s="19"/>
+      <c r="D164" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="E164" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="F164" s="20"/>
       <c r="G164" s="21"/>
       <c r="H164" s="21"/>
-      <c r="I164" s="21"/>
+      <c r="I164" s="21">
+        <v>-4000</v>
+      </c>
       <c r="J164" s="22"/>
       <c r="K164" s="4"/>
       <c r="L164" s="2"/>
@@ -12952,14 +13157,22 @@
     </row>
     <row r="165" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="43"/>
-      <c r="B165" s="15"/>
+      <c r="B165" s="15">
+        <v>45645</v>
+      </c>
       <c r="C165" s="52">
         <v>160.21</v>
       </c>
-      <c r="D165" s="39"/>
-      <c r="E165" s="23"/>
+      <c r="D165" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E165" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
+      <c r="G165" s="21">
+        <v>-14</v>
+      </c>
       <c r="H165" s="21"/>
       <c r="I165" s="21"/>
       <c r="J165" s="22"/>
@@ -12969,14 +13182,22 @@
     </row>
     <row r="166" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="43"/>
-      <c r="B166" s="15"/>
+      <c r="B166" s="15">
+        <v>45645</v>
+      </c>
       <c r="C166" s="52">
         <v>161.24</v>
       </c>
-      <c r="D166" s="39"/>
-      <c r="E166" s="19"/>
+      <c r="D166" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E166" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="F166" s="20"/>
-      <c r="G166" s="21"/>
+      <c r="G166" s="21">
+        <v>-667</v>
+      </c>
       <c r="H166" s="21"/>
       <c r="I166" s="21"/>
       <c r="J166" s="22"/>
@@ -12986,14 +13207,22 @@
     </row>
     <row r="167" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="43"/>
-      <c r="B167" s="15"/>
+      <c r="B167" s="15">
+        <v>45646</v>
+      </c>
       <c r="C167" s="52">
         <v>162.27000000000001</v>
       </c>
-      <c r="D167" s="39"/>
-      <c r="E167" s="23"/>
+      <c r="D167" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="F167" s="20"/>
-      <c r="G167" s="21"/>
+      <c r="G167" s="21">
+        <v>-12.99</v>
+      </c>
       <c r="H167" s="21"/>
       <c r="I167" s="21"/>
       <c r="J167" s="22"/>
@@ -13003,14 +13232,22 @@
     </row>
     <row r="168" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="43"/>
-      <c r="B168" s="15"/>
+      <c r="B168" s="15">
+        <v>45649</v>
+      </c>
       <c r="C168" s="52">
         <v>163.30000000000001</v>
       </c>
-      <c r="D168" s="39"/>
-      <c r="E168" s="19"/>
+      <c r="D168" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="E168" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="F168" s="20"/>
-      <c r="G168" s="21"/>
+      <c r="G168" s="21">
+        <v>-466.1</v>
+      </c>
       <c r="H168" s="21"/>
       <c r="I168" s="21"/>
       <c r="J168" s="22"/>
@@ -13020,14 +13257,22 @@
     </row>
     <row r="169" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="43"/>
-      <c r="B169" s="15"/>
+      <c r="B169" s="15">
+        <v>45649</v>
+      </c>
       <c r="C169" s="52">
         <v>164.33</v>
       </c>
-      <c r="D169" s="39"/>
-      <c r="E169" s="19"/>
+      <c r="D169" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="F169" s="20"/>
-      <c r="G169" s="21"/>
+      <c r="G169" s="21">
+        <v>-200</v>
+      </c>
       <c r="H169" s="21"/>
       <c r="I169" s="21"/>
       <c r="J169" s="22"/>
@@ -13037,14 +13282,22 @@
     </row>
     <row r="170" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="43"/>
-      <c r="B170" s="15"/>
+      <c r="B170" s="15">
+        <v>45649</v>
+      </c>
       <c r="C170" s="52">
         <v>165.36</v>
       </c>
-      <c r="D170" s="39"/>
-      <c r="E170" s="19"/>
+      <c r="D170" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E170" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="F170" s="20"/>
-      <c r="G170" s="21"/>
+      <c r="G170" s="21">
+        <v>-100</v>
+      </c>
       <c r="H170" s="21"/>
       <c r="I170" s="21"/>
       <c r="J170" s="22"/>
@@ -13167,7 +13420,7 @@
       </c>
       <c r="G177" s="34">
         <f>SUM(G3:G176)</f>
-        <v>-11178.699999999986</v>
+        <v>-14521.959999999986</v>
       </c>
       <c r="H177" s="34">
         <f>SUM(H3:H176)</f>
@@ -13175,7 +13428,7 @@
       </c>
       <c r="I177" s="34">
         <f>SUM(I3:I176)</f>
-        <v>-170.63</v>
+        <v>-4170.63</v>
       </c>
       <c r="J177" s="47">
         <f>SUM(J3:J176)</f>
@@ -14159,155 +14412,150 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A241">
-    <cfRule type="cellIs" dxfId="29" priority="475" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="479" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129:B136">
-    <cfRule type="cellIs" dxfId="28" priority="469" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="473" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138:B142">
-    <cfRule type="cellIs" dxfId="27" priority="458" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="462" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B162:B163">
-    <cfRule type="cellIs" dxfId="26" priority="15" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B155:B243">
+    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166:B243">
-    <cfRule type="cellIs" dxfId="25" priority="421" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C154 B155:B157 C156 C158 C162 C166 C160 C164 C168 C170 C172 C174">
-    <cfRule type="cellIs" dxfId="24" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B164:B165">
-    <cfRule type="cellIs" dxfId="23" priority="423" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158:B160 D158:D160">
-    <cfRule type="cellIs" dxfId="22" priority="435" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161 D161:E161">
-    <cfRule type="cellIs" dxfId="21" priority="432" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C154 C156 C158 C160 C162 C164 C166 C168 C170 C172 C174">
+    <cfRule type="cellIs" dxfId="28" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C176:C242 K178 J178:J241 I178:I243">
-    <cfRule type="cellIs" dxfId="20" priority="705" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D162:E162">
-    <cfRule type="cellIs" dxfId="19" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="709" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D132">
-    <cfRule type="cellIs" dxfId="18" priority="473" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="477" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D148">
-    <cfRule type="cellIs" dxfId="17" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D152:D153">
-    <cfRule type="cellIs" dxfId="16" priority="444" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="448" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D163:E170">
-    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D157:D160">
+    <cfRule type="cellIs" dxfId="23" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161:D162 D163:E164 D165:D166 D168 D169:E169 D170">
+    <cfRule type="cellIs" dxfId="22" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D178:H241">
-    <cfRule type="cellIs" dxfId="14" priority="657" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="661" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E160">
-    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:E162">
+    <cfRule type="cellIs" dxfId="20" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171:E175 D176:E178">
-    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="11" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="187" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="10" priority="387" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="391" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:F64">
-    <cfRule type="cellIs" dxfId="7" priority="366" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="370" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:F68">
-    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97:F98">
-    <cfRule type="cellIs" dxfId="5" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
-    <cfRule type="cellIs" dxfId="4" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F116">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F150">
-    <cfRule type="cellIs" dxfId="2" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D157">
+  <conditionalFormatting sqref="E165:E166">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E167">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E168">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E170">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E81:E82 E163:E167 E122 E101:E118 E84:E99 E170:E176 E3:E79 E120 E125:E161" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E81:E82 E122 E101:E118 E84:E99 E3:E79 E120 E125:E176" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100 E83 E80 E168:E169 E162 E123:E124 E121 E119" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100 E83 E80 E121 E119 E123:E124" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EA8604-2F72-48DD-AB8E-D1153DBAADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA9F007-9554-4624-8AF5-7BDF4F41B96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="212">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -661,6 +661,15 @@
   </si>
   <si>
     <t>Spende Steibing</t>
+  </si>
+  <si>
+    <t>Spende E.Dolleschel</t>
+  </si>
+  <si>
+    <t>Voba Zinsen</t>
+  </si>
+  <si>
+    <t>Voba Steuer auf Zinsen</t>
   </si>
 </sst>
 </file>
@@ -1333,37 +1342,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="61">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4214,17 +4193,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="63">
+    <format dxfId="57">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4323,17 +4302,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="66">
+    <format dxfId="60">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5460,8 +5439,8 @@
   <dimension ref="A1:IK179"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <pane ySplit="2" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7596,14 +7575,22 @@
       <c r="K91" s="2"/>
     </row>
     <row r="92" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="15"/>
+      <c r="A92" s="15">
+        <v>45314</v>
+      </c>
       <c r="B92" s="16">
         <v>85</v>
       </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="19"/>
+      <c r="C92" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E92" s="17"/>
-      <c r="F92" s="18"/>
+      <c r="F92" s="18">
+        <v>50</v>
+      </c>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
       <c r="I92" s="19"/>
@@ -7611,14 +7598,22 @@
       <c r="K92" s="2"/>
     </row>
     <row r="93" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="15"/>
+      <c r="A93" s="15">
+        <v>45657</v>
+      </c>
       <c r="B93" s="16">
         <v>86</v>
       </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="19"/>
+      <c r="C93" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="E93" s="17"/>
-      <c r="F93" s="18"/>
+      <c r="F93" s="18">
+        <v>13.95</v>
+      </c>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
       <c r="I93" s="19"/>
@@ -7934,7 +7929,7 @@
       </c>
       <c r="F114" s="28">
         <f>SUM(F3:F113)</f>
-        <v>17482.320000000007</v>
+        <v>17546.270000000008</v>
       </c>
       <c r="G114" s="28">
         <f>SUM(G3:G113)</f>
@@ -7977,7 +7972,7 @@
       </c>
       <c r="F116" s="28">
         <f>F114+Ausgaben!G177</f>
-        <v>2960.3600000000206</v>
+        <v>3020.630000000021</v>
       </c>
       <c r="G116" s="28">
         <f>G114+Ausgaben!H177</f>
@@ -8015,7 +8010,7 @@
       <c r="C118" s="24"/>
       <c r="D118" s="29">
         <f>SUM(E116:I116)</f>
-        <v>5283.8600000000197</v>
+        <v>5344.1300000000201</v>
       </c>
       <c r="E118" s="17"/>
       <c r="F118" s="18"/>
@@ -8816,157 +8811,147 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A96:C96">
-    <cfRule type="cellIs" dxfId="60" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="cellIs" dxfId="59" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102:D103">
-    <cfRule type="cellIs" dxfId="58" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D72">
-    <cfRule type="cellIs" dxfId="57" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:D76">
-    <cfRule type="cellIs" dxfId="56" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86:D92">
+    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85:F85">
+    <cfRule type="cellIs" dxfId="48" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:G17">
-    <cfRule type="cellIs" dxfId="54" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73:G73 E74:G74 E76:G76 D77:G83 G85">
-    <cfRule type="cellIs" dxfId="53" priority="56" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D73:G73 E74:G74 E76:G76 G85:G86">
+    <cfRule type="cellIs" dxfId="46" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D92:G101 E91:G91">
-    <cfRule type="cellIs" dxfId="52" priority="38" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D77:G84">
+    <cfRule type="cellIs" dxfId="45" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104:G113">
-    <cfRule type="cellIs" dxfId="51" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="50" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:F21">
-    <cfRule type="cellIs" dxfId="49" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F38">
-    <cfRule type="cellIs" dxfId="48" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:F43">
-    <cfRule type="cellIs" dxfId="47" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:F47">
-    <cfRule type="cellIs" dxfId="46" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:F59">
-    <cfRule type="cellIs" dxfId="45" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G15">
-    <cfRule type="cellIs" dxfId="44" priority="272" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:G42">
-    <cfRule type="cellIs" dxfId="43" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62:G72">
-    <cfRule type="cellIs" dxfId="42" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87:G90">
-    <cfRule type="cellIs" dxfId="41" priority="171" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D93:G101 E87:G92">
+    <cfRule type="cellIs" dxfId="34" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I3 G16 G18:G24 G86 G102 E103:G103 D113:I113 E114:I178 D118 H29:I113">
-    <cfRule type="cellIs" dxfId="40" priority="336" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:I3 G16 G18:G24 H29:I113 G102 E103:G103 D113:I113 E114:I178 D118">
+    <cfRule type="cellIs" dxfId="33" priority="336" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="39" priority="257" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75:G75">
-    <cfRule type="cellIs" dxfId="38" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:I28">
-    <cfRule type="cellIs" dxfId="37" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G13 D4:D16 H4:I27 A97:A100">
-    <cfRule type="cellIs" dxfId="36" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="35" priority="254" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="254" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G38">
-    <cfRule type="cellIs" dxfId="34" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:G48 E49:G51 G52:G53 E53:F53 F54:G54 G55:G59 F60:G61">
-    <cfRule type="cellIs" dxfId="33" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84:G84">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85:F85">
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86:D91">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8995,8 +8980,8 @@
   <dimension ref="A1:IM243"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G171" sqref="G171"/>
+      <pane ySplit="2" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13307,14 +13292,22 @@
     </row>
     <row r="171" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="43"/>
-      <c r="B171" s="15"/>
+      <c r="B171" s="15">
+        <v>45657</v>
+      </c>
       <c r="C171" s="52">
         <v>166.39</v>
       </c>
-      <c r="D171" s="16"/>
-      <c r="E171" s="19"/>
+      <c r="D171" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E171" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="F171" s="20"/>
-      <c r="G171" s="21"/>
+      <c r="G171" s="21">
+        <v>-0.19</v>
+      </c>
       <c r="H171" s="21"/>
       <c r="I171" s="21"/>
       <c r="J171" s="22"/>
@@ -13324,14 +13317,22 @@
     </row>
     <row r="172" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="43"/>
-      <c r="B172" s="15"/>
+      <c r="B172" s="15">
+        <v>45657</v>
+      </c>
       <c r="C172" s="52">
         <v>167.42</v>
       </c>
-      <c r="D172" s="16"/>
-      <c r="E172" s="19"/>
+      <c r="D172" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E172" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="F172" s="20"/>
-      <c r="G172" s="21"/>
+      <c r="G172" s="21">
+        <v>-3.49</v>
+      </c>
       <c r="H172" s="21"/>
       <c r="I172" s="21"/>
       <c r="J172" s="22"/>
@@ -13420,7 +13421,7 @@
       </c>
       <c r="G177" s="34">
         <f>SUM(G3:G176)</f>
-        <v>-14521.959999999986</v>
+        <v>-14525.639999999987</v>
       </c>
       <c r="H177" s="34">
         <f>SUM(H3:H176)</f>
@@ -14412,142 +14413,132 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A241">
-    <cfRule type="cellIs" dxfId="32" priority="479" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="479" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129:B136">
-    <cfRule type="cellIs" dxfId="31" priority="473" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="473" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138:B142">
-    <cfRule type="cellIs" dxfId="30" priority="462" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="462" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:B243">
-    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C154 C156 C158 C160 C162 C164 C166 C168 C170 C172 C174">
-    <cfRule type="cellIs" dxfId="28" priority="20" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C154 C156 C158 C160 C162 C164 C166 C172 C174">
+    <cfRule type="cellIs" dxfId="21" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C176:C242 K178 J178:J241 I178:I243">
-    <cfRule type="cellIs" dxfId="27" priority="709" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="709" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D132">
-    <cfRule type="cellIs" dxfId="26" priority="477" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="477" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D148">
-    <cfRule type="cellIs" dxfId="25" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D152:D153">
-    <cfRule type="cellIs" dxfId="24" priority="448" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="448" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D157:D160">
-    <cfRule type="cellIs" dxfId="23" priority="5" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D157:D162">
+    <cfRule type="cellIs" dxfId="16" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D161:D162 D163:E164 D165:D166 D168 D169:E169 D170">
-    <cfRule type="cellIs" dxfId="22" priority="12" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D163:E164 D165:D166 C168:D168 D169:E169 C170:D170">
+    <cfRule type="cellIs" dxfId="15" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D176:E178">
+    <cfRule type="cellIs" dxfId="14" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D178:H241">
-    <cfRule type="cellIs" dxfId="21" priority="661" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="661" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E162">
-    <cfRule type="cellIs" dxfId="20" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E171:E175 D176:E178">
-    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E165:E168">
+    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E170:E175">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="18" priority="187" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="187" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="17" priority="391" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="391" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:F64">
-    <cfRule type="cellIs" dxfId="14" priority="370" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="370" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:F68">
-    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97:F98">
-    <cfRule type="cellIs" dxfId="12" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
-    <cfRule type="cellIs" dxfId="11" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F116">
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F150">
-    <cfRule type="cellIs" dxfId="9" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E165:E166">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E167">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
+++ b/2024/AWO_Einnahmen_Ausgaben_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA9F007-9554-4624-8AF5-7BDF4F41B96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4307F6D1-BE4D-4B95-95B4-CCE83F75EEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -18,15 +18,15 @@
     <sheet name="Gesamt" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$175</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$110</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$176</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="13" r:id="rId4"/>
+    <pivotCache cacheId="17" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1796,54 +1796,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="45318.474550578707" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="168" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="E2:J172" sheet="Ausgaben"/>
-  </cacheSource>
-  <cacheFields count="6">
-    <cacheField name="Zweck II" numFmtId="0">
-      <sharedItems containsBlank="1" count="13">
-        <s v="Sonstiges"/>
-        <s v="Spenden"/>
-        <s v="Nebenkosten"/>
-        <s v="T. z. g. Laune"/>
-        <s v="Jubiläen"/>
-        <s v="Büromaterial"/>
-        <s v="Bar- &amp; Kontobew."/>
-        <s v="Portoauslagen"/>
-        <s v="Weihnachtsfeier"/>
-        <s v="Versicherung" u="1"/>
-        <m u="1"/>
-        <s v="70erFeier" u="1"/>
-        <s v="Miete" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Barkasse" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-1380" maxValue="-6.5"/>
-    </cacheField>
-    <cacheField name="VOBA_x000a_630041008" numFmtId="166">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-568" maxValue="-0.85"/>
-    </cacheField>
-    <cacheField name="VOBA TgK 630041601" numFmtId="166">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="KSK_x000a_2029223" numFmtId="166">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-163.41" maxValue="-0.5"/>
-    </cacheField>
-    <cacheField name="KSK SpB 3001734183" numFmtId="166">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="45318.474550925923" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="108" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="45676.727118171293" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="111" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="D2:I113" sheet="Einnahmen"/>
   </cacheSource>
@@ -1851,12 +1804,12 @@
     <cacheField name="Zweck II" numFmtId="0">
       <sharedItems containsBlank="1" count="11">
         <m/>
+        <s v="T. z. g. Laune"/>
+        <s v="Zinsen"/>
         <s v="Spenden"/>
-        <s v="Zinsen"/>
-        <s v="T. z. g. Laune"/>
+        <s v="Bar- &amp; Kontobew."/>
+        <s v="Nebenkosten"/>
         <s v="Sonstiges"/>
-        <s v="Nebenkosten"/>
-        <s v="Bar- &amp; Kontobew."/>
         <s v="Beiträge an OV"/>
         <s v="Weihnachtsfeier"/>
         <s v="Mitgliedsbeitr. BV" u="1"/>
@@ -1864,16 +1817,16 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Barkasse" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="9.5" maxValue="1268.2"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1578.3"/>
     </cacheField>
     <cacheField name="VOBA_x000a_630041008" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="5456.2400000000052"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="5128.5200000000041"/>
     </cacheField>
     <cacheField name="VOBA TgK 630041601" numFmtId="165">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="2000.5" maxValue="2000.5"/>
     </cacheField>
     <cacheField name="KSK_x000a_2029223" numFmtId="165">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="440.04" maxValue="440.04"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="25" maxValue="1730"/>
     </cacheField>
     <cacheField name="KSK SpB 3001734183" numFmtId="165">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.01" maxValue="949.24"/>
@@ -1887,20 +1840,67 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="45676.727118518516" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="170" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="E2:J172" sheet="Ausgaben"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Zweck II" numFmtId="0">
+      <sharedItems containsBlank="1" count="13">
+        <s v="Sonstiges"/>
+        <s v="Nebenkosten"/>
+        <s v="Büromaterial"/>
+        <s v="Bar- &amp; Kontobew."/>
+        <s v="T. z. g. Laune"/>
+        <s v="Weihnachtsfeier"/>
+        <s v="Spenden"/>
+        <s v="Jubiläen"/>
+        <s v="Portoauslagen"/>
+        <s v="Versicherung" u="1"/>
+        <m u="1"/>
+        <s v="70erFeier" u="1"/>
+        <s v="Miete" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Barkasse" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-1730" maxValue="-69.599999999999994"/>
+    </cacheField>
+    <cacheField name="VOBA_x000a_630041008" numFmtId="166">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-1592.22" maxValue="-0.19"/>
+    </cacheField>
+    <cacheField name="VOBA TgK 630041601" numFmtId="166">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="KSK_x000a_2029223" numFmtId="166">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-4000" maxValue="-0.85"/>
+    </cacheField>
+    <cacheField name="KSK SpB 3001734183" numFmtId="166">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-949.25" maxValue="-949.25"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="168">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="111">
   <r>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-163.41"/>
-    <m/>
+    <n v="0"/>
+    <n v="5128.5200000000041"/>
+    <n v="2000.5"/>
+    <n v="274.78000000000003"/>
+    <n v="949.24"/>
   </r>
   <r>
     <x v="1"/>
     <m/>
-    <n v="-75"/>
+    <n v="86.5"/>
     <m/>
     <m/>
     <m/>
@@ -1908,7 +1908,95 @@
   <r>
     <x v="2"/>
     <m/>
-    <n v="-39.06"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0.01"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="720"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="949.25"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="100"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="80"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="300"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="25"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="1950"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="100"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <n v="5.95"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <n v="124.45"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="150"/>
     <m/>
     <m/>
     <m/>
@@ -1916,7 +2004,607 @@
   <r>
     <x v="2"/>
     <m/>
-    <n v="-22"/>
+    <n v="168.6"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="102"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="35"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+    <n v="31"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="70"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="110"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="3.92"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="105"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="76"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="107"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="39"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="10"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="35"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="120"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="50"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="112"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="108"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="118"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="10"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="9.14"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="50"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="109"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+    <n v="17.95"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="180"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1578.3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="41.3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1730"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="69.599999999999994"/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="1262.52"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+    <n v="160"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="75"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="47.5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="80"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="182"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="8.6999999999999993"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="110"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="159"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="102"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="45"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="145"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="68"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="30"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="122"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="56"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="200"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="115"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="517.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="57.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="213"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="177"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="100"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="320"/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="57.57"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="30"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="4000"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="50"/>
     <m/>
     <m/>
     <m/>
@@ -1924,79 +2612,7 @@
   <r>
     <x v="2"/>
     <m/>
-    <n v="-111"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-9.9600000000000009"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-18.36"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-41.72"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-8.49"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-32"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-171.49"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-12"/>
+    <n v="13.95"/>
     <m/>
     <m/>
     <m/>
@@ -2006,45 +2622,13 @@
     <m/>
     <m/>
     <m/>
-    <n v="-0.5"/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-22"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-11.81"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-26.26"/>
-    <m/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="0"/>
     <m/>
-    <n v="-563.20000000000005"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-3.38"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2052,7 +2636,7 @@
   <r>
     <x v="0"/>
     <m/>
-    <n v="-8.5"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2060,31 +2644,7 @@
   <r>
     <x v="0"/>
     <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-41.72"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-43.86"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-30"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2092,39 +2652,7 @@
   <r>
     <x v="0"/>
     <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-19.649999999999999"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="-300"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-23.2"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2132,63 +2660,7 @@
   <r>
     <x v="0"/>
     <m/>
-    <n v="-50"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-134"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-28"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-47.12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-20.61"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-13.39"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-41.72"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2196,15 +2668,7 @@
   <r>
     <x v="0"/>
     <m/>
-    <n v="-65"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-260"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2212,15 +2676,7 @@
   <r>
     <x v="0"/>
     <m/>
-    <n v="-11.31"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-25.57"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2228,31 +2684,7 @@
   <r>
     <x v="0"/>
     <m/>
-    <n v="-144.30000000000001"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-28"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-134"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2260,7 +2692,7 @@
   <r>
     <x v="0"/>
     <m/>
-    <n v="-71.59"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2268,39 +2700,7 @@
   <r>
     <x v="0"/>
     <m/>
-    <n v="-37.4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-18.36"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-41.72"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-56.1"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-5.94"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2308,63 +2708,7 @@
   <r>
     <x v="0"/>
     <m/>
-    <n v="-80"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-87.97"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-2.9"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-123.15"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-134"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-28"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <n v="-77.959999999999994"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2372,39 +2716,7 @@
   <r>
     <x v="0"/>
     <m/>
-    <n v="-60.5"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-44.64"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-13.75"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="-120"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-120"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2412,63 +2724,7 @@
   <r>
     <x v="0"/>
     <m/>
-    <n v="-27.36"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-79.900000000000006"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-9.3000000000000007"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-41.72"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-99.99"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-11.99"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="-40"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-20"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2476,151 +2732,7 @@
   <r>
     <x v="0"/>
     <m/>
-    <n v="-293.93"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <n v="-70.540000000000006"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-134"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-28"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-9.67"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-5.04"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-52.46"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-57.56"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-41.72"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-13.58"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-38.18"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-25.57"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-17.940000000000001"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-134"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-28"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-127.7"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2628,87 +2740,7 @@
   <r>
     <x v="0"/>
     <m/>
-    <n v="-45"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="-100"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-3.72"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-9.5"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-1.69"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-18.36"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="-1380"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-41.72"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-109.83"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="-129.71"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-536.29"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2718,220 +2750,12 @@
     <m/>
     <m/>
     <m/>
-    <n v="-1.35"/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-153.44999999999999"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-28"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-134"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="-50"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-376"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-10.23"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-44.41"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-134"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-28"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-18.510000000000002"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-45.9"/>
-    <m/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="0"/>
     <m/>
-    <n v="-47.33"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-11.96"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-35.51"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-0.85"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-25.57"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-440.95"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-86.48"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-134"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-28"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-19.7"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-16.920000000000002"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-25.98"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="-6.5"/>
     <m/>
     <m/>
     <m/>
@@ -2940,63 +2764,7 @@
   <r>
     <x v="0"/>
     <m/>
-    <n v="-102"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-18.36"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-45.9"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-54.28"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-28"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-134"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-32.65"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3004,230 +2772,6 @@
   <r>
     <x v="0"/>
     <m/>
-    <n v="-200"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-134.5"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-172.6"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-57.17"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-105"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-45.9"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <n v="-27.04"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-13.58"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <n v="-19.2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-22.47"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-68.36"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-134"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-28"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-37.6"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-259.25"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-36.840000000000003"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="-90"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-9.8699999999999992"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="-90"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="-90"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-45.9"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <n v="-478"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-98.41"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-50.12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-99.98"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <n v="-568"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="-800"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="-86"/>
     <m/>
     <m/>
     <m/>
@@ -3237,19 +2781,59 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="108">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="170">
   <r>
     <x v="0"/>
-    <n v="23.510000000000218"/>
-    <n v="5456.2400000000052"/>
-    <n v="2000.5"/>
-    <n v="440.04"/>
-    <n v="949.24"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="-167.43"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
     <m/>
-    <n v="100"/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-25.61"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-134"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-28"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-18.36"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-5.95"/>
     <m/>
     <m/>
     <m/>
@@ -3257,15 +2841,55 @@
   <r>
     <x v="2"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0.01"/>
+    <n v="-48.03"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
     <m/>
-    <n v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="-949.25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-745"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="-1.35"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-134"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-28"/>
     <m/>
     <m/>
     <m/>
@@ -3273,7 +2897,575 @@
   <r>
     <x v="4"/>
     <m/>
-    <n v="5.22"/>
+    <n v="-13"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-45.22"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-11.97"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <n v="-31.4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-6.76"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-9.01"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-139"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-44"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-46.36"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-111.94"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-60"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-3.12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-35.22"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-12.99"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-72.59"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-19.41"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-30.42"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-139"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-44"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-24.12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-11.66"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-18.36"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+    <n v="-90"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+    <n v="-200"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-36.47"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-12.99"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-26.46"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-69.87"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="-60"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-136.5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-27.31"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-139"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-44"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-9.76"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-3.52"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-60"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-14.7"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-34.700000000000003"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="-117"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-43.81"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+    <n v="-100"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-99.95"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-12.99"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-190.09"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+    <n v="-300"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+    <n v="-120"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-139"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-44"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-17.190000000000001"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-45.83"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-317.44"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-150"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-22.55"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-12.99"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="-58.66"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="-150"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="-127.5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-30.42"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="-38.840000000000003"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-17.95"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-17.95"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-139"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-44"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-6.9"/>
     <m/>
     <m/>
     <m/>
@@ -3281,15 +3473,47 @@
   <r>
     <x v="3"/>
     <m/>
-    <n v="115"/>
+    <n v="-180"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-165.08"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-23.99"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-18.36"/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="3"/>
-    <m/>
-    <n v="100"/>
+    <n v="-1730"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="-69.599999999999994"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3297,7 +3521,327 @@
   <r>
     <x v="1"/>
     <m/>
-    <n v="200"/>
+    <n v="-12.99"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-424.75"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-89.99"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-24.98"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-14.53"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="-1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-97.2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-44"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-139"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-380.34"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-6.98"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-12.99"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-17.77"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="-0.85"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-139"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-44"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-113.69"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-10"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-53.95"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-486.71"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="-33.22"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-130"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="-150"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-12.99"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="-192.47"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="-143"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-100"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-31.88"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-30.42"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-44"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-139"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-34.729999999999997"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-18.36"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-11.96"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-12.99"/>
     <m/>
     <m/>
     <m/>
@@ -3305,7 +3849,223 @@
   <r>
     <x v="5"/>
     <m/>
-    <n v="340.83"/>
+    <n v="-10.15"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-21.01"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-41.45"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-139"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-44"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <n v="-11.99"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <n v="-40"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <n v="-315.8"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-15.96"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <n v="-21.48"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-58.55"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-31.46"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-12.99"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-324.63"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <n v="-28.13"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-22.95"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <n v="-37.799999999999997"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-139"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-44"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-10"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <n v="-37.31"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <n v="-166.98"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <n v="-298.89999999999998"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <n v="-40.950000000000003"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="-1592.22"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+    <n v="-250"/>
     <m/>
     <m/>
     <m/>
@@ -3313,7 +4073,23 @@
   <r>
     <x v="3"/>
     <m/>
-    <n v="100"/>
+    <m/>
+    <m/>
+    <n v="-4000"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <n v="-14"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <n v="-667"/>
     <m/>
     <m/>
     <m/>
@@ -3321,7 +4097,7 @@
   <r>
     <x v="1"/>
     <m/>
-    <n v="970"/>
+    <n v="-12.99"/>
     <m/>
     <m/>
     <m/>
@@ -3329,751 +4105,23 @@
   <r>
     <x v="5"/>
     <m/>
-    <n v="52.44"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="210"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="450"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="115"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="85"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="40"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="75"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="120"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="10"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="100"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="30"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="16"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="60"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="25"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="85"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="110"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="94"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="2.1800000000000002"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="80"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="14.5"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="100"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="50"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="70"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="185"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="25"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="87"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="30"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="2.1800000000000002"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="83"/>
+    <n v="-466.1"/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="6"/>
-    <n v="100"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="82"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="9.5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1268.2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="1380"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="50"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <n v="1282.3800000000001"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="129.71"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="95"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="334.19"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="57.8"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <n v="45"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="15"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="120"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="98"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="110"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="250"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="120"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="6.5"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="25"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="271.55"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="106"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="116"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="50"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="200"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="95"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="94.2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="36"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="21"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="8"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="110"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="50"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="108"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="50"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="498"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="100"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="238"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="50"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="264.5"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="130"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <n v="7.25"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="24"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="800"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="10"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="86"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="8.5"/>
+    <m/>
+    <n v="-200"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <n v="-100"/>
     <m/>
     <m/>
     <m/>
@@ -4081,7 +4129,7 @@
   <r>
     <x v="0"/>
     <m/>
-    <m/>
+    <n v="-0.19"/>
     <m/>
     <m/>
     <m/>
@@ -4089,15 +4137,7 @@
   <r>
     <x v="0"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <n v="-3.49"/>
     <m/>
     <m/>
     <m/>
@@ -4106,24 +4146,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="14">
-        <item h="1" x="6"/>
+      <items count="12">
+        <item h="1" x="4"/>
+        <item x="7"/>
         <item x="5"/>
-        <item x="4"/>
-        <item m="1" x="12"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
         <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="11"/>
-        <item h="1" m="1" x="10"/>
-        <item x="7"/>
-        <item h="1" m="1" x="9"/>
+        <item m="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4136,12 +4174,15 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="8">
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -4153,13 +4194,7 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="11"/>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -4220,22 +4255,24 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="6"/>
+      <items count="14">
+        <item h="1" x="3"/>
+        <item x="2"/>
         <item x="7"/>
+        <item m="1" x="12"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="4"/>
         <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
+        <item m="1" x="11"/>
+        <item h="1" m="1" x="10"/>
         <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
+        <item h="1" m="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4248,15 +4285,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -4268,7 +4302,13 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -5438,9 +5478,9 @@
   </sheetPr>
   <dimension ref="A1:IK179"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F116" sqref="F116:I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6039,7 +6079,7 @@
         <v>87</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="21">
@@ -6499,7 +6539,7 @@
         <v>87</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="21">
@@ -6729,7 +6769,7 @@
         <v>139</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="18">
@@ -6890,7 +6930,7 @@
         <v>87</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="18">
@@ -7390,7 +7430,7 @@
         <v>87</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="18">
@@ -8910,7 +8950,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D93:G101 E87:G92">
+  <conditionalFormatting sqref="E87:G92 D93:G101">
     <cfRule type="cellIs" dxfId="34" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8979,9 +9019,9 @@
   </sheetPr>
   <dimension ref="A1:IM243"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B172" sqref="B172"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3:J173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14408,7 +14448,7 @@
       <c r="I243" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K172" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="B2:K175" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
@@ -14566,19 +14606,19 @@
   </sheetPr>
   <dimension ref="A1:IV281"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="56" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3" style="1" customWidth="1"/>
@@ -14725,14 +14765,14 @@
       </c>
       <c r="C4" s="74"/>
       <c r="D4" s="75">
-        <v>1334.63</v>
+        <v>1341.85</v>
       </c>
       <c r="E4" s="75"/>
       <c r="F4" s="75"/>
       <c r="G4" s="76"/>
       <c r="H4" s="61">
         <f t="shared" ref="H4:H9" si="0">SUM(C4:G4)</f>
-        <v>1334.63</v>
+        <v>1341.85</v>
       </c>
       <c r="I4" s="62" t="s">
         <v>27</v>
@@ -14800,14 +14840,14 @@
       </c>
       <c r="C5" s="77"/>
       <c r="D5" s="58">
-        <v>393.27</v>
+        <v>130.4</v>
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="58"/>
       <c r="G5" s="78"/>
       <c r="H5" s="61">
         <f t="shared" si="0"/>
-        <v>393.27</v>
+        <v>130.4</v>
       </c>
       <c r="I5" s="62" t="s">
         <v>22</v>
@@ -14875,14 +14915,14 @@
       </c>
       <c r="C6" s="77"/>
       <c r="D6" s="58">
-        <v>519.57999999999993</v>
+        <v>208.95</v>
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="58"/>
       <c r="G6" s="78"/>
       <c r="H6" s="61">
         <f t="shared" si="0"/>
-        <v>519.57999999999993</v>
+        <v>208.95</v>
       </c>
       <c r="I6" s="62" t="s">
         <v>14</v>
@@ -14949,17 +14989,17 @@
         <v>13</v>
       </c>
       <c r="C7" s="77">
-        <v>403</v>
+        <v>41.3</v>
       </c>
       <c r="D7" s="58">
-        <v>2599.19</v>
+        <v>3703</v>
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="58"/>
       <c r="G7" s="78"/>
       <c r="H7" s="61">
         <f t="shared" si="0"/>
-        <v>3002.19</v>
+        <v>3744.3</v>
       </c>
       <c r="I7" s="62" t="s">
         <v>13</v>
@@ -15026,17 +15066,19 @@
         <v>0</v>
       </c>
       <c r="C8" s="77">
-        <v>1277.7</v>
+        <v>1578.3</v>
       </c>
       <c r="D8" s="58">
-        <v>3880.55</v>
+        <v>2851</v>
       </c>
       <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
+      <c r="F8" s="58">
+        <v>85</v>
+      </c>
       <c r="G8" s="78"/>
       <c r="H8" s="61">
         <f t="shared" si="0"/>
-        <v>5158.25</v>
+        <v>4514.3</v>
       </c>
       <c r="I8" s="62" t="s">
         <v>0</v>
@@ -15102,18 +15144,16 @@
       <c r="B9" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="77">
-        <v>598</v>
-      </c>
-      <c r="D9" s="58">
-        <v>0</v>
-      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
+      <c r="F9" s="58">
+        <v>1385</v>
+      </c>
       <c r="G9" s="78"/>
       <c r="H9" s="61">
         <f t="shared" si="0"/>
-        <v>598</v>
+        <v>1385</v>
       </c>
       <c r="I9" s="62" t="s">
         <v>19</v>
@@ -15181,7 +15221,7 @@
       </c>
       <c r="C10" s="77"/>
       <c r="D10" s="58">
-        <v>118.5</v>
+        <v>182.54999999999998</v>
       </c>
       <c r="E10" s="58"/>
       <c r="F10" s="58"/>
@@ -15190,7 +15230,7 @@
       </c>
       <c r="H10" s="61">
         <f t="shared" ref="H10" si="1">SUM(C10:G10)</f>
-        <v>118.51</v>
+        <v>182.55999999999997</v>
       </c>
       <c r="I10" s="62" t="s">
         <v>25</v>
@@ -15257,19 +15297,21 @@
         <v>40</v>
       </c>
       <c r="C11" s="79">
-        <v>2278.6999999999998</v>
+        <v>1619.6</v>
       </c>
       <c r="D11" s="80">
-        <v>8845.7200000000012</v>
+        <v>8417.75</v>
       </c>
       <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
+      <c r="F11" s="80">
+        <v>1470</v>
+      </c>
       <c r="G11" s="81">
         <v>0.01</v>
       </c>
       <c r="H11" s="82">
         <f t="shared" ref="H11" si="2">SUM(C11:G11)</f>
-        <v>11124.430000000002</v>
+        <v>11507.36</v>
       </c>
       <c r="I11" s="83" t="s">
         <v>41</v>
@@ -15567,14 +15609,14 @@
       </c>
       <c r="C17" s="74"/>
       <c r="D17" s="75">
-        <v>-148.5</v>
+        <v>-120.62</v>
       </c>
       <c r="E17" s="75"/>
       <c r="F17" s="75"/>
       <c r="G17" s="76"/>
       <c r="H17" s="61">
         <f t="shared" ref="H17:H25" si="3">SUM(C17:G17)</f>
-        <v>-148.5</v>
+        <v>-120.62</v>
       </c>
       <c r="I17" s="62" t="s">
         <v>15</v>
@@ -15587,14 +15629,14 @@
       </c>
       <c r="C18" s="77"/>
       <c r="D18" s="58">
-        <v>-380.98</v>
+        <v>-2707.91</v>
       </c>
       <c r="E18" s="58"/>
       <c r="F18" s="58"/>
       <c r="G18" s="78"/>
       <c r="H18" s="61">
         <f t="shared" si="3"/>
-        <v>-380.98</v>
+        <v>-2707.91</v>
       </c>
       <c r="I18" s="62" t="s">
         <v>23</v>
@@ -15607,14 +15649,16 @@
       </c>
       <c r="C19" s="77"/>
       <c r="D19" s="58">
-        <v>-2980.8100000000009</v>
+        <v>-2767.4799999999991</v>
       </c>
       <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
+      <c r="F19" s="58">
+        <v>-1.35</v>
+      </c>
       <c r="G19" s="78"/>
       <c r="H19" s="61">
         <f t="shared" si="3"/>
-        <v>-2980.8100000000009</v>
+        <v>-2768.829999999999</v>
       </c>
       <c r="I19" s="62" t="s">
         <v>22</v>
@@ -15627,16 +15671,16 @@
       </c>
       <c r="C20" s="77"/>
       <c r="D20" s="58">
-        <v>-2384.2699999999995</v>
+        <v>-3136.85</v>
       </c>
       <c r="E20" s="58"/>
       <c r="F20" s="58">
-        <v>-165.26</v>
+        <v>-169.28</v>
       </c>
       <c r="G20" s="78"/>
       <c r="H20" s="61">
         <f t="shared" si="3"/>
-        <v>-2549.5299999999997</v>
+        <v>-3306.13</v>
       </c>
       <c r="I20" s="62" t="s">
         <v>14</v>
@@ -15649,14 +15693,14 @@
       </c>
       <c r="C21" s="77"/>
       <c r="D21" s="58">
-        <v>-855</v>
+        <v>-1310</v>
       </c>
       <c r="E21" s="58"/>
       <c r="F21" s="58"/>
       <c r="G21" s="78"/>
       <c r="H21" s="61">
         <f t="shared" si="3"/>
-        <v>-855</v>
+        <v>-1310</v>
       </c>
       <c r="I21" s="62" t="s">
         <v>13</v>
@@ -15669,14 +15713,14 @@
       </c>
       <c r="C22" s="77"/>
       <c r="D22" s="58">
-        <v>-3633.85</v>
+        <v>-2014.7900000000002</v>
       </c>
       <c r="E22" s="58"/>
       <c r="F22" s="58"/>
       <c r="G22" s="78"/>
       <c r="H22" s="61">
         <f t="shared" si="3"/>
-        <v>-3633.85</v>
+        <v>-2014.7900000000002</v>
       </c>
       <c r="I22" s="62" t="s">
         <v>0</v>
@@ -15689,14 +15733,14 @@
       </c>
       <c r="C23" s="77"/>
       <c r="D23" s="58">
-        <v>-1046</v>
+        <v>-2250.19</v>
       </c>
       <c r="E23" s="58"/>
       <c r="F23" s="58"/>
       <c r="G23" s="78"/>
       <c r="H23" s="61">
         <f t="shared" si="3"/>
-        <v>-1046</v>
+        <v>-2250.19</v>
       </c>
       <c r="I23" s="62" t="s">
         <v>19</v>
@@ -15709,14 +15753,14 @@
       </c>
       <c r="C24" s="77"/>
       <c r="D24" s="58">
-        <v>-46.239999999999995</v>
+        <v>-37.799999999999997</v>
       </c>
       <c r="E24" s="58"/>
       <c r="F24" s="58"/>
       <c r="G24" s="78"/>
       <c r="H24" s="61">
         <f t="shared" si="3"/>
-        <v>-46.239999999999995</v>
+        <v>-37.799999999999997</v>
       </c>
       <c r="I24" s="62" t="s">
         <v>20</v>
@@ -15729,16 +15773,16 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="80">
-        <v>-11475.65</v>
+        <v>-14345.64</v>
       </c>
       <c r="E25" s="80"/>
       <c r="F25" s="80">
-        <v>-165.26</v>
+        <v>-170.63</v>
       </c>
       <c r="G25" s="81"/>
       <c r="H25" s="82">
         <f t="shared" si="3"/>
-        <v>-11640.91</v>
+        <v>-14516.269999999999</v>
       </c>
       <c r="I25" s="83" t="s">
         <v>42</v>
